--- a/output-multi.xlsx
+++ b/output-multi.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI428"/>
+  <dimension ref="A1:AI430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -35274,219 +35274,219 @@
     <row r="394">
       <c r="A394" s="8" t="inlineStr">
         <is>
-          <t>augmxnt/shisa-gamma-7b-v1</t>
+          <t>shisa-ai/shisa-llama3-8b-v1</t>
         </is>
       </c>
       <c r="B394" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C394" s="10" t="n">
-        <v>6.1623</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C394" s="10" t="inlineStr"/>
       <c r="D394" s="10" t="n">
-        <v>6.1033</v>
+        <v>6.0711</v>
       </c>
       <c r="E394" s="9" t="n">
-        <v>5.795</v>
-      </c>
-      <c r="F394" s="9" t="n">
-        <v>5.7042</v>
-      </c>
+        <v>6.52</v>
+      </c>
+      <c r="F394" s="9" t="inlineStr"/>
       <c r="G394" s="9" t="n">
-        <v>7.1473</v>
+        <v>6.3684</v>
       </c>
       <c r="H394" s="9" t="n">
-        <v>5.7667</v>
-      </c>
-      <c r="I394" s="10" t="n">
-        <v>5.6774</v>
-      </c>
-      <c r="J394" s="9" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K394" s="9" t="n">
-        <v>5.4167</v>
-      </c>
-      <c r="L394" s="9" t="n">
-        <v>6.7647</v>
-      </c>
-      <c r="M394" s="9" t="n">
-        <v>5.2083</v>
-      </c>
+        <v>5.325</v>
+      </c>
+      <c r="I394" s="10" t="inlineStr"/>
+      <c r="J394" s="9" t="inlineStr"/>
+      <c r="K394" s="9" t="inlineStr"/>
+      <c r="L394" s="9" t="inlineStr"/>
+      <c r="M394" s="9" t="inlineStr"/>
       <c r="N394" s="10" t="n">
-        <v>5.8224</v>
+        <v>6.0711</v>
       </c>
       <c r="O394" s="9" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="P394" s="9" t="n">
-        <v>5.0167</v>
-      </c>
+        <v>6.52</v>
+      </c>
+      <c r="P394" s="9" t="inlineStr"/>
       <c r="Q394" s="9" t="n">
-        <v>6.8462</v>
+        <v>6.3684</v>
       </c>
       <c r="R394" s="9" t="n">
-        <v>5.4667</v>
+        <v>5.325</v>
       </c>
       <c r="S394" s="10" t="inlineStr"/>
       <c r="T394" s="9" t="inlineStr"/>
       <c r="U394" s="9" t="inlineStr"/>
       <c r="V394" s="9" t="inlineStr"/>
       <c r="W394" s="9" t="inlineStr"/>
-      <c r="X394" s="10" t="n">
-        <v>6.3448</v>
-      </c>
-      <c r="Y394" s="9" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="Z394" s="9" t="n">
-        <v>6.3667</v>
-      </c>
-      <c r="AA394" s="9" t="n">
-        <v>7.4242</v>
-      </c>
-      <c r="AB394" s="9" t="n">
-        <v>6.1083</v>
-      </c>
-      <c r="AC394" s="10" t="n">
-        <v>6.5237</v>
-      </c>
-      <c r="AD394" s="9" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="AE394" s="9" t="n">
-        <v>6.0167</v>
-      </c>
-      <c r="AF394" s="9" t="n">
-        <v>7.375</v>
-      </c>
-      <c r="AG394" s="9" t="n">
-        <v>6.2833</v>
-      </c>
-      <c r="AH394" s="11" t="n">
-        <v>0.0584</v>
-      </c>
+      <c r="X394" s="10" t="inlineStr"/>
+      <c r="Y394" s="9" t="inlineStr"/>
+      <c r="Z394" s="9" t="inlineStr"/>
+      <c r="AA394" s="9" t="inlineStr"/>
+      <c r="AB394" s="9" t="inlineStr"/>
+      <c r="AC394" s="10" t="inlineStr"/>
+      <c r="AD394" s="9" t="inlineStr"/>
+      <c r="AE394" s="9" t="inlineStr"/>
+      <c r="AF394" s="9" t="inlineStr"/>
+      <c r="AG394" s="9" t="inlineStr"/>
+      <c r="AH394" s="11" t="inlineStr"/>
       <c r="AI394" s="11" t="n">
-        <v>0.8663999999999999</v>
+        <v>0.8673</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-llama3-8b-v1</t>
-        </is>
-      </c>
-      <c r="B395" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C395" s="10" t="inlineStr"/>
-      <c r="D395" s="10" t="n">
-        <v>6.0711</v>
-      </c>
-      <c r="E395" s="9" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F395" s="9" t="inlineStr"/>
-      <c r="G395" s="9" t="n">
-        <v>6.3684</v>
-      </c>
-      <c r="H395" s="9" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="I395" s="10" t="inlineStr"/>
-      <c r="J395" s="9" t="inlineStr"/>
-      <c r="K395" s="9" t="inlineStr"/>
-      <c r="L395" s="9" t="inlineStr"/>
-      <c r="M395" s="9" t="inlineStr"/>
-      <c r="N395" s="10" t="n">
-        <v>6.0711</v>
-      </c>
-      <c r="O395" s="9" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="P395" s="9" t="inlineStr"/>
-      <c r="Q395" s="9" t="n">
-        <v>6.3684</v>
-      </c>
-      <c r="R395" s="9" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="S395" s="10" t="inlineStr"/>
-      <c r="T395" s="9" t="inlineStr"/>
-      <c r="U395" s="9" t="inlineStr"/>
-      <c r="V395" s="9" t="inlineStr"/>
-      <c r="W395" s="9" t="inlineStr"/>
-      <c r="X395" s="10" t="inlineStr"/>
-      <c r="Y395" s="9" t="inlineStr"/>
-      <c r="Z395" s="9" t="inlineStr"/>
-      <c r="AA395" s="9" t="inlineStr"/>
-      <c r="AB395" s="9" t="inlineStr"/>
-      <c r="AC395" s="10" t="inlineStr"/>
-      <c r="AD395" s="9" t="inlineStr"/>
-      <c r="AE395" s="9" t="inlineStr"/>
-      <c r="AF395" s="9" t="inlineStr"/>
-      <c r="AG395" s="9" t="inlineStr"/>
-      <c r="AH395" s="11" t="inlineStr"/>
-      <c r="AI395" s="11" t="n">
-        <v>0.8673</v>
+      <c r="A395" s="4" t="inlineStr">
+        <is>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
+        </is>
+      </c>
+      <c r="B395" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C395" s="6" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="D395" s="6" t="n">
+        <v>6.0698</v>
+      </c>
+      <c r="E395" s="5" t="n">
+        <v>6.575</v>
+      </c>
+      <c r="F395" s="5" t="n">
+        <v>7.6723</v>
+      </c>
+      <c r="G395" s="5" t="n">
+        <v>3.8732</v>
+      </c>
+      <c r="H395" s="5" t="n">
+        <v>6.1587</v>
+      </c>
+      <c r="I395" s="6" t="n">
+        <v>5.6177</v>
+      </c>
+      <c r="J395" s="5" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K395" s="5" t="n">
+        <v>6.7627</v>
+      </c>
+      <c r="L395" s="5" t="n">
+        <v>3.913</v>
+      </c>
+      <c r="M395" s="5" t="n">
+        <v>5.675</v>
+      </c>
+      <c r="N395" s="6" t="n">
+        <v>5.8329</v>
+      </c>
+      <c r="O395" s="5" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="P395" s="5" t="n">
+        <v>7.678</v>
+      </c>
+      <c r="Q395" s="5" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="R395" s="5" t="n">
+        <v>5.8487</v>
+      </c>
+      <c r="S395" s="6" t="inlineStr"/>
+      <c r="T395" s="5" t="inlineStr"/>
+      <c r="U395" s="5" t="inlineStr"/>
+      <c r="V395" s="5" t="inlineStr"/>
+      <c r="W395" s="5" t="inlineStr"/>
+      <c r="X395" s="6" t="n">
+        <v>5.8963</v>
+      </c>
+      <c r="Y395" s="5" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="Z395" s="5" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AA395" s="5" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="AB395" s="5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC395" s="6" t="n">
+        <v>6.9445</v>
+      </c>
+      <c r="AD395" s="5" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="AE395" s="5" t="n">
+        <v>8.283300000000001</v>
+      </c>
+      <c r="AF395" s="5" t="n">
+        <v>5.8462</v>
+      </c>
+      <c r="AG395" s="5" t="n">
+        <v>6.6083</v>
+      </c>
+      <c r="AH395" s="7" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="AI395" s="7" t="n">
+        <v>0.2184</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
+          <t>fireworks_ai/accounts/fireworks/models/llama-v3p1-8b-instruct</t>
         </is>
       </c>
       <c r="B396" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C396" s="6" t="n">
-        <v>6.132</v>
+        <v>6.241</v>
       </c>
       <c r="D396" s="6" t="n">
-        <v>6.0698</v>
+        <v>6.0664</v>
       </c>
       <c r="E396" s="5" t="n">
-        <v>6.575</v>
+        <v>5.975</v>
       </c>
       <c r="F396" s="5" t="n">
-        <v>7.6723</v>
+        <v>6.3671</v>
       </c>
       <c r="G396" s="5" t="n">
-        <v>3.8732</v>
+        <v>6.4685</v>
       </c>
       <c r="H396" s="5" t="n">
-        <v>6.1587</v>
+        <v>5.4551</v>
       </c>
       <c r="I396" s="6" t="n">
-        <v>5.6177</v>
+        <v>5.6942</v>
       </c>
       <c r="J396" s="5" t="n">
-        <v>6.12</v>
+        <v>5.48</v>
       </c>
       <c r="K396" s="5" t="n">
-        <v>6.7627</v>
+        <v>6.1</v>
       </c>
       <c r="L396" s="5" t="n">
-        <v>3.913</v>
+        <v>6.28</v>
       </c>
       <c r="M396" s="5" t="n">
-        <v>5.675</v>
+        <v>4.9167</v>
       </c>
       <c r="N396" s="6" t="n">
-        <v>5.8329</v>
+        <v>5.354</v>
       </c>
       <c r="O396" s="5" t="n">
-        <v>6.68</v>
+        <v>6.14</v>
       </c>
       <c r="P396" s="5" t="n">
-        <v>7.678</v>
+        <v>5.3509</v>
       </c>
       <c r="Q396" s="5" t="n">
-        <v>3.125</v>
+        <v>5</v>
       </c>
       <c r="R396" s="5" t="n">
-        <v>5.8487</v>
+        <v>4.925</v>
       </c>
       <c r="S396" s="6" t="inlineStr"/>
       <c r="T396" s="5" t="inlineStr"/>
@@ -35494,98 +35494,98 @@
       <c r="V396" s="5" t="inlineStr"/>
       <c r="W396" s="5" t="inlineStr"/>
       <c r="X396" s="6" t="n">
-        <v>5.8963</v>
+        <v>6.6332</v>
       </c>
       <c r="Y396" s="5" t="n">
-        <v>6.46</v>
+        <v>5.7</v>
       </c>
       <c r="Z396" s="5" t="n">
-        <v>7.95</v>
+        <v>7.2333</v>
       </c>
       <c r="AA396" s="5" t="n">
-        <v>2.675</v>
+        <v>7.6579</v>
       </c>
       <c r="AB396" s="5" t="n">
-        <v>6.5</v>
+        <v>5.9417</v>
       </c>
       <c r="AC396" s="6" t="n">
-        <v>6.9445</v>
+        <v>6.5701</v>
       </c>
       <c r="AD396" s="5" t="n">
-        <v>7.04</v>
+        <v>6.58</v>
       </c>
       <c r="AE396" s="5" t="n">
-        <v>8.283300000000001</v>
+        <v>6.7333</v>
       </c>
       <c r="AF396" s="5" t="n">
-        <v>5.8462</v>
+        <v>6.925</v>
       </c>
       <c r="AG396" s="5" t="n">
-        <v>6.6083</v>
+        <v>6.042</v>
       </c>
       <c r="AH396" s="7" t="n">
-        <v>0.0513</v>
+        <v>0.1657</v>
       </c>
       <c r="AI396" s="7" t="n">
-        <v>0.2184</v>
+        <v>0.8734</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="4" t="inlineStr">
         <is>
-          <t>fireworks_ai/accounts/fireworks/models/llama-v3p1-8b-instruct</t>
+          <t>elyza/ELYZA-japanese-Llama-2-13b-instruct</t>
         </is>
       </c>
       <c r="B397" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C397" s="6" t="n">
-        <v>6.241</v>
+        <v>6.1926</v>
       </c>
       <c r="D397" s="6" t="n">
-        <v>6.0664</v>
+        <v>6.011</v>
       </c>
       <c r="E397" s="5" t="n">
-        <v>5.975</v>
+        <v>5.6583</v>
       </c>
       <c r="F397" s="5" t="n">
-        <v>6.3671</v>
+        <v>5.3312</v>
       </c>
       <c r="G397" s="5" t="n">
-        <v>6.4685</v>
+        <v>7.0857</v>
       </c>
       <c r="H397" s="5" t="n">
-        <v>5.4551</v>
+        <v>5.9688</v>
       </c>
       <c r="I397" s="6" t="n">
-        <v>5.6942</v>
+        <v>5.5643</v>
       </c>
       <c r="J397" s="5" t="n">
-        <v>5.48</v>
+        <v>5.02</v>
       </c>
       <c r="K397" s="5" t="n">
-        <v>6.1</v>
+        <v>5.225</v>
       </c>
       <c r="L397" s="5" t="n">
-        <v>6.28</v>
+        <v>6.6957</v>
       </c>
       <c r="M397" s="5" t="n">
-        <v>4.9167</v>
+        <v>5.3167</v>
       </c>
       <c r="N397" s="6" t="n">
-        <v>5.354</v>
+        <v>5.2635</v>
       </c>
       <c r="O397" s="5" t="n">
-        <v>6.14</v>
+        <v>5.6</v>
       </c>
       <c r="P397" s="5" t="n">
-        <v>5.3509</v>
+        <v>4.3125</v>
       </c>
       <c r="Q397" s="5" t="n">
-        <v>5</v>
+        <v>5.625</v>
       </c>
       <c r="R397" s="5" t="n">
-        <v>4.925</v>
+        <v>5.5167</v>
       </c>
       <c r="S397" s="6" t="inlineStr"/>
       <c r="T397" s="5" t="inlineStr"/>
@@ -35593,390 +35593,400 @@
       <c r="V397" s="5" t="inlineStr"/>
       <c r="W397" s="5" t="inlineStr"/>
       <c r="X397" s="6" t="n">
-        <v>6.6332</v>
+        <v>6.4996</v>
       </c>
       <c r="Y397" s="5" t="n">
-        <v>5.7</v>
+        <v>5.3131</v>
       </c>
       <c r="Z397" s="5" t="n">
-        <v>7.2333</v>
+        <v>5.9375</v>
       </c>
       <c r="AA397" s="5" t="n">
-        <v>7.6579</v>
+        <v>8.081099999999999</v>
       </c>
       <c r="AB397" s="5" t="n">
-        <v>5.9417</v>
+        <v>6.6667</v>
       </c>
       <c r="AC397" s="6" t="n">
-        <v>6.5701</v>
+        <v>6.6955</v>
       </c>
       <c r="AD397" s="5" t="n">
-        <v>6.58</v>
+        <v>6.7071</v>
       </c>
       <c r="AE397" s="5" t="n">
-        <v>6.7333</v>
+        <v>5.85</v>
       </c>
       <c r="AF397" s="5" t="n">
-        <v>6.925</v>
+        <v>7.85</v>
       </c>
       <c r="AG397" s="5" t="n">
-        <v>6.042</v>
+        <v>6.375</v>
       </c>
       <c r="AH397" s="7" t="n">
-        <v>0.1657</v>
+        <v>0.1765</v>
       </c>
       <c r="AI397" s="7" t="n">
-        <v>0.8734</v>
+        <v>0.8862</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="4" t="inlineStr">
         <is>
-          <t>elyza/ELYZA-japanese-Llama-2-13b-instruct</t>
+          <t>012-smoothieqwen3-8b-v2-sft</t>
         </is>
       </c>
       <c r="B398" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" s="6" t="inlineStr"/>
+      <c r="D398" s="6" t="n">
+        <v>5.9596</v>
+      </c>
+      <c r="E398" s="5" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F398" s="5" t="n">
+        <v>6.1186</v>
+      </c>
+      <c r="G398" s="5" t="n">
+        <v>5.7632</v>
+      </c>
+      <c r="H398" s="5" t="n">
+        <v>5.3167</v>
+      </c>
+      <c r="I398" s="6" t="inlineStr"/>
+      <c r="J398" s="5" t="inlineStr"/>
+      <c r="K398" s="5" t="inlineStr"/>
+      <c r="L398" s="5" t="inlineStr"/>
+      <c r="M398" s="5" t="inlineStr"/>
+      <c r="N398" s="6" t="inlineStr"/>
+      <c r="O398" s="5" t="inlineStr"/>
+      <c r="P398" s="5" t="inlineStr"/>
+      <c r="Q398" s="5" t="inlineStr"/>
+      <c r="R398" s="5" t="inlineStr"/>
+      <c r="S398" s="6" t="n">
+        <v>5.9596</v>
+      </c>
+      <c r="T398" s="5" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="U398" s="5" t="n">
+        <v>6.1186</v>
+      </c>
+      <c r="V398" s="5" t="n">
+        <v>5.7632</v>
+      </c>
+      <c r="W398" s="5" t="n">
+        <v>5.3167</v>
+      </c>
+      <c r="X398" s="6" t="inlineStr"/>
+      <c r="Y398" s="5" t="inlineStr"/>
+      <c r="Z398" s="5" t="inlineStr"/>
+      <c r="AA398" s="5" t="inlineStr"/>
+      <c r="AB398" s="5" t="inlineStr"/>
+      <c r="AC398" s="6" t="inlineStr"/>
+      <c r="AD398" s="5" t="inlineStr"/>
+      <c r="AE398" s="5" t="inlineStr"/>
+      <c r="AF398" s="5" t="inlineStr"/>
+      <c r="AG398" s="5" t="inlineStr"/>
+      <c r="AH398" s="7" t="inlineStr"/>
+      <c r="AI398" s="7" t="n">
+        <v>0.9033</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="8" t="inlineStr">
+        <is>
+          <t>shisa-ai/shisa-v1-mistral0.3-7b</t>
+        </is>
+      </c>
+      <c r="B399" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C398" s="6" t="n">
-        <v>6.1926</v>
-      </c>
-      <c r="D398" s="6" t="n">
-        <v>6.011</v>
-      </c>
-      <c r="E398" s="5" t="n">
-        <v>5.6583</v>
-      </c>
-      <c r="F398" s="5" t="n">
-        <v>5.3312</v>
-      </c>
-      <c r="G398" s="5" t="n">
-        <v>7.0857</v>
-      </c>
-      <c r="H398" s="5" t="n">
-        <v>5.9688</v>
-      </c>
-      <c r="I398" s="6" t="n">
-        <v>5.5643</v>
-      </c>
-      <c r="J398" s="5" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K398" s="5" t="n">
-        <v>5.225</v>
-      </c>
-      <c r="L398" s="5" t="n">
-        <v>6.6957</v>
-      </c>
-      <c r="M398" s="5" t="n">
-        <v>5.3167</v>
-      </c>
-      <c r="N398" s="6" t="n">
-        <v>5.2635</v>
-      </c>
-      <c r="O398" s="5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="P398" s="5" t="n">
-        <v>4.3125</v>
-      </c>
-      <c r="Q398" s="5" t="n">
-        <v>5.625</v>
-      </c>
-      <c r="R398" s="5" t="n">
-        <v>5.5167</v>
-      </c>
-      <c r="S398" s="6" t="inlineStr"/>
-      <c r="T398" s="5" t="inlineStr"/>
-      <c r="U398" s="5" t="inlineStr"/>
-      <c r="V398" s="5" t="inlineStr"/>
-      <c r="W398" s="5" t="inlineStr"/>
-      <c r="X398" s="6" t="n">
-        <v>6.4996</v>
-      </c>
-      <c r="Y398" s="5" t="n">
-        <v>5.3131</v>
-      </c>
-      <c r="Z398" s="5" t="n">
-        <v>5.9375</v>
-      </c>
-      <c r="AA398" s="5" t="n">
-        <v>8.081099999999999</v>
-      </c>
-      <c r="AB398" s="5" t="n">
-        <v>6.6667</v>
-      </c>
-      <c r="AC398" s="6" t="n">
-        <v>6.6955</v>
-      </c>
-      <c r="AD398" s="5" t="n">
-        <v>6.7071</v>
-      </c>
-      <c r="AE398" s="5" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AF398" s="5" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AG398" s="5" t="n">
-        <v>6.375</v>
-      </c>
-      <c r="AH398" s="7" t="n">
-        <v>0.1765</v>
-      </c>
-      <c r="AI398" s="7" t="n">
-        <v>0.8862</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="4" t="inlineStr">
-        <is>
-          <t>012-smoothieqwen3-8b-v2-sft</t>
-        </is>
-      </c>
-      <c r="B399" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C399" s="6" t="inlineStr"/>
-      <c r="D399" s="6" t="n">
-        <v>5.9596</v>
-      </c>
-      <c r="E399" s="5" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="F399" s="5" t="n">
-        <v>6.1186</v>
-      </c>
-      <c r="G399" s="5" t="n">
-        <v>5.7632</v>
-      </c>
-      <c r="H399" s="5" t="n">
-        <v>5.3167</v>
-      </c>
-      <c r="I399" s="6" t="inlineStr"/>
-      <c r="J399" s="5" t="inlineStr"/>
-      <c r="K399" s="5" t="inlineStr"/>
-      <c r="L399" s="5" t="inlineStr"/>
-      <c r="M399" s="5" t="inlineStr"/>
-      <c r="N399" s="6" t="inlineStr"/>
-      <c r="O399" s="5" t="inlineStr"/>
-      <c r="P399" s="5" t="inlineStr"/>
-      <c r="Q399" s="5" t="inlineStr"/>
-      <c r="R399" s="5" t="inlineStr"/>
-      <c r="S399" s="6" t="n">
-        <v>5.9596</v>
-      </c>
-      <c r="T399" s="5" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="U399" s="5" t="n">
-        <v>6.1186</v>
-      </c>
-      <c r="V399" s="5" t="n">
-        <v>5.7632</v>
-      </c>
-      <c r="W399" s="5" t="n">
-        <v>5.3167</v>
-      </c>
-      <c r="X399" s="6" t="inlineStr"/>
-      <c r="Y399" s="5" t="inlineStr"/>
-      <c r="Z399" s="5" t="inlineStr"/>
-      <c r="AA399" s="5" t="inlineStr"/>
-      <c r="AB399" s="5" t="inlineStr"/>
-      <c r="AC399" s="6" t="inlineStr"/>
-      <c r="AD399" s="5" t="inlineStr"/>
-      <c r="AE399" s="5" t="inlineStr"/>
-      <c r="AF399" s="5" t="inlineStr"/>
-      <c r="AG399" s="5" t="inlineStr"/>
-      <c r="AH399" s="7" t="inlineStr"/>
-      <c r="AI399" s="7" t="n">
-        <v>0.9033</v>
+      <c r="C399" s="10" t="n">
+        <v>6.0514</v>
+      </c>
+      <c r="D399" s="10" t="n">
+        <v>5.8863</v>
+      </c>
+      <c r="E399" s="9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F399" s="9" t="n">
+        <v>7.0591</v>
+      </c>
+      <c r="G399" s="9" t="n">
+        <v>5.0657</v>
+      </c>
+      <c r="H399" s="9" t="n">
+        <v>5.4604</v>
+      </c>
+      <c r="I399" s="10" t="n">
+        <v>5.2365</v>
+      </c>
+      <c r="J399" s="9" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="K399" s="9" t="n">
+        <v>6.7241</v>
+      </c>
+      <c r="L399" s="9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M399" s="9" t="n">
+        <v>4.8917</v>
+      </c>
+      <c r="N399" s="10" t="n">
+        <v>5.1063</v>
+      </c>
+      <c r="O399" s="9" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P399" s="9" t="n">
+        <v>6.1017</v>
+      </c>
+      <c r="Q399" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="R399" s="9" t="n">
+        <v>4.8583</v>
+      </c>
+      <c r="S399" s="10" t="inlineStr"/>
+      <c r="T399" s="9" t="inlineStr"/>
+      <c r="U399" s="9" t="inlineStr"/>
+      <c r="V399" s="9" t="inlineStr"/>
+      <c r="W399" s="9" t="inlineStr"/>
+      <c r="X399" s="10" t="n">
+        <v>6.5087</v>
+      </c>
+      <c r="Y399" s="9" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Z399" s="9" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="AA399" s="9" t="n">
+        <v>6.4865</v>
+      </c>
+      <c r="AB399" s="9" t="n">
+        <v>5.9583</v>
+      </c>
+      <c r="AC399" s="10" t="n">
+        <v>6.5742</v>
+      </c>
+      <c r="AD399" s="9" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="AE399" s="9" t="n">
+        <v>7.7333</v>
+      </c>
+      <c r="AF399" s="9" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AG399" s="9" t="n">
+        <v>6.1333</v>
+      </c>
+      <c r="AH399" s="11" t="n">
+        <v>0.1851</v>
+      </c>
+      <c r="AI399" s="11" t="n">
+        <v>0.8396</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-v1-mistral0.3-7b</t>
+          <t>ablation-41-cmrmixen.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
         </is>
       </c>
       <c r="B400" s="9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C400" s="10" t="n">
-        <v>6.0514</v>
+        <v>5.8185</v>
       </c>
       <c r="D400" s="10" t="n">
-        <v>5.8863</v>
+        <v>5.8358</v>
       </c>
       <c r="E400" s="9" t="n">
-        <v>5.96</v>
+        <v>5.3133</v>
       </c>
       <c r="F400" s="9" t="n">
-        <v>7.0591</v>
+        <v>6.2333</v>
       </c>
       <c r="G400" s="9" t="n">
-        <v>5.0657</v>
+        <v>6.7327</v>
       </c>
       <c r="H400" s="9" t="n">
-        <v>5.4604</v>
+        <v>5.0639</v>
       </c>
       <c r="I400" s="10" t="n">
-        <v>5.2365</v>
+        <v>5.1256</v>
       </c>
       <c r="J400" s="9" t="n">
-        <v>5.38</v>
+        <v>4.86</v>
       </c>
       <c r="K400" s="9" t="n">
-        <v>6.7241</v>
+        <v>5.6833</v>
       </c>
       <c r="L400" s="9" t="n">
-        <v>3.95</v>
+        <v>5.5926</v>
       </c>
       <c r="M400" s="9" t="n">
-        <v>4.8917</v>
-      </c>
-      <c r="N400" s="10" t="n">
-        <v>5.1063</v>
-      </c>
-      <c r="O400" s="9" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P400" s="9" t="n">
-        <v>6.1017</v>
-      </c>
-      <c r="Q400" s="9" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="R400" s="9" t="n">
-        <v>4.8583</v>
-      </c>
+        <v>4.3667</v>
+      </c>
+      <c r="N400" s="10" t="inlineStr"/>
+      <c r="O400" s="9" t="inlineStr"/>
+      <c r="P400" s="9" t="inlineStr"/>
+      <c r="Q400" s="9" t="inlineStr"/>
+      <c r="R400" s="9" t="inlineStr"/>
       <c r="S400" s="10" t="inlineStr"/>
       <c r="T400" s="9" t="inlineStr"/>
       <c r="U400" s="9" t="inlineStr"/>
       <c r="V400" s="9" t="inlineStr"/>
       <c r="W400" s="9" t="inlineStr"/>
       <c r="X400" s="10" t="n">
-        <v>6.5087</v>
+        <v>6.0605</v>
       </c>
       <c r="Y400" s="9" t="n">
-        <v>5.94</v>
+        <v>4.76</v>
       </c>
       <c r="Z400" s="9" t="n">
-        <v>7.65</v>
+        <v>6.7667</v>
       </c>
       <c r="AA400" s="9" t="n">
-        <v>6.4865</v>
+        <v>7.4571</v>
       </c>
       <c r="AB400" s="9" t="n">
-        <v>5.9583</v>
+        <v>5.2583</v>
       </c>
       <c r="AC400" s="10" t="n">
-        <v>6.5742</v>
+        <v>6.2521</v>
       </c>
       <c r="AD400" s="9" t="n">
-        <v>6.88</v>
+        <v>6.32</v>
       </c>
       <c r="AE400" s="9" t="n">
-        <v>7.7333</v>
+        <v>6.25</v>
       </c>
       <c r="AF400" s="9" t="n">
-        <v>5.55</v>
+        <v>6.8718</v>
       </c>
       <c r="AG400" s="9" t="n">
-        <v>6.1333</v>
-      </c>
-      <c r="AH400" s="11" t="n">
-        <v>0.1851</v>
-      </c>
+        <v>5.5667</v>
+      </c>
+      <c r="AH400" s="11" t="inlineStr"/>
       <c r="AI400" s="11" t="n">
-        <v>0.8396</v>
+        <v>0.8626</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="8" t="inlineStr">
         <is>
-          <t>ablation-41-cmrmixen.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
+          <t>augmxnt/shisa-gamma-7b-v1</t>
         </is>
       </c>
       <c r="B401" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C401" s="10" t="n">
+        <v>6.0911</v>
+      </c>
+      <c r="D401" s="10" t="n">
         <v>5.8185</v>
       </c>
-      <c r="D401" s="10" t="n">
-        <v>5.8358</v>
-      </c>
       <c r="E401" s="9" t="n">
-        <v>5.3133</v>
+        <v>5.808</v>
       </c>
       <c r="F401" s="9" t="n">
-        <v>6.2333</v>
+        <v>5.3767</v>
       </c>
       <c r="G401" s="9" t="n">
-        <v>6.7327</v>
+        <v>6.5325</v>
       </c>
       <c r="H401" s="9" t="n">
-        <v>5.0639</v>
+        <v>5.5567</v>
       </c>
       <c r="I401" s="10" t="n">
-        <v>5.1256</v>
+        <v>5.6774</v>
       </c>
       <c r="J401" s="9" t="n">
-        <v>4.86</v>
+        <v>5.32</v>
       </c>
       <c r="K401" s="9" t="n">
-        <v>5.6833</v>
+        <v>5.4167</v>
       </c>
       <c r="L401" s="9" t="n">
-        <v>5.5926</v>
+        <v>6.7647</v>
       </c>
       <c r="M401" s="9" t="n">
-        <v>4.3667</v>
-      </c>
-      <c r="N401" s="10" t="inlineStr"/>
-      <c r="O401" s="9" t="inlineStr"/>
-      <c r="P401" s="9" t="inlineStr"/>
-      <c r="Q401" s="9" t="inlineStr"/>
-      <c r="R401" s="9" t="inlineStr"/>
-      <c r="S401" s="10" t="inlineStr"/>
-      <c r="T401" s="9" t="inlineStr"/>
-      <c r="U401" s="9" t="inlineStr"/>
-      <c r="V401" s="9" t="inlineStr"/>
-      <c r="W401" s="9" t="inlineStr"/>
+        <v>5.2083</v>
+      </c>
+      <c r="N401" s="10" t="n">
+        <v>5.8224</v>
+      </c>
+      <c r="O401" s="9" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="P401" s="9" t="n">
+        <v>5.0167</v>
+      </c>
+      <c r="Q401" s="9" t="n">
+        <v>6.8462</v>
+      </c>
+      <c r="R401" s="9" t="n">
+        <v>5.4667</v>
+      </c>
+      <c r="S401" s="10" t="n">
+        <v>4.7983</v>
+      </c>
+      <c r="T401" s="9" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="U401" s="9" t="n">
+        <v>4.0667</v>
+      </c>
+      <c r="V401" s="9" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="W401" s="9" t="n">
+        <v>4.7167</v>
+      </c>
       <c r="X401" s="10" t="n">
-        <v>6.0605</v>
+        <v>6.3448</v>
       </c>
       <c r="Y401" s="9" t="n">
-        <v>4.76</v>
+        <v>5.48</v>
       </c>
       <c r="Z401" s="9" t="n">
-        <v>6.7667</v>
+        <v>6.3667</v>
       </c>
       <c r="AA401" s="9" t="n">
-        <v>7.4571</v>
+        <v>7.4242</v>
       </c>
       <c r="AB401" s="9" t="n">
-        <v>5.2583</v>
+        <v>6.1083</v>
       </c>
       <c r="AC401" s="10" t="n">
-        <v>6.2521</v>
+        <v>6.5237</v>
       </c>
       <c r="AD401" s="9" t="n">
-        <v>6.32</v>
+        <v>6.42</v>
       </c>
       <c r="AE401" s="9" t="n">
-        <v>6.25</v>
+        <v>6.0167</v>
       </c>
       <c r="AF401" s="9" t="n">
-        <v>6.8718</v>
+        <v>7.375</v>
       </c>
       <c r="AG401" s="9" t="n">
-        <v>5.5667</v>
-      </c>
-      <c r="AH401" s="11" t="inlineStr"/>
+        <v>6.2833</v>
+      </c>
+      <c r="AH401" s="11" t="n">
+        <v>0.0462</v>
+      </c>
       <c r="AI401" s="11" t="n">
-        <v>0.8626</v>
+        <v>0.8648</v>
       </c>
     </row>
     <row r="402">
@@ -37033,901 +37043,867 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="4" t="inlineStr">
-        <is>
-          <t>dahara1/DeepSeek-R1-Distill-Qwen-14B-unsloth-jpn</t>
-        </is>
-      </c>
-      <c r="B413" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C413" s="6" t="n">
-        <v>5.3402</v>
-      </c>
-      <c r="D413" s="6" t="n">
-        <v>5.1661</v>
-      </c>
-      <c r="E413" s="5" t="n">
-        <v>5.4837</v>
-      </c>
-      <c r="F413" s="5" t="n">
-        <v>5.5774</v>
-      </c>
-      <c r="G413" s="5" t="n">
-        <v>4.8921</v>
-      </c>
-      <c r="H413" s="5" t="n">
-        <v>4.7113</v>
-      </c>
-      <c r="I413" s="6" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J413" s="5" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K413" s="5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L413" s="5" t="n">
-        <v>4.2083</v>
-      </c>
-      <c r="M413" s="5" t="n">
-        <v>3.9917</v>
-      </c>
-      <c r="N413" s="6" t="n">
-        <v>4.4286</v>
-      </c>
-      <c r="O413" s="5" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="P413" s="5" t="n">
-        <v>4.2667</v>
-      </c>
-      <c r="Q413" s="5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R413" s="5" t="n">
-        <v>4.1176</v>
-      </c>
-      <c r="S413" s="6" t="inlineStr"/>
-      <c r="T413" s="5" t="inlineStr"/>
-      <c r="U413" s="5" t="inlineStr"/>
-      <c r="V413" s="5" t="inlineStr"/>
-      <c r="W413" s="5" t="inlineStr"/>
-      <c r="X413" s="6" t="n">
-        <v>5.7199</v>
-      </c>
-      <c r="Y413" s="5" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="Z413" s="5" t="n">
-        <v>6.7167</v>
-      </c>
-      <c r="AA413" s="5" t="n">
-        <v>5.6579</v>
-      </c>
-      <c r="AB413" s="5" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="AC413" s="6" t="n">
-        <v>5.8947</v>
-      </c>
-      <c r="AD413" s="5" t="n">
-        <v>6.5657</v>
-      </c>
-      <c r="AE413" s="5" t="n">
-        <v>6.0339</v>
-      </c>
-      <c r="AF413" s="5" t="n">
-        <v>5.5676</v>
-      </c>
-      <c r="AG413" s="5" t="n">
-        <v>5.4118</v>
-      </c>
-      <c r="AH413" s="7" t="n">
-        <v>0.2058</v>
-      </c>
-      <c r="AI413" s="7" t="n">
-        <v>0.8114</v>
+      <c r="A413" s="8" t="inlineStr">
+        <is>
+          <t>026-shisa-7b-v1-v2new-sft</t>
+        </is>
+      </c>
+      <c r="B413" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" s="10" t="inlineStr"/>
+      <c r="D413" s="10" t="n">
+        <v>5.2696</v>
+      </c>
+      <c r="E413" s="9" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F413" s="9" t="n">
+        <v>5.2833</v>
+      </c>
+      <c r="G413" s="9" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="H413" s="9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I413" s="10" t="inlineStr"/>
+      <c r="J413" s="9" t="inlineStr"/>
+      <c r="K413" s="9" t="inlineStr"/>
+      <c r="L413" s="9" t="inlineStr"/>
+      <c r="M413" s="9" t="inlineStr"/>
+      <c r="N413" s="10" t="inlineStr"/>
+      <c r="O413" s="9" t="inlineStr"/>
+      <c r="P413" s="9" t="inlineStr"/>
+      <c r="Q413" s="9" t="inlineStr"/>
+      <c r="R413" s="9" t="inlineStr"/>
+      <c r="S413" s="10" t="n">
+        <v>5.2696</v>
+      </c>
+      <c r="T413" s="9" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U413" s="9" t="n">
+        <v>5.2833</v>
+      </c>
+      <c r="V413" s="9" t="n">
+        <v>5.925</v>
+      </c>
+      <c r="W413" s="9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="X413" s="10" t="inlineStr"/>
+      <c r="Y413" s="9" t="inlineStr"/>
+      <c r="Z413" s="9" t="inlineStr"/>
+      <c r="AA413" s="9" t="inlineStr"/>
+      <c r="AB413" s="9" t="inlineStr"/>
+      <c r="AC413" s="10" t="inlineStr"/>
+      <c r="AD413" s="9" t="inlineStr"/>
+      <c r="AE413" s="9" t="inlineStr"/>
+      <c r="AF413" s="9" t="inlineStr"/>
+      <c r="AG413" s="9" t="inlineStr"/>
+      <c r="AH413" s="11" t="inlineStr"/>
+      <c r="AI413" s="11" t="n">
+        <v>0.8502</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="4" t="inlineStr">
         <is>
-          <t>013-qwen3-8b-v2-dpo</t>
+          <t>dahara1/DeepSeek-R1-Distill-Qwen-14B-unsloth-jpn</t>
         </is>
       </c>
       <c r="B414" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C414" s="6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C414" s="6" t="n">
+        <v>5.3402</v>
+      </c>
       <c r="D414" s="6" t="n">
-        <v>5.0971</v>
+        <v>5.1661</v>
       </c>
       <c r="E414" s="5" t="n">
-        <v>7.3673</v>
+        <v>5.4837</v>
       </c>
       <c r="F414" s="5" t="n">
-        <v>5.0877</v>
+        <v>5.5774</v>
       </c>
       <c r="G414" s="5" t="n">
-        <v>4.1667</v>
+        <v>4.8921</v>
       </c>
       <c r="H414" s="5" t="n">
-        <v>3.7667</v>
-      </c>
-      <c r="I414" s="6" t="inlineStr"/>
-      <c r="J414" s="5" t="inlineStr"/>
-      <c r="K414" s="5" t="inlineStr"/>
-      <c r="L414" s="5" t="inlineStr"/>
-      <c r="M414" s="5" t="inlineStr"/>
-      <c r="N414" s="6" t="inlineStr"/>
-      <c r="O414" s="5" t="inlineStr"/>
-      <c r="P414" s="5" t="inlineStr"/>
-      <c r="Q414" s="5" t="inlineStr"/>
-      <c r="R414" s="5" t="inlineStr"/>
-      <c r="S414" s="6" t="n">
-        <v>5.0971</v>
-      </c>
-      <c r="T414" s="5" t="n">
-        <v>7.3673</v>
-      </c>
-      <c r="U414" s="5" t="n">
-        <v>5.0877</v>
-      </c>
-      <c r="V414" s="5" t="n">
-        <v>4.1667</v>
-      </c>
-      <c r="W414" s="5" t="n">
-        <v>3.7667</v>
-      </c>
-      <c r="X414" s="6" t="inlineStr"/>
-      <c r="Y414" s="5" t="inlineStr"/>
-      <c r="Z414" s="5" t="inlineStr"/>
-      <c r="AA414" s="5" t="inlineStr"/>
-      <c r="AB414" s="5" t="inlineStr"/>
-      <c r="AC414" s="6" t="inlineStr"/>
-      <c r="AD414" s="5" t="inlineStr"/>
-      <c r="AE414" s="5" t="inlineStr"/>
-      <c r="AF414" s="5" t="inlineStr"/>
-      <c r="AG414" s="5" t="inlineStr"/>
-      <c r="AH414" s="7" t="inlineStr"/>
+        <v>4.7113</v>
+      </c>
+      <c r="I414" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J414" s="5" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K414" s="5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L414" s="5" t="n">
+        <v>4.2083</v>
+      </c>
+      <c r="M414" s="5" t="n">
+        <v>3.9917</v>
+      </c>
+      <c r="N414" s="6" t="n">
+        <v>4.4286</v>
+      </c>
+      <c r="O414" s="5" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P414" s="5" t="n">
+        <v>4.2667</v>
+      </c>
+      <c r="Q414" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R414" s="5" t="n">
+        <v>4.1176</v>
+      </c>
+      <c r="S414" s="6" t="inlineStr"/>
+      <c r="T414" s="5" t="inlineStr"/>
+      <c r="U414" s="5" t="inlineStr"/>
+      <c r="V414" s="5" t="inlineStr"/>
+      <c r="W414" s="5" t="inlineStr"/>
+      <c r="X414" s="6" t="n">
+        <v>5.7199</v>
+      </c>
+      <c r="Y414" s="5" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Z414" s="5" t="n">
+        <v>6.7167</v>
+      </c>
+      <c r="AA414" s="5" t="n">
+        <v>5.6579</v>
+      </c>
+      <c r="AB414" s="5" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="AC414" s="6" t="n">
+        <v>5.8947</v>
+      </c>
+      <c r="AD414" s="5" t="n">
+        <v>6.5657</v>
+      </c>
+      <c r="AE414" s="5" t="n">
+        <v>6.0339</v>
+      </c>
+      <c r="AF414" s="5" t="n">
+        <v>5.5676</v>
+      </c>
+      <c r="AG414" s="5" t="n">
+        <v>5.4118</v>
+      </c>
+      <c r="AH414" s="7" t="n">
+        <v>0.2058</v>
+      </c>
       <c r="AI414" s="7" t="n">
-        <v>0.4336</v>
+        <v>0.8114</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Llama-2-13b-chat-hf</t>
+          <t>013-qwen3-8b-v2-dpo</t>
         </is>
       </c>
       <c r="B415" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C415" s="6" t="n">
-        <v>5.1613</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C415" s="6" t="inlineStr"/>
       <c r="D415" s="6" t="n">
-        <v>5.05</v>
+        <v>5.0971</v>
       </c>
       <c r="E415" s="5" t="n">
-        <v>5.545</v>
+        <v>7.3673</v>
       </c>
       <c r="F415" s="5" t="n">
-        <v>6.1487</v>
+        <v>5.0877</v>
       </c>
       <c r="G415" s="5" t="n">
-        <v>3.3333</v>
+        <v>4.1667</v>
       </c>
       <c r="H415" s="5" t="n">
-        <v>5.1729</v>
-      </c>
-      <c r="I415" s="6" t="n">
-        <v>4.442</v>
-      </c>
-      <c r="J415" s="5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K415" s="5" t="n">
-        <v>5.3205</v>
-      </c>
-      <c r="L415" s="5" t="n">
-        <v>3.0476</v>
-      </c>
-      <c r="M415" s="5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N415" s="6" t="n">
-        <v>4.5756</v>
-      </c>
-      <c r="O415" s="5" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P415" s="5" t="n">
-        <v>5.7125</v>
-      </c>
-      <c r="Q415" s="5" t="n">
-        <v>2.275</v>
-      </c>
-      <c r="R415" s="5" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="S415" s="6" t="inlineStr"/>
-      <c r="T415" s="5" t="inlineStr"/>
-      <c r="U415" s="5" t="inlineStr"/>
-      <c r="V415" s="5" t="inlineStr"/>
-      <c r="W415" s="5" t="inlineStr"/>
-      <c r="X415" s="6" t="n">
-        <v>5.1012</v>
-      </c>
-      <c r="Y415" s="5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z415" s="5" t="n">
-        <v>6.5625</v>
-      </c>
-      <c r="AA415" s="5" t="n">
-        <v>2.8421</v>
-      </c>
-      <c r="AB415" s="5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC415" s="6" t="n">
-        <v>6.052</v>
-      </c>
-      <c r="AD415" s="5" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AE415" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF415" s="5" t="n">
-        <v>5.0513</v>
-      </c>
-      <c r="AG415" s="5" t="n">
-        <v>5.9167</v>
-      </c>
-      <c r="AH415" s="7" t="n">
-        <v>0.128</v>
-      </c>
+        <v>3.7667</v>
+      </c>
+      <c r="I415" s="6" t="inlineStr"/>
+      <c r="J415" s="5" t="inlineStr"/>
+      <c r="K415" s="5" t="inlineStr"/>
+      <c r="L415" s="5" t="inlineStr"/>
+      <c r="M415" s="5" t="inlineStr"/>
+      <c r="N415" s="6" t="inlineStr"/>
+      <c r="O415" s="5" t="inlineStr"/>
+      <c r="P415" s="5" t="inlineStr"/>
+      <c r="Q415" s="5" t="inlineStr"/>
+      <c r="R415" s="5" t="inlineStr"/>
+      <c r="S415" s="6" t="n">
+        <v>5.0971</v>
+      </c>
+      <c r="T415" s="5" t="n">
+        <v>7.3673</v>
+      </c>
+      <c r="U415" s="5" t="n">
+        <v>5.0877</v>
+      </c>
+      <c r="V415" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="W415" s="5" t="n">
+        <v>3.7667</v>
+      </c>
+      <c r="X415" s="6" t="inlineStr"/>
+      <c r="Y415" s="5" t="inlineStr"/>
+      <c r="Z415" s="5" t="inlineStr"/>
+      <c r="AA415" s="5" t="inlineStr"/>
+      <c r="AB415" s="5" t="inlineStr"/>
+      <c r="AC415" s="6" t="inlineStr"/>
+      <c r="AD415" s="5" t="inlineStr"/>
+      <c r="AE415" s="5" t="inlineStr"/>
+      <c r="AF415" s="5" t="inlineStr"/>
+      <c r="AG415" s="5" t="inlineStr"/>
+      <c r="AH415" s="7" t="inlineStr"/>
       <c r="AI415" s="7" t="n">
-        <v>0.1084</v>
+        <v>0.4336</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="4" t="inlineStr">
         <is>
-          <t>HuggingFaceH4/zephyr-7b-beta</t>
+          <t>meta-llama/Llama-2-13b-chat-hf</t>
         </is>
       </c>
       <c r="B416" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C416" s="6" t="n">
-        <v>4.9535</v>
+        <v>5.1613</v>
       </c>
       <c r="D416" s="6" t="n">
-        <v>4.9783</v>
+        <v>5.05</v>
       </c>
       <c r="E416" s="5" t="n">
-        <v>5.0867</v>
+        <v>5.545</v>
       </c>
       <c r="F416" s="5" t="n">
-        <v>5.6949</v>
+        <v>6.1487</v>
       </c>
       <c r="G416" s="5" t="n">
-        <v>4.2371</v>
+        <v>3.3333</v>
       </c>
       <c r="H416" s="5" t="n">
-        <v>4.8944</v>
+        <v>5.1729</v>
       </c>
       <c r="I416" s="6" t="n">
-        <v>4.0854</v>
+        <v>4.442</v>
       </c>
       <c r="J416" s="5" t="n">
-        <v>4.26</v>
+        <v>5.1</v>
       </c>
       <c r="K416" s="5" t="n">
-        <v>4.8983</v>
+        <v>5.3205</v>
       </c>
       <c r="L416" s="5" t="n">
-        <v>3.4</v>
+        <v>3.0476</v>
       </c>
       <c r="M416" s="5" t="n">
-        <v>3.7833</v>
-      </c>
-      <c r="N416" s="6" t="inlineStr"/>
-      <c r="O416" s="5" t="inlineStr"/>
-      <c r="P416" s="5" t="inlineStr"/>
-      <c r="Q416" s="5" t="inlineStr"/>
-      <c r="R416" s="5" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="N416" s="6" t="n">
+        <v>4.5756</v>
+      </c>
+      <c r="O416" s="5" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P416" s="5" t="n">
+        <v>5.7125</v>
+      </c>
+      <c r="Q416" s="5" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="R416" s="5" t="n">
+        <v>4.675</v>
+      </c>
       <c r="S416" s="6" t="inlineStr"/>
       <c r="T416" s="5" t="inlineStr"/>
       <c r="U416" s="5" t="inlineStr"/>
       <c r="V416" s="5" t="inlineStr"/>
       <c r="W416" s="5" t="inlineStr"/>
       <c r="X416" s="6" t="n">
+        <v>5.1012</v>
+      </c>
+      <c r="Y416" s="5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z416" s="5" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="AA416" s="5" t="n">
+        <v>2.8421</v>
+      </c>
+      <c r="AB416" s="5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC416" s="6" t="n">
+        <v>6.052</v>
+      </c>
+      <c r="AD416" s="5" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="AE416" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF416" s="5" t="n">
+        <v>5.0513</v>
+      </c>
+      <c r="AG416" s="5" t="n">
+        <v>5.9167</v>
+      </c>
+      <c r="AH416" s="7" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="AI416" s="7" t="n">
+        <v>0.1084</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="inlineStr">
+        <is>
+          <t>HuggingFaceH4/zephyr-7b-beta</t>
+        </is>
+      </c>
+      <c r="B417" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C417" s="6" t="n">
+        <v>4.9535</v>
+      </c>
+      <c r="D417" s="6" t="n">
+        <v>4.9783</v>
+      </c>
+      <c r="E417" s="5" t="n">
+        <v>5.0867</v>
+      </c>
+      <c r="F417" s="5" t="n">
+        <v>5.6949</v>
+      </c>
+      <c r="G417" s="5" t="n">
+        <v>4.2371</v>
+      </c>
+      <c r="H417" s="5" t="n">
+        <v>4.8944</v>
+      </c>
+      <c r="I417" s="6" t="n">
+        <v>4.0854</v>
+      </c>
+      <c r="J417" s="5" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K417" s="5" t="n">
+        <v>4.8983</v>
+      </c>
+      <c r="L417" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M417" s="5" t="n">
+        <v>3.7833</v>
+      </c>
+      <c r="N417" s="6" t="inlineStr"/>
+      <c r="O417" s="5" t="inlineStr"/>
+      <c r="P417" s="5" t="inlineStr"/>
+      <c r="Q417" s="5" t="inlineStr"/>
+      <c r="R417" s="5" t="inlineStr"/>
+      <c r="S417" s="6" t="inlineStr"/>
+      <c r="T417" s="5" t="inlineStr"/>
+      <c r="U417" s="5" t="inlineStr"/>
+      <c r="V417" s="5" t="inlineStr"/>
+      <c r="W417" s="5" t="inlineStr"/>
+      <c r="X417" s="6" t="n">
         <v>5.3704</v>
       </c>
-      <c r="Y416" s="5" t="n">
+      <c r="Y417" s="5" t="n">
         <v>4.96</v>
       </c>
-      <c r="Z416" s="5" t="n">
+      <c r="Z417" s="5" t="n">
         <v>6.322</v>
       </c>
-      <c r="AA416" s="5" t="n">
+      <c r="AA417" s="5" t="n">
         <v>4.6579</v>
       </c>
-      <c r="AB416" s="5" t="n">
+      <c r="AB417" s="5" t="n">
         <v>5.5417</v>
       </c>
-      <c r="AC416" s="6" t="n">
+      <c r="AC417" s="6" t="n">
         <v>5.3798</v>
       </c>
-      <c r="AD416" s="5" t="n">
+      <c r="AD417" s="5" t="n">
         <v>6.04</v>
       </c>
-      <c r="AE416" s="5" t="n">
+      <c r="AE417" s="5" t="n">
         <v>5.8644</v>
       </c>
-      <c r="AF416" s="5" t="n">
+      <c r="AF417" s="5" t="n">
         <v>4.2564</v>
       </c>
-      <c r="AG416" s="5" t="n">
+      <c r="AG417" s="5" t="n">
         <v>5.3583</v>
       </c>
-      <c r="AH416" s="7" t="inlineStr"/>
-      <c r="AI416" s="7" t="n">
+      <c r="AH417" s="7" t="inlineStr"/>
+      <c r="AI417" s="7" t="n">
         <v>0.6506999999999999</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="8" t="inlineStr">
+    <row r="418">
+      <c r="A418" s="8" t="inlineStr">
         <is>
           <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1-2x</t>
         </is>
       </c>
-      <c r="B417" s="9" t="n">
+      <c r="B418" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C417" s="10" t="n">
+      <c r="C418" s="10" t="n">
         <v>4.8126</v>
       </c>
-      <c r="D417" s="10" t="n">
+      <c r="D418" s="10" t="n">
         <v>4.8369</v>
       </c>
-      <c r="E417" s="9" t="n">
+      <c r="E418" s="9" t="n">
         <v>5.3533</v>
       </c>
-      <c r="F417" s="9" t="n">
+      <c r="F418" s="9" t="n">
         <v>4.7944</v>
       </c>
-      <c r="G417" s="9" t="n">
+      <c r="G418" s="9" t="n">
         <v>3.3913</v>
       </c>
-      <c r="H417" s="9" t="n">
+      <c r="H418" s="9" t="n">
         <v>5.8083</v>
       </c>
-      <c r="I417" s="10" t="n">
+      <c r="I418" s="10" t="n">
         <v>3.7326</v>
       </c>
-      <c r="J417" s="9" t="n">
+      <c r="J418" s="9" t="n">
         <v>4.4</v>
       </c>
-      <c r="K417" s="9" t="n">
+      <c r="K418" s="9" t="n">
         <v>4.2</v>
       </c>
-      <c r="L417" s="9" t="n">
+      <c r="L418" s="9" t="n">
         <v>1.8889</v>
       </c>
-      <c r="M417" s="9" t="n">
+      <c r="M418" s="9" t="n">
         <v>4.4417</v>
       </c>
-      <c r="N417" s="10" t="inlineStr"/>
-      <c r="O417" s="9" t="inlineStr"/>
-      <c r="P417" s="9" t="inlineStr"/>
-      <c r="Q417" s="9" t="inlineStr"/>
-      <c r="R417" s="9" t="inlineStr"/>
-      <c r="S417" s="10" t="inlineStr"/>
-      <c r="T417" s="9" t="inlineStr"/>
-      <c r="U417" s="9" t="inlineStr"/>
-      <c r="V417" s="9" t="inlineStr"/>
-      <c r="W417" s="9" t="inlineStr"/>
-      <c r="X417" s="10" t="n">
+      <c r="N418" s="10" t="inlineStr"/>
+      <c r="O418" s="9" t="inlineStr"/>
+      <c r="P418" s="9" t="inlineStr"/>
+      <c r="Q418" s="9" t="inlineStr"/>
+      <c r="R418" s="9" t="inlineStr"/>
+      <c r="S418" s="10" t="inlineStr"/>
+      <c r="T418" s="9" t="inlineStr"/>
+      <c r="U418" s="9" t="inlineStr"/>
+      <c r="V418" s="9" t="inlineStr"/>
+      <c r="W418" s="9" t="inlineStr"/>
+      <c r="X418" s="10" t="n">
         <v>5.6451</v>
       </c>
-      <c r="Y417" s="9" t="n">
+      <c r="Y418" s="9" t="n">
         <v>6.04</v>
       </c>
-      <c r="Z417" s="9" t="n">
+      <c r="Z418" s="9" t="n">
         <v>5.5833</v>
       </c>
-      <c r="AA417" s="9" t="n">
+      <c r="AA418" s="9" t="n">
         <v>4.2821</v>
       </c>
-      <c r="AB417" s="9" t="n">
+      <c r="AB418" s="9" t="n">
         <v>6.675</v>
       </c>
-      <c r="AC417" s="10" t="n">
+      <c r="AC418" s="10" t="n">
         <v>5.0359</v>
       </c>
-      <c r="AD417" s="9" t="n">
+      <c r="AD418" s="9" t="n">
         <v>5.62</v>
       </c>
-      <c r="AE417" s="9" t="n">
+      <c r="AE418" s="9" t="n">
         <v>4.6</v>
       </c>
-      <c r="AF417" s="9" t="n">
+      <c r="AF418" s="9" t="n">
         <v>3.6154</v>
       </c>
-      <c r="AG417" s="9" t="n">
+      <c r="AG418" s="9" t="n">
         <v>6.3083</v>
       </c>
-      <c r="AH417" s="11" t="inlineStr"/>
-      <c r="AI417" s="11" t="n">
+      <c r="AH418" s="11" t="inlineStr"/>
+      <c r="AI418" s="11" t="n">
         <v>0.6113</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="4" t="inlineStr">
+    <row r="419">
+      <c r="A419" s="4" t="inlineStr">
         <is>
           <t>allenai/OLMo-2-1124-7B-Instruct</t>
         </is>
       </c>
-      <c r="B418" s="5" t="n">
+      <c r="B419" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C418" s="6" t="n">
+      <c r="C419" s="6" t="n">
         <v>5.0893</v>
       </c>
-      <c r="D418" s="6" t="n">
+      <c r="D419" s="6" t="n">
         <v>4.8083</v>
       </c>
-      <c r="E418" s="5" t="n">
+      <c r="E419" s="5" t="n">
         <v>4.9023</v>
       </c>
-      <c r="F418" s="5" t="n">
+      <c r="F419" s="5" t="n">
         <v>5.3333</v>
       </c>
-      <c r="G418" s="5" t="n">
+      <c r="G419" s="5" t="n">
         <v>3.9851</v>
       </c>
-      <c r="H418" s="5" t="n">
+      <c r="H419" s="5" t="n">
         <v>5.0125</v>
       </c>
-      <c r="I418" s="6" t="n">
+      <c r="I419" s="6" t="n">
         <v>4.2815</v>
       </c>
-      <c r="J418" s="5" t="n">
+      <c r="J419" s="5" t="n">
         <v>4.46</v>
       </c>
-      <c r="K418" s="5" t="n">
+      <c r="K419" s="5" t="n">
         <v>5.1017</v>
       </c>
-      <c r="L418" s="5" t="n">
+      <c r="L419" s="5" t="n">
         <v>3.3478</v>
       </c>
-      <c r="M418" s="5" t="n">
+      <c r="M419" s="5" t="n">
         <v>4.2167</v>
       </c>
-      <c r="N418" s="6" t="n">
+      <c r="N419" s="6" t="n">
         <v>3.6277</v>
       </c>
-      <c r="O418" s="5" t="n">
+      <c r="O419" s="5" t="n">
         <v>4.48</v>
       </c>
-      <c r="P418" s="5" t="n">
+      <c r="P419" s="5" t="n">
         <v>3.8103</v>
       </c>
-      <c r="Q418" s="5" t="n">
+      <c r="Q419" s="5" t="n">
         <v>2.4872</v>
       </c>
-      <c r="R418" s="5" t="n">
+      <c r="R419" s="5" t="n">
         <v>3.7333</v>
       </c>
-      <c r="S418" s="6" t="inlineStr"/>
-      <c r="T418" s="5" t="inlineStr"/>
-      <c r="U418" s="5" t="inlineStr"/>
-      <c r="V418" s="5" t="inlineStr"/>
-      <c r="W418" s="5" t="inlineStr"/>
-      <c r="X418" s="6" t="n">
+      <c r="S419" s="6" t="inlineStr"/>
+      <c r="T419" s="5" t="inlineStr"/>
+      <c r="U419" s="5" t="inlineStr"/>
+      <c r="V419" s="5" t="inlineStr"/>
+      <c r="W419" s="5" t="inlineStr"/>
+      <c r="X419" s="6" t="n">
         <v>5.8435</v>
       </c>
-      <c r="Y418" s="5" t="n">
+      <c r="Y419" s="5" t="n">
         <v>4.7879</v>
       </c>
-      <c r="Z418" s="5" t="n">
+      <c r="Z419" s="5" t="n">
         <v>6.7</v>
       </c>
-      <c r="AA418" s="5" t="n">
+      <c r="AA419" s="5" t="n">
         <v>5.5526</v>
       </c>
-      <c r="AB418" s="5" t="n">
+      <c r="AB419" s="5" t="n">
         <v>6.3333</v>
       </c>
-      <c r="AC418" s="6" t="n">
+      <c r="AC419" s="6" t="n">
         <v>5.4239</v>
       </c>
-      <c r="AD418" s="5" t="n">
+      <c r="AD419" s="5" t="n">
         <v>5.88</v>
       </c>
-      <c r="AE418" s="5" t="n">
+      <c r="AE419" s="5" t="n">
         <v>5.6667</v>
       </c>
-      <c r="AF418" s="5" t="n">
+      <c r="AF419" s="5" t="n">
         <v>4.3824</v>
       </c>
-      <c r="AG418" s="5" t="n">
+      <c r="AG419" s="5" t="n">
         <v>5.7667</v>
       </c>
-      <c r="AH418" s="7" t="n">
+      <c r="AH419" s="7" t="n">
         <v>0.4029</v>
       </c>
-      <c r="AI418" s="7" t="n">
+      <c r="AI419" s="7" t="n">
         <v>0.8236</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="8" t="inlineStr">
+    <row r="420">
+      <c r="A420" s="8" t="inlineStr">
         <is>
           <t>shisa-ai/shisa-v1-llama3-8b.lr-2e4</t>
         </is>
       </c>
-      <c r="B419" s="9" t="n">
+      <c r="B420" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C419" s="10" t="n">
+      <c r="C420" s="10" t="n">
         <v>4.8435</v>
       </c>
-      <c r="D419" s="10" t="n">
+      <c r="D420" s="10" t="n">
         <v>4.7051</v>
       </c>
-      <c r="E419" s="9" t="n">
+      <c r="E420" s="9" t="n">
         <v>4.59</v>
       </c>
-      <c r="F419" s="9" t="n">
+      <c r="F420" s="9" t="n">
         <v>5.6318</v>
       </c>
-      <c r="G419" s="9" t="n">
+      <c r="G420" s="9" t="n">
         <v>4.6194</v>
       </c>
-      <c r="H419" s="9" t="n">
+      <c r="H420" s="9" t="n">
         <v>3.9792</v>
       </c>
-      <c r="I419" s="10" t="n">
+      <c r="I420" s="10" t="n">
         <v>3.926</v>
       </c>
-      <c r="J419" s="9" t="n">
+      <c r="J420" s="9" t="n">
         <v>4.04</v>
       </c>
-      <c r="K419" s="9" t="n">
+      <c r="K420" s="9" t="n">
         <v>5.3667</v>
       </c>
-      <c r="L419" s="9" t="n">
+      <c r="L420" s="9" t="n">
         <v>3.0556</v>
       </c>
-      <c r="M419" s="9" t="n">
+      <c r="M420" s="9" t="n">
         <v>3.2417</v>
       </c>
-      <c r="N419" s="10" t="n">
+      <c r="N420" s="10" t="n">
         <v>3.9238</v>
       </c>
-      <c r="O419" s="9" t="n">
+      <c r="O420" s="9" t="n">
         <v>4.7</v>
       </c>
-      <c r="P419" s="9" t="n">
+      <c r="P420" s="9" t="n">
         <v>4.4833</v>
       </c>
-      <c r="Q419" s="9" t="n">
+      <c r="Q420" s="9" t="n">
         <v>3.3784</v>
       </c>
-      <c r="R419" s="9" t="n">
+      <c r="R420" s="9" t="n">
         <v>3.1333</v>
       </c>
-      <c r="S419" s="10" t="inlineStr"/>
-      <c r="T419" s="9" t="inlineStr"/>
-      <c r="U419" s="9" t="inlineStr"/>
-      <c r="V419" s="9" t="inlineStr"/>
-      <c r="W419" s="9" t="inlineStr"/>
-      <c r="X419" s="10" t="n">
+      <c r="S420" s="10" t="inlineStr"/>
+      <c r="T420" s="9" t="inlineStr"/>
+      <c r="U420" s="9" t="inlineStr"/>
+      <c r="V420" s="9" t="inlineStr"/>
+      <c r="W420" s="9" t="inlineStr"/>
+      <c r="X420" s="10" t="n">
         <v>5.365</v>
       </c>
-      <c r="Y419" s="9" t="n">
+      <c r="Y420" s="9" t="n">
         <v>4.38</v>
       </c>
-      <c r="Z419" s="9" t="n">
+      <c r="Z420" s="9" t="n">
         <v>6.35</v>
       </c>
-      <c r="AA419" s="9" t="n">
+      <c r="AA420" s="9" t="n">
         <v>5.8718</v>
       </c>
-      <c r="AB419" s="9" t="n">
+      <c r="AB420" s="9" t="n">
         <v>4.8583</v>
       </c>
-      <c r="AC419" s="10" t="n">
+      <c r="AC420" s="10" t="n">
         <v>5.3781</v>
       </c>
-      <c r="AD419" s="9" t="n">
+      <c r="AD420" s="9" t="n">
         <v>5.24</v>
       </c>
-      <c r="AE419" s="9" t="n">
+      <c r="AE420" s="9" t="n">
         <v>6.339</v>
       </c>
-      <c r="AF419" s="9" t="n">
+      <c r="AF420" s="9" t="n">
         <v>5.25</v>
       </c>
-      <c r="AG419" s="9" t="n">
+      <c r="AG420" s="9" t="n">
         <v>4.6833</v>
       </c>
-      <c r="AH419" s="11" t="n">
+      <c r="AH420" s="11" t="n">
         <v>0.2344</v>
       </c>
-      <c r="AI419" s="11" t="n">
+      <c r="AI420" s="11" t="n">
         <v>0.8754</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="4" t="inlineStr">
-        <is>
-          <t>017-qwen3-8b-v2-dpo405b-clr</t>
-        </is>
-      </c>
-      <c r="B420" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C420" s="6" t="inlineStr"/>
-      <c r="D420" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="E420" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F420" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="G420" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="H420" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I420" s="6" t="inlineStr"/>
-      <c r="J420" s="5" t="inlineStr"/>
-      <c r="K420" s="5" t="inlineStr"/>
-      <c r="L420" s="5" t="inlineStr"/>
-      <c r="M420" s="5" t="inlineStr"/>
-      <c r="N420" s="6" t="inlineStr"/>
-      <c r="O420" s="5" t="inlineStr"/>
-      <c r="P420" s="5" t="inlineStr"/>
-      <c r="Q420" s="5" t="inlineStr"/>
-      <c r="R420" s="5" t="inlineStr"/>
-      <c r="S420" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="T420" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="U420" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="V420" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="W420" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X420" s="6" t="inlineStr"/>
-      <c r="Y420" s="5" t="inlineStr"/>
-      <c r="Z420" s="5" t="inlineStr"/>
-      <c r="AA420" s="5" t="inlineStr"/>
-      <c r="AB420" s="5" t="inlineStr"/>
-      <c r="AC420" s="6" t="inlineStr"/>
-      <c r="AD420" s="5" t="inlineStr"/>
-      <c r="AE420" s="5" t="inlineStr"/>
-      <c r="AF420" s="5" t="inlineStr"/>
-      <c r="AG420" s="5" t="inlineStr"/>
-      <c r="AH420" s="7" t="inlineStr"/>
-      <c r="AI420" s="7" t="n">
-        <v>0.4573</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="4" t="inlineStr">
         <is>
+          <t>017-qwen3-8b-v2-dpo405b-clr</t>
+        </is>
+      </c>
+      <c r="B421" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C421" s="6" t="inlineStr"/>
+      <c r="D421" s="6" t="n">
+        <v>4.6651</v>
+      </c>
+      <c r="E421" s="5" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F421" s="5" t="n">
+        <v>4.3929</v>
+      </c>
+      <c r="G421" s="5" t="n">
+        <v>3.4474</v>
+      </c>
+      <c r="H421" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I421" s="6" t="inlineStr"/>
+      <c r="J421" s="5" t="inlineStr"/>
+      <c r="K421" s="5" t="inlineStr"/>
+      <c r="L421" s="5" t="inlineStr"/>
+      <c r="M421" s="5" t="inlineStr"/>
+      <c r="N421" s="6" t="inlineStr"/>
+      <c r="O421" s="5" t="inlineStr"/>
+      <c r="P421" s="5" t="inlineStr"/>
+      <c r="Q421" s="5" t="inlineStr"/>
+      <c r="R421" s="5" t="inlineStr"/>
+      <c r="S421" s="6" t="n">
+        <v>4.6651</v>
+      </c>
+      <c r="T421" s="5" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="U421" s="5" t="n">
+        <v>4.3929</v>
+      </c>
+      <c r="V421" s="5" t="n">
+        <v>3.4474</v>
+      </c>
+      <c r="W421" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X421" s="6" t="inlineStr"/>
+      <c r="Y421" s="5" t="inlineStr"/>
+      <c r="Z421" s="5" t="inlineStr"/>
+      <c r="AA421" s="5" t="inlineStr"/>
+      <c r="AB421" s="5" t="inlineStr"/>
+      <c r="AC421" s="6" t="inlineStr"/>
+      <c r="AD421" s="5" t="inlineStr"/>
+      <c r="AE421" s="5" t="inlineStr"/>
+      <c r="AF421" s="5" t="inlineStr"/>
+      <c r="AG421" s="5" t="inlineStr"/>
+      <c r="AH421" s="7" t="inlineStr"/>
+      <c r="AI421" s="7" t="n">
+        <v>0.4573</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="4" t="inlineStr">
+        <is>
           <t>meta-llama/Llama-2-7b-chat-hf</t>
         </is>
       </c>
-      <c r="B421" s="5" t="n">
+      <c r="B422" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C421" s="6" t="n">
+      <c r="C422" s="6" t="n">
         <v>4.7832</v>
       </c>
-      <c r="D421" s="6" t="n">
+      <c r="D422" s="6" t="n">
         <v>4.6448</v>
       </c>
-      <c r="E421" s="5" t="n">
+      <c r="E422" s="5" t="n">
         <v>4.7619</v>
       </c>
-      <c r="F421" s="5" t="n">
+      <c r="F422" s="5" t="n">
         <v>5.7981</v>
       </c>
-      <c r="G421" s="5" t="n">
+      <c r="G422" s="5" t="n">
         <v>3.3401</v>
       </c>
-      <c r="H421" s="5" t="n">
+      <c r="H422" s="5" t="n">
         <v>4.6792</v>
       </c>
-      <c r="I421" s="6" t="n">
+      <c r="I422" s="6" t="n">
         <v>3.9594</v>
       </c>
-      <c r="J421" s="5" t="n">
+      <c r="J422" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="K421" s="5" t="n">
+      <c r="K422" s="5" t="n">
         <v>5.1139</v>
       </c>
-      <c r="L421" s="5" t="n">
+      <c r="L422" s="5" t="n">
         <v>2.8571</v>
       </c>
-      <c r="M421" s="5" t="n">
+      <c r="M422" s="5" t="n">
         <v>3.6667</v>
       </c>
-      <c r="N421" s="6" t="n">
+      <c r="N422" s="6" t="n">
         <v>4.0554</v>
       </c>
-      <c r="O421" s="5" t="n">
+      <c r="O422" s="5" t="n">
         <v>4.78</v>
       </c>
-      <c r="P421" s="5" t="n">
+      <c r="P422" s="5" t="n">
         <v>5.45</v>
       </c>
-      <c r="Q421" s="5" t="n">
+      <c r="Q422" s="5" t="n">
         <v>2.075</v>
       </c>
-      <c r="R421" s="5" t="n">
+      <c r="R422" s="5" t="n">
         <v>3.9167</v>
       </c>
-      <c r="S421" s="6" t="inlineStr"/>
-      <c r="T421" s="5" t="inlineStr"/>
-      <c r="U421" s="5" t="inlineStr"/>
-      <c r="V421" s="5" t="inlineStr"/>
-      <c r="W421" s="5" t="inlineStr"/>
-      <c r="X421" s="6" t="n">
+      <c r="S422" s="6" t="inlineStr"/>
+      <c r="T422" s="5" t="inlineStr"/>
+      <c r="U422" s="5" t="inlineStr"/>
+      <c r="V422" s="5" t="inlineStr"/>
+      <c r="W422" s="5" t="inlineStr"/>
+      <c r="X422" s="6" t="n">
         <v>4.7415</v>
       </c>
-      <c r="Y421" s="5" t="n">
+      <c r="Y422" s="5" t="n">
         <v>4.6465</v>
       </c>
-      <c r="Z421" s="5" t="n">
+      <c r="Z422" s="5" t="n">
         <v>6.0125</v>
       </c>
-      <c r="AA421" s="5" t="n">
+      <c r="AA422" s="5" t="n">
         <v>2.9487</v>
       </c>
-      <c r="AB421" s="5" t="n">
+      <c r="AB422" s="5" t="n">
         <v>5.3583</v>
       </c>
-      <c r="AC421" s="6" t="n">
+      <c r="AC422" s="6" t="n">
         <v>5.7871</v>
       </c>
-      <c r="AD421" s="5" t="n">
+      <c r="AD422" s="5" t="n">
         <v>5.42</v>
       </c>
-      <c r="AE421" s="5" t="n">
+      <c r="AE422" s="5" t="n">
         <v>6.6282</v>
       </c>
-      <c r="AF421" s="5" t="n">
+      <c r="AF422" s="5" t="n">
         <v>5.325</v>
       </c>
-      <c r="AG421" s="5" t="n">
+      <c r="AG422" s="5" t="n">
         <v>5.775</v>
       </c>
-      <c r="AH421" s="7" t="n">
+      <c r="AH422" s="7" t="n">
         <v>0.1795</v>
       </c>
-      <c r="AI421" s="7" t="n">
+      <c r="AI422" s="7" t="n">
         <v>0.0982</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="8" t="inlineStr">
-        <is>
-          <t>augmxnt/shisa-7b-v1</t>
-        </is>
-      </c>
-      <c r="B422" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C422" s="10" t="n">
-        <v>4.0222</v>
-      </c>
-      <c r="D422" s="10" t="n">
-        <v>4.143</v>
-      </c>
-      <c r="E422" s="9" t="n">
-        <v>4.1809</v>
-      </c>
-      <c r="F422" s="9" t="n">
-        <v>3.7288</v>
-      </c>
-      <c r="G422" s="9" t="n">
-        <v>3.6978</v>
-      </c>
-      <c r="H422" s="9" t="n">
-        <v>4.9645</v>
-      </c>
-      <c r="I422" s="10" t="n">
-        <v>3.3679</v>
-      </c>
-      <c r="J422" s="9" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="K422" s="9" t="n">
-        <v>3.0833</v>
-      </c>
-      <c r="L422" s="9" t="n">
-        <v>2.2917</v>
-      </c>
-      <c r="M422" s="9" t="n">
-        <v>4.3167</v>
-      </c>
-      <c r="N422" s="10" t="n">
-        <v>4.5004</v>
-      </c>
-      <c r="O422" s="9" t="n">
-        <v>4.6263</v>
-      </c>
-      <c r="P422" s="9" t="n">
-        <v>3.9474</v>
-      </c>
-      <c r="Q422" s="9" t="n">
-        <v>4.8947</v>
-      </c>
-      <c r="R422" s="9" t="n">
-        <v>4.5333</v>
-      </c>
-      <c r="S422" s="10" t="inlineStr"/>
-      <c r="T422" s="9" t="inlineStr"/>
-      <c r="U422" s="9" t="inlineStr"/>
-      <c r="V422" s="9" t="inlineStr"/>
-      <c r="W422" s="9" t="inlineStr"/>
-      <c r="X422" s="10" t="n">
-        <v>4.0873</v>
-      </c>
-      <c r="Y422" s="9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z422" s="9" t="n">
-        <v>3.7627</v>
-      </c>
-      <c r="AA422" s="9" t="n">
-        <v>3.725</v>
-      </c>
-      <c r="AB422" s="9" t="n">
-        <v>5.3613</v>
-      </c>
-      <c r="AC422" s="10" t="n">
-        <v>4.4907</v>
-      </c>
-      <c r="AD422" s="9" t="n">
-        <v>4.8283</v>
-      </c>
-      <c r="AE422" s="9" t="n">
-        <v>4.1333</v>
-      </c>
-      <c r="AF422" s="9" t="n">
-        <v>3.3514</v>
-      </c>
-      <c r="AG422" s="9" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AH422" s="11" t="n">
-        <v>-0.1063</v>
-      </c>
-      <c r="AI422" s="11" t="n">
-        <v>0.8739</v>
       </c>
     </row>
     <row r="423">
@@ -38216,430 +38192,604 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="4" t="inlineStr">
-        <is>
-          <t>tiiuae/Falcon3-10B-Instruct</t>
-        </is>
-      </c>
-      <c r="B426" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C426" s="6" t="n">
-        <v>4.0754</v>
-      </c>
-      <c r="D426" s="6" t="n">
-        <v>3.9261</v>
-      </c>
-      <c r="E426" s="5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F426" s="5" t="n">
-        <v>4.0375</v>
-      </c>
-      <c r="G426" s="5" t="n">
-        <v>2.3867</v>
-      </c>
-      <c r="H426" s="5" t="n">
-        <v>4.5303</v>
-      </c>
-      <c r="I426" s="6" t="n">
-        <v>3.3462</v>
-      </c>
-      <c r="J426" s="5" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K426" s="5" t="n">
-        <v>3.6667</v>
-      </c>
-      <c r="L426" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M426" s="5" t="n">
-        <v>3.6583</v>
-      </c>
-      <c r="N426" s="6" t="n">
-        <v>3.3153</v>
-      </c>
-      <c r="O426" s="5" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="P426" s="5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q426" s="5" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="R426" s="5" t="n">
-        <v>3.9664</v>
-      </c>
-      <c r="S426" s="6" t="inlineStr"/>
-      <c r="T426" s="5" t="inlineStr"/>
-      <c r="U426" s="5" t="inlineStr"/>
-      <c r="V426" s="5" t="inlineStr"/>
-      <c r="W426" s="5" t="inlineStr"/>
-      <c r="X426" s="6" t="n">
-        <v>4.4929</v>
-      </c>
-      <c r="Y426" s="5" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="Z426" s="5" t="n">
-        <v>5.0833</v>
-      </c>
-      <c r="AA426" s="5" t="n">
-        <v>3.3333</v>
-      </c>
-      <c r="AB426" s="5" t="n">
-        <v>5.275</v>
-      </c>
-      <c r="AC426" s="6" t="n">
-        <v>4.5363</v>
-      </c>
-      <c r="AD426" s="5" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="AE426" s="5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AF426" s="5" t="n">
-        <v>2.5385</v>
-      </c>
-      <c r="AG426" s="5" t="n">
-        <v>5.2167</v>
-      </c>
-      <c r="AH426" s="7" t="n">
-        <v>0.2292</v>
-      </c>
-      <c r="AI426" s="7" t="n">
-        <v>0.8413</v>
+      <c r="A426" s="8" t="inlineStr">
+        <is>
+          <t>augmxnt/shisa-7b-v1-run2</t>
+        </is>
+      </c>
+      <c r="B426" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C426" s="10" t="inlineStr"/>
+      <c r="D426" s="10" t="n">
+        <v>3.9525</v>
+      </c>
+      <c r="E426" s="9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F426" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G426" s="9" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="H426" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="I426" s="10" t="inlineStr"/>
+      <c r="J426" s="9" t="inlineStr"/>
+      <c r="K426" s="9" t="inlineStr"/>
+      <c r="L426" s="9" t="inlineStr"/>
+      <c r="M426" s="9" t="inlineStr"/>
+      <c r="N426" s="10" t="inlineStr"/>
+      <c r="O426" s="9" t="inlineStr"/>
+      <c r="P426" s="9" t="inlineStr"/>
+      <c r="Q426" s="9" t="inlineStr"/>
+      <c r="R426" s="9" t="inlineStr"/>
+      <c r="S426" s="10" t="n">
+        <v>3.9525</v>
+      </c>
+      <c r="T426" s="9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U426" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V426" s="9" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="W426" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="X426" s="10" t="inlineStr"/>
+      <c r="Y426" s="9" t="inlineStr"/>
+      <c r="Z426" s="9" t="inlineStr"/>
+      <c r="AA426" s="9" t="inlineStr"/>
+      <c r="AB426" s="9" t="inlineStr"/>
+      <c r="AC426" s="10" t="inlineStr"/>
+      <c r="AD426" s="9" t="inlineStr"/>
+      <c r="AE426" s="9" t="inlineStr"/>
+      <c r="AF426" s="9" t="inlineStr"/>
+      <c r="AG426" s="9" t="inlineStr"/>
+      <c r="AH426" s="11" t="inlineStr"/>
+      <c r="AI426" s="11" t="n">
+        <v>0.8816000000000001</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="4" t="inlineStr">
         <is>
+          <t>tiiuae/Falcon3-10B-Instruct</t>
+        </is>
+      </c>
+      <c r="B427" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C427" s="6" t="n">
+        <v>4.0754</v>
+      </c>
+      <c r="D427" s="6" t="n">
+        <v>3.9261</v>
+      </c>
+      <c r="E427" s="5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F427" s="5" t="n">
+        <v>4.0375</v>
+      </c>
+      <c r="G427" s="5" t="n">
+        <v>2.3867</v>
+      </c>
+      <c r="H427" s="5" t="n">
+        <v>4.5303</v>
+      </c>
+      <c r="I427" s="6" t="n">
+        <v>3.3462</v>
+      </c>
+      <c r="J427" s="5" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K427" s="5" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="L427" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M427" s="5" t="n">
+        <v>3.6583</v>
+      </c>
+      <c r="N427" s="6" t="n">
+        <v>3.3153</v>
+      </c>
+      <c r="O427" s="5" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="P427" s="5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q427" s="5" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="R427" s="5" t="n">
+        <v>3.9664</v>
+      </c>
+      <c r="S427" s="6" t="inlineStr"/>
+      <c r="T427" s="5" t="inlineStr"/>
+      <c r="U427" s="5" t="inlineStr"/>
+      <c r="V427" s="5" t="inlineStr"/>
+      <c r="W427" s="5" t="inlineStr"/>
+      <c r="X427" s="6" t="n">
+        <v>4.4929</v>
+      </c>
+      <c r="Y427" s="5" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Z427" s="5" t="n">
+        <v>5.0833</v>
+      </c>
+      <c r="AA427" s="5" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="AB427" s="5" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="AC427" s="6" t="n">
+        <v>4.5363</v>
+      </c>
+      <c r="AD427" s="5" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AE427" s="5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF427" s="5" t="n">
+        <v>2.5385</v>
+      </c>
+      <c r="AG427" s="5" t="n">
+        <v>5.2167</v>
+      </c>
+      <c r="AH427" s="7" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="AI427" s="7" t="n">
+        <v>0.8413</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="8" t="inlineStr">
+        <is>
+          <t>augmxnt/shisa-7b-v1</t>
+        </is>
+      </c>
+      <c r="B428" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C428" s="10" t="n">
+        <v>3.9635</v>
+      </c>
+      <c r="D428" s="10" t="n">
+        <v>3.9079</v>
+      </c>
+      <c r="E428" s="9" t="n">
+        <v>4.1526</v>
+      </c>
+      <c r="F428" s="9" t="n">
+        <v>3.5034</v>
+      </c>
+      <c r="G428" s="9" t="n">
+        <v>3.2961</v>
+      </c>
+      <c r="H428" s="9" t="n">
+        <v>4.6795</v>
+      </c>
+      <c r="I428" s="10" t="n">
+        <v>3.3679</v>
+      </c>
+      <c r="J428" s="9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K428" s="9" t="n">
+        <v>3.0833</v>
+      </c>
+      <c r="L428" s="9" t="n">
+        <v>2.2917</v>
+      </c>
+      <c r="M428" s="9" t="n">
+        <v>4.3167</v>
+      </c>
+      <c r="N428" s="10" t="n">
+        <v>4.5004</v>
+      </c>
+      <c r="O428" s="9" t="n">
+        <v>4.6263</v>
+      </c>
+      <c r="P428" s="9" t="n">
+        <v>3.9474</v>
+      </c>
+      <c r="Q428" s="9" t="n">
+        <v>4.8947</v>
+      </c>
+      <c r="R428" s="9" t="n">
+        <v>4.5333</v>
+      </c>
+      <c r="S428" s="10" t="n">
+        <v>3.0246</v>
+      </c>
+      <c r="T428" s="9" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U428" s="9" t="n">
+        <v>2.6167</v>
+      </c>
+      <c r="V428" s="9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W428" s="9" t="n">
+        <v>3.5417</v>
+      </c>
+      <c r="X428" s="10" t="n">
+        <v>4.0873</v>
+      </c>
+      <c r="Y428" s="9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z428" s="9" t="n">
+        <v>3.7627</v>
+      </c>
+      <c r="AA428" s="9" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="AB428" s="9" t="n">
+        <v>5.3613</v>
+      </c>
+      <c r="AC428" s="10" t="n">
+        <v>4.4907</v>
+      </c>
+      <c r="AD428" s="9" t="n">
+        <v>4.8283</v>
+      </c>
+      <c r="AE428" s="9" t="n">
+        <v>4.1333</v>
+      </c>
+      <c r="AF428" s="9" t="n">
+        <v>3.3514</v>
+      </c>
+      <c r="AG428" s="9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AH428" s="11" t="n">
+        <v>-0.1193</v>
+      </c>
+      <c r="AI428" s="11" t="n">
+        <v>0.8649</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="inlineStr">
+        <is>
           <t>011-qwen3-8b-v2-sft</t>
         </is>
       </c>
-      <c r="B427" s="5" t="n">
+      <c r="B429" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C427" s="6" t="inlineStr"/>
-      <c r="D427" s="6" t="n">
+      <c r="C429" s="6" t="inlineStr"/>
+      <c r="D429" s="6" t="n">
         <v>3.6138</v>
       </c>
-      <c r="E427" s="5" t="n">
+      <c r="E429" s="5" t="n">
         <v>5.899</v>
       </c>
-      <c r="F427" s="5" t="n">
+      <c r="F429" s="5" t="n">
         <v>3.5439</v>
       </c>
-      <c r="G427" s="5" t="n">
+      <c r="G429" s="5" t="n">
         <v>2.1622</v>
       </c>
-      <c r="H427" s="5" t="n">
+      <c r="H429" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="I427" s="6" t="inlineStr"/>
-      <c r="J427" s="5" t="inlineStr"/>
-      <c r="K427" s="5" t="inlineStr"/>
-      <c r="L427" s="5" t="inlineStr"/>
-      <c r="M427" s="5" t="inlineStr"/>
-      <c r="N427" s="6" t="inlineStr"/>
-      <c r="O427" s="5" t="inlineStr"/>
-      <c r="P427" s="5" t="inlineStr"/>
-      <c r="Q427" s="5" t="inlineStr"/>
-      <c r="R427" s="5" t="inlineStr"/>
-      <c r="S427" s="6" t="n">
+      <c r="I429" s="6" t="inlineStr"/>
+      <c r="J429" s="5" t="inlineStr"/>
+      <c r="K429" s="5" t="inlineStr"/>
+      <c r="L429" s="5" t="inlineStr"/>
+      <c r="M429" s="5" t="inlineStr"/>
+      <c r="N429" s="6" t="inlineStr"/>
+      <c r="O429" s="5" t="inlineStr"/>
+      <c r="P429" s="5" t="inlineStr"/>
+      <c r="Q429" s="5" t="inlineStr"/>
+      <c r="R429" s="5" t="inlineStr"/>
+      <c r="S429" s="6" t="n">
         <v>3.6138</v>
       </c>
-      <c r="T427" s="5" t="n">
+      <c r="T429" s="5" t="n">
         <v>5.899</v>
       </c>
-      <c r="U427" s="5" t="n">
+      <c r="U429" s="5" t="n">
         <v>3.5439</v>
       </c>
-      <c r="V427" s="5" t="n">
+      <c r="V429" s="5" t="n">
         <v>2.1622</v>
       </c>
-      <c r="W427" s="5" t="n">
+      <c r="W429" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="X427" s="6" t="inlineStr"/>
-      <c r="Y427" s="5" t="inlineStr"/>
-      <c r="Z427" s="5" t="inlineStr"/>
-      <c r="AA427" s="5" t="inlineStr"/>
-      <c r="AB427" s="5" t="inlineStr"/>
-      <c r="AC427" s="6" t="inlineStr"/>
-      <c r="AD427" s="5" t="inlineStr"/>
-      <c r="AE427" s="5" t="inlineStr"/>
-      <c r="AF427" s="5" t="inlineStr"/>
-      <c r="AG427" s="5" t="inlineStr"/>
-      <c r="AH427" s="7" t="inlineStr"/>
-      <c r="AI427" s="7" t="n">
+      <c r="X429" s="6" t="inlineStr"/>
+      <c r="Y429" s="5" t="inlineStr"/>
+      <c r="Z429" s="5" t="inlineStr"/>
+      <c r="AA429" s="5" t="inlineStr"/>
+      <c r="AB429" s="5" t="inlineStr"/>
+      <c r="AC429" s="6" t="inlineStr"/>
+      <c r="AD429" s="5" t="inlineStr"/>
+      <c r="AE429" s="5" t="inlineStr"/>
+      <c r="AF429" s="5" t="inlineStr"/>
+      <c r="AG429" s="5" t="inlineStr"/>
+      <c r="AH429" s="7" t="inlineStr"/>
+      <c r="AI429" s="7" t="n">
         <v>0.3285</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="4" t="inlineStr">
+    <row r="430">
+      <c r="A430" s="4" t="inlineStr">
         <is>
           <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
         </is>
       </c>
-      <c r="B428" s="5" t="n">
+      <c r="B430" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C428" s="6" t="n">
+      <c r="C430" s="6" t="n">
         <v>1.4372</v>
       </c>
-      <c r="D428" s="6" t="n">
+      <c r="D430" s="6" t="n">
         <v>1.3659</v>
       </c>
-      <c r="E428" s="5" t="n">
+      <c r="E430" s="5" t="n">
         <v>2.035</v>
       </c>
-      <c r="F428" s="5" t="n">
+      <c r="F430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G428" s="5" t="n">
+      <c r="G430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H428" s="5" t="n">
+      <c r="H430" s="5" t="n">
         <v>1.4286</v>
       </c>
-      <c r="I428" s="6" t="n">
+      <c r="I430" s="6" t="n">
         <v>1.0958</v>
       </c>
-      <c r="J428" s="5" t="n">
+      <c r="J430" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K428" s="5" t="n">
+      <c r="K430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L428" s="5" t="n">
+      <c r="L430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M428" s="5" t="n">
+      <c r="M430" s="5" t="n">
         <v>0.3833</v>
       </c>
-      <c r="N428" s="6" t="n">
+      <c r="N430" s="6" t="n">
         <v>1.0319</v>
       </c>
-      <c r="O428" s="5" t="n">
+      <c r="O430" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="P428" s="5" t="n">
+      <c r="P430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q428" s="5" t="n">
+      <c r="Q430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R428" s="5" t="n">
+      <c r="R430" s="5" t="n">
         <v>0.1275</v>
       </c>
-      <c r="S428" s="6" t="inlineStr"/>
-      <c r="T428" s="5" t="inlineStr"/>
-      <c r="U428" s="5" t="inlineStr"/>
-      <c r="V428" s="5" t="inlineStr"/>
-      <c r="W428" s="5" t="inlineStr"/>
-      <c r="X428" s="6" t="n">
+      <c r="S430" s="6" t="inlineStr"/>
+      <c r="T430" s="5" t="inlineStr"/>
+      <c r="U430" s="5" t="inlineStr"/>
+      <c r="V430" s="5" t="inlineStr"/>
+      <c r="W430" s="5" t="inlineStr"/>
+      <c r="X430" s="6" t="n">
         <v>1.7583</v>
       </c>
-      <c r="Y428" s="5" t="n">
+      <c r="Y430" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Z428" s="5" t="n">
+      <c r="Z430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA428" s="5" t="n">
+      <c r="AA430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB428" s="5" t="n">
+      <c r="AB430" s="5" t="n">
         <v>3.0333</v>
       </c>
-      <c r="AC428" s="6" t="n">
+      <c r="AC430" s="6" t="n">
         <v>1.5288</v>
       </c>
-      <c r="AD428" s="5" t="n">
+      <c r="AD430" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AE428" s="5" t="n">
+      <c r="AE430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF428" s="5" t="n">
+      <c r="AF430" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AG428" s="5" t="n">
+      <c r="AG430" s="5" t="n">
         <v>1.975</v>
       </c>
-      <c r="AH428" s="7" t="n">
+      <c r="AH430" s="7" t="n">
         <v>0.3928</v>
       </c>
-      <c r="AI428" s="7" t="n">
+      <c r="AI430" s="7" t="n">
         <v>0.4017</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C428">
+  <conditionalFormatting sqref="C2:C430">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($C$2:$C$428)</formula>
+      <formula>MAX($C$2:$C$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D428">
+  <conditionalFormatting sqref="D2:D430">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($D$2:$D$428)</formula>
+      <formula>MAX($D$2:$D$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E428">
+  <conditionalFormatting sqref="E2:E430">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($E$2:$E$428)</formula>
+      <formula>MAX($E$2:$E$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F428">
+  <conditionalFormatting sqref="F2:F430">
     <cfRule type="cellIs" priority="4" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($F$2:$F$428)</formula>
+      <formula>MAX($F$2:$F$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G428">
+  <conditionalFormatting sqref="G2:G430">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($G$2:$G$428)</formula>
+      <formula>MAX($G$2:$G$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H428">
+  <conditionalFormatting sqref="H2:H430">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($H$2:$H$428)</formula>
+      <formula>MAX($H$2:$H$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I428">
+  <conditionalFormatting sqref="I2:I430">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($I$2:$I$428)</formula>
+      <formula>MAX($I$2:$I$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J428">
+  <conditionalFormatting sqref="J2:J430">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($J$2:$J$428)</formula>
+      <formula>MAX($J$2:$J$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K428">
+  <conditionalFormatting sqref="K2:K430">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($K$2:$K$428)</formula>
+      <formula>MAX($K$2:$K$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L428">
+  <conditionalFormatting sqref="L2:L430">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($L$2:$L$428)</formula>
+      <formula>MAX($L$2:$L$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M428">
+  <conditionalFormatting sqref="M2:M430">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($M$2:$M$428)</formula>
+      <formula>MAX($M$2:$M$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N428">
+  <conditionalFormatting sqref="N2:N430">
     <cfRule type="cellIs" priority="12" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($N$2:$N$428)</formula>
+      <formula>MAX($N$2:$N$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O428">
+  <conditionalFormatting sqref="O2:O430">
     <cfRule type="cellIs" priority="13" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($O$2:$O$428)</formula>
+      <formula>MAX($O$2:$O$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P428">
+  <conditionalFormatting sqref="P2:P430">
     <cfRule type="cellIs" priority="14" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($P$2:$P$428)</formula>
+      <formula>MAX($P$2:$P$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q428">
+  <conditionalFormatting sqref="Q2:Q430">
     <cfRule type="cellIs" priority="15" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Q$2:$Q$428)</formula>
+      <formula>MAX($Q$2:$Q$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R428">
+  <conditionalFormatting sqref="R2:R430">
     <cfRule type="cellIs" priority="16" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($R$2:$R$428)</formula>
+      <formula>MAX($R$2:$R$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S428">
+  <conditionalFormatting sqref="S2:S430">
     <cfRule type="cellIs" priority="17" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($S$2:$S$428)</formula>
+      <formula>MAX($S$2:$S$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T428">
+  <conditionalFormatting sqref="T2:T430">
     <cfRule type="cellIs" priority="18" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($T$2:$T$428)</formula>
+      <formula>MAX($T$2:$T$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U428">
+  <conditionalFormatting sqref="U2:U430">
     <cfRule type="cellIs" priority="19" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($U$2:$U$428)</formula>
+      <formula>MAX($U$2:$U$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V428">
+  <conditionalFormatting sqref="V2:V430">
     <cfRule type="cellIs" priority="20" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($V$2:$V$428)</formula>
+      <formula>MAX($V$2:$V$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W428">
+  <conditionalFormatting sqref="W2:W430">
     <cfRule type="cellIs" priority="21" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($W$2:$W$428)</formula>
+      <formula>MAX($W$2:$W$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X428">
+  <conditionalFormatting sqref="X2:X430">
     <cfRule type="cellIs" priority="22" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($X$2:$X$428)</formula>
+      <formula>MAX($X$2:$X$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y428">
+  <conditionalFormatting sqref="Y2:Y430">
     <cfRule type="cellIs" priority="23" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Y$2:$Y$428)</formula>
+      <formula>MAX($Y$2:$Y$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z428">
+  <conditionalFormatting sqref="Z2:Z430">
     <cfRule type="cellIs" priority="24" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Z$2:$Z$428)</formula>
+      <formula>MAX($Z$2:$Z$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA428">
+  <conditionalFormatting sqref="AA2:AA430">
     <cfRule type="cellIs" priority="25" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AA$2:$AA$428)</formula>
+      <formula>MAX($AA$2:$AA$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB428">
+  <conditionalFormatting sqref="AB2:AB430">
     <cfRule type="cellIs" priority="26" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AB$2:$AB$428)</formula>
+      <formula>MAX($AB$2:$AB$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC428">
+  <conditionalFormatting sqref="AC2:AC430">
     <cfRule type="cellIs" priority="27" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AC$2:$AC$428)</formula>
+      <formula>MAX($AC$2:$AC$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD428">
+  <conditionalFormatting sqref="AD2:AD430">
     <cfRule type="cellIs" priority="28" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AD$2:$AD$428)</formula>
+      <formula>MAX($AD$2:$AD$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE428">
+  <conditionalFormatting sqref="AE2:AE430">
     <cfRule type="cellIs" priority="29" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AE$2:$AE$428)</formula>
+      <formula>MAX($AE$2:$AE$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF428">
+  <conditionalFormatting sqref="AF2:AF430">
     <cfRule type="cellIs" priority="30" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AF$2:$AF$428)</formula>
+      <formula>MAX($AF$2:$AF$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG428">
+  <conditionalFormatting sqref="AG2:AG430">
     <cfRule type="cellIs" priority="31" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AG$2:$AG$428)</formula>
+      <formula>MAX($AG$2:$AG$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH428">
+  <conditionalFormatting sqref="AH2:AH430">
     <cfRule type="cellIs" priority="32" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AH$2:$AH$428)</formula>
+      <formula>MAX($AH$2:$AH$430)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI428">
+  <conditionalFormatting sqref="AI2:AI430">
     <cfRule type="cellIs" priority="33" operator="lessThan" dxfId="1" stopIfTrue="1">
       <formula>0.5</formula>
     </cfRule>

--- a/output-multi.xlsx
+++ b/output-multi.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI440"/>
+  <dimension ref="A1:AI443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -37749,7 +37749,7 @@
     <row r="423">
       <c r="A423" s="4" t="inlineStr">
         <is>
-          <t>013-qwen3-8b-v2-dpo</t>
+          <t>037-rakuten-2.0-mini-instruct-1.5b-v2new-dpo405b</t>
         </is>
       </c>
       <c r="B423" s="5" t="n">
@@ -37757,19 +37757,19 @@
       </c>
       <c r="C423" s="6" t="inlineStr"/>
       <c r="D423" s="6" t="n">
-        <v>5.0971</v>
+        <v>5.0987</v>
       </c>
       <c r="E423" s="5" t="n">
-        <v>7.3673</v>
+        <v>5.42</v>
       </c>
       <c r="F423" s="5" t="n">
-        <v>5.0877</v>
+        <v>4.6</v>
       </c>
       <c r="G423" s="5" t="n">
-        <v>4.1667</v>
+        <v>5.675</v>
       </c>
       <c r="H423" s="5" t="n">
-        <v>3.7667</v>
+        <v>4.7</v>
       </c>
       <c r="I423" s="6" t="inlineStr"/>
       <c r="J423" s="5" t="inlineStr"/>
@@ -37782,19 +37782,19 @@
       <c r="Q423" s="5" t="inlineStr"/>
       <c r="R423" s="5" t="inlineStr"/>
       <c r="S423" s="6" t="n">
-        <v>5.0971</v>
+        <v>5.0987</v>
       </c>
       <c r="T423" s="5" t="n">
-        <v>7.3673</v>
+        <v>5.42</v>
       </c>
       <c r="U423" s="5" t="n">
-        <v>5.0877</v>
+        <v>4.6</v>
       </c>
       <c r="V423" s="5" t="n">
-        <v>4.1667</v>
+        <v>5.675</v>
       </c>
       <c r="W423" s="5" t="n">
-        <v>3.7667</v>
+        <v>4.7</v>
       </c>
       <c r="X423" s="6" t="inlineStr"/>
       <c r="Y423" s="5" t="inlineStr"/>
@@ -37808,713 +37808,679 @@
       <c r="AG423" s="5" t="inlineStr"/>
       <c r="AH423" s="7" t="inlineStr"/>
       <c r="AI423" s="7" t="n">
-        <v>0.4336</v>
+        <v>0.8058999999999999</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Llama-2-13b-chat-hf</t>
+          <t>013-qwen3-8b-v2-dpo</t>
         </is>
       </c>
       <c r="B424" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C424" s="6" t="n">
-        <v>5.1613</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C424" s="6" t="inlineStr"/>
       <c r="D424" s="6" t="n">
-        <v>5.05</v>
+        <v>5.0971</v>
       </c>
       <c r="E424" s="5" t="n">
-        <v>5.545</v>
+        <v>7.3673</v>
       </c>
       <c r="F424" s="5" t="n">
-        <v>6.1487</v>
+        <v>5.0877</v>
       </c>
       <c r="G424" s="5" t="n">
-        <v>3.3333</v>
+        <v>4.1667</v>
       </c>
       <c r="H424" s="5" t="n">
-        <v>5.1729</v>
-      </c>
-      <c r="I424" s="6" t="n">
-        <v>4.442</v>
-      </c>
-      <c r="J424" s="5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K424" s="5" t="n">
-        <v>5.3205</v>
-      </c>
-      <c r="L424" s="5" t="n">
-        <v>3.0476</v>
-      </c>
-      <c r="M424" s="5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N424" s="6" t="n">
-        <v>4.5756</v>
-      </c>
-      <c r="O424" s="5" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P424" s="5" t="n">
-        <v>5.7125</v>
-      </c>
-      <c r="Q424" s="5" t="n">
-        <v>2.275</v>
-      </c>
-      <c r="R424" s="5" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="S424" s="6" t="inlineStr"/>
-      <c r="T424" s="5" t="inlineStr"/>
-      <c r="U424" s="5" t="inlineStr"/>
-      <c r="V424" s="5" t="inlineStr"/>
-      <c r="W424" s="5" t="inlineStr"/>
-      <c r="X424" s="6" t="n">
-        <v>5.1012</v>
-      </c>
-      <c r="Y424" s="5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z424" s="5" t="n">
-        <v>6.5625</v>
-      </c>
-      <c r="AA424" s="5" t="n">
-        <v>2.8421</v>
-      </c>
-      <c r="AB424" s="5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC424" s="6" t="n">
-        <v>6.052</v>
-      </c>
-      <c r="AD424" s="5" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AE424" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF424" s="5" t="n">
-        <v>5.0513</v>
-      </c>
-      <c r="AG424" s="5" t="n">
-        <v>5.9167</v>
-      </c>
-      <c r="AH424" s="7" t="n">
-        <v>0.128</v>
-      </c>
+        <v>3.7667</v>
+      </c>
+      <c r="I424" s="6" t="inlineStr"/>
+      <c r="J424" s="5" t="inlineStr"/>
+      <c r="K424" s="5" t="inlineStr"/>
+      <c r="L424" s="5" t="inlineStr"/>
+      <c r="M424" s="5" t="inlineStr"/>
+      <c r="N424" s="6" t="inlineStr"/>
+      <c r="O424" s="5" t="inlineStr"/>
+      <c r="P424" s="5" t="inlineStr"/>
+      <c r="Q424" s="5" t="inlineStr"/>
+      <c r="R424" s="5" t="inlineStr"/>
+      <c r="S424" s="6" t="n">
+        <v>5.0971</v>
+      </c>
+      <c r="T424" s="5" t="n">
+        <v>7.3673</v>
+      </c>
+      <c r="U424" s="5" t="n">
+        <v>5.0877</v>
+      </c>
+      <c r="V424" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="W424" s="5" t="n">
+        <v>3.7667</v>
+      </c>
+      <c r="X424" s="6" t="inlineStr"/>
+      <c r="Y424" s="5" t="inlineStr"/>
+      <c r="Z424" s="5" t="inlineStr"/>
+      <c r="AA424" s="5" t="inlineStr"/>
+      <c r="AB424" s="5" t="inlineStr"/>
+      <c r="AC424" s="6" t="inlineStr"/>
+      <c r="AD424" s="5" t="inlineStr"/>
+      <c r="AE424" s="5" t="inlineStr"/>
+      <c r="AF424" s="5" t="inlineStr"/>
+      <c r="AG424" s="5" t="inlineStr"/>
+      <c r="AH424" s="7" t="inlineStr"/>
       <c r="AI424" s="7" t="n">
-        <v>0.1084</v>
+        <v>0.4336</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="4" t="inlineStr">
         <is>
-          <t>HuggingFaceH4/zephyr-7b-beta</t>
+          <t>meta-llama/Llama-2-13b-chat-hf</t>
         </is>
       </c>
       <c r="B425" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C425" s="6" t="n">
-        <v>4.9535</v>
+        <v>5.1613</v>
       </c>
       <c r="D425" s="6" t="n">
-        <v>4.9783</v>
+        <v>5.05</v>
       </c>
       <c r="E425" s="5" t="n">
-        <v>5.0867</v>
+        <v>5.545</v>
       </c>
       <c r="F425" s="5" t="n">
-        <v>5.6949</v>
+        <v>6.1487</v>
       </c>
       <c r="G425" s="5" t="n">
-        <v>4.2371</v>
+        <v>3.3333</v>
       </c>
       <c r="H425" s="5" t="n">
-        <v>4.8944</v>
+        <v>5.1729</v>
       </c>
       <c r="I425" s="6" t="n">
-        <v>4.0854</v>
+        <v>4.442</v>
       </c>
       <c r="J425" s="5" t="n">
-        <v>4.26</v>
+        <v>5.1</v>
       </c>
       <c r="K425" s="5" t="n">
-        <v>4.8983</v>
+        <v>5.3205</v>
       </c>
       <c r="L425" s="5" t="n">
-        <v>3.4</v>
+        <v>3.0476</v>
       </c>
       <c r="M425" s="5" t="n">
-        <v>3.7833</v>
-      </c>
-      <c r="N425" s="6" t="inlineStr"/>
-      <c r="O425" s="5" t="inlineStr"/>
-      <c r="P425" s="5" t="inlineStr"/>
-      <c r="Q425" s="5" t="inlineStr"/>
-      <c r="R425" s="5" t="inlineStr"/>
+        <v>4.3</v>
+      </c>
+      <c r="N425" s="6" t="n">
+        <v>4.5756</v>
+      </c>
+      <c r="O425" s="5" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P425" s="5" t="n">
+        <v>5.7125</v>
+      </c>
+      <c r="Q425" s="5" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="R425" s="5" t="n">
+        <v>4.675</v>
+      </c>
       <c r="S425" s="6" t="inlineStr"/>
       <c r="T425" s="5" t="inlineStr"/>
       <c r="U425" s="5" t="inlineStr"/>
       <c r="V425" s="5" t="inlineStr"/>
       <c r="W425" s="5" t="inlineStr"/>
       <c r="X425" s="6" t="n">
-        <v>5.3704</v>
+        <v>5.1012</v>
       </c>
       <c r="Y425" s="5" t="n">
-        <v>4.96</v>
+        <v>5.2</v>
       </c>
       <c r="Z425" s="5" t="n">
-        <v>6.322</v>
+        <v>6.5625</v>
       </c>
       <c r="AA425" s="5" t="n">
-        <v>4.6579</v>
+        <v>2.8421</v>
       </c>
       <c r="AB425" s="5" t="n">
-        <v>5.5417</v>
+        <v>5.8</v>
       </c>
       <c r="AC425" s="6" t="n">
-        <v>5.3798</v>
+        <v>6.052</v>
       </c>
       <c r="AD425" s="5" t="n">
-        <v>6.04</v>
+        <v>6.24</v>
       </c>
       <c r="AE425" s="5" t="n">
-        <v>5.8644</v>
+        <v>7</v>
       </c>
       <c r="AF425" s="5" t="n">
-        <v>4.2564</v>
+        <v>5.0513</v>
       </c>
       <c r="AG425" s="5" t="n">
-        <v>5.3583</v>
-      </c>
-      <c r="AH425" s="7" t="inlineStr"/>
+        <v>5.9167</v>
+      </c>
+      <c r="AH425" s="7" t="n">
+        <v>0.128</v>
+      </c>
       <c r="AI425" s="7" t="n">
-        <v>0.6506999999999999</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="8" t="inlineStr">
-        <is>
-          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1-2x</t>
-        </is>
-      </c>
-      <c r="B426" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C426" s="10" t="n">
-        <v>4.8126</v>
-      </c>
-      <c r="D426" s="10" t="n">
-        <v>4.8369</v>
-      </c>
-      <c r="E426" s="9" t="n">
-        <v>5.3533</v>
-      </c>
-      <c r="F426" s="9" t="n">
-        <v>4.7944</v>
-      </c>
-      <c r="G426" s="9" t="n">
-        <v>3.3913</v>
-      </c>
-      <c r="H426" s="9" t="n">
-        <v>5.8083</v>
-      </c>
-      <c r="I426" s="10" t="n">
-        <v>3.7326</v>
-      </c>
-      <c r="J426" s="9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K426" s="9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L426" s="9" t="n">
-        <v>1.8889</v>
-      </c>
-      <c r="M426" s="9" t="n">
-        <v>4.4417</v>
-      </c>
-      <c r="N426" s="10" t="inlineStr"/>
-      <c r="O426" s="9" t="inlineStr"/>
-      <c r="P426" s="9" t="inlineStr"/>
-      <c r="Q426" s="9" t="inlineStr"/>
-      <c r="R426" s="9" t="inlineStr"/>
-      <c r="S426" s="10" t="inlineStr"/>
-      <c r="T426" s="9" t="inlineStr"/>
-      <c r="U426" s="9" t="inlineStr"/>
-      <c r="V426" s="9" t="inlineStr"/>
-      <c r="W426" s="9" t="inlineStr"/>
-      <c r="X426" s="10" t="n">
-        <v>5.6451</v>
-      </c>
-      <c r="Y426" s="9" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="Z426" s="9" t="n">
-        <v>5.5833</v>
-      </c>
-      <c r="AA426" s="9" t="n">
-        <v>4.2821</v>
-      </c>
-      <c r="AB426" s="9" t="n">
-        <v>6.675</v>
-      </c>
-      <c r="AC426" s="10" t="n">
-        <v>5.0359</v>
-      </c>
-      <c r="AD426" s="9" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="AE426" s="9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AF426" s="9" t="n">
-        <v>3.6154</v>
-      </c>
-      <c r="AG426" s="9" t="n">
-        <v>6.3083</v>
-      </c>
-      <c r="AH426" s="11" t="inlineStr"/>
-      <c r="AI426" s="11" t="n">
-        <v>0.6113</v>
+      <c r="A426" s="4" t="inlineStr">
+        <is>
+          <t>035-rakuten-2.0-mini-1.5b-v2new-dpo405b</t>
+        </is>
+      </c>
+      <c r="B426" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C426" s="6" t="inlineStr"/>
+      <c r="D426" s="6" t="n">
+        <v>5.0388</v>
+      </c>
+      <c r="E426" s="5" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F426" s="5" t="n">
+        <v>4.6167</v>
+      </c>
+      <c r="G426" s="5" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="H426" s="5" t="n">
+        <v>5.2833</v>
+      </c>
+      <c r="I426" s="6" t="inlineStr"/>
+      <c r="J426" s="5" t="inlineStr"/>
+      <c r="K426" s="5" t="inlineStr"/>
+      <c r="L426" s="5" t="inlineStr"/>
+      <c r="M426" s="5" t="inlineStr"/>
+      <c r="N426" s="6" t="inlineStr"/>
+      <c r="O426" s="5" t="inlineStr"/>
+      <c r="P426" s="5" t="inlineStr"/>
+      <c r="Q426" s="5" t="inlineStr"/>
+      <c r="R426" s="5" t="inlineStr"/>
+      <c r="S426" s="6" t="n">
+        <v>5.0388</v>
+      </c>
+      <c r="T426" s="5" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U426" s="5" t="n">
+        <v>4.6167</v>
+      </c>
+      <c r="V426" s="5" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="W426" s="5" t="n">
+        <v>5.2833</v>
+      </c>
+      <c r="X426" s="6" t="inlineStr"/>
+      <c r="Y426" s="5" t="inlineStr"/>
+      <c r="Z426" s="5" t="inlineStr"/>
+      <c r="AA426" s="5" t="inlineStr"/>
+      <c r="AB426" s="5" t="inlineStr"/>
+      <c r="AC426" s="6" t="inlineStr"/>
+      <c r="AD426" s="5" t="inlineStr"/>
+      <c r="AE426" s="5" t="inlineStr"/>
+      <c r="AF426" s="5" t="inlineStr"/>
+      <c r="AG426" s="5" t="inlineStr"/>
+      <c r="AH426" s="7" t="inlineStr"/>
+      <c r="AI426" s="7" t="n">
+        <v>0.8176</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="4" t="inlineStr">
         <is>
-          <t>allenai/OLMo-2-1124-7B-Instruct</t>
+          <t>HuggingFaceH4/zephyr-7b-beta</t>
         </is>
       </c>
       <c r="B427" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C427" s="6" t="n">
-        <v>5.0893</v>
+        <v>4.9535</v>
       </c>
       <c r="D427" s="6" t="n">
-        <v>4.8083</v>
+        <v>4.9783</v>
       </c>
       <c r="E427" s="5" t="n">
-        <v>4.9023</v>
+        <v>5.0867</v>
       </c>
       <c r="F427" s="5" t="n">
-        <v>5.3333</v>
+        <v>5.6949</v>
       </c>
       <c r="G427" s="5" t="n">
-        <v>3.9851</v>
+        <v>4.2371</v>
       </c>
       <c r="H427" s="5" t="n">
-        <v>5.0125</v>
+        <v>4.8944</v>
       </c>
       <c r="I427" s="6" t="n">
-        <v>4.2815</v>
+        <v>4.0854</v>
       </c>
       <c r="J427" s="5" t="n">
-        <v>4.46</v>
+        <v>4.26</v>
       </c>
       <c r="K427" s="5" t="n">
-        <v>5.1017</v>
+        <v>4.8983</v>
       </c>
       <c r="L427" s="5" t="n">
-        <v>3.3478</v>
+        <v>3.4</v>
       </c>
       <c r="M427" s="5" t="n">
-        <v>4.2167</v>
-      </c>
-      <c r="N427" s="6" t="n">
-        <v>3.6277</v>
-      </c>
-      <c r="O427" s="5" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="P427" s="5" t="n">
-        <v>3.8103</v>
-      </c>
-      <c r="Q427" s="5" t="n">
-        <v>2.4872</v>
-      </c>
-      <c r="R427" s="5" t="n">
-        <v>3.7333</v>
-      </c>
+        <v>3.7833</v>
+      </c>
+      <c r="N427" s="6" t="inlineStr"/>
+      <c r="O427" s="5" t="inlineStr"/>
+      <c r="P427" s="5" t="inlineStr"/>
+      <c r="Q427" s="5" t="inlineStr"/>
+      <c r="R427" s="5" t="inlineStr"/>
       <c r="S427" s="6" t="inlineStr"/>
       <c r="T427" s="5" t="inlineStr"/>
       <c r="U427" s="5" t="inlineStr"/>
       <c r="V427" s="5" t="inlineStr"/>
       <c r="W427" s="5" t="inlineStr"/>
       <c r="X427" s="6" t="n">
-        <v>5.8435</v>
+        <v>5.3704</v>
       </c>
       <c r="Y427" s="5" t="n">
-        <v>4.7879</v>
+        <v>4.96</v>
       </c>
       <c r="Z427" s="5" t="n">
-        <v>6.7</v>
+        <v>6.322</v>
       </c>
       <c r="AA427" s="5" t="n">
-        <v>5.5526</v>
+        <v>4.6579</v>
       </c>
       <c r="AB427" s="5" t="n">
-        <v>6.3333</v>
+        <v>5.5417</v>
       </c>
       <c r="AC427" s="6" t="n">
-        <v>5.4239</v>
+        <v>5.3798</v>
       </c>
       <c r="AD427" s="5" t="n">
-        <v>5.88</v>
+        <v>6.04</v>
       </c>
       <c r="AE427" s="5" t="n">
-        <v>5.6667</v>
+        <v>5.8644</v>
       </c>
       <c r="AF427" s="5" t="n">
-        <v>4.3824</v>
+        <v>4.2564</v>
       </c>
       <c r="AG427" s="5" t="n">
-        <v>5.7667</v>
-      </c>
-      <c r="AH427" s="7" t="n">
-        <v>0.4029</v>
-      </c>
+        <v>5.3583</v>
+      </c>
+      <c r="AH427" s="7" t="inlineStr"/>
       <c r="AI427" s="7" t="n">
-        <v>0.8236</v>
+        <v>0.6506999999999999</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-v1-llama3-8b.lr-2e4</t>
+          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1-2x</t>
         </is>
       </c>
       <c r="B428" s="9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C428" s="10" t="n">
-        <v>4.8435</v>
+        <v>4.8126</v>
       </c>
       <c r="D428" s="10" t="n">
-        <v>4.7051</v>
+        <v>4.8369</v>
       </c>
       <c r="E428" s="9" t="n">
-        <v>4.59</v>
+        <v>5.3533</v>
       </c>
       <c r="F428" s="9" t="n">
-        <v>5.6318</v>
+        <v>4.7944</v>
       </c>
       <c r="G428" s="9" t="n">
-        <v>4.6194</v>
+        <v>3.3913</v>
       </c>
       <c r="H428" s="9" t="n">
-        <v>3.9792</v>
+        <v>5.8083</v>
       </c>
       <c r="I428" s="10" t="n">
-        <v>3.926</v>
+        <v>3.7326</v>
       </c>
       <c r="J428" s="9" t="n">
-        <v>4.04</v>
+        <v>4.4</v>
       </c>
       <c r="K428" s="9" t="n">
-        <v>5.3667</v>
+        <v>4.2</v>
       </c>
       <c r="L428" s="9" t="n">
-        <v>3.0556</v>
+        <v>1.8889</v>
       </c>
       <c r="M428" s="9" t="n">
-        <v>3.2417</v>
-      </c>
-      <c r="N428" s="10" t="n">
-        <v>3.9238</v>
-      </c>
-      <c r="O428" s="9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P428" s="9" t="n">
-        <v>4.4833</v>
-      </c>
-      <c r="Q428" s="9" t="n">
-        <v>3.3784</v>
-      </c>
-      <c r="R428" s="9" t="n">
-        <v>3.1333</v>
-      </c>
+        <v>4.4417</v>
+      </c>
+      <c r="N428" s="10" t="inlineStr"/>
+      <c r="O428" s="9" t="inlineStr"/>
+      <c r="P428" s="9" t="inlineStr"/>
+      <c r="Q428" s="9" t="inlineStr"/>
+      <c r="R428" s="9" t="inlineStr"/>
       <c r="S428" s="10" t="inlineStr"/>
       <c r="T428" s="9" t="inlineStr"/>
       <c r="U428" s="9" t="inlineStr"/>
       <c r="V428" s="9" t="inlineStr"/>
       <c r="W428" s="9" t="inlineStr"/>
       <c r="X428" s="10" t="n">
-        <v>5.365</v>
+        <v>5.6451</v>
       </c>
       <c r="Y428" s="9" t="n">
-        <v>4.38</v>
+        <v>6.04</v>
       </c>
       <c r="Z428" s="9" t="n">
-        <v>6.35</v>
+        <v>5.5833</v>
       </c>
       <c r="AA428" s="9" t="n">
-        <v>5.8718</v>
+        <v>4.2821</v>
       </c>
       <c r="AB428" s="9" t="n">
-        <v>4.8583</v>
+        <v>6.675</v>
       </c>
       <c r="AC428" s="10" t="n">
-        <v>5.3781</v>
+        <v>5.0359</v>
       </c>
       <c r="AD428" s="9" t="n">
-        <v>5.24</v>
+        <v>5.62</v>
       </c>
       <c r="AE428" s="9" t="n">
-        <v>6.339</v>
+        <v>4.6</v>
       </c>
       <c r="AF428" s="9" t="n">
-        <v>5.25</v>
+        <v>3.6154</v>
       </c>
       <c r="AG428" s="9" t="n">
-        <v>4.6833</v>
-      </c>
-      <c r="AH428" s="11" t="n">
-        <v>0.2344</v>
-      </c>
+        <v>6.3083</v>
+      </c>
+      <c r="AH428" s="11" t="inlineStr"/>
       <c r="AI428" s="11" t="n">
-        <v>0.8754</v>
+        <v>0.6113</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="4" t="inlineStr">
         <is>
-          <t>017-qwen3-8b-v2-dpo405b-clr</t>
+          <t>allenai/OLMo-2-1124-7B-Instruct</t>
         </is>
       </c>
       <c r="B429" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C429" s="6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C429" s="6" t="n">
+        <v>5.0893</v>
+      </c>
       <c r="D429" s="6" t="n">
-        <v>4.6651</v>
+        <v>4.8083</v>
       </c>
       <c r="E429" s="5" t="n">
-        <v>6.72</v>
+        <v>4.9023</v>
       </c>
       <c r="F429" s="5" t="n">
-        <v>4.3929</v>
+        <v>5.3333</v>
       </c>
       <c r="G429" s="5" t="n">
-        <v>3.4474</v>
+        <v>3.9851</v>
       </c>
       <c r="H429" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I429" s="6" t="inlineStr"/>
-      <c r="J429" s="5" t="inlineStr"/>
-      <c r="K429" s="5" t="inlineStr"/>
-      <c r="L429" s="5" t="inlineStr"/>
-      <c r="M429" s="5" t="inlineStr"/>
-      <c r="N429" s="6" t="inlineStr"/>
-      <c r="O429" s="5" t="inlineStr"/>
-      <c r="P429" s="5" t="inlineStr"/>
-      <c r="Q429" s="5" t="inlineStr"/>
-      <c r="R429" s="5" t="inlineStr"/>
-      <c r="S429" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="T429" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="U429" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="V429" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="W429" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X429" s="6" t="inlineStr"/>
-      <c r="Y429" s="5" t="inlineStr"/>
-      <c r="Z429" s="5" t="inlineStr"/>
-      <c r="AA429" s="5" t="inlineStr"/>
-      <c r="AB429" s="5" t="inlineStr"/>
-      <c r="AC429" s="6" t="inlineStr"/>
-      <c r="AD429" s="5" t="inlineStr"/>
-      <c r="AE429" s="5" t="inlineStr"/>
-      <c r="AF429" s="5" t="inlineStr"/>
-      <c r="AG429" s="5" t="inlineStr"/>
-      <c r="AH429" s="7" t="inlineStr"/>
+        <v>5.0125</v>
+      </c>
+      <c r="I429" s="6" t="n">
+        <v>4.2815</v>
+      </c>
+      <c r="J429" s="5" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="K429" s="5" t="n">
+        <v>5.1017</v>
+      </c>
+      <c r="L429" s="5" t="n">
+        <v>3.3478</v>
+      </c>
+      <c r="M429" s="5" t="n">
+        <v>4.2167</v>
+      </c>
+      <c r="N429" s="6" t="n">
+        <v>3.6277</v>
+      </c>
+      <c r="O429" s="5" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="P429" s="5" t="n">
+        <v>3.8103</v>
+      </c>
+      <c r="Q429" s="5" t="n">
+        <v>2.4872</v>
+      </c>
+      <c r="R429" s="5" t="n">
+        <v>3.7333</v>
+      </c>
+      <c r="S429" s="6" t="inlineStr"/>
+      <c r="T429" s="5" t="inlineStr"/>
+      <c r="U429" s="5" t="inlineStr"/>
+      <c r="V429" s="5" t="inlineStr"/>
+      <c r="W429" s="5" t="inlineStr"/>
+      <c r="X429" s="6" t="n">
+        <v>5.8435</v>
+      </c>
+      <c r="Y429" s="5" t="n">
+        <v>4.7879</v>
+      </c>
+      <c r="Z429" s="5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA429" s="5" t="n">
+        <v>5.5526</v>
+      </c>
+      <c r="AB429" s="5" t="n">
+        <v>6.3333</v>
+      </c>
+      <c r="AC429" s="6" t="n">
+        <v>5.4239</v>
+      </c>
+      <c r="AD429" s="5" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AE429" s="5" t="n">
+        <v>5.6667</v>
+      </c>
+      <c r="AF429" s="5" t="n">
+        <v>4.3824</v>
+      </c>
+      <c r="AG429" s="5" t="n">
+        <v>5.7667</v>
+      </c>
+      <c r="AH429" s="7" t="n">
+        <v>0.4029</v>
+      </c>
       <c r="AI429" s="7" t="n">
-        <v>0.4573</v>
+        <v>0.8236</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="4" t="inlineStr">
-        <is>
-          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
-        </is>
-      </c>
-      <c r="B430" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C430" s="6" t="inlineStr"/>
-      <c r="D430" s="6" t="n">
-        <v>4.6475</v>
-      </c>
-      <c r="E430" s="5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="F430" s="5" t="n">
-        <v>4.0667</v>
-      </c>
-      <c r="G430" s="5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H430" s="5" t="n">
-        <v>4.7833</v>
-      </c>
-      <c r="I430" s="6" t="inlineStr"/>
-      <c r="J430" s="5" t="inlineStr"/>
-      <c r="K430" s="5" t="inlineStr"/>
-      <c r="L430" s="5" t="inlineStr"/>
-      <c r="M430" s="5" t="inlineStr"/>
-      <c r="N430" s="6" t="inlineStr"/>
-      <c r="O430" s="5" t="inlineStr"/>
-      <c r="P430" s="5" t="inlineStr"/>
-      <c r="Q430" s="5" t="inlineStr"/>
-      <c r="R430" s="5" t="inlineStr"/>
-      <c r="S430" s="6" t="n">
-        <v>4.6475</v>
-      </c>
-      <c r="T430" s="5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="U430" s="5" t="n">
-        <v>4.0667</v>
-      </c>
-      <c r="V430" s="5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="W430" s="5" t="n">
-        <v>4.7833</v>
-      </c>
-      <c r="X430" s="6" t="inlineStr"/>
-      <c r="Y430" s="5" t="inlineStr"/>
-      <c r="Z430" s="5" t="inlineStr"/>
-      <c r="AA430" s="5" t="inlineStr"/>
-      <c r="AB430" s="5" t="inlineStr"/>
-      <c r="AC430" s="6" t="inlineStr"/>
-      <c r="AD430" s="5" t="inlineStr"/>
-      <c r="AE430" s="5" t="inlineStr"/>
-      <c r="AF430" s="5" t="inlineStr"/>
-      <c r="AG430" s="5" t="inlineStr"/>
-      <c r="AH430" s="7" t="inlineStr"/>
-      <c r="AI430" s="7" t="n">
-        <v>0.8616</v>
+      <c r="A430" s="8" t="inlineStr">
+        <is>
+          <t>shisa-ai/shisa-v1-llama3-8b.lr-2e4</t>
+        </is>
+      </c>
+      <c r="B430" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C430" s="10" t="n">
+        <v>4.8435</v>
+      </c>
+      <c r="D430" s="10" t="n">
+        <v>4.7051</v>
+      </c>
+      <c r="E430" s="9" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F430" s="9" t="n">
+        <v>5.6318</v>
+      </c>
+      <c r="G430" s="9" t="n">
+        <v>4.6194</v>
+      </c>
+      <c r="H430" s="9" t="n">
+        <v>3.9792</v>
+      </c>
+      <c r="I430" s="10" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="J430" s="9" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="K430" s="9" t="n">
+        <v>5.3667</v>
+      </c>
+      <c r="L430" s="9" t="n">
+        <v>3.0556</v>
+      </c>
+      <c r="M430" s="9" t="n">
+        <v>3.2417</v>
+      </c>
+      <c r="N430" s="10" t="n">
+        <v>3.9238</v>
+      </c>
+      <c r="O430" s="9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="P430" s="9" t="n">
+        <v>4.4833</v>
+      </c>
+      <c r="Q430" s="9" t="n">
+        <v>3.3784</v>
+      </c>
+      <c r="R430" s="9" t="n">
+        <v>3.1333</v>
+      </c>
+      <c r="S430" s="10" t="inlineStr"/>
+      <c r="T430" s="9" t="inlineStr"/>
+      <c r="U430" s="9" t="inlineStr"/>
+      <c r="V430" s="9" t="inlineStr"/>
+      <c r="W430" s="9" t="inlineStr"/>
+      <c r="X430" s="10" t="n">
+        <v>5.365</v>
+      </c>
+      <c r="Y430" s="9" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Z430" s="9" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AA430" s="9" t="n">
+        <v>5.8718</v>
+      </c>
+      <c r="AB430" s="9" t="n">
+        <v>4.8583</v>
+      </c>
+      <c r="AC430" s="10" t="n">
+        <v>5.3781</v>
+      </c>
+      <c r="AD430" s="9" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AE430" s="9" t="n">
+        <v>6.339</v>
+      </c>
+      <c r="AF430" s="9" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AG430" s="9" t="n">
+        <v>4.6833</v>
+      </c>
+      <c r="AH430" s="11" t="n">
+        <v>0.2344</v>
+      </c>
+      <c r="AI430" s="11" t="n">
+        <v>0.8754</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Llama-2-7b-chat-hf</t>
+          <t>017-qwen3-8b-v2-dpo405b-clr</t>
         </is>
       </c>
       <c r="B431" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C431" s="6" t="n">
-        <v>4.7832</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C431" s="6" t="inlineStr"/>
       <c r="D431" s="6" t="n">
-        <v>4.6448</v>
+        <v>4.6651</v>
       </c>
       <c r="E431" s="5" t="n">
-        <v>4.7619</v>
+        <v>6.72</v>
       </c>
       <c r="F431" s="5" t="n">
-        <v>5.7981</v>
+        <v>4.3929</v>
       </c>
       <c r="G431" s="5" t="n">
-        <v>3.3401</v>
+        <v>3.4474</v>
       </c>
       <c r="H431" s="5" t="n">
-        <v>4.6792</v>
-      </c>
-      <c r="I431" s="6" t="n">
-        <v>3.9594</v>
-      </c>
-      <c r="J431" s="5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K431" s="5" t="n">
-        <v>5.1139</v>
-      </c>
-      <c r="L431" s="5" t="n">
-        <v>2.8571</v>
-      </c>
-      <c r="M431" s="5" t="n">
-        <v>3.6667</v>
-      </c>
-      <c r="N431" s="6" t="n">
-        <v>4.0554</v>
-      </c>
-      <c r="O431" s="5" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="P431" s="5" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Q431" s="5" t="n">
-        <v>2.075</v>
-      </c>
-      <c r="R431" s="5" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="S431" s="6" t="inlineStr"/>
-      <c r="T431" s="5" t="inlineStr"/>
-      <c r="U431" s="5" t="inlineStr"/>
-      <c r="V431" s="5" t="inlineStr"/>
-      <c r="W431" s="5" t="inlineStr"/>
-      <c r="X431" s="6" t="n">
-        <v>4.7415</v>
-      </c>
-      <c r="Y431" s="5" t="n">
-        <v>4.6465</v>
-      </c>
-      <c r="Z431" s="5" t="n">
-        <v>6.0125</v>
-      </c>
-      <c r="AA431" s="5" t="n">
-        <v>2.9487</v>
-      </c>
-      <c r="AB431" s="5" t="n">
-        <v>5.3583</v>
-      </c>
-      <c r="AC431" s="6" t="n">
-        <v>5.7871</v>
-      </c>
-      <c r="AD431" s="5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AE431" s="5" t="n">
-        <v>6.6282</v>
-      </c>
-      <c r="AF431" s="5" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="AG431" s="5" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="AH431" s="7" t="n">
-        <v>0.1795</v>
-      </c>
+        <v>4.1</v>
+      </c>
+      <c r="I431" s="6" t="inlineStr"/>
+      <c r="J431" s="5" t="inlineStr"/>
+      <c r="K431" s="5" t="inlineStr"/>
+      <c r="L431" s="5" t="inlineStr"/>
+      <c r="M431" s="5" t="inlineStr"/>
+      <c r="N431" s="6" t="inlineStr"/>
+      <c r="O431" s="5" t="inlineStr"/>
+      <c r="P431" s="5" t="inlineStr"/>
+      <c r="Q431" s="5" t="inlineStr"/>
+      <c r="R431" s="5" t="inlineStr"/>
+      <c r="S431" s="6" t="n">
+        <v>4.6651</v>
+      </c>
+      <c r="T431" s="5" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="U431" s="5" t="n">
+        <v>4.3929</v>
+      </c>
+      <c r="V431" s="5" t="n">
+        <v>3.4474</v>
+      </c>
+      <c r="W431" s="5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X431" s="6" t="inlineStr"/>
+      <c r="Y431" s="5" t="inlineStr"/>
+      <c r="Z431" s="5" t="inlineStr"/>
+      <c r="AA431" s="5" t="inlineStr"/>
+      <c r="AB431" s="5" t="inlineStr"/>
+      <c r="AC431" s="6" t="inlineStr"/>
+      <c r="AD431" s="5" t="inlineStr"/>
+      <c r="AE431" s="5" t="inlineStr"/>
+      <c r="AF431" s="5" t="inlineStr"/>
+      <c r="AG431" s="5" t="inlineStr"/>
+      <c r="AH431" s="7" t="inlineStr"/>
       <c r="AI431" s="7" t="n">
-        <v>0.0982</v>
+        <v>0.4573</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="4" t="inlineStr">
         <is>
-          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
+          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B432" s="5" t="n">
@@ -38522,19 +38488,19 @@
       </c>
       <c r="C432" s="6" t="inlineStr"/>
       <c r="D432" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6475</v>
       </c>
       <c r="E432" s="5" t="n">
-        <v>5</v>
+        <v>4.64</v>
       </c>
       <c r="F432" s="5" t="n">
-        <v>4.1833</v>
+        <v>4.0667</v>
       </c>
       <c r="G432" s="5" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="H432" s="5" t="n">
-        <v>3.95</v>
+        <v>4.7833</v>
       </c>
       <c r="I432" s="6" t="inlineStr"/>
       <c r="J432" s="5" t="inlineStr"/>
@@ -38547,19 +38513,19 @@
       <c r="Q432" s="5" t="inlineStr"/>
       <c r="R432" s="5" t="inlineStr"/>
       <c r="S432" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6475</v>
       </c>
       <c r="T432" s="5" t="n">
-        <v>5</v>
+        <v>4.64</v>
       </c>
       <c r="U432" s="5" t="n">
-        <v>4.1833</v>
+        <v>4.0667</v>
       </c>
       <c r="V432" s="5" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="W432" s="5" t="n">
-        <v>3.95</v>
+        <v>4.7833</v>
       </c>
       <c r="X432" s="6" t="inlineStr"/>
       <c r="Y432" s="5" t="inlineStr"/>
@@ -38573,415 +38539,381 @@
       <c r="AG432" s="5" t="inlineStr"/>
       <c r="AH432" s="7" t="inlineStr"/>
       <c r="AI432" s="7" t="n">
-        <v>0.872</v>
+        <v>0.8616</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="8" t="inlineStr">
-        <is>
-          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter2</t>
-        </is>
-      </c>
-      <c r="B433" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C433" s="10" t="n">
-        <v>4.1202</v>
-      </c>
-      <c r="D433" s="10" t="n">
-        <v>4.1226</v>
-      </c>
-      <c r="E433" s="9" t="n">
-        <v>4.9933</v>
-      </c>
-      <c r="F433" s="9" t="n">
-        <v>3.8547</v>
-      </c>
-      <c r="G433" s="9" t="n">
-        <v>1.9375</v>
-      </c>
-      <c r="H433" s="9" t="n">
-        <v>5.7047</v>
-      </c>
-      <c r="I433" s="10" t="n">
-        <v>3.3428</v>
-      </c>
-      <c r="J433" s="9" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="K433" s="9" t="n">
-        <v>3.5333</v>
-      </c>
-      <c r="L433" s="9" t="n">
-        <v>1.4062</v>
-      </c>
-      <c r="M433" s="9" t="n">
-        <v>4.1917</v>
-      </c>
-      <c r="N433" s="10" t="inlineStr"/>
-      <c r="O433" s="9" t="inlineStr"/>
-      <c r="P433" s="9" t="inlineStr"/>
-      <c r="Q433" s="9" t="inlineStr"/>
-      <c r="R433" s="9" t="inlineStr"/>
-      <c r="S433" s="10" t="inlineStr"/>
-      <c r="T433" s="9" t="inlineStr"/>
-      <c r="U433" s="9" t="inlineStr"/>
-      <c r="V433" s="9" t="inlineStr"/>
-      <c r="W433" s="9" t="inlineStr"/>
-      <c r="X433" s="10" t="n">
-        <v>4.6699</v>
-      </c>
-      <c r="Y433" s="9" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="Z433" s="9" t="n">
-        <v>4.2712</v>
-      </c>
-      <c r="AA433" s="9" t="n">
-        <v>2.3158</v>
-      </c>
-      <c r="AB433" s="9" t="n">
-        <v>6.5126</v>
-      </c>
-      <c r="AC433" s="10" t="n">
-        <v>4.3454</v>
-      </c>
-      <c r="AD433" s="9" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="AE433" s="9" t="n">
-        <v>3.7667</v>
-      </c>
-      <c r="AF433" s="9" t="n">
-        <v>2.0385</v>
-      </c>
-      <c r="AG433" s="9" t="n">
-        <v>6.4167</v>
-      </c>
-      <c r="AH433" s="11" t="inlineStr"/>
-      <c r="AI433" s="11" t="n">
-        <v>0.2059</v>
+      <c r="A433" s="4" t="inlineStr">
+        <is>
+          <t>meta-llama/Llama-2-7b-chat-hf</t>
+        </is>
+      </c>
+      <c r="B433" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C433" s="6" t="n">
+        <v>4.7832</v>
+      </c>
+      <c r="D433" s="6" t="n">
+        <v>4.6448</v>
+      </c>
+      <c r="E433" s="5" t="n">
+        <v>4.7619</v>
+      </c>
+      <c r="F433" s="5" t="n">
+        <v>5.7981</v>
+      </c>
+      <c r="G433" s="5" t="n">
+        <v>3.3401</v>
+      </c>
+      <c r="H433" s="5" t="n">
+        <v>4.6792</v>
+      </c>
+      <c r="I433" s="6" t="n">
+        <v>3.9594</v>
+      </c>
+      <c r="J433" s="5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K433" s="5" t="n">
+        <v>5.1139</v>
+      </c>
+      <c r="L433" s="5" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="M433" s="5" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="N433" s="6" t="n">
+        <v>4.0554</v>
+      </c>
+      <c r="O433" s="5" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="P433" s="5" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q433" s="5" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="R433" s="5" t="n">
+        <v>3.9167</v>
+      </c>
+      <c r="S433" s="6" t="inlineStr"/>
+      <c r="T433" s="5" t="inlineStr"/>
+      <c r="U433" s="5" t="inlineStr"/>
+      <c r="V433" s="5" t="inlineStr"/>
+      <c r="W433" s="5" t="inlineStr"/>
+      <c r="X433" s="6" t="n">
+        <v>4.7415</v>
+      </c>
+      <c r="Y433" s="5" t="n">
+        <v>4.6465</v>
+      </c>
+      <c r="Z433" s="5" t="n">
+        <v>6.0125</v>
+      </c>
+      <c r="AA433" s="5" t="n">
+        <v>2.9487</v>
+      </c>
+      <c r="AB433" s="5" t="n">
+        <v>5.3583</v>
+      </c>
+      <c r="AC433" s="6" t="n">
+        <v>5.7871</v>
+      </c>
+      <c r="AD433" s="5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AE433" s="5" t="n">
+        <v>6.6282</v>
+      </c>
+      <c r="AF433" s="5" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="AG433" s="5" t="n">
+        <v>5.775</v>
+      </c>
+      <c r="AH433" s="7" t="n">
+        <v>0.1795</v>
+      </c>
+      <c r="AI433" s="7" t="n">
+        <v>0.0982</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="4" t="inlineStr">
         <is>
-          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
+          <t>036-rakuten-2.0-mini-instruct-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B434" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C434" s="6" t="n">
-        <v>4.1816</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C434" s="6" t="inlineStr"/>
       <c r="D434" s="6" t="n">
-        <v>4.0594</v>
+        <v>4.6267</v>
       </c>
       <c r="E434" s="5" t="n">
-        <v>4.6</v>
+        <v>5.44</v>
       </c>
       <c r="F434" s="5" t="n">
-        <v>3.1938</v>
+        <v>3.7833</v>
       </c>
       <c r="G434" s="5" t="n">
-        <v>4.0638</v>
+        <v>4.7</v>
       </c>
       <c r="H434" s="5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I434" s="6" t="n">
-        <v>3.7112</v>
-      </c>
-      <c r="J434" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K434" s="5" t="n">
-        <v>2.925</v>
-      </c>
-      <c r="L434" s="5" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="M434" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N434" s="6" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="O434" s="5" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="P434" s="5" t="n">
-        <v>2.6875</v>
-      </c>
-      <c r="Q434" s="5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R434" s="5" t="n">
-        <v>3.5546</v>
-      </c>
-      <c r="S434" s="6" t="inlineStr"/>
-      <c r="T434" s="5" t="inlineStr"/>
-      <c r="U434" s="5" t="inlineStr"/>
-      <c r="V434" s="5" t="inlineStr"/>
-      <c r="W434" s="5" t="inlineStr"/>
-      <c r="X434" s="6" t="n">
-        <v>4.2386</v>
-      </c>
-      <c r="Y434" s="5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Z434" s="5" t="n">
-        <v>3.525</v>
-      </c>
-      <c r="AA434" s="5" t="n">
-        <v>4.7027</v>
-      </c>
-      <c r="AB434" s="5" t="n">
-        <v>4.8667</v>
-      </c>
-      <c r="AC434" s="6" t="n">
-        <v>4.717</v>
-      </c>
-      <c r="AD434" s="5" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="AE434" s="5" t="n">
-        <v>3.6375</v>
-      </c>
-      <c r="AF434" s="5" t="n">
-        <v>4.359</v>
-      </c>
-      <c r="AG434" s="5" t="n">
-        <v>5.2917</v>
-      </c>
-      <c r="AH434" s="7" t="n">
-        <v>0.1654</v>
-      </c>
+        <v>4.5833</v>
+      </c>
+      <c r="I434" s="6" t="inlineStr"/>
+      <c r="J434" s="5" t="inlineStr"/>
+      <c r="K434" s="5" t="inlineStr"/>
+      <c r="L434" s="5" t="inlineStr"/>
+      <c r="M434" s="5" t="inlineStr"/>
+      <c r="N434" s="6" t="inlineStr"/>
+      <c r="O434" s="5" t="inlineStr"/>
+      <c r="P434" s="5" t="inlineStr"/>
+      <c r="Q434" s="5" t="inlineStr"/>
+      <c r="R434" s="5" t="inlineStr"/>
+      <c r="S434" s="6" t="n">
+        <v>4.6267</v>
+      </c>
+      <c r="T434" s="5" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U434" s="5" t="n">
+        <v>3.7833</v>
+      </c>
+      <c r="V434" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W434" s="5" t="n">
+        <v>4.5833</v>
+      </c>
+      <c r="X434" s="6" t="inlineStr"/>
+      <c r="Y434" s="5" t="inlineStr"/>
+      <c r="Z434" s="5" t="inlineStr"/>
+      <c r="AA434" s="5" t="inlineStr"/>
+      <c r="AB434" s="5" t="inlineStr"/>
+      <c r="AC434" s="6" t="inlineStr"/>
+      <c r="AD434" s="5" t="inlineStr"/>
+      <c r="AE434" s="5" t="inlineStr"/>
+      <c r="AF434" s="5" t="inlineStr"/>
+      <c r="AG434" s="5" t="inlineStr"/>
+      <c r="AH434" s="7" t="inlineStr"/>
       <c r="AI434" s="7" t="n">
-        <v>0.874</v>
+        <v>0.8293</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="4" t="inlineStr">
         <is>
-          <t>Deepreneur/blue-lizard</t>
+          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
         </is>
       </c>
       <c r="B435" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C435" s="6" t="n">
-        <v>4.214</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C435" s="6" t="inlineStr"/>
       <c r="D435" s="6" t="n">
-        <v>4.0436</v>
+        <v>4.5708</v>
       </c>
       <c r="E435" s="5" t="n">
-        <v>4.23</v>
+        <v>5</v>
       </c>
       <c r="F435" s="5" t="n">
-        <v>4.2301</v>
+        <v>4.1833</v>
       </c>
       <c r="G435" s="5" t="n">
-        <v>4.014</v>
+        <v>5.15</v>
       </c>
       <c r="H435" s="5" t="n">
-        <v>3.7002</v>
-      </c>
-      <c r="I435" s="6" t="n">
-        <v>3.6647</v>
-      </c>
-      <c r="J435" s="5" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="K435" s="5" t="n">
-        <v>4.1667</v>
-      </c>
-      <c r="L435" s="5" t="n">
-        <v>3.8621</v>
-      </c>
-      <c r="M435" s="5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="N435" s="6" t="n">
-        <v>3.392</v>
-      </c>
-      <c r="O435" s="5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="P435" s="5" t="n">
-        <v>3.1167</v>
-      </c>
-      <c r="Q435" s="5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R435" s="5" t="n">
-        <v>3.2712</v>
-      </c>
-      <c r="S435" s="6" t="inlineStr"/>
-      <c r="T435" s="5" t="inlineStr"/>
-      <c r="U435" s="5" t="inlineStr"/>
-      <c r="V435" s="5" t="inlineStr"/>
-      <c r="W435" s="5" t="inlineStr"/>
-      <c r="X435" s="6" t="n">
-        <v>4.4079</v>
-      </c>
-      <c r="Y435" s="5" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Z435" s="5" t="n">
-        <v>5.0847</v>
-      </c>
-      <c r="AA435" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I435" s="6" t="inlineStr"/>
+      <c r="J435" s="5" t="inlineStr"/>
+      <c r="K435" s="5" t="inlineStr"/>
+      <c r="L435" s="5" t="inlineStr"/>
+      <c r="M435" s="5" t="inlineStr"/>
+      <c r="N435" s="6" t="inlineStr"/>
+      <c r="O435" s="5" t="inlineStr"/>
+      <c r="P435" s="5" t="inlineStr"/>
+      <c r="Q435" s="5" t="inlineStr"/>
+      <c r="R435" s="5" t="inlineStr"/>
+      <c r="S435" s="6" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="T435" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AB435" s="5" t="n">
-        <v>3.9667</v>
-      </c>
-      <c r="AC435" s="6" t="n">
-        <v>4.7398</v>
-      </c>
-      <c r="AD435" s="5" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="AE435" s="5" t="n">
-        <v>4.5667</v>
-      </c>
-      <c r="AF435" s="5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AG435" s="5" t="n">
-        <v>4.5126</v>
-      </c>
-      <c r="AH435" s="7" t="n">
-        <v>0.2423</v>
-      </c>
+      <c r="U435" s="5" t="n">
+        <v>4.1833</v>
+      </c>
+      <c r="V435" s="5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W435" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="X435" s="6" t="inlineStr"/>
+      <c r="Y435" s="5" t="inlineStr"/>
+      <c r="Z435" s="5" t="inlineStr"/>
+      <c r="AA435" s="5" t="inlineStr"/>
+      <c r="AB435" s="5" t="inlineStr"/>
+      <c r="AC435" s="6" t="inlineStr"/>
+      <c r="AD435" s="5" t="inlineStr"/>
+      <c r="AE435" s="5" t="inlineStr"/>
+      <c r="AF435" s="5" t="inlineStr"/>
+      <c r="AG435" s="5" t="inlineStr"/>
+      <c r="AH435" s="7" t="inlineStr"/>
       <c r="AI435" s="7" t="n">
-        <v>0.8928</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="8" t="inlineStr">
         <is>
-          <t>augmxnt/shisa-7b-v1-run2</t>
+          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter2</t>
         </is>
       </c>
       <c r="B436" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C436" s="10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C436" s="10" t="n">
+        <v>4.1202</v>
+      </c>
       <c r="D436" s="10" t="n">
-        <v>3.9525</v>
+        <v>4.1226</v>
       </c>
       <c r="E436" s="9" t="n">
-        <v>4.36</v>
+        <v>4.9933</v>
       </c>
       <c r="F436" s="9" t="n">
-        <v>3.75</v>
+        <v>3.8547</v>
       </c>
       <c r="G436" s="9" t="n">
-        <v>3.875</v>
+        <v>1.9375</v>
       </c>
       <c r="H436" s="9" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="I436" s="10" t="inlineStr"/>
-      <c r="J436" s="9" t="inlineStr"/>
-      <c r="K436" s="9" t="inlineStr"/>
-      <c r="L436" s="9" t="inlineStr"/>
-      <c r="M436" s="9" t="inlineStr"/>
+        <v>5.7047</v>
+      </c>
+      <c r="I436" s="10" t="n">
+        <v>3.3428</v>
+      </c>
+      <c r="J436" s="9" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="K436" s="9" t="n">
+        <v>3.5333</v>
+      </c>
+      <c r="L436" s="9" t="n">
+        <v>1.4062</v>
+      </c>
+      <c r="M436" s="9" t="n">
+        <v>4.1917</v>
+      </c>
       <c r="N436" s="10" t="inlineStr"/>
       <c r="O436" s="9" t="inlineStr"/>
       <c r="P436" s="9" t="inlineStr"/>
       <c r="Q436" s="9" t="inlineStr"/>
       <c r="R436" s="9" t="inlineStr"/>
-      <c r="S436" s="10" t="n">
-        <v>3.9525</v>
-      </c>
-      <c r="T436" s="9" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="U436" s="9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V436" s="9" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="W436" s="9" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="X436" s="10" t="inlineStr"/>
-      <c r="Y436" s="9" t="inlineStr"/>
-      <c r="Z436" s="9" t="inlineStr"/>
-      <c r="AA436" s="9" t="inlineStr"/>
-      <c r="AB436" s="9" t="inlineStr"/>
-      <c r="AC436" s="10" t="inlineStr"/>
-      <c r="AD436" s="9" t="inlineStr"/>
-      <c r="AE436" s="9" t="inlineStr"/>
-      <c r="AF436" s="9" t="inlineStr"/>
-      <c r="AG436" s="9" t="inlineStr"/>
+      <c r="S436" s="10" t="inlineStr"/>
+      <c r="T436" s="9" t="inlineStr"/>
+      <c r="U436" s="9" t="inlineStr"/>
+      <c r="V436" s="9" t="inlineStr"/>
+      <c r="W436" s="9" t="inlineStr"/>
+      <c r="X436" s="10" t="n">
+        <v>4.6699</v>
+      </c>
+      <c r="Y436" s="9" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="Z436" s="9" t="n">
+        <v>4.2712</v>
+      </c>
+      <c r="AA436" s="9" t="n">
+        <v>2.3158</v>
+      </c>
+      <c r="AB436" s="9" t="n">
+        <v>6.5126</v>
+      </c>
+      <c r="AC436" s="10" t="n">
+        <v>4.3454</v>
+      </c>
+      <c r="AD436" s="9" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AE436" s="9" t="n">
+        <v>3.7667</v>
+      </c>
+      <c r="AF436" s="9" t="n">
+        <v>2.0385</v>
+      </c>
+      <c r="AG436" s="9" t="n">
+        <v>6.4167</v>
+      </c>
       <c r="AH436" s="11" t="inlineStr"/>
       <c r="AI436" s="11" t="n">
-        <v>0.8816000000000001</v>
+        <v>0.2059</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="4" t="inlineStr">
         <is>
-          <t>tiiuae/Falcon3-10B-Instruct</t>
+          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
         </is>
       </c>
       <c r="B437" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C437" s="6" t="n">
-        <v>4.0754</v>
+        <v>4.1816</v>
       </c>
       <c r="D437" s="6" t="n">
-        <v>3.9261</v>
+        <v>4.0594</v>
       </c>
       <c r="E437" s="5" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="F437" s="5" t="n">
-        <v>4.0375</v>
+        <v>3.1938</v>
       </c>
       <c r="G437" s="5" t="n">
-        <v>2.3867</v>
+        <v>4.0638</v>
       </c>
       <c r="H437" s="5" t="n">
-        <v>4.5303</v>
+        <v>4.38</v>
       </c>
       <c r="I437" s="6" t="n">
-        <v>3.3462</v>
+        <v>3.7112</v>
       </c>
       <c r="J437" s="5" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="K437" s="5" t="n">
-        <v>3.6667</v>
+        <v>2.925</v>
       </c>
       <c r="L437" s="5" t="n">
-        <v>2</v>
+        <v>4.12</v>
       </c>
       <c r="M437" s="5" t="n">
-        <v>3.6583</v>
+        <v>3.8</v>
       </c>
       <c r="N437" s="6" t="n">
-        <v>3.3153</v>
+        <v>3.588</v>
       </c>
       <c r="O437" s="5" t="n">
-        <v>4.72</v>
+        <v>4.96</v>
       </c>
       <c r="P437" s="5" t="n">
-        <v>2.95</v>
+        <v>2.6875</v>
       </c>
       <c r="Q437" s="5" t="n">
-        <v>1.625</v>
+        <v>3.15</v>
       </c>
       <c r="R437" s="5" t="n">
-        <v>3.9664</v>
+        <v>3.5546</v>
       </c>
       <c r="S437" s="6" t="inlineStr"/>
       <c r="T437" s="5" t="inlineStr"/>
@@ -38989,272 +38921,262 @@
       <c r="V437" s="5" t="inlineStr"/>
       <c r="W437" s="5" t="inlineStr"/>
       <c r="X437" s="6" t="n">
-        <v>4.4929</v>
+        <v>4.2386</v>
       </c>
       <c r="Y437" s="5" t="n">
-        <v>4.28</v>
+        <v>3.86</v>
       </c>
       <c r="Z437" s="5" t="n">
-        <v>5.0833</v>
+        <v>3.525</v>
       </c>
       <c r="AA437" s="5" t="n">
-        <v>3.3333</v>
+        <v>4.7027</v>
       </c>
       <c r="AB437" s="5" t="n">
-        <v>5.275</v>
+        <v>4.8667</v>
       </c>
       <c r="AC437" s="6" t="n">
-        <v>4.5363</v>
+        <v>4.717</v>
       </c>
       <c r="AD437" s="5" t="n">
-        <v>5.94</v>
+        <v>5.58</v>
       </c>
       <c r="AE437" s="5" t="n">
-        <v>4.45</v>
+        <v>3.6375</v>
       </c>
       <c r="AF437" s="5" t="n">
-        <v>2.5385</v>
+        <v>4.359</v>
       </c>
       <c r="AG437" s="5" t="n">
-        <v>5.2167</v>
+        <v>5.2917</v>
       </c>
       <c r="AH437" s="7" t="n">
-        <v>0.2292</v>
+        <v>0.1654</v>
       </c>
       <c r="AI437" s="7" t="n">
-        <v>0.8413</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="8" t="inlineStr">
-        <is>
-          <t>augmxnt/shisa-7b-v1</t>
-        </is>
-      </c>
-      <c r="B438" s="9" t="n">
+      <c r="A438" s="4" t="inlineStr">
+        <is>
+          <t>Deepreneur/blue-lizard</t>
+        </is>
+      </c>
+      <c r="B438" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C438" s="6" t="n">
+        <v>4.214</v>
+      </c>
+      <c r="D438" s="6" t="n">
+        <v>4.0436</v>
+      </c>
+      <c r="E438" s="5" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F438" s="5" t="n">
+        <v>4.2301</v>
+      </c>
+      <c r="G438" s="5" t="n">
+        <v>4.014</v>
+      </c>
+      <c r="H438" s="5" t="n">
+        <v>3.7002</v>
+      </c>
+      <c r="I438" s="6" t="n">
+        <v>3.6647</v>
+      </c>
+      <c r="J438" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K438" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="L438" s="5" t="n">
+        <v>3.8621</v>
+      </c>
+      <c r="M438" s="5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N438" s="6" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="O438" s="5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="P438" s="5" t="n">
+        <v>3.1167</v>
+      </c>
+      <c r="Q438" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R438" s="5" t="n">
+        <v>3.2712</v>
+      </c>
+      <c r="S438" s="6" t="inlineStr"/>
+      <c r="T438" s="5" t="inlineStr"/>
+      <c r="U438" s="5" t="inlineStr"/>
+      <c r="V438" s="5" t="inlineStr"/>
+      <c r="W438" s="5" t="inlineStr"/>
+      <c r="X438" s="6" t="n">
+        <v>4.4079</v>
+      </c>
+      <c r="Y438" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Z438" s="5" t="n">
+        <v>5.0847</v>
+      </c>
+      <c r="AA438" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C438" s="10" t="n">
-        <v>3.9635</v>
-      </c>
-      <c r="D438" s="10" t="n">
-        <v>3.9079</v>
-      </c>
-      <c r="E438" s="9" t="n">
-        <v>4.1526</v>
-      </c>
-      <c r="F438" s="9" t="n">
-        <v>3.5034</v>
-      </c>
-      <c r="G438" s="9" t="n">
-        <v>3.2961</v>
-      </c>
-      <c r="H438" s="9" t="n">
-        <v>4.6795</v>
-      </c>
-      <c r="I438" s="10" t="n">
-        <v>3.3679</v>
-      </c>
-      <c r="J438" s="9" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="K438" s="9" t="n">
-        <v>3.0833</v>
-      </c>
-      <c r="L438" s="9" t="n">
-        <v>2.2917</v>
-      </c>
-      <c r="M438" s="9" t="n">
-        <v>4.3167</v>
-      </c>
-      <c r="N438" s="10" t="n">
-        <v>4.5004</v>
-      </c>
-      <c r="O438" s="9" t="n">
-        <v>4.6263</v>
-      </c>
-      <c r="P438" s="9" t="n">
-        <v>3.9474</v>
-      </c>
-      <c r="Q438" s="9" t="n">
-        <v>4.8947</v>
-      </c>
-      <c r="R438" s="9" t="n">
-        <v>4.5333</v>
-      </c>
-      <c r="S438" s="10" t="n">
-        <v>3.0246</v>
-      </c>
-      <c r="T438" s="9" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="U438" s="9" t="n">
-        <v>2.6167</v>
-      </c>
-      <c r="V438" s="9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W438" s="9" t="n">
-        <v>3.5417</v>
-      </c>
-      <c r="X438" s="10" t="n">
-        <v>4.0873</v>
-      </c>
-      <c r="Y438" s="9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Z438" s="9" t="n">
-        <v>3.7627</v>
-      </c>
-      <c r="AA438" s="9" t="n">
-        <v>3.725</v>
-      </c>
-      <c r="AB438" s="9" t="n">
-        <v>5.3613</v>
-      </c>
-      <c r="AC438" s="10" t="n">
-        <v>4.4907</v>
-      </c>
-      <c r="AD438" s="9" t="n">
-        <v>4.8283</v>
-      </c>
-      <c r="AE438" s="9" t="n">
-        <v>4.1333</v>
-      </c>
-      <c r="AF438" s="9" t="n">
-        <v>3.3514</v>
-      </c>
-      <c r="AG438" s="9" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AH438" s="11" t="n">
-        <v>-0.1193</v>
-      </c>
-      <c r="AI438" s="11" t="n">
-        <v>0.8649</v>
+      <c r="AB438" s="5" t="n">
+        <v>3.9667</v>
+      </c>
+      <c r="AC438" s="6" t="n">
+        <v>4.7398</v>
+      </c>
+      <c r="AD438" s="5" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="AE438" s="5" t="n">
+        <v>4.5667</v>
+      </c>
+      <c r="AF438" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG438" s="5" t="n">
+        <v>4.5126</v>
+      </c>
+      <c r="AH438" s="7" t="n">
+        <v>0.2423</v>
+      </c>
+      <c r="AI438" s="7" t="n">
+        <v>0.8928</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="4" t="inlineStr">
-        <is>
-          <t>011-qwen3-8b-v2-sft</t>
-        </is>
-      </c>
-      <c r="B439" s="5" t="n">
+      <c r="A439" s="8" t="inlineStr">
+        <is>
+          <t>augmxnt/shisa-7b-v1-run2</t>
+        </is>
+      </c>
+      <c r="B439" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C439" s="6" t="inlineStr"/>
-      <c r="D439" s="6" t="n">
-        <v>3.6138</v>
-      </c>
-      <c r="E439" s="5" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="F439" s="5" t="n">
-        <v>3.5439</v>
-      </c>
-      <c r="G439" s="5" t="n">
-        <v>2.1622</v>
-      </c>
-      <c r="H439" s="5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I439" s="6" t="inlineStr"/>
-      <c r="J439" s="5" t="inlineStr"/>
-      <c r="K439" s="5" t="inlineStr"/>
-      <c r="L439" s="5" t="inlineStr"/>
-      <c r="M439" s="5" t="inlineStr"/>
-      <c r="N439" s="6" t="inlineStr"/>
-      <c r="O439" s="5" t="inlineStr"/>
-      <c r="P439" s="5" t="inlineStr"/>
-      <c r="Q439" s="5" t="inlineStr"/>
-      <c r="R439" s="5" t="inlineStr"/>
-      <c r="S439" s="6" t="n">
-        <v>3.6138</v>
-      </c>
-      <c r="T439" s="5" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="U439" s="5" t="n">
-        <v>3.5439</v>
-      </c>
-      <c r="V439" s="5" t="n">
-        <v>2.1622</v>
-      </c>
-      <c r="W439" s="5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="X439" s="6" t="inlineStr"/>
-      <c r="Y439" s="5" t="inlineStr"/>
-      <c r="Z439" s="5" t="inlineStr"/>
-      <c r="AA439" s="5" t="inlineStr"/>
-      <c r="AB439" s="5" t="inlineStr"/>
-      <c r="AC439" s="6" t="inlineStr"/>
-      <c r="AD439" s="5" t="inlineStr"/>
-      <c r="AE439" s="5" t="inlineStr"/>
-      <c r="AF439" s="5" t="inlineStr"/>
-      <c r="AG439" s="5" t="inlineStr"/>
-      <c r="AH439" s="7" t="inlineStr"/>
-      <c r="AI439" s="7" t="n">
-        <v>0.3285</v>
+      <c r="C439" s="10" t="inlineStr"/>
+      <c r="D439" s="10" t="n">
+        <v>3.9525</v>
+      </c>
+      <c r="E439" s="9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="F439" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G439" s="9" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="H439" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="I439" s="10" t="inlineStr"/>
+      <c r="J439" s="9" t="inlineStr"/>
+      <c r="K439" s="9" t="inlineStr"/>
+      <c r="L439" s="9" t="inlineStr"/>
+      <c r="M439" s="9" t="inlineStr"/>
+      <c r="N439" s="10" t="inlineStr"/>
+      <c r="O439" s="9" t="inlineStr"/>
+      <c r="P439" s="9" t="inlineStr"/>
+      <c r="Q439" s="9" t="inlineStr"/>
+      <c r="R439" s="9" t="inlineStr"/>
+      <c r="S439" s="10" t="n">
+        <v>3.9525</v>
+      </c>
+      <c r="T439" s="9" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U439" s="9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V439" s="9" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="W439" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="X439" s="10" t="inlineStr"/>
+      <c r="Y439" s="9" t="inlineStr"/>
+      <c r="Z439" s="9" t="inlineStr"/>
+      <c r="AA439" s="9" t="inlineStr"/>
+      <c r="AB439" s="9" t="inlineStr"/>
+      <c r="AC439" s="10" t="inlineStr"/>
+      <c r="AD439" s="9" t="inlineStr"/>
+      <c r="AE439" s="9" t="inlineStr"/>
+      <c r="AF439" s="9" t="inlineStr"/>
+      <c r="AG439" s="9" t="inlineStr"/>
+      <c r="AH439" s="11" t="inlineStr"/>
+      <c r="AI439" s="11" t="n">
+        <v>0.8816000000000001</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="4" t="inlineStr">
         <is>
-          <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
+          <t>tiiuae/Falcon3-10B-Instruct</t>
         </is>
       </c>
       <c r="B440" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C440" s="6" t="n">
-        <v>1.4372</v>
+        <v>4.0754</v>
       </c>
       <c r="D440" s="6" t="n">
-        <v>1.3659</v>
+        <v>3.9261</v>
       </c>
       <c r="E440" s="5" t="n">
-        <v>2.035</v>
+        <v>4.75</v>
       </c>
       <c r="F440" s="5" t="n">
-        <v>1</v>
+        <v>4.0375</v>
       </c>
       <c r="G440" s="5" t="n">
-        <v>1</v>
+        <v>2.3867</v>
       </c>
       <c r="H440" s="5" t="n">
-        <v>1.4286</v>
+        <v>4.5303</v>
       </c>
       <c r="I440" s="6" t="n">
-        <v>1.0958</v>
+        <v>3.3462</v>
       </c>
       <c r="J440" s="5" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K440" s="5" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="L440" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K440" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L440" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="M440" s="5" t="n">
-        <v>0.3833</v>
+        <v>3.6583</v>
       </c>
       <c r="N440" s="6" t="n">
-        <v>1.0319</v>
+        <v>3.3153</v>
       </c>
       <c r="O440" s="5" t="n">
-        <v>2</v>
+        <v>4.72</v>
       </c>
       <c r="P440" s="5" t="n">
-        <v>1</v>
+        <v>2.95</v>
       </c>
       <c r="Q440" s="5" t="n">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="R440" s="5" t="n">
-        <v>0.1275</v>
+        <v>3.9664</v>
       </c>
       <c r="S440" s="6" t="inlineStr"/>
       <c r="T440" s="5" t="inlineStr"/>
@@ -39262,204 +39184,477 @@
       <c r="V440" s="5" t="inlineStr"/>
       <c r="W440" s="5" t="inlineStr"/>
       <c r="X440" s="6" t="n">
+        <v>4.4929</v>
+      </c>
+      <c r="Y440" s="5" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Z440" s="5" t="n">
+        <v>5.0833</v>
+      </c>
+      <c r="AA440" s="5" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="AB440" s="5" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="AC440" s="6" t="n">
+        <v>4.5363</v>
+      </c>
+      <c r="AD440" s="5" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AE440" s="5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF440" s="5" t="n">
+        <v>2.5385</v>
+      </c>
+      <c r="AG440" s="5" t="n">
+        <v>5.2167</v>
+      </c>
+      <c r="AH440" s="7" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="AI440" s="7" t="n">
+        <v>0.8413</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="8" t="inlineStr">
+        <is>
+          <t>augmxnt/shisa-7b-v1</t>
+        </is>
+      </c>
+      <c r="B441" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C441" s="10" t="n">
+        <v>3.9635</v>
+      </c>
+      <c r="D441" s="10" t="n">
+        <v>3.9079</v>
+      </c>
+      <c r="E441" s="9" t="n">
+        <v>4.1526</v>
+      </c>
+      <c r="F441" s="9" t="n">
+        <v>3.5034</v>
+      </c>
+      <c r="G441" s="9" t="n">
+        <v>3.2961</v>
+      </c>
+      <c r="H441" s="9" t="n">
+        <v>4.6795</v>
+      </c>
+      <c r="I441" s="10" t="n">
+        <v>3.3679</v>
+      </c>
+      <c r="J441" s="9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K441" s="9" t="n">
+        <v>3.0833</v>
+      </c>
+      <c r="L441" s="9" t="n">
+        <v>2.2917</v>
+      </c>
+      <c r="M441" s="9" t="n">
+        <v>4.3167</v>
+      </c>
+      <c r="N441" s="10" t="n">
+        <v>4.5004</v>
+      </c>
+      <c r="O441" s="9" t="n">
+        <v>4.6263</v>
+      </c>
+      <c r="P441" s="9" t="n">
+        <v>3.9474</v>
+      </c>
+      <c r="Q441" s="9" t="n">
+        <v>4.8947</v>
+      </c>
+      <c r="R441" s="9" t="n">
+        <v>4.5333</v>
+      </c>
+      <c r="S441" s="10" t="n">
+        <v>3.0246</v>
+      </c>
+      <c r="T441" s="9" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U441" s="9" t="n">
+        <v>2.6167</v>
+      </c>
+      <c r="V441" s="9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W441" s="9" t="n">
+        <v>3.5417</v>
+      </c>
+      <c r="X441" s="10" t="n">
+        <v>4.0873</v>
+      </c>
+      <c r="Y441" s="9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z441" s="9" t="n">
+        <v>3.7627</v>
+      </c>
+      <c r="AA441" s="9" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="AB441" s="9" t="n">
+        <v>5.3613</v>
+      </c>
+      <c r="AC441" s="10" t="n">
+        <v>4.4907</v>
+      </c>
+      <c r="AD441" s="9" t="n">
+        <v>4.8283</v>
+      </c>
+      <c r="AE441" s="9" t="n">
+        <v>4.1333</v>
+      </c>
+      <c r="AF441" s="9" t="n">
+        <v>3.3514</v>
+      </c>
+      <c r="AG441" s="9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AH441" s="11" t="n">
+        <v>-0.1193</v>
+      </c>
+      <c r="AI441" s="11" t="n">
+        <v>0.8649</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="inlineStr">
+        <is>
+          <t>011-qwen3-8b-v2-sft</t>
+        </is>
+      </c>
+      <c r="B442" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C442" s="6" t="inlineStr"/>
+      <c r="D442" s="6" t="n">
+        <v>3.6138</v>
+      </c>
+      <c r="E442" s="5" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="F442" s="5" t="n">
+        <v>3.5439</v>
+      </c>
+      <c r="G442" s="5" t="n">
+        <v>2.1622</v>
+      </c>
+      <c r="H442" s="5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I442" s="6" t="inlineStr"/>
+      <c r="J442" s="5" t="inlineStr"/>
+      <c r="K442" s="5" t="inlineStr"/>
+      <c r="L442" s="5" t="inlineStr"/>
+      <c r="M442" s="5" t="inlineStr"/>
+      <c r="N442" s="6" t="inlineStr"/>
+      <c r="O442" s="5" t="inlineStr"/>
+      <c r="P442" s="5" t="inlineStr"/>
+      <c r="Q442" s="5" t="inlineStr"/>
+      <c r="R442" s="5" t="inlineStr"/>
+      <c r="S442" s="6" t="n">
+        <v>3.6138</v>
+      </c>
+      <c r="T442" s="5" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="U442" s="5" t="n">
+        <v>3.5439</v>
+      </c>
+      <c r="V442" s="5" t="n">
+        <v>2.1622</v>
+      </c>
+      <c r="W442" s="5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="X442" s="6" t="inlineStr"/>
+      <c r="Y442" s="5" t="inlineStr"/>
+      <c r="Z442" s="5" t="inlineStr"/>
+      <c r="AA442" s="5" t="inlineStr"/>
+      <c r="AB442" s="5" t="inlineStr"/>
+      <c r="AC442" s="6" t="inlineStr"/>
+      <c r="AD442" s="5" t="inlineStr"/>
+      <c r="AE442" s="5" t="inlineStr"/>
+      <c r="AF442" s="5" t="inlineStr"/>
+      <c r="AG442" s="5" t="inlineStr"/>
+      <c r="AH442" s="7" t="inlineStr"/>
+      <c r="AI442" s="7" t="n">
+        <v>0.3285</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="inlineStr">
+        <is>
+          <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
+        </is>
+      </c>
+      <c r="B443" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C443" s="6" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D443" s="6" t="n">
+        <v>1.3659</v>
+      </c>
+      <c r="E443" s="5" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="F443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H443" s="5" t="n">
+        <v>1.4286</v>
+      </c>
+      <c r="I443" s="6" t="n">
+        <v>1.0958</v>
+      </c>
+      <c r="J443" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" s="5" t="n">
+        <v>0.3833</v>
+      </c>
+      <c r="N443" s="6" t="n">
+        <v>1.0319</v>
+      </c>
+      <c r="O443" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q443" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R443" s="5" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="S443" s="6" t="inlineStr"/>
+      <c r="T443" s="5" t="inlineStr"/>
+      <c r="U443" s="5" t="inlineStr"/>
+      <c r="V443" s="5" t="inlineStr"/>
+      <c r="W443" s="5" t="inlineStr"/>
+      <c r="X443" s="6" t="n">
         <v>1.7583</v>
       </c>
-      <c r="Y440" s="5" t="n">
+      <c r="Y443" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Z440" s="5" t="n">
+      <c r="Z443" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA440" s="5" t="n">
+      <c r="AA443" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB440" s="5" t="n">
+      <c r="AB443" s="5" t="n">
         <v>3.0333</v>
       </c>
-      <c r="AC440" s="6" t="n">
+      <c r="AC443" s="6" t="n">
         <v>1.5288</v>
       </c>
-      <c r="AD440" s="5" t="n">
+      <c r="AD443" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AE440" s="5" t="n">
+      <c r="AE443" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF440" s="5" t="n">
+      <c r="AF443" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AG440" s="5" t="n">
+      <c r="AG443" s="5" t="n">
         <v>1.975</v>
       </c>
-      <c r="AH440" s="7" t="n">
+      <c r="AH443" s="7" t="n">
         <v>0.3928</v>
       </c>
-      <c r="AI440" s="7" t="n">
+      <c r="AI443" s="7" t="n">
         <v>0.4017</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C440">
+  <conditionalFormatting sqref="C2:C443">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($C$2:$C$440)</formula>
+      <formula>MAX($C$2:$C$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D440">
+  <conditionalFormatting sqref="D2:D443">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($D$2:$D$440)</formula>
+      <formula>MAX($D$2:$D$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E440">
+  <conditionalFormatting sqref="E2:E443">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($E$2:$E$440)</formula>
+      <formula>MAX($E$2:$E$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F440">
+  <conditionalFormatting sqref="F2:F443">
     <cfRule type="cellIs" priority="4" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($F$2:$F$440)</formula>
+      <formula>MAX($F$2:$F$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G440">
+  <conditionalFormatting sqref="G2:G443">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($G$2:$G$440)</formula>
+      <formula>MAX($G$2:$G$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H440">
+  <conditionalFormatting sqref="H2:H443">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($H$2:$H$440)</formula>
+      <formula>MAX($H$2:$H$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I440">
+  <conditionalFormatting sqref="I2:I443">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($I$2:$I$440)</formula>
+      <formula>MAX($I$2:$I$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J440">
+  <conditionalFormatting sqref="J2:J443">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($J$2:$J$440)</formula>
+      <formula>MAX($J$2:$J$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K440">
+  <conditionalFormatting sqref="K2:K443">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($K$2:$K$440)</formula>
+      <formula>MAX($K$2:$K$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L440">
+  <conditionalFormatting sqref="L2:L443">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($L$2:$L$440)</formula>
+      <formula>MAX($L$2:$L$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M440">
+  <conditionalFormatting sqref="M2:M443">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($M$2:$M$440)</formula>
+      <formula>MAX($M$2:$M$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N440">
+  <conditionalFormatting sqref="N2:N443">
     <cfRule type="cellIs" priority="12" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($N$2:$N$440)</formula>
+      <formula>MAX($N$2:$N$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O440">
+  <conditionalFormatting sqref="O2:O443">
     <cfRule type="cellIs" priority="13" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($O$2:$O$440)</formula>
+      <formula>MAX($O$2:$O$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P440">
+  <conditionalFormatting sqref="P2:P443">
     <cfRule type="cellIs" priority="14" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($P$2:$P$440)</formula>
+      <formula>MAX($P$2:$P$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q440">
+  <conditionalFormatting sqref="Q2:Q443">
     <cfRule type="cellIs" priority="15" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Q$2:$Q$440)</formula>
+      <formula>MAX($Q$2:$Q$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R440">
+  <conditionalFormatting sqref="R2:R443">
     <cfRule type="cellIs" priority="16" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($R$2:$R$440)</formula>
+      <formula>MAX($R$2:$R$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S440">
+  <conditionalFormatting sqref="S2:S443">
     <cfRule type="cellIs" priority="17" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($S$2:$S$440)</formula>
+      <formula>MAX($S$2:$S$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T440">
+  <conditionalFormatting sqref="T2:T443">
     <cfRule type="cellIs" priority="18" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($T$2:$T$440)</formula>
+      <formula>MAX($T$2:$T$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U440">
+  <conditionalFormatting sqref="U2:U443">
     <cfRule type="cellIs" priority="19" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($U$2:$U$440)</formula>
+      <formula>MAX($U$2:$U$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V440">
+  <conditionalFormatting sqref="V2:V443">
     <cfRule type="cellIs" priority="20" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($V$2:$V$440)</formula>
+      <formula>MAX($V$2:$V$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W440">
+  <conditionalFormatting sqref="W2:W443">
     <cfRule type="cellIs" priority="21" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($W$2:$W$440)</formula>
+      <formula>MAX($W$2:$W$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X440">
+  <conditionalFormatting sqref="X2:X443">
     <cfRule type="cellIs" priority="22" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($X$2:$X$440)</formula>
+      <formula>MAX($X$2:$X$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y440">
+  <conditionalFormatting sqref="Y2:Y443">
     <cfRule type="cellIs" priority="23" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Y$2:$Y$440)</formula>
+      <formula>MAX($Y$2:$Y$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z440">
+  <conditionalFormatting sqref="Z2:Z443">
     <cfRule type="cellIs" priority="24" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Z$2:$Z$440)</formula>
+      <formula>MAX($Z$2:$Z$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA440">
+  <conditionalFormatting sqref="AA2:AA443">
     <cfRule type="cellIs" priority="25" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AA$2:$AA$440)</formula>
+      <formula>MAX($AA$2:$AA$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB440">
+  <conditionalFormatting sqref="AB2:AB443">
     <cfRule type="cellIs" priority="26" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AB$2:$AB$440)</formula>
+      <formula>MAX($AB$2:$AB$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC440">
+  <conditionalFormatting sqref="AC2:AC443">
     <cfRule type="cellIs" priority="27" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AC$2:$AC$440)</formula>
+      <formula>MAX($AC$2:$AC$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD440">
+  <conditionalFormatting sqref="AD2:AD443">
     <cfRule type="cellIs" priority="28" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AD$2:$AD$440)</formula>
+      <formula>MAX($AD$2:$AD$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE440">
+  <conditionalFormatting sqref="AE2:AE443">
     <cfRule type="cellIs" priority="29" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AE$2:$AE$440)</formula>
+      <formula>MAX($AE$2:$AE$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF440">
+  <conditionalFormatting sqref="AF2:AF443">
     <cfRule type="cellIs" priority="30" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AF$2:$AF$440)</formula>
+      <formula>MAX($AF$2:$AF$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG440">
+  <conditionalFormatting sqref="AG2:AG443">
     <cfRule type="cellIs" priority="31" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AG$2:$AG$440)</formula>
+      <formula>MAX($AG$2:$AG$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH440">
+  <conditionalFormatting sqref="AH2:AH443">
     <cfRule type="cellIs" priority="32" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AH$2:$AH$440)</formula>
+      <formula>MAX($AH$2:$AH$443)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI440">
+  <conditionalFormatting sqref="AI2:AI443">
     <cfRule type="cellIs" priority="33" operator="lessThan" dxfId="1" stopIfTrue="1">
       <formula>0.5</formula>
     </cfRule>

--- a/output-multi.xlsx
+++ b/output-multi.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI446"/>
+  <dimension ref="A1:AI448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -34156,411 +34156,377 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-v1-phi3-14b</t>
-        </is>
-      </c>
-      <c r="B382" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C382" s="10" t="n">
-        <v>6.7221</v>
-      </c>
-      <c r="D382" s="10" t="n">
-        <v>6.5271</v>
-      </c>
-      <c r="E382" s="9" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="F382" s="9" t="n">
-        <v>6.1303</v>
-      </c>
-      <c r="G382" s="9" t="n">
-        <v>7.6222</v>
-      </c>
-      <c r="H382" s="9" t="n">
-        <v>5.8658</v>
-      </c>
-      <c r="I382" s="10" t="n">
-        <v>6.2478</v>
-      </c>
-      <c r="J382" s="9" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K382" s="9" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="L382" s="9" t="n">
-        <v>7.7895</v>
-      </c>
-      <c r="M382" s="9" t="n">
-        <v>5.1917</v>
-      </c>
-      <c r="N382" s="10" t="n">
-        <v>5.7743</v>
-      </c>
-      <c r="O382" s="9" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="P382" s="9" t="n">
-        <v>5.2586</v>
-      </c>
-      <c r="Q382" s="9" t="n">
+      <c r="A382" s="4" t="inlineStr">
+        <is>
+          <t>040-sarashina2.2-3b-v2new-sft</t>
+        </is>
+      </c>
+      <c r="B382" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C382" s="6" t="inlineStr"/>
+      <c r="D382" s="6" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="E382" s="5" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F382" s="5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G382" s="5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H382" s="5" t="n">
         <v>6.55</v>
       </c>
-      <c r="R382" s="9" t="n">
-        <v>5.0085</v>
-      </c>
-      <c r="S382" s="10" t="inlineStr"/>
-      <c r="T382" s="9" t="inlineStr"/>
-      <c r="U382" s="9" t="inlineStr"/>
-      <c r="V382" s="9" t="inlineStr"/>
-      <c r="W382" s="9" t="inlineStr"/>
-      <c r="X382" s="10" t="n">
-        <v>6.9888</v>
-      </c>
-      <c r="Y382" s="9" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="Z382" s="9" t="n">
-        <v>6.9333</v>
-      </c>
-      <c r="AA382" s="9" t="n">
-        <v>8.270300000000001</v>
-      </c>
-      <c r="AB382" s="9" t="n">
-        <v>6.5917</v>
-      </c>
-      <c r="AC382" s="10" t="n">
-        <v>7.1249</v>
-      </c>
-      <c r="AD382" s="9" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AE382" s="9" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="AF382" s="9" t="n">
-        <v>8.025600000000001</v>
-      </c>
-      <c r="AG382" s="9" t="n">
-        <v>6.6639</v>
-      </c>
-      <c r="AH382" s="11" t="n">
-        <v>0.1642</v>
-      </c>
-      <c r="AI382" s="11" t="n">
-        <v>0.9003</v>
+      <c r="I382" s="6" t="inlineStr"/>
+      <c r="J382" s="5" t="inlineStr"/>
+      <c r="K382" s="5" t="inlineStr"/>
+      <c r="L382" s="5" t="inlineStr"/>
+      <c r="M382" s="5" t="inlineStr"/>
+      <c r="N382" s="6" t="inlineStr"/>
+      <c r="O382" s="5" t="inlineStr"/>
+      <c r="P382" s="5" t="inlineStr"/>
+      <c r="Q382" s="5" t="inlineStr"/>
+      <c r="R382" s="5" t="inlineStr"/>
+      <c r="S382" s="6" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="T382" s="5" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="U382" s="5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V382" s="5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W382" s="5" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="X382" s="6" t="inlineStr"/>
+      <c r="Y382" s="5" t="inlineStr"/>
+      <c r="Z382" s="5" t="inlineStr"/>
+      <c r="AA382" s="5" t="inlineStr"/>
+      <c r="AB382" s="5" t="inlineStr"/>
+      <c r="AC382" s="6" t="inlineStr"/>
+      <c r="AD382" s="5" t="inlineStr"/>
+      <c r="AE382" s="5" t="inlineStr"/>
+      <c r="AF382" s="5" t="inlineStr"/>
+      <c r="AG382" s="5" t="inlineStr"/>
+      <c r="AH382" s="7" t="inlineStr"/>
+      <c r="AI382" s="7" t="n">
+        <v>0.8847</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="8" t="inlineStr">
         <is>
-          <t>shisa-v2-llama3.1-405b-W4A16-gs128</t>
+          <t>shisa-ai/shisa-v1-phi3-14b</t>
         </is>
       </c>
       <c r="B383" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C383" s="10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C383" s="10" t="n">
+        <v>6.7221</v>
+      </c>
       <c r="D383" s="10" t="n">
-        <v>6.5092</v>
+        <v>6.5271</v>
       </c>
       <c r="E383" s="9" t="n">
-        <v>8.720000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="F383" s="9" t="n">
-        <v>8.6</v>
+        <v>6.1303</v>
       </c>
       <c r="G383" s="9" t="n">
-        <v>1</v>
+        <v>7.6222</v>
       </c>
       <c r="H383" s="9" t="n">
-        <v>7.7167</v>
-      </c>
-      <c r="I383" s="10" t="inlineStr"/>
-      <c r="J383" s="9" t="inlineStr"/>
-      <c r="K383" s="9" t="inlineStr"/>
-      <c r="L383" s="9" t="inlineStr"/>
-      <c r="M383" s="9" t="inlineStr"/>
-      <c r="N383" s="10" t="inlineStr"/>
-      <c r="O383" s="9" t="inlineStr"/>
-      <c r="P383" s="9" t="inlineStr"/>
-      <c r="Q383" s="9" t="inlineStr"/>
-      <c r="R383" s="9" t="inlineStr"/>
-      <c r="S383" s="10" t="n">
-        <v>6.5092</v>
-      </c>
-      <c r="T383" s="9" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="U383" s="9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="V383" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W383" s="9" t="n">
-        <v>7.7167</v>
-      </c>
-      <c r="X383" s="10" t="inlineStr"/>
-      <c r="Y383" s="9" t="inlineStr"/>
-      <c r="Z383" s="9" t="inlineStr"/>
-      <c r="AA383" s="9" t="inlineStr"/>
-      <c r="AB383" s="9" t="inlineStr"/>
-      <c r="AC383" s="10" t="inlineStr"/>
-      <c r="AD383" s="9" t="inlineStr"/>
-      <c r="AE383" s="9" t="inlineStr"/>
-      <c r="AF383" s="9" t="inlineStr"/>
-      <c r="AG383" s="9" t="inlineStr"/>
-      <c r="AH383" s="11" t="inlineStr"/>
+        <v>5.8658</v>
+      </c>
+      <c r="I383" s="10" t="n">
+        <v>6.2478</v>
+      </c>
+      <c r="J383" s="9" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K383" s="9" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="L383" s="9" t="n">
+        <v>7.7895</v>
+      </c>
+      <c r="M383" s="9" t="n">
+        <v>5.1917</v>
+      </c>
+      <c r="N383" s="10" t="n">
+        <v>5.7743</v>
+      </c>
+      <c r="O383" s="9" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="P383" s="9" t="n">
+        <v>5.2586</v>
+      </c>
+      <c r="Q383" s="9" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="R383" s="9" t="n">
+        <v>5.0085</v>
+      </c>
+      <c r="S383" s="10" t="inlineStr"/>
+      <c r="T383" s="9" t="inlineStr"/>
+      <c r="U383" s="9" t="inlineStr"/>
+      <c r="V383" s="9" t="inlineStr"/>
+      <c r="W383" s="9" t="inlineStr"/>
+      <c r="X383" s="10" t="n">
+        <v>6.9888</v>
+      </c>
+      <c r="Y383" s="9" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="Z383" s="9" t="n">
+        <v>6.9333</v>
+      </c>
+      <c r="AA383" s="9" t="n">
+        <v>8.270300000000001</v>
+      </c>
+      <c r="AB383" s="9" t="n">
+        <v>6.5917</v>
+      </c>
+      <c r="AC383" s="10" t="n">
+        <v>7.1249</v>
+      </c>
+      <c r="AD383" s="9" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AE383" s="9" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AF383" s="9" t="n">
+        <v>8.025600000000001</v>
+      </c>
+      <c r="AG383" s="9" t="n">
+        <v>6.6639</v>
+      </c>
+      <c r="AH383" s="11" t="n">
+        <v>0.1642</v>
+      </c>
       <c r="AI383" s="11" t="n">
-        <v>0.8924</v>
+        <v>0.9003</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="8" t="inlineStr">
         <is>
-          <t>ablation-56-rafathenev2.rp.tl.gamma-shisa-v2-gamma-7b</t>
+          <t>shisa-v2-llama3.1-405b-W4A16-gs128</t>
         </is>
       </c>
       <c r="B384" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C384" s="10" t="n">
-        <v>6.4056</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C384" s="10" t="inlineStr"/>
       <c r="D384" s="10" t="n">
-        <v>6.4332</v>
+        <v>6.5092</v>
       </c>
       <c r="E384" s="9" t="n">
-        <v>6.1267</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="F384" s="9" t="n">
-        <v>6.0726</v>
+        <v>8.6</v>
       </c>
       <c r="G384" s="9" t="n">
-        <v>6.65</v>
+        <v>1</v>
       </c>
       <c r="H384" s="9" t="n">
-        <v>6.8833</v>
-      </c>
-      <c r="I384" s="10" t="n">
-        <v>5.5904</v>
-      </c>
-      <c r="J384" s="9" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="K384" s="9" t="n">
-        <v>5.2667</v>
-      </c>
-      <c r="L384" s="9" t="n">
-        <v>5.6316</v>
-      </c>
-      <c r="M384" s="9" t="n">
-        <v>5.7833</v>
-      </c>
+        <v>7.7167</v>
+      </c>
+      <c r="I384" s="10" t="inlineStr"/>
+      <c r="J384" s="9" t="inlineStr"/>
+      <c r="K384" s="9" t="inlineStr"/>
+      <c r="L384" s="9" t="inlineStr"/>
+      <c r="M384" s="9" t="inlineStr"/>
       <c r="N384" s="10" t="inlineStr"/>
       <c r="O384" s="9" t="inlineStr"/>
       <c r="P384" s="9" t="inlineStr"/>
       <c r="Q384" s="9" t="inlineStr"/>
       <c r="R384" s="9" t="inlineStr"/>
-      <c r="S384" s="10" t="inlineStr"/>
-      <c r="T384" s="9" t="inlineStr"/>
-      <c r="U384" s="9" t="inlineStr"/>
-      <c r="V384" s="9" t="inlineStr"/>
-      <c r="W384" s="9" t="inlineStr"/>
-      <c r="X384" s="10" t="n">
-        <v>7.0327</v>
-      </c>
-      <c r="Y384" s="9" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="Z384" s="9" t="n">
-        <v>6.9667</v>
-      </c>
-      <c r="AA384" s="9" t="n">
-        <v>7.0526</v>
-      </c>
-      <c r="AB384" s="9" t="n">
-        <v>7.6917</v>
-      </c>
-      <c r="AC384" s="10" t="n">
-        <v>6.566</v>
-      </c>
-      <c r="AD384" s="9" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="AE384" s="9" t="n">
-        <v>5.9831</v>
-      </c>
-      <c r="AF384" s="9" t="n">
-        <v>6.8261</v>
-      </c>
-      <c r="AG384" s="9" t="n">
-        <v>7.175</v>
-      </c>
+      <c r="S384" s="10" t="n">
+        <v>6.5092</v>
+      </c>
+      <c r="T384" s="9" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="U384" s="9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="V384" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W384" s="9" t="n">
+        <v>7.7167</v>
+      </c>
+      <c r="X384" s="10" t="inlineStr"/>
+      <c r="Y384" s="9" t="inlineStr"/>
+      <c r="Z384" s="9" t="inlineStr"/>
+      <c r="AA384" s="9" t="inlineStr"/>
+      <c r="AB384" s="9" t="inlineStr"/>
+      <c r="AC384" s="10" t="inlineStr"/>
+      <c r="AD384" s="9" t="inlineStr"/>
+      <c r="AE384" s="9" t="inlineStr"/>
+      <c r="AF384" s="9" t="inlineStr"/>
+      <c r="AG384" s="9" t="inlineStr"/>
       <c r="AH384" s="11" t="inlineStr"/>
       <c r="AI384" s="11" t="n">
+        <v>0.8924</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="8" t="inlineStr">
+        <is>
+          <t>ablation-56-rafathenev2.rp.tl.gamma-shisa-v2-gamma-7b</t>
+        </is>
+      </c>
+      <c r="B385" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C385" s="10" t="n">
+        <v>6.4056</v>
+      </c>
+      <c r="D385" s="10" t="n">
+        <v>6.4332</v>
+      </c>
+      <c r="E385" s="9" t="n">
+        <v>6.1267</v>
+      </c>
+      <c r="F385" s="9" t="n">
+        <v>6.0726</v>
+      </c>
+      <c r="G385" s="9" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="H385" s="9" t="n">
+        <v>6.8833</v>
+      </c>
+      <c r="I385" s="10" t="n">
+        <v>5.5904</v>
+      </c>
+      <c r="J385" s="9" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K385" s="9" t="n">
+        <v>5.2667</v>
+      </c>
+      <c r="L385" s="9" t="n">
+        <v>5.6316</v>
+      </c>
+      <c r="M385" s="9" t="n">
+        <v>5.7833</v>
+      </c>
+      <c r="N385" s="10" t="inlineStr"/>
+      <c r="O385" s="9" t="inlineStr"/>
+      <c r="P385" s="9" t="inlineStr"/>
+      <c r="Q385" s="9" t="inlineStr"/>
+      <c r="R385" s="9" t="inlineStr"/>
+      <c r="S385" s="10" t="inlineStr"/>
+      <c r="T385" s="9" t="inlineStr"/>
+      <c r="U385" s="9" t="inlineStr"/>
+      <c r="V385" s="9" t="inlineStr"/>
+      <c r="W385" s="9" t="inlineStr"/>
+      <c r="X385" s="10" t="n">
+        <v>7.0327</v>
+      </c>
+      <c r="Y385" s="9" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="Z385" s="9" t="n">
+        <v>6.9667</v>
+      </c>
+      <c r="AA385" s="9" t="n">
+        <v>7.0526</v>
+      </c>
+      <c r="AB385" s="9" t="n">
+        <v>7.6917</v>
+      </c>
+      <c r="AC385" s="10" t="n">
+        <v>6.566</v>
+      </c>
+      <c r="AD385" s="9" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AE385" s="9" t="n">
+        <v>5.9831</v>
+      </c>
+      <c r="AF385" s="9" t="n">
+        <v>6.8261</v>
+      </c>
+      <c r="AG385" s="9" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="AH385" s="11" t="inlineStr"/>
+      <c r="AI385" s="11" t="n">
         <v>0.4035</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="4" t="inlineStr">
-        <is>
-          <t>mistralai/Mistral-Large-Instruct-2411</t>
-        </is>
-      </c>
-      <c r="B385" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C385" s="6" t="n">
-        <v>6.613</v>
-      </c>
-      <c r="D385" s="6" t="n">
-        <v>6.4303</v>
-      </c>
-      <c r="E385" s="5" t="n">
-        <v>7.755</v>
-      </c>
-      <c r="F385" s="5" t="n">
-        <v>6.5958</v>
-      </c>
-      <c r="G385" s="5" t="n">
-        <v>4.7415</v>
-      </c>
-      <c r="H385" s="5" t="n">
-        <v>6.6289</v>
-      </c>
-      <c r="I385" s="6" t="n">
-        <v>6.0453</v>
-      </c>
-      <c r="J385" s="5" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K385" s="5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L385" s="5" t="n">
-        <v>4.5161</v>
-      </c>
-      <c r="M385" s="5" t="n">
-        <v>6.125</v>
-      </c>
-      <c r="N385" s="6" t="n">
-        <v>5.6999</v>
-      </c>
-      <c r="O385" s="5" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="P385" s="5" t="n">
-        <v>5.9833</v>
-      </c>
-      <c r="Q385" s="5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R385" s="5" t="n">
-        <v>5.7863</v>
-      </c>
-      <c r="S385" s="6" t="inlineStr"/>
-      <c r="T385" s="5" t="inlineStr"/>
-      <c r="U385" s="5" t="inlineStr"/>
-      <c r="V385" s="5" t="inlineStr"/>
-      <c r="W385" s="5" t="inlineStr"/>
-      <c r="X385" s="6" t="n">
-        <v>6.9056</v>
-      </c>
-      <c r="Y385" s="5" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="Z385" s="5" t="n">
-        <v>7.2667</v>
-      </c>
-      <c r="AA385" s="5" t="n">
-        <v>5.4359</v>
-      </c>
-      <c r="AB385" s="5" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AC385" s="6" t="n">
-        <v>7.0708</v>
-      </c>
-      <c r="AD385" s="5" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="AE385" s="5" t="n">
-        <v>7.0333</v>
-      </c>
-      <c r="AF385" s="5" t="n">
-        <v>5.4865</v>
-      </c>
-      <c r="AG385" s="5" t="n">
-        <v>7.2833</v>
-      </c>
-      <c r="AH385" s="7" t="n">
-        <v>0.1602</v>
-      </c>
-      <c r="AI385" s="7" t="n">
-        <v>0.8874</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="4" t="inlineStr">
         <is>
-          <t>xverse/XVERSE-13B-Chat</t>
+          <t>mistralai/Mistral-Large-Instruct-2411</t>
         </is>
       </c>
       <c r="B386" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C386" s="6" t="n">
-        <v>6.5257</v>
+        <v>6.613</v>
       </c>
       <c r="D386" s="6" t="n">
-        <v>6.3866</v>
+        <v>6.4303</v>
       </c>
       <c r="E386" s="5" t="n">
-        <v>6.225</v>
+        <v>7.755</v>
       </c>
       <c r="F386" s="5" t="n">
-        <v>6.3824</v>
+        <v>6.5958</v>
       </c>
       <c r="G386" s="5" t="n">
-        <v>7.4234</v>
+        <v>4.7415</v>
       </c>
       <c r="H386" s="5" t="n">
-        <v>5.5157</v>
+        <v>6.6289</v>
       </c>
       <c r="I386" s="6" t="n">
-        <v>5.9512</v>
+        <v>6.0453</v>
       </c>
       <c r="J386" s="5" t="n">
-        <v>5.68</v>
+        <v>7.44</v>
       </c>
       <c r="K386" s="5" t="n">
-        <v>6.0375</v>
+        <v>6.1</v>
       </c>
       <c r="L386" s="5" t="n">
-        <v>7.0455</v>
+        <v>4.5161</v>
       </c>
       <c r="M386" s="5" t="n">
-        <v>5.0417</v>
+        <v>6.125</v>
       </c>
       <c r="N386" s="6" t="n">
-        <v>5.8027</v>
+        <v>5.6999</v>
       </c>
       <c r="O386" s="5" t="n">
-        <v>6.34</v>
+        <v>7.48</v>
       </c>
       <c r="P386" s="5" t="n">
-        <v>5.3375</v>
+        <v>5.9833</v>
       </c>
       <c r="Q386" s="5" t="n">
-        <v>6.65</v>
+        <v>3.55</v>
       </c>
       <c r="R386" s="5" t="n">
-        <v>4.8833</v>
+        <v>5.7863</v>
       </c>
       <c r="S386" s="6" t="inlineStr"/>
       <c r="T386" s="5" t="inlineStr"/>
@@ -34568,99 +34534,145 @@
       <c r="V386" s="5" t="inlineStr"/>
       <c r="W386" s="5" t="inlineStr"/>
       <c r="X386" s="6" t="n">
+        <v>6.9056</v>
+      </c>
+      <c r="Y386" s="5" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="Z386" s="5" t="n">
+        <v>7.2667</v>
+      </c>
+      <c r="AA386" s="5" t="n">
+        <v>5.4359</v>
+      </c>
+      <c r="AB386" s="5" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AC386" s="6" t="n">
+        <v>7.0708</v>
+      </c>
+      <c r="AD386" s="5" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="AE386" s="5" t="n">
+        <v>7.0333</v>
+      </c>
+      <c r="AF386" s="5" t="n">
+        <v>5.4865</v>
+      </c>
+      <c r="AG386" s="5" t="n">
+        <v>7.2833</v>
+      </c>
+      <c r="AH386" s="7" t="n">
+        <v>0.1602</v>
+      </c>
+      <c r="AI386" s="7" t="n">
+        <v>0.8874</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="4" t="inlineStr">
+        <is>
+          <t>xverse/XVERSE-13B-Chat</t>
+        </is>
+      </c>
+      <c r="B387" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C387" s="6" t="n">
+        <v>6.5257</v>
+      </c>
+      <c r="D387" s="6" t="n">
+        <v>6.3866</v>
+      </c>
+      <c r="E387" s="5" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="F387" s="5" t="n">
+        <v>6.3824</v>
+      </c>
+      <c r="G387" s="5" t="n">
+        <v>7.4234</v>
+      </c>
+      <c r="H387" s="5" t="n">
+        <v>5.5157</v>
+      </c>
+      <c r="I387" s="6" t="n">
+        <v>5.9512</v>
+      </c>
+      <c r="J387" s="5" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="K387" s="5" t="n">
+        <v>6.0375</v>
+      </c>
+      <c r="L387" s="5" t="n">
+        <v>7.0455</v>
+      </c>
+      <c r="M387" s="5" t="n">
+        <v>5.0417</v>
+      </c>
+      <c r="N387" s="6" t="n">
+        <v>5.8027</v>
+      </c>
+      <c r="O387" s="5" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="P387" s="5" t="n">
+        <v>5.3375</v>
+      </c>
+      <c r="Q387" s="5" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="R387" s="5" t="n">
+        <v>4.8833</v>
+      </c>
+      <c r="S387" s="6" t="inlineStr"/>
+      <c r="T387" s="5" t="inlineStr"/>
+      <c r="U387" s="5" t="inlineStr"/>
+      <c r="V387" s="5" t="inlineStr"/>
+      <c r="W387" s="5" t="inlineStr"/>
+      <c r="X387" s="6" t="n">
         <v>6.7001</v>
       </c>
-      <c r="Y386" s="5" t="n">
+      <c r="Y387" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="Z386" s="5" t="n">
+      <c r="Z387" s="5" t="n">
         <v>7.0253</v>
       </c>
-      <c r="AA386" s="5" t="n">
+      <c r="AA387" s="5" t="n">
         <v>7.8</v>
       </c>
-      <c r="AB386" s="5" t="n">
+      <c r="AB387" s="5" t="n">
         <v>5.975</v>
       </c>
-      <c r="AC386" s="6" t="n">
+      <c r="AC387" s="6" t="n">
         <v>7.0651</v>
       </c>
-      <c r="AD386" s="5" t="n">
+      <c r="AD387" s="5" t="n">
         <v>6.88</v>
       </c>
-      <c r="AE386" s="5" t="n">
+      <c r="AE387" s="5" t="n">
         <v>7.1375</v>
       </c>
-      <c r="AF386" s="5" t="n">
+      <c r="AF387" s="5" t="n">
         <v>8.074999999999999</v>
       </c>
-      <c r="AG386" s="5" t="n">
+      <c r="AG387" s="5" t="n">
         <v>6.1681</v>
       </c>
-      <c r="AH386" s="7" t="n">
+      <c r="AH387" s="7" t="n">
         <v>0.1246</v>
       </c>
-      <c r="AI386" s="7" t="n">
+      <c r="AI387" s="7" t="n">
         <v>0.7964</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-llama3-8b-v1.fp0.0</t>
-        </is>
-      </c>
-      <c r="B387" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C387" s="10" t="inlineStr"/>
-      <c r="D387" s="10" t="n">
-        <v>6.3833</v>
-      </c>
-      <c r="E387" s="9" t="inlineStr"/>
-      <c r="F387" s="9" t="n">
-        <v>6.3833</v>
-      </c>
-      <c r="G387" s="9" t="inlineStr"/>
-      <c r="H387" s="9" t="inlineStr"/>
-      <c r="I387" s="10" t="inlineStr"/>
-      <c r="J387" s="9" t="inlineStr"/>
-      <c r="K387" s="9" t="inlineStr"/>
-      <c r="L387" s="9" t="inlineStr"/>
-      <c r="M387" s="9" t="inlineStr"/>
-      <c r="N387" s="10" t="n">
-        <v>6.3833</v>
-      </c>
-      <c r="O387" s="9" t="inlineStr"/>
-      <c r="P387" s="9" t="n">
-        <v>6.3833</v>
-      </c>
-      <c r="Q387" s="9" t="inlineStr"/>
-      <c r="R387" s="9" t="inlineStr"/>
-      <c r="S387" s="10" t="inlineStr"/>
-      <c r="T387" s="9" t="inlineStr"/>
-      <c r="U387" s="9" t="inlineStr"/>
-      <c r="V387" s="9" t="inlineStr"/>
-      <c r="W387" s="9" t="inlineStr"/>
-      <c r="X387" s="10" t="inlineStr"/>
-      <c r="Y387" s="9" t="inlineStr"/>
-      <c r="Z387" s="9" t="inlineStr"/>
-      <c r="AA387" s="9" t="inlineStr"/>
-      <c r="AB387" s="9" t="inlineStr"/>
-      <c r="AC387" s="10" t="inlineStr"/>
-      <c r="AD387" s="9" t="inlineStr"/>
-      <c r="AE387" s="9" t="inlineStr"/>
-      <c r="AF387" s="9" t="inlineStr"/>
-      <c r="AG387" s="9" t="inlineStr"/>
-      <c r="AH387" s="11" t="inlineStr"/>
-      <c r="AI387" s="11" t="n">
-        <v>0.8918</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-llama3-8b-v1.fp0.8</t>
+          <t>shisa-ai/shisa-llama3-8b-v1.fp0.0</t>
         </is>
       </c>
       <c r="B388" s="9" t="n">
@@ -34668,11 +34680,11 @@
       </c>
       <c r="C388" s="10" t="inlineStr"/>
       <c r="D388" s="10" t="n">
-        <v>6.3621</v>
+        <v>6.3833</v>
       </c>
       <c r="E388" s="9" t="inlineStr"/>
       <c r="F388" s="9" t="n">
-        <v>6.3621</v>
+        <v>6.3833</v>
       </c>
       <c r="G388" s="9" t="inlineStr"/>
       <c r="H388" s="9" t="inlineStr"/>
@@ -34682,11 +34694,11 @@
       <c r="L388" s="9" t="inlineStr"/>
       <c r="M388" s="9" t="inlineStr"/>
       <c r="N388" s="10" t="n">
-        <v>6.3621</v>
+        <v>6.3833</v>
       </c>
       <c r="O388" s="9" t="inlineStr"/>
       <c r="P388" s="9" t="n">
-        <v>6.3621</v>
+        <v>6.3833</v>
       </c>
       <c r="Q388" s="9" t="inlineStr"/>
       <c r="R388" s="9" t="inlineStr"/>
@@ -34707,54 +34719,40 @@
       <c r="AG388" s="9" t="inlineStr"/>
       <c r="AH388" s="11" t="inlineStr"/>
       <c r="AI388" s="11" t="n">
-        <v>0.8914</v>
+        <v>0.8918</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="8" t="inlineStr">
         <is>
-          <t>ablation-57-rafathenev2.rp.tl.shisav1-shisa-v2-shisa-base-7b-v1</t>
+          <t>shisa-ai/shisa-llama3-8b-v1.fp0.8</t>
         </is>
       </c>
       <c r="B389" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C389" s="10" t="n">
-        <v>6.3306</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C389" s="10" t="inlineStr"/>
       <c r="D389" s="10" t="n">
-        <v>6.3605</v>
-      </c>
-      <c r="E389" s="9" t="n">
-        <v>5.2267</v>
-      </c>
+        <v>6.3621</v>
+      </c>
+      <c r="E389" s="9" t="inlineStr"/>
       <c r="F389" s="9" t="n">
-        <v>6.1061</v>
-      </c>
-      <c r="G389" s="9" t="n">
-        <v>7.6593</v>
-      </c>
-      <c r="H389" s="9" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="I389" s="10" t="n">
-        <v>5.5512</v>
-      </c>
-      <c r="J389" s="9" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="K389" s="9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L389" s="9" t="n">
-        <v>6.125</v>
-      </c>
-      <c r="M389" s="9" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="N389" s="10" t="inlineStr"/>
+        <v>6.3621</v>
+      </c>
+      <c r="G389" s="9" t="inlineStr"/>
+      <c r="H389" s="9" t="inlineStr"/>
+      <c r="I389" s="10" t="inlineStr"/>
+      <c r="J389" s="9" t="inlineStr"/>
+      <c r="K389" s="9" t="inlineStr"/>
+      <c r="L389" s="9" t="inlineStr"/>
+      <c r="M389" s="9" t="inlineStr"/>
+      <c r="N389" s="10" t="n">
+        <v>6.3621</v>
+      </c>
       <c r="O389" s="9" t="inlineStr"/>
-      <c r="P389" s="9" t="inlineStr"/>
+      <c r="P389" s="9" t="n">
+        <v>6.3621</v>
+      </c>
       <c r="Q389" s="9" t="inlineStr"/>
       <c r="R389" s="9" t="inlineStr"/>
       <c r="S389" s="10" t="inlineStr"/>
@@ -34762,283 +34760,251 @@
       <c r="U389" s="9" t="inlineStr"/>
       <c r="V389" s="9" t="inlineStr"/>
       <c r="W389" s="9" t="inlineStr"/>
-      <c r="X389" s="10" t="n">
-        <v>6.9509</v>
-      </c>
-      <c r="Y389" s="9" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="Z389" s="9" t="n">
-        <v>6.8136</v>
-      </c>
-      <c r="AA389" s="9" t="n">
-        <v>8.324999999999999</v>
-      </c>
-      <c r="AB389" s="9" t="n">
-        <v>7.225</v>
-      </c>
-      <c r="AC389" s="10" t="n">
-        <v>6.4597</v>
-      </c>
-      <c r="AD389" s="9" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="AE389" s="9" t="n">
-        <v>5.9167</v>
-      </c>
-      <c r="AF389" s="9" t="n">
-        <v>8.037000000000001</v>
-      </c>
-      <c r="AG389" s="9" t="n">
-        <v>6.525</v>
-      </c>
+      <c r="X389" s="10" t="inlineStr"/>
+      <c r="Y389" s="9" t="inlineStr"/>
+      <c r="Z389" s="9" t="inlineStr"/>
+      <c r="AA389" s="9" t="inlineStr"/>
+      <c r="AB389" s="9" t="inlineStr"/>
+      <c r="AC389" s="10" t="inlineStr"/>
+      <c r="AD389" s="9" t="inlineStr"/>
+      <c r="AE389" s="9" t="inlineStr"/>
+      <c r="AF389" s="9" t="inlineStr"/>
+      <c r="AG389" s="9" t="inlineStr"/>
       <c r="AH389" s="11" t="inlineStr"/>
       <c r="AI389" s="11" t="n">
+        <v>0.8914</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="8" t="inlineStr">
+        <is>
+          <t>ablation-57-rafathenev2.rp.tl.shisav1-shisa-v2-shisa-base-7b-v1</t>
+        </is>
+      </c>
+      <c r="B390" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C390" s="10" t="n">
+        <v>6.3306</v>
+      </c>
+      <c r="D390" s="10" t="n">
+        <v>6.3605</v>
+      </c>
+      <c r="E390" s="9" t="n">
+        <v>5.2267</v>
+      </c>
+      <c r="F390" s="9" t="n">
+        <v>6.1061</v>
+      </c>
+      <c r="G390" s="9" t="n">
+        <v>7.6593</v>
+      </c>
+      <c r="H390" s="9" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="I390" s="10" t="n">
+        <v>5.5512</v>
+      </c>
+      <c r="J390" s="9" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="K390" s="9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L390" s="9" t="n">
+        <v>6.125</v>
+      </c>
+      <c r="M390" s="9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N390" s="10" t="inlineStr"/>
+      <c r="O390" s="9" t="inlineStr"/>
+      <c r="P390" s="9" t="inlineStr"/>
+      <c r="Q390" s="9" t="inlineStr"/>
+      <c r="R390" s="9" t="inlineStr"/>
+      <c r="S390" s="10" t="inlineStr"/>
+      <c r="T390" s="9" t="inlineStr"/>
+      <c r="U390" s="9" t="inlineStr"/>
+      <c r="V390" s="9" t="inlineStr"/>
+      <c r="W390" s="9" t="inlineStr"/>
+      <c r="X390" s="10" t="n">
+        <v>6.9509</v>
+      </c>
+      <c r="Y390" s="9" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="Z390" s="9" t="n">
+        <v>6.8136</v>
+      </c>
+      <c r="AA390" s="9" t="n">
+        <v>8.324999999999999</v>
+      </c>
+      <c r="AB390" s="9" t="n">
+        <v>7.225</v>
+      </c>
+      <c r="AC390" s="10" t="n">
+        <v>6.4597</v>
+      </c>
+      <c r="AD390" s="9" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AE390" s="9" t="n">
+        <v>5.9167</v>
+      </c>
+      <c r="AF390" s="9" t="n">
+        <v>8.037000000000001</v>
+      </c>
+      <c r="AG390" s="9" t="n">
+        <v>6.525</v>
+      </c>
+      <c r="AH390" s="11" t="inlineStr"/>
+      <c r="AI390" s="11" t="n">
         <v>0.8507</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="4" t="inlineStr">
+    <row r="391">
+      <c r="A391" s="4" t="inlineStr">
         <is>
           <t>tokyotech-llm/Swallow-7b-instruct-v0.1</t>
         </is>
       </c>
-      <c r="B390" s="5" t="n">
+      <c r="B391" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C390" s="6" t="n">
+      <c r="C391" s="6" t="n">
         <v>6.3366</v>
       </c>
-      <c r="D390" s="6" t="n">
+      <c r="D391" s="6" t="n">
         <v>6.3474</v>
       </c>
-      <c r="E390" s="5" t="n">
+      <c r="E391" s="5" t="n">
         <v>6.0201</v>
       </c>
-      <c r="F390" s="5" t="n">
+      <c r="F391" s="5" t="n">
         <v>6.2111</v>
       </c>
-      <c r="G390" s="5" t="n">
+      <c r="G391" s="5" t="n">
         <v>7.5474</v>
       </c>
-      <c r="H390" s="5" t="n">
+      <c r="H391" s="5" t="n">
         <v>5.6111</v>
       </c>
-      <c r="I390" s="6" t="n">
+      <c r="I391" s="6" t="n">
         <v>5.7442</v>
       </c>
-      <c r="J390" s="5" t="n">
+      <c r="J391" s="5" t="n">
         <v>5.44</v>
       </c>
-      <c r="K390" s="5" t="n">
+      <c r="K391" s="5" t="n">
         <v>5.5167</v>
       </c>
-      <c r="L390" s="5" t="n">
+      <c r="L391" s="5" t="n">
         <v>7.087</v>
       </c>
-      <c r="M390" s="5" t="n">
+      <c r="M391" s="5" t="n">
         <v>4.9333</v>
       </c>
-      <c r="N390" s="6" t="inlineStr"/>
-      <c r="O390" s="5" t="inlineStr"/>
-      <c r="P390" s="5" t="inlineStr"/>
-      <c r="Q390" s="5" t="inlineStr"/>
-      <c r="R390" s="5" t="inlineStr"/>
-      <c r="S390" s="6" t="inlineStr"/>
-      <c r="T390" s="5" t="inlineStr"/>
-      <c r="U390" s="5" t="inlineStr"/>
-      <c r="V390" s="5" t="inlineStr"/>
-      <c r="W390" s="5" t="inlineStr"/>
-      <c r="X390" s="6" t="n">
+      <c r="N391" s="6" t="inlineStr"/>
+      <c r="O391" s="5" t="inlineStr"/>
+      <c r="P391" s="5" t="inlineStr"/>
+      <c r="Q391" s="5" t="inlineStr"/>
+      <c r="R391" s="5" t="inlineStr"/>
+      <c r="S391" s="6" t="inlineStr"/>
+      <c r="T391" s="5" t="inlineStr"/>
+      <c r="U391" s="5" t="inlineStr"/>
+      <c r="V391" s="5" t="inlineStr"/>
+      <c r="W391" s="5" t="inlineStr"/>
+      <c r="X391" s="6" t="n">
         <v>6.4745</v>
       </c>
-      <c r="Y390" s="5" t="n">
+      <c r="Y391" s="5" t="n">
         <v>5.798</v>
       </c>
-      <c r="Z390" s="5" t="n">
+      <c r="Z391" s="5" t="n">
         <v>6.6833</v>
       </c>
-      <c r="AA390" s="5" t="n">
+      <c r="AA391" s="5" t="n">
         <v>7.6667</v>
       </c>
-      <c r="AB390" s="5" t="n">
+      <c r="AB391" s="5" t="n">
         <v>5.75</v>
       </c>
-      <c r="AC390" s="6" t="n">
+      <c r="AC391" s="6" t="n">
         <v>6.7803</v>
       </c>
-      <c r="AD390" s="5" t="n">
+      <c r="AD391" s="5" t="n">
         <v>6.82</v>
       </c>
-      <c r="AE390" s="5" t="n">
+      <c r="AE391" s="5" t="n">
         <v>6.4333</v>
       </c>
-      <c r="AF390" s="5" t="n">
+      <c r="AF391" s="5" t="n">
         <v>7.7179</v>
       </c>
-      <c r="AG390" s="5" t="n">
+      <c r="AG391" s="5" t="n">
         <v>6.15</v>
       </c>
-      <c r="AH390" s="7" t="inlineStr"/>
-      <c r="AI390" s="7" t="n">
+      <c r="AH391" s="7" t="inlineStr"/>
+      <c r="AI391" s="7" t="n">
         <v>0.8139999999999999</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-v1-llama3-8b.lr-5e5</t>
-        </is>
-      </c>
-      <c r="B391" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C391" s="10" t="n">
-        <v>6.3819</v>
-      </c>
-      <c r="D391" s="10" t="n">
-        <v>6.3256</v>
-      </c>
-      <c r="E391" s="9" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="F391" s="9" t="n">
-        <v>7.3249</v>
-      </c>
-      <c r="G391" s="9" t="n">
-        <v>6.4878</v>
-      </c>
-      <c r="H391" s="9" t="n">
-        <v>5.3695</v>
-      </c>
-      <c r="I391" s="10" t="n">
-        <v>5.5418</v>
-      </c>
-      <c r="J391" s="9" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="K391" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="L391" s="9" t="n">
-        <v>4.5556</v>
-      </c>
-      <c r="M391" s="9" t="n">
-        <v>4.8917</v>
-      </c>
-      <c r="N391" s="10" t="n">
-        <v>5.7259</v>
-      </c>
-      <c r="O391" s="9" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="P391" s="9" t="n">
-        <v>6.4483</v>
-      </c>
-      <c r="Q391" s="9" t="n">
-        <v>5.3684</v>
-      </c>
-      <c r="R391" s="9" t="n">
-        <v>4.8067</v>
-      </c>
-      <c r="S391" s="10" t="inlineStr"/>
-      <c r="T391" s="9" t="inlineStr"/>
-      <c r="U391" s="9" t="inlineStr"/>
-      <c r="V391" s="9" t="inlineStr"/>
-      <c r="W391" s="9" t="inlineStr"/>
-      <c r="X391" s="10" t="n">
-        <v>6.7903</v>
-      </c>
-      <c r="Y391" s="9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Z391" s="9" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AA391" s="9" t="n">
-        <v>7.4444</v>
-      </c>
-      <c r="AB391" s="9" t="n">
-        <v>5.7667</v>
-      </c>
-      <c r="AC391" s="10" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="AD391" s="9" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="AE391" s="9" t="n">
-        <v>7.7667</v>
-      </c>
-      <c r="AF391" s="9" t="n">
-        <v>7.125</v>
-      </c>
-      <c r="AG391" s="9" t="n">
-        <v>6.0083</v>
-      </c>
-      <c r="AH391" s="11" t="n">
-        <v>0.1146</v>
-      </c>
-      <c r="AI391" s="11" t="n">
-        <v>0.8954</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-gemma-7b-v1</t>
+          <t>shisa-ai/shisa-v1-llama3-8b.lr-5e5</t>
         </is>
       </c>
       <c r="B392" s="9" t="n">
         <v>4</v>
       </c>
       <c r="C392" s="10" t="n">
-        <v>6.4653</v>
+        <v>6.3819</v>
       </c>
       <c r="D392" s="10" t="n">
-        <v>6.3201</v>
+        <v>6.3256</v>
       </c>
       <c r="E392" s="9" t="n">
-        <v>6.1955</v>
+        <v>6.12</v>
       </c>
       <c r="F392" s="9" t="n">
-        <v>6.5188</v>
+        <v>7.3249</v>
       </c>
       <c r="G392" s="9" t="n">
-        <v>6.562</v>
+        <v>6.4878</v>
       </c>
       <c r="H392" s="9" t="n">
-        <v>6.0042</v>
+        <v>5.3695</v>
       </c>
       <c r="I392" s="10" t="n">
-        <v>5.9046</v>
+        <v>5.5418</v>
       </c>
       <c r="J392" s="9" t="n">
-        <v>5.86</v>
+        <v>5.72</v>
       </c>
       <c r="K392" s="9" t="n">
-        <v>6.3667</v>
+        <v>7</v>
       </c>
       <c r="L392" s="9" t="n">
-        <v>5.8</v>
+        <v>4.5556</v>
       </c>
       <c r="M392" s="9" t="n">
-        <v>5.5917</v>
+        <v>4.8917</v>
       </c>
       <c r="N392" s="10" t="n">
-        <v>5.6441</v>
+        <v>5.7259</v>
       </c>
       <c r="O392" s="9" t="n">
-        <v>6.5</v>
+        <v>6.28</v>
       </c>
       <c r="P392" s="9" t="n">
-        <v>5.4237</v>
+        <v>6.4483</v>
       </c>
       <c r="Q392" s="9" t="n">
-        <v>5.1026</v>
+        <v>5.3684</v>
       </c>
       <c r="R392" s="9" t="n">
-        <v>5.55</v>
+        <v>4.8067</v>
       </c>
       <c r="S392" s="10" t="inlineStr"/>
       <c r="T392" s="9" t="inlineStr"/>
@@ -35046,349 +35012,349 @@
       <c r="V392" s="9" t="inlineStr"/>
       <c r="W392" s="9" t="inlineStr"/>
       <c r="X392" s="10" t="n">
-        <v>6.7213</v>
+        <v>6.7903</v>
       </c>
       <c r="Y392" s="9" t="n">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="Z392" s="9" t="n">
-        <v>7.2</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AA392" s="9" t="n">
-        <v>7.4737</v>
+        <v>7.4444</v>
       </c>
       <c r="AB392" s="9" t="n">
-        <v>6.2917</v>
+        <v>5.7667</v>
       </c>
       <c r="AC392" s="10" t="n">
-        <v>6.915</v>
+        <v>6.87</v>
       </c>
       <c r="AD392" s="9" t="n">
-        <v>6.5051</v>
+        <v>6.58</v>
       </c>
       <c r="AE392" s="9" t="n">
-        <v>7.0667</v>
+        <v>7.7667</v>
       </c>
       <c r="AF392" s="9" t="n">
-        <v>7.5</v>
+        <v>7.125</v>
       </c>
       <c r="AG392" s="9" t="n">
-        <v>6.5882</v>
+        <v>6.0083</v>
       </c>
       <c r="AH392" s="11" t="n">
-        <v>0.1455</v>
+        <v>0.1146</v>
       </c>
       <c r="AI392" s="11" t="n">
-        <v>0.8495</v>
+        <v>0.8954</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="8" t="inlineStr">
         <is>
-          <t>ablation-25-reasoning-shisa-v2-llama-3.1-8b-lr8e6</t>
+          <t>shisa-ai/shisa-gemma-7b-v1</t>
         </is>
       </c>
       <c r="B393" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C393" s="10" t="n">
-        <v>6.2454</v>
+        <v>6.4653</v>
       </c>
       <c r="D393" s="10" t="n">
-        <v>6.2674</v>
+        <v>6.3201</v>
       </c>
       <c r="E393" s="9" t="n">
-        <v>6.4147</v>
+        <v>6.1955</v>
       </c>
       <c r="F393" s="9" t="n">
-        <v>6.2167</v>
+        <v>6.5188</v>
       </c>
       <c r="G393" s="9" t="n">
-        <v>6.48</v>
+        <v>6.562</v>
       </c>
       <c r="H393" s="9" t="n">
-        <v>5.9583</v>
+        <v>6.0042</v>
       </c>
       <c r="I393" s="10" t="n">
-        <v>5.2558</v>
+        <v>5.9046</v>
       </c>
       <c r="J393" s="9" t="n">
-        <v>5.34</v>
+        <v>5.86</v>
       </c>
       <c r="K393" s="9" t="n">
-        <v>5.6</v>
+        <v>6.3667</v>
       </c>
       <c r="L393" s="9" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="M393" s="9" t="n">
-        <v>5.0833</v>
-      </c>
-      <c r="N393" s="10" t="inlineStr"/>
-      <c r="O393" s="9" t="inlineStr"/>
-      <c r="P393" s="9" t="inlineStr"/>
-      <c r="Q393" s="9" t="inlineStr"/>
-      <c r="R393" s="9" t="inlineStr"/>
+        <v>5.5917</v>
+      </c>
+      <c r="N393" s="10" t="n">
+        <v>5.6441</v>
+      </c>
+      <c r="O393" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P393" s="9" t="n">
+        <v>5.4237</v>
+      </c>
+      <c r="Q393" s="9" t="n">
+        <v>5.1026</v>
+      </c>
+      <c r="R393" s="9" t="n">
+        <v>5.55</v>
+      </c>
       <c r="S393" s="10" t="inlineStr"/>
       <c r="T393" s="9" t="inlineStr"/>
       <c r="U393" s="9" t="inlineStr"/>
       <c r="V393" s="9" t="inlineStr"/>
       <c r="W393" s="9" t="inlineStr"/>
       <c r="X393" s="10" t="n">
+        <v>6.7213</v>
+      </c>
+      <c r="Y393" s="9" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="Z393" s="9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA393" s="9" t="n">
+        <v>7.4737</v>
+      </c>
+      <c r="AB393" s="9" t="n">
+        <v>6.2917</v>
+      </c>
+      <c r="AC393" s="10" t="n">
+        <v>6.915</v>
+      </c>
+      <c r="AD393" s="9" t="n">
+        <v>6.5051</v>
+      </c>
+      <c r="AE393" s="9" t="n">
+        <v>7.0667</v>
+      </c>
+      <c r="AF393" s="9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG393" s="9" t="n">
+        <v>6.5882</v>
+      </c>
+      <c r="AH393" s="11" t="n">
+        <v>0.1455</v>
+      </c>
+      <c r="AI393" s="11" t="n">
+        <v>0.8495</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="8" t="inlineStr">
+        <is>
+          <t>ablation-25-reasoning-shisa-v2-llama-3.1-8b-lr8e6</t>
+        </is>
+      </c>
+      <c r="B394" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C394" s="10" t="n">
+        <v>6.2454</v>
+      </c>
+      <c r="D394" s="10" t="n">
+        <v>6.2674</v>
+      </c>
+      <c r="E394" s="9" t="n">
+        <v>6.4147</v>
+      </c>
+      <c r="F394" s="9" t="n">
+        <v>6.2167</v>
+      </c>
+      <c r="G394" s="9" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="H394" s="9" t="n">
+        <v>5.9583</v>
+      </c>
+      <c r="I394" s="10" t="n">
+        <v>5.2558</v>
+      </c>
+      <c r="J394" s="9" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="K394" s="9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L394" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M394" s="9" t="n">
+        <v>5.0833</v>
+      </c>
+      <c r="N394" s="10" t="inlineStr"/>
+      <c r="O394" s="9" t="inlineStr"/>
+      <c r="P394" s="9" t="inlineStr"/>
+      <c r="Q394" s="9" t="inlineStr"/>
+      <c r="R394" s="9" t="inlineStr"/>
+      <c r="S394" s="10" t="inlineStr"/>
+      <c r="T394" s="9" t="inlineStr"/>
+      <c r="U394" s="9" t="inlineStr"/>
+      <c r="V394" s="9" t="inlineStr"/>
+      <c r="W394" s="9" t="inlineStr"/>
+      <c r="X394" s="10" t="n">
         <v>6.6442</v>
       </c>
-      <c r="Y393" s="9" t="n">
+      <c r="Y394" s="9" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z393" s="9" t="n">
+      <c r="Z394" s="9" t="n">
         <v>6.9667</v>
       </c>
-      <c r="AA393" s="9" t="n">
+      <c r="AA394" s="9" t="n">
         <v>6.4103</v>
       </c>
-      <c r="AB393" s="9" t="n">
+      <c r="AB394" s="9" t="n">
         <v>6.7</v>
       </c>
-      <c r="AC393" s="10" t="n">
+      <c r="AC394" s="10" t="n">
         <v>6.814</v>
       </c>
-      <c r="AD393" s="9" t="n">
+      <c r="AD394" s="9" t="n">
         <v>7.4141</v>
       </c>
-      <c r="AE393" s="9" t="n">
+      <c r="AE394" s="9" t="n">
         <v>6.0833</v>
       </c>
-      <c r="AF393" s="9" t="n">
+      <c r="AF394" s="9" t="n">
         <v>7.6667</v>
       </c>
-      <c r="AG393" s="9" t="n">
+      <c r="AG394" s="9" t="n">
         <v>6.0917</v>
       </c>
-      <c r="AH393" s="11" t="inlineStr"/>
-      <c r="AI393" s="11" t="n">
+      <c r="AH394" s="11" t="inlineStr"/>
+      <c r="AI394" s="11" t="n">
         <v>0.8575</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="4" t="inlineStr">
-        <is>
-          <t>mistralai/Ministral-8B-Instruct-2410</t>
-        </is>
-      </c>
-      <c r="B394" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C394" s="6" t="inlineStr"/>
-      <c r="D394" s="6" t="n">
-        <v>6.2592</v>
-      </c>
-      <c r="E394" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F394" s="5" t="n">
-        <v>6.0167</v>
-      </c>
-      <c r="G394" s="5" t="n">
-        <v>6.575</v>
-      </c>
-      <c r="H394" s="5" t="n">
-        <v>5.725</v>
-      </c>
-      <c r="I394" s="6" t="inlineStr"/>
-      <c r="J394" s="5" t="inlineStr"/>
-      <c r="K394" s="5" t="inlineStr"/>
-      <c r="L394" s="5" t="inlineStr"/>
-      <c r="M394" s="5" t="inlineStr"/>
-      <c r="N394" s="6" t="inlineStr"/>
-      <c r="O394" s="5" t="inlineStr"/>
-      <c r="P394" s="5" t="inlineStr"/>
-      <c r="Q394" s="5" t="inlineStr"/>
-      <c r="R394" s="5" t="inlineStr"/>
-      <c r="S394" s="6" t="n">
-        <v>6.2592</v>
-      </c>
-      <c r="T394" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="U394" s="5" t="n">
-        <v>6.0167</v>
-      </c>
-      <c r="V394" s="5" t="n">
-        <v>6.575</v>
-      </c>
-      <c r="W394" s="5" t="n">
-        <v>5.725</v>
-      </c>
-      <c r="X394" s="6" t="inlineStr"/>
-      <c r="Y394" s="5" t="inlineStr"/>
-      <c r="Z394" s="5" t="inlineStr"/>
-      <c r="AA394" s="5" t="inlineStr"/>
-      <c r="AB394" s="5" t="inlineStr"/>
-      <c r="AC394" s="6" t="inlineStr"/>
-      <c r="AD394" s="5" t="inlineStr"/>
-      <c r="AE394" s="5" t="inlineStr"/>
-      <c r="AF394" s="5" t="inlineStr"/>
-      <c r="AG394" s="5" t="inlineStr"/>
-      <c r="AH394" s="7" t="inlineStr"/>
-      <c r="AI394" s="7" t="n">
-        <v>0.9063</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="4" t="inlineStr">
         <is>
-          <t>Qwen/Qwen1.5-7B-Chat</t>
+          <t>mistralai/Ministral-8B-Instruct-2410</t>
         </is>
       </c>
       <c r="B395" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C395" s="6" t="n">
-        <v>6.4873</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C395" s="6" t="inlineStr"/>
       <c r="D395" s="6" t="n">
-        <v>6.256</v>
+        <v>6.2592</v>
       </c>
       <c r="E395" s="5" t="n">
-        <v>5.9198</v>
+        <v>6.72</v>
       </c>
       <c r="F395" s="5" t="n">
-        <v>6.7767</v>
+        <v>6.0167</v>
       </c>
       <c r="G395" s="5" t="n">
-        <v>6.292</v>
+        <v>6.575</v>
       </c>
       <c r="H395" s="5" t="n">
-        <v>6.0354</v>
-      </c>
-      <c r="I395" s="6" t="n">
-        <v>5.7544</v>
-      </c>
-      <c r="J395" s="5" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K395" s="5" t="n">
-        <v>6.5443</v>
-      </c>
-      <c r="L395" s="5" t="n">
-        <v>5.6667</v>
-      </c>
-      <c r="M395" s="5" t="n">
-        <v>5.3667</v>
-      </c>
-      <c r="N395" s="6" t="n">
-        <v>5.2662</v>
-      </c>
-      <c r="O395" s="5" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="P395" s="5" t="n">
-        <v>5.4125</v>
-      </c>
-      <c r="Q395" s="5" t="n">
-        <v>4.8205</v>
-      </c>
-      <c r="R395" s="5" t="n">
-        <v>5.2917</v>
-      </c>
-      <c r="S395" s="6" t="inlineStr"/>
-      <c r="T395" s="5" t="inlineStr"/>
-      <c r="U395" s="5" t="inlineStr"/>
-      <c r="V395" s="5" t="inlineStr"/>
-      <c r="W395" s="5" t="inlineStr"/>
-      <c r="X395" s="6" t="n">
-        <v>6.8699</v>
-      </c>
-      <c r="Y395" s="5" t="n">
-        <v>5.8384</v>
-      </c>
-      <c r="Z395" s="5" t="n">
-        <v>7.575</v>
-      </c>
-      <c r="AA395" s="5" t="n">
-        <v>7.2162</v>
-      </c>
-      <c r="AB395" s="5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AC395" s="6" t="n">
-        <v>7.0689</v>
-      </c>
-      <c r="AD395" s="5" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AE395" s="5" t="n">
-        <v>7.5823</v>
-      </c>
-      <c r="AF395" s="5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG395" s="5" t="n">
-        <v>6.6333</v>
-      </c>
-      <c r="AH395" s="7" t="n">
-        <v>0.2319</v>
-      </c>
+        <v>5.725</v>
+      </c>
+      <c r="I395" s="6" t="inlineStr"/>
+      <c r="J395" s="5" t="inlineStr"/>
+      <c r="K395" s="5" t="inlineStr"/>
+      <c r="L395" s="5" t="inlineStr"/>
+      <c r="M395" s="5" t="inlineStr"/>
+      <c r="N395" s="6" t="inlineStr"/>
+      <c r="O395" s="5" t="inlineStr"/>
+      <c r="P395" s="5" t="inlineStr"/>
+      <c r="Q395" s="5" t="inlineStr"/>
+      <c r="R395" s="5" t="inlineStr"/>
+      <c r="S395" s="6" t="n">
+        <v>6.2592</v>
+      </c>
+      <c r="T395" s="5" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="U395" s="5" t="n">
+        <v>6.0167</v>
+      </c>
+      <c r="V395" s="5" t="n">
+        <v>6.575</v>
+      </c>
+      <c r="W395" s="5" t="n">
+        <v>5.725</v>
+      </c>
+      <c r="X395" s="6" t="inlineStr"/>
+      <c r="Y395" s="5" t="inlineStr"/>
+      <c r="Z395" s="5" t="inlineStr"/>
+      <c r="AA395" s="5" t="inlineStr"/>
+      <c r="AB395" s="5" t="inlineStr"/>
+      <c r="AC395" s="6" t="inlineStr"/>
+      <c r="AD395" s="5" t="inlineStr"/>
+      <c r="AE395" s="5" t="inlineStr"/>
+      <c r="AF395" s="5" t="inlineStr"/>
+      <c r="AG395" s="5" t="inlineStr"/>
+      <c r="AH395" s="7" t="inlineStr"/>
       <c r="AI395" s="7" t="n">
-        <v>0.901</v>
+        <v>0.9063</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="4" t="inlineStr">
         <is>
-          <t>Nexusflow/Starling-LM-7B-beta</t>
+          <t>Qwen/Qwen1.5-7B-Chat</t>
         </is>
       </c>
       <c r="B396" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C396" s="6" t="n">
-        <v>6.4877</v>
+        <v>6.4873</v>
       </c>
       <c r="D396" s="6" t="n">
-        <v>6.2472</v>
+        <v>6.256</v>
       </c>
       <c r="E396" s="5" t="n">
-        <v>6.3008</v>
+        <v>5.9198</v>
       </c>
       <c r="F396" s="5" t="n">
-        <v>6.884</v>
+        <v>6.7767</v>
       </c>
       <c r="G396" s="5" t="n">
-        <v>5.7643</v>
+        <v>6.292</v>
       </c>
       <c r="H396" s="5" t="n">
-        <v>6.0396</v>
+        <v>6.0354</v>
       </c>
       <c r="I396" s="6" t="n">
-        <v>5.8804</v>
+        <v>5.7544</v>
       </c>
       <c r="J396" s="5" t="n">
-        <v>5.76</v>
+        <v>5.44</v>
       </c>
       <c r="K396" s="5" t="n">
-        <v>6.5949</v>
+        <v>6.5443</v>
       </c>
       <c r="L396" s="5" t="n">
-        <v>5.5417</v>
+        <v>5.6667</v>
       </c>
       <c r="M396" s="5" t="n">
-        <v>5.625</v>
+        <v>5.3667</v>
       </c>
       <c r="N396" s="6" t="n">
-        <v>5.2965</v>
+        <v>5.2662</v>
       </c>
       <c r="O396" s="5" t="n">
-        <v>5.74</v>
+        <v>5.54</v>
       </c>
       <c r="P396" s="5" t="n">
-        <v>5.6125</v>
+        <v>5.4125</v>
       </c>
       <c r="Q396" s="5" t="n">
-        <v>4.425</v>
+        <v>4.8205</v>
       </c>
       <c r="R396" s="5" t="n">
-        <v>5.4083</v>
+        <v>5.2917</v>
       </c>
       <c r="S396" s="6" t="inlineStr"/>
       <c r="T396" s="5" t="inlineStr"/>
@@ -35396,160 +35362,186 @@
       <c r="V396" s="5" t="inlineStr"/>
       <c r="W396" s="5" t="inlineStr"/>
       <c r="X396" s="6" t="n">
+        <v>6.8699</v>
+      </c>
+      <c r="Y396" s="5" t="n">
+        <v>5.8384</v>
+      </c>
+      <c r="Z396" s="5" t="n">
+        <v>7.575</v>
+      </c>
+      <c r="AA396" s="5" t="n">
+        <v>7.2162</v>
+      </c>
+      <c r="AB396" s="5" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AC396" s="6" t="n">
+        <v>7.0689</v>
+      </c>
+      <c r="AD396" s="5" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AE396" s="5" t="n">
+        <v>7.5823</v>
+      </c>
+      <c r="AF396" s="5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG396" s="5" t="n">
+        <v>6.6333</v>
+      </c>
+      <c r="AH396" s="7" t="n">
+        <v>0.2319</v>
+      </c>
+      <c r="AI396" s="7" t="n">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="4" t="inlineStr">
+        <is>
+          <t>Nexusflow/Starling-LM-7B-beta</t>
+        </is>
+      </c>
+      <c r="B397" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C397" s="6" t="n">
+        <v>6.4877</v>
+      </c>
+      <c r="D397" s="6" t="n">
+        <v>6.2472</v>
+      </c>
+      <c r="E397" s="5" t="n">
+        <v>6.3008</v>
+      </c>
+      <c r="F397" s="5" t="n">
+        <v>6.884</v>
+      </c>
+      <c r="G397" s="5" t="n">
+        <v>5.7643</v>
+      </c>
+      <c r="H397" s="5" t="n">
+        <v>6.0396</v>
+      </c>
+      <c r="I397" s="6" t="n">
+        <v>5.8804</v>
+      </c>
+      <c r="J397" s="5" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="K397" s="5" t="n">
+        <v>6.5949</v>
+      </c>
+      <c r="L397" s="5" t="n">
+        <v>5.5417</v>
+      </c>
+      <c r="M397" s="5" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="N397" s="6" t="n">
+        <v>5.2965</v>
+      </c>
+      <c r="O397" s="5" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="P397" s="5" t="n">
+        <v>5.6125</v>
+      </c>
+      <c r="Q397" s="5" t="n">
+        <v>4.425</v>
+      </c>
+      <c r="R397" s="5" t="n">
+        <v>5.4083</v>
+      </c>
+      <c r="S397" s="6" t="inlineStr"/>
+      <c r="T397" s="5" t="inlineStr"/>
+      <c r="U397" s="5" t="inlineStr"/>
+      <c r="V397" s="5" t="inlineStr"/>
+      <c r="W397" s="5" t="inlineStr"/>
+      <c r="X397" s="6" t="n">
         <v>6.9627</v>
       </c>
-      <c r="Y396" s="5" t="n">
+      <c r="Y397" s="5" t="n">
         <v>6.4242</v>
       </c>
-      <c r="Z396" s="5" t="n">
+      <c r="Z397" s="5" t="n">
         <v>7.5875</v>
       </c>
-      <c r="AA396" s="5" t="n">
+      <c r="AA397" s="5" t="n">
         <v>7.1389</v>
       </c>
-      <c r="AB396" s="5" t="n">
+      <c r="AB397" s="5" t="n">
         <v>6.7</v>
       </c>
-      <c r="AC396" s="6" t="n">
+      <c r="AC397" s="6" t="n">
         <v>6.8606</v>
       </c>
-      <c r="AD396" s="5" t="n">
+      <c r="AD397" s="5" t="n">
         <v>7.28</v>
       </c>
-      <c r="AE396" s="5" t="n">
+      <c r="AE397" s="5" t="n">
         <v>7.7375</v>
       </c>
-      <c r="AF396" s="5" t="n">
+      <c r="AF397" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="AG396" s="5" t="n">
+      <c r="AG397" s="5" t="n">
         <v>6.425</v>
       </c>
-      <c r="AH396" s="7" t="n">
+      <c r="AH397" s="7" t="n">
         <v>0.2249</v>
       </c>
-      <c r="AI396" s="7" t="n">
+      <c r="AI397" s="7" t="n">
         <v>0.887</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="8" t="inlineStr">
-        <is>
-          <t>ablation-36-cmrmix-shisa-v2-llama-3.1-8b-lr8e6</t>
-        </is>
-      </c>
-      <c r="B397" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C397" s="10" t="n">
-        <v>6.1997</v>
-      </c>
-      <c r="D397" s="10" t="n">
-        <v>6.2256</v>
-      </c>
-      <c r="E397" s="9" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F397" s="9" t="n">
-        <v>6.8883</v>
-      </c>
-      <c r="G397" s="9" t="n">
-        <v>6.8824</v>
-      </c>
-      <c r="H397" s="9" t="n">
-        <v>4.9917</v>
-      </c>
-      <c r="I397" s="10" t="n">
-        <v>5.4723</v>
-      </c>
-      <c r="J397" s="9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K397" s="9" t="n">
-        <v>6.3559</v>
-      </c>
-      <c r="L397" s="9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M397" s="9" t="n">
-        <v>4.3333</v>
-      </c>
-      <c r="N397" s="10" t="inlineStr"/>
-      <c r="O397" s="9" t="inlineStr"/>
-      <c r="P397" s="9" t="inlineStr"/>
-      <c r="Q397" s="9" t="inlineStr"/>
-      <c r="R397" s="9" t="inlineStr"/>
-      <c r="S397" s="10" t="inlineStr"/>
-      <c r="T397" s="9" t="inlineStr"/>
-      <c r="U397" s="9" t="inlineStr"/>
-      <c r="V397" s="9" t="inlineStr"/>
-      <c r="W397" s="9" t="inlineStr"/>
-      <c r="X397" s="10" t="n">
-        <v>6.5521</v>
-      </c>
-      <c r="Y397" s="9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z397" s="9" t="n">
-        <v>7.4833</v>
-      </c>
-      <c r="AA397" s="9" t="n">
-        <v>7.6667</v>
-      </c>
-      <c r="AB397" s="9" t="n">
-        <v>5.2583</v>
-      </c>
-      <c r="AC397" s="10" t="n">
-        <v>6.5488</v>
-      </c>
-      <c r="AD397" s="9" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="AE397" s="9" t="n">
-        <v>6.8167</v>
-      </c>
-      <c r="AF397" s="9" t="n">
-        <v>7.075</v>
-      </c>
-      <c r="AG397" s="9" t="n">
-        <v>5.3833</v>
-      </c>
-      <c r="AH397" s="11" t="inlineStr"/>
-      <c r="AI397" s="11" t="n">
-        <v>0.9014</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-llama3-8b-v1.rp-1.0</t>
+          <t>ablation-36-cmrmix-shisa-v2-llama-3.1-8b-lr8e6</t>
         </is>
       </c>
       <c r="B398" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C398" s="10" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="C398" s="10" t="n">
+        <v>6.1997</v>
+      </c>
       <c r="D398" s="10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="E398" s="9" t="inlineStr"/>
+        <v>6.2256</v>
+      </c>
+      <c r="E398" s="9" t="n">
+        <v>6.14</v>
+      </c>
       <c r="F398" s="9" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G398" s="9" t="inlineStr"/>
-      <c r="H398" s="9" t="inlineStr"/>
-      <c r="I398" s="10" t="inlineStr"/>
-      <c r="J398" s="9" t="inlineStr"/>
-      <c r="K398" s="9" t="inlineStr"/>
-      <c r="L398" s="9" t="inlineStr"/>
-      <c r="M398" s="9" t="inlineStr"/>
-      <c r="N398" s="10" t="n">
-        <v>6.2</v>
-      </c>
+        <v>6.8883</v>
+      </c>
+      <c r="G398" s="9" t="n">
+        <v>6.8824</v>
+      </c>
+      <c r="H398" s="9" t="n">
+        <v>4.9917</v>
+      </c>
+      <c r="I398" s="10" t="n">
+        <v>5.4723</v>
+      </c>
+      <c r="J398" s="9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K398" s="9" t="n">
+        <v>6.3559</v>
+      </c>
+      <c r="L398" s="9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M398" s="9" t="n">
+        <v>4.3333</v>
+      </c>
+      <c r="N398" s="10" t="inlineStr"/>
       <c r="O398" s="9" t="inlineStr"/>
-      <c r="P398" s="9" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="P398" s="9" t="inlineStr"/>
       <c r="Q398" s="9" t="inlineStr"/>
       <c r="R398" s="9" t="inlineStr"/>
       <c r="S398" s="10" t="inlineStr"/>
@@ -35557,66 +35549,72 @@
       <c r="U398" s="9" t="inlineStr"/>
       <c r="V398" s="9" t="inlineStr"/>
       <c r="W398" s="9" t="inlineStr"/>
-      <c r="X398" s="10" t="inlineStr"/>
-      <c r="Y398" s="9" t="inlineStr"/>
-      <c r="Z398" s="9" t="inlineStr"/>
-      <c r="AA398" s="9" t="inlineStr"/>
-      <c r="AB398" s="9" t="inlineStr"/>
-      <c r="AC398" s="10" t="inlineStr"/>
-      <c r="AD398" s="9" t="inlineStr"/>
-      <c r="AE398" s="9" t="inlineStr"/>
-      <c r="AF398" s="9" t="inlineStr"/>
-      <c r="AG398" s="9" t="inlineStr"/>
+      <c r="X398" s="10" t="n">
+        <v>6.5521</v>
+      </c>
+      <c r="Y398" s="9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z398" s="9" t="n">
+        <v>7.4833</v>
+      </c>
+      <c r="AA398" s="9" t="n">
+        <v>7.6667</v>
+      </c>
+      <c r="AB398" s="9" t="n">
+        <v>5.2583</v>
+      </c>
+      <c r="AC398" s="10" t="n">
+        <v>6.5488</v>
+      </c>
+      <c r="AD398" s="9" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="AE398" s="9" t="n">
+        <v>6.8167</v>
+      </c>
+      <c r="AF398" s="9" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="AG398" s="9" t="n">
+        <v>5.3833</v>
+      </c>
       <c r="AH398" s="11" t="inlineStr"/>
       <c r="AI398" s="11" t="n">
-        <v>0.8938</v>
+        <v>0.9014</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="8" t="inlineStr">
         <is>
-          <t>ablation-39-cmrmix.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
+          <t>shisa-ai/shisa-llama3-8b-v1.rp-1.0</t>
         </is>
       </c>
       <c r="B399" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C399" s="10" t="n">
-        <v>6.1619</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C399" s="10" t="inlineStr"/>
       <c r="D399" s="10" t="n">
-        <v>6.1738</v>
-      </c>
-      <c r="E399" s="9" t="n">
-        <v>6.0134</v>
-      </c>
+        <v>6.2</v>
+      </c>
+      <c r="E399" s="9" t="inlineStr"/>
       <c r="F399" s="9" t="n">
-        <v>6.6927</v>
-      </c>
-      <c r="G399" s="9" t="n">
-        <v>6.5612</v>
-      </c>
-      <c r="H399" s="9" t="n">
-        <v>5.4278</v>
-      </c>
-      <c r="I399" s="10" t="n">
-        <v>5.5103</v>
-      </c>
-      <c r="J399" s="9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K399" s="9" t="n">
-        <v>6.2034</v>
-      </c>
-      <c r="L399" s="9" t="n">
-        <v>5.6296</v>
-      </c>
-      <c r="M399" s="9" t="n">
-        <v>4.8083</v>
-      </c>
-      <c r="N399" s="10" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="G399" s="9" t="inlineStr"/>
+      <c r="H399" s="9" t="inlineStr"/>
+      <c r="I399" s="10" t="inlineStr"/>
+      <c r="J399" s="9" t="inlineStr"/>
+      <c r="K399" s="9" t="inlineStr"/>
+      <c r="L399" s="9" t="inlineStr"/>
+      <c r="M399" s="9" t="inlineStr"/>
+      <c r="N399" s="10" t="n">
+        <v>6.2</v>
+      </c>
       <c r="O399" s="9" t="inlineStr"/>
-      <c r="P399" s="9" t="inlineStr"/>
+      <c r="P399" s="9" t="n">
+        <v>6.2</v>
+      </c>
       <c r="Q399" s="9" t="inlineStr"/>
       <c r="R399" s="9" t="inlineStr"/>
       <c r="S399" s="10" t="inlineStr"/>
@@ -35624,197 +35622,211 @@
       <c r="U399" s="9" t="inlineStr"/>
       <c r="V399" s="9" t="inlineStr"/>
       <c r="W399" s="9" t="inlineStr"/>
-      <c r="X399" s="10" t="n">
-        <v>6.4396</v>
-      </c>
-      <c r="Y399" s="9" t="n">
-        <v>5.6939</v>
-      </c>
-      <c r="Z399" s="9" t="n">
-        <v>7.1833</v>
-      </c>
-      <c r="AA399" s="9" t="n">
-        <v>7.2727</v>
-      </c>
-      <c r="AB399" s="9" t="n">
-        <v>5.6083</v>
-      </c>
-      <c r="AC399" s="10" t="n">
-        <v>6.5238</v>
-      </c>
-      <c r="AD399" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="AE399" s="9" t="n">
-        <v>6.6833</v>
-      </c>
-      <c r="AF399" s="9" t="n">
-        <v>6.6053</v>
-      </c>
-      <c r="AG399" s="9" t="n">
-        <v>5.8667</v>
-      </c>
+      <c r="X399" s="10" t="inlineStr"/>
+      <c r="Y399" s="9" t="inlineStr"/>
+      <c r="Z399" s="9" t="inlineStr"/>
+      <c r="AA399" s="9" t="inlineStr"/>
+      <c r="AB399" s="9" t="inlineStr"/>
+      <c r="AC399" s="10" t="inlineStr"/>
+      <c r="AD399" s="9" t="inlineStr"/>
+      <c r="AE399" s="9" t="inlineStr"/>
+      <c r="AF399" s="9" t="inlineStr"/>
+      <c r="AG399" s="9" t="inlineStr"/>
       <c r="AH399" s="11" t="inlineStr"/>
       <c r="AI399" s="11" t="n">
+        <v>0.8938</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="8" t="inlineStr">
+        <is>
+          <t>ablation-39-cmrmix.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
+        </is>
+      </c>
+      <c r="B400" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C400" s="10" t="n">
+        <v>6.1619</v>
+      </c>
+      <c r="D400" s="10" t="n">
+        <v>6.1738</v>
+      </c>
+      <c r="E400" s="9" t="n">
+        <v>6.0134</v>
+      </c>
+      <c r="F400" s="9" t="n">
+        <v>6.6927</v>
+      </c>
+      <c r="G400" s="9" t="n">
+        <v>6.5612</v>
+      </c>
+      <c r="H400" s="9" t="n">
+        <v>5.4278</v>
+      </c>
+      <c r="I400" s="10" t="n">
+        <v>5.5103</v>
+      </c>
+      <c r="J400" s="9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K400" s="9" t="n">
+        <v>6.2034</v>
+      </c>
+      <c r="L400" s="9" t="n">
+        <v>5.6296</v>
+      </c>
+      <c r="M400" s="9" t="n">
+        <v>4.8083</v>
+      </c>
+      <c r="N400" s="10" t="inlineStr"/>
+      <c r="O400" s="9" t="inlineStr"/>
+      <c r="P400" s="9" t="inlineStr"/>
+      <c r="Q400" s="9" t="inlineStr"/>
+      <c r="R400" s="9" t="inlineStr"/>
+      <c r="S400" s="10" t="inlineStr"/>
+      <c r="T400" s="9" t="inlineStr"/>
+      <c r="U400" s="9" t="inlineStr"/>
+      <c r="V400" s="9" t="inlineStr"/>
+      <c r="W400" s="9" t="inlineStr"/>
+      <c r="X400" s="10" t="n">
+        <v>6.4396</v>
+      </c>
+      <c r="Y400" s="9" t="n">
+        <v>5.6939</v>
+      </c>
+      <c r="Z400" s="9" t="n">
+        <v>7.1833</v>
+      </c>
+      <c r="AA400" s="9" t="n">
+        <v>7.2727</v>
+      </c>
+      <c r="AB400" s="9" t="n">
+        <v>5.6083</v>
+      </c>
+      <c r="AC400" s="10" t="n">
+        <v>6.5238</v>
+      </c>
+      <c r="AD400" s="9" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AE400" s="9" t="n">
+        <v>6.6833</v>
+      </c>
+      <c r="AF400" s="9" t="n">
+        <v>6.6053</v>
+      </c>
+      <c r="AG400" s="9" t="n">
+        <v>5.8667</v>
+      </c>
+      <c r="AH400" s="11" t="inlineStr"/>
+      <c r="AI400" s="11" t="n">
         <v>0.9006</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="4" t="inlineStr">
+    <row r="401">
+      <c r="A401" s="4" t="inlineStr">
         <is>
           <t>Rakuten/RakutenAI-7B-chat</t>
         </is>
       </c>
-      <c r="B400" s="5" t="n">
+      <c r="B401" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C400" s="6" t="n">
+      <c r="C401" s="6" t="n">
         <v>6.3153</v>
       </c>
-      <c r="D400" s="6" t="n">
+      <c r="D401" s="6" t="n">
         <v>6.1692</v>
       </c>
-      <c r="E400" s="5" t="n">
+      <c r="E401" s="5" t="n">
         <v>5.97</v>
       </c>
-      <c r="F400" s="5" t="n">
+      <c r="F401" s="5" t="n">
         <v>5.6384</v>
       </c>
-      <c r="G400" s="5" t="n">
+      <c r="G401" s="5" t="n">
         <v>7.6027</v>
       </c>
-      <c r="H400" s="5" t="n">
+      <c r="H401" s="5" t="n">
         <v>5.4656</v>
       </c>
-      <c r="I400" s="6" t="n">
+      <c r="I401" s="6" t="n">
         <v>5.8142</v>
       </c>
-      <c r="J400" s="5" t="n">
+      <c r="J401" s="5" t="n">
         <v>5.52</v>
       </c>
-      <c r="K400" s="5" t="n">
+      <c r="K401" s="5" t="n">
         <v>5.35</v>
       </c>
-      <c r="L400" s="5" t="n">
+      <c r="L401" s="5" t="n">
         <v>7.4286</v>
       </c>
-      <c r="M400" s="5" t="n">
+      <c r="M401" s="5" t="n">
         <v>4.9583</v>
       </c>
-      <c r="N400" s="6" t="n">
+      <c r="N401" s="6" t="n">
         <v>5.5842</v>
       </c>
-      <c r="O400" s="5" t="n">
+      <c r="O401" s="5" t="n">
         <v>5.92</v>
       </c>
-      <c r="P400" s="5" t="n">
+      <c r="P401" s="5" t="n">
         <v>4.6</v>
       </c>
-      <c r="Q400" s="5" t="n">
+      <c r="Q401" s="5" t="n">
         <v>6.575</v>
       </c>
-      <c r="R400" s="5" t="n">
+      <c r="R401" s="5" t="n">
         <v>5.2417</v>
       </c>
-      <c r="S400" s="6" t="inlineStr"/>
-      <c r="T400" s="5" t="inlineStr"/>
-      <c r="U400" s="5" t="inlineStr"/>
-      <c r="V400" s="5" t="inlineStr"/>
-      <c r="W400" s="5" t="inlineStr"/>
-      <c r="X400" s="6" t="n">
+      <c r="S401" s="6" t="inlineStr"/>
+      <c r="T401" s="5" t="inlineStr"/>
+      <c r="U401" s="5" t="inlineStr"/>
+      <c r="V401" s="5" t="inlineStr"/>
+      <c r="W401" s="5" t="inlineStr"/>
+      <c r="X401" s="6" t="n">
         <v>6.4834</v>
       </c>
-      <c r="Y400" s="5" t="n">
+      <c r="Y401" s="5" t="n">
         <v>5.72</v>
       </c>
-      <c r="Z400" s="5" t="n">
+      <c r="Z401" s="5" t="n">
         <v>6.2436</v>
       </c>
-      <c r="AA400" s="5" t="n">
+      <c r="AA401" s="5" t="n">
         <v>8.236800000000001</v>
       </c>
-      <c r="AB400" s="5" t="n">
+      <c r="AB401" s="5" t="n">
         <v>5.7333</v>
       </c>
-      <c r="AC400" s="6" t="n">
+      <c r="AC401" s="6" t="n">
         <v>6.7944</v>
       </c>
-      <c r="AD400" s="5" t="n">
+      <c r="AD401" s="5" t="n">
         <v>6.72</v>
       </c>
-      <c r="AE400" s="5" t="n">
+      <c r="AE401" s="5" t="n">
         <v>6.375</v>
       </c>
-      <c r="AF400" s="5" t="n">
+      <c r="AF401" s="5" t="n">
         <v>8.15</v>
       </c>
-      <c r="AG400" s="5" t="n">
+      <c r="AG401" s="5" t="n">
         <v>5.9328</v>
       </c>
-      <c r="AH400" s="7" t="n">
+      <c r="AH401" s="7" t="n">
         <v>0.1309</v>
       </c>
-      <c r="AI400" s="7" t="n">
+      <c r="AI401" s="7" t="n">
         <v>0.8992</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-llama3-8b-v1-original</t>
-        </is>
-      </c>
-      <c r="B401" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C401" s="10" t="inlineStr"/>
-      <c r="D401" s="10" t="n">
-        <v>6.1667</v>
-      </c>
-      <c r="E401" s="9" t="inlineStr"/>
-      <c r="F401" s="9" t="n">
-        <v>6.1667</v>
-      </c>
-      <c r="G401" s="9" t="inlineStr"/>
-      <c r="H401" s="9" t="inlineStr"/>
-      <c r="I401" s="10" t="inlineStr"/>
-      <c r="J401" s="9" t="inlineStr"/>
-      <c r="K401" s="9" t="inlineStr"/>
-      <c r="L401" s="9" t="inlineStr"/>
-      <c r="M401" s="9" t="inlineStr"/>
-      <c r="N401" s="10" t="n">
-        <v>6.1667</v>
-      </c>
-      <c r="O401" s="9" t="inlineStr"/>
-      <c r="P401" s="9" t="n">
-        <v>6.1667</v>
-      </c>
-      <c r="Q401" s="9" t="inlineStr"/>
-      <c r="R401" s="9" t="inlineStr"/>
-      <c r="S401" s="10" t="inlineStr"/>
-      <c r="T401" s="9" t="inlineStr"/>
-      <c r="U401" s="9" t="inlineStr"/>
-      <c r="V401" s="9" t="inlineStr"/>
-      <c r="W401" s="9" t="inlineStr"/>
-      <c r="X401" s="10" t="inlineStr"/>
-      <c r="Y401" s="9" t="inlineStr"/>
-      <c r="Z401" s="9" t="inlineStr"/>
-      <c r="AA401" s="9" t="inlineStr"/>
-      <c r="AB401" s="9" t="inlineStr"/>
-      <c r="AC401" s="10" t="inlineStr"/>
-      <c r="AD401" s="9" t="inlineStr"/>
-      <c r="AE401" s="9" t="inlineStr"/>
-      <c r="AF401" s="9" t="inlineStr"/>
-      <c r="AG401" s="9" t="inlineStr"/>
-      <c r="AH401" s="11" t="inlineStr"/>
-      <c r="AI401" s="11" t="n">
-        <v>0.8938</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="8" t="inlineStr">
         <is>
-          <t>shisa-ai/shisa-llama3-8b-v1</t>
+          <t>shisa-ai/shisa-llama3-8b-v1-original</t>
         </is>
       </c>
       <c r="B402" s="9" t="n">
@@ -35822,36 +35834,28 @@
       </c>
       <c r="C402" s="10" t="inlineStr"/>
       <c r="D402" s="10" t="n">
-        <v>6.0711</v>
-      </c>
-      <c r="E402" s="9" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="F402" s="9" t="inlineStr"/>
-      <c r="G402" s="9" t="n">
-        <v>6.3684</v>
-      </c>
-      <c r="H402" s="9" t="n">
-        <v>5.325</v>
-      </c>
+        <v>6.1667</v>
+      </c>
+      <c r="E402" s="9" t="inlineStr"/>
+      <c r="F402" s="9" t="n">
+        <v>6.1667</v>
+      </c>
+      <c r="G402" s="9" t="inlineStr"/>
+      <c r="H402" s="9" t="inlineStr"/>
       <c r="I402" s="10" t="inlineStr"/>
       <c r="J402" s="9" t="inlineStr"/>
       <c r="K402" s="9" t="inlineStr"/>
       <c r="L402" s="9" t="inlineStr"/>
       <c r="M402" s="9" t="inlineStr"/>
       <c r="N402" s="10" t="n">
-        <v>6.0711</v>
-      </c>
-      <c r="O402" s="9" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="P402" s="9" t="inlineStr"/>
-      <c r="Q402" s="9" t="n">
-        <v>6.3684</v>
-      </c>
-      <c r="R402" s="9" t="n">
-        <v>5.325</v>
-      </c>
+        <v>6.1667</v>
+      </c>
+      <c r="O402" s="9" t="inlineStr"/>
+      <c r="P402" s="9" t="n">
+        <v>6.1667</v>
+      </c>
+      <c r="Q402" s="9" t="inlineStr"/>
+      <c r="R402" s="9" t="inlineStr"/>
       <c r="S402" s="10" t="inlineStr"/>
       <c r="T402" s="9" t="inlineStr"/>
       <c r="U402" s="9" t="inlineStr"/>
@@ -35869,164 +35873,126 @@
       <c r="AG402" s="9" t="inlineStr"/>
       <c r="AH402" s="11" t="inlineStr"/>
       <c r="AI402" s="11" t="n">
+        <v>0.8938</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="8" t="inlineStr">
+        <is>
+          <t>shisa-ai/shisa-llama3-8b-v1</t>
+        </is>
+      </c>
+      <c r="B403" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C403" s="10" t="inlineStr"/>
+      <c r="D403" s="10" t="n">
+        <v>6.0711</v>
+      </c>
+      <c r="E403" s="9" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F403" s="9" t="inlineStr"/>
+      <c r="G403" s="9" t="n">
+        <v>6.3684</v>
+      </c>
+      <c r="H403" s="9" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="I403" s="10" t="inlineStr"/>
+      <c r="J403" s="9" t="inlineStr"/>
+      <c r="K403" s="9" t="inlineStr"/>
+      <c r="L403" s="9" t="inlineStr"/>
+      <c r="M403" s="9" t="inlineStr"/>
+      <c r="N403" s="10" t="n">
+        <v>6.0711</v>
+      </c>
+      <c r="O403" s="9" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="P403" s="9" t="inlineStr"/>
+      <c r="Q403" s="9" t="n">
+        <v>6.3684</v>
+      </c>
+      <c r="R403" s="9" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="S403" s="10" t="inlineStr"/>
+      <c r="T403" s="9" t="inlineStr"/>
+      <c r="U403" s="9" t="inlineStr"/>
+      <c r="V403" s="9" t="inlineStr"/>
+      <c r="W403" s="9" t="inlineStr"/>
+      <c r="X403" s="10" t="inlineStr"/>
+      <c r="Y403" s="9" t="inlineStr"/>
+      <c r="Z403" s="9" t="inlineStr"/>
+      <c r="AA403" s="9" t="inlineStr"/>
+      <c r="AB403" s="9" t="inlineStr"/>
+      <c r="AC403" s="10" t="inlineStr"/>
+      <c r="AD403" s="9" t="inlineStr"/>
+      <c r="AE403" s="9" t="inlineStr"/>
+      <c r="AF403" s="9" t="inlineStr"/>
+      <c r="AG403" s="9" t="inlineStr"/>
+      <c r="AH403" s="11" t="inlineStr"/>
+      <c r="AI403" s="11" t="n">
         <v>0.8945</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="4" t="inlineStr">
-        <is>
-          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
-        </is>
-      </c>
-      <c r="B403" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C403" s="6" t="n">
-        <v>6.132</v>
-      </c>
-      <c r="D403" s="6" t="n">
-        <v>6.0698</v>
-      </c>
-      <c r="E403" s="5" t="n">
-        <v>6.575</v>
-      </c>
-      <c r="F403" s="5" t="n">
-        <v>7.6723</v>
-      </c>
-      <c r="G403" s="5" t="n">
-        <v>3.8732</v>
-      </c>
-      <c r="H403" s="5" t="n">
-        <v>6.1587</v>
-      </c>
-      <c r="I403" s="6" t="n">
-        <v>5.6177</v>
-      </c>
-      <c r="J403" s="5" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K403" s="5" t="n">
-        <v>6.7627</v>
-      </c>
-      <c r="L403" s="5" t="n">
-        <v>3.913</v>
-      </c>
-      <c r="M403" s="5" t="n">
-        <v>5.675</v>
-      </c>
-      <c r="N403" s="6" t="n">
-        <v>5.8329</v>
-      </c>
-      <c r="O403" s="5" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="P403" s="5" t="n">
-        <v>7.678</v>
-      </c>
-      <c r="Q403" s="5" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="R403" s="5" t="n">
-        <v>5.8487</v>
-      </c>
-      <c r="S403" s="6" t="inlineStr"/>
-      <c r="T403" s="5" t="inlineStr"/>
-      <c r="U403" s="5" t="inlineStr"/>
-      <c r="V403" s="5" t="inlineStr"/>
-      <c r="W403" s="5" t="inlineStr"/>
-      <c r="X403" s="6" t="n">
-        <v>5.8963</v>
-      </c>
-      <c r="Y403" s="5" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="Z403" s="5" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="AA403" s="5" t="n">
-        <v>2.675</v>
-      </c>
-      <c r="AB403" s="5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC403" s="6" t="n">
-        <v>6.9445</v>
-      </c>
-      <c r="AD403" s="5" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="AE403" s="5" t="n">
-        <v>8.283300000000001</v>
-      </c>
-      <c r="AF403" s="5" t="n">
-        <v>5.8462</v>
-      </c>
-      <c r="AG403" s="5" t="n">
-        <v>6.6083</v>
-      </c>
-      <c r="AH403" s="7" t="n">
-        <v>0.0513</v>
-      </c>
-      <c r="AI403" s="7" t="n">
-        <v>0.2565</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="4" t="inlineStr">
         <is>
-          <t>fireworks_ai/accounts/fireworks/models/llama-v3p1-8b-instruct</t>
+          <t>meta-llama/Meta-Llama-3-8B-Instruct</t>
         </is>
       </c>
       <c r="B404" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C404" s="6" t="n">
-        <v>6.241</v>
+        <v>6.132</v>
       </c>
       <c r="D404" s="6" t="n">
-        <v>6.0664</v>
+        <v>6.0698</v>
       </c>
       <c r="E404" s="5" t="n">
-        <v>5.975</v>
+        <v>6.575</v>
       </c>
       <c r="F404" s="5" t="n">
-        <v>6.3671</v>
+        <v>7.6723</v>
       </c>
       <c r="G404" s="5" t="n">
-        <v>6.4685</v>
+        <v>3.8732</v>
       </c>
       <c r="H404" s="5" t="n">
-        <v>5.4551</v>
+        <v>6.1587</v>
       </c>
       <c r="I404" s="6" t="n">
-        <v>5.6942</v>
+        <v>5.6177</v>
       </c>
       <c r="J404" s="5" t="n">
-        <v>5.48</v>
+        <v>6.12</v>
       </c>
       <c r="K404" s="5" t="n">
-        <v>6.1</v>
+        <v>6.7627</v>
       </c>
       <c r="L404" s="5" t="n">
-        <v>6.28</v>
+        <v>3.913</v>
       </c>
       <c r="M404" s="5" t="n">
-        <v>4.9167</v>
+        <v>5.675</v>
       </c>
       <c r="N404" s="6" t="n">
-        <v>5.354</v>
+        <v>5.8329</v>
       </c>
       <c r="O404" s="5" t="n">
-        <v>6.14</v>
+        <v>6.68</v>
       </c>
       <c r="P404" s="5" t="n">
-        <v>5.3509</v>
+        <v>7.678</v>
       </c>
       <c r="Q404" s="5" t="n">
-        <v>5</v>
+        <v>3.125</v>
       </c>
       <c r="R404" s="5" t="n">
-        <v>4.925</v>
+        <v>5.8487</v>
       </c>
       <c r="S404" s="6" t="inlineStr"/>
       <c r="T404" s="5" t="inlineStr"/>
@@ -36034,98 +36000,98 @@
       <c r="V404" s="5" t="inlineStr"/>
       <c r="W404" s="5" t="inlineStr"/>
       <c r="X404" s="6" t="n">
-        <v>6.6332</v>
+        <v>5.8963</v>
       </c>
       <c r="Y404" s="5" t="n">
-        <v>5.7</v>
+        <v>6.46</v>
       </c>
       <c r="Z404" s="5" t="n">
-        <v>7.2333</v>
+        <v>7.95</v>
       </c>
       <c r="AA404" s="5" t="n">
-        <v>7.6579</v>
+        <v>2.675</v>
       </c>
       <c r="AB404" s="5" t="n">
-        <v>5.9417</v>
+        <v>6.5</v>
       </c>
       <c r="AC404" s="6" t="n">
-        <v>6.5701</v>
+        <v>6.9445</v>
       </c>
       <c r="AD404" s="5" t="n">
-        <v>6.58</v>
+        <v>7.04</v>
       </c>
       <c r="AE404" s="5" t="n">
-        <v>6.7333</v>
+        <v>8.283300000000001</v>
       </c>
       <c r="AF404" s="5" t="n">
-        <v>6.925</v>
+        <v>5.8462</v>
       </c>
       <c r="AG404" s="5" t="n">
-        <v>6.042</v>
+        <v>6.6083</v>
       </c>
       <c r="AH404" s="7" t="n">
-        <v>0.1657</v>
+        <v>0.0513</v>
       </c>
       <c r="AI404" s="7" t="n">
-        <v>0.8959</v>
+        <v>0.2565</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="4" t="inlineStr">
         <is>
-          <t>elyza/ELYZA-japanese-Llama-2-13b-instruct</t>
+          <t>fireworks_ai/accounts/fireworks/models/llama-v3p1-8b-instruct</t>
         </is>
       </c>
       <c r="B405" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C405" s="6" t="n">
-        <v>6.1926</v>
+        <v>6.241</v>
       </c>
       <c r="D405" s="6" t="n">
-        <v>6.011</v>
+        <v>6.0664</v>
       </c>
       <c r="E405" s="5" t="n">
-        <v>5.6583</v>
+        <v>5.975</v>
       </c>
       <c r="F405" s="5" t="n">
-        <v>5.3312</v>
+        <v>6.3671</v>
       </c>
       <c r="G405" s="5" t="n">
-        <v>7.0857</v>
+        <v>6.4685</v>
       </c>
       <c r="H405" s="5" t="n">
-        <v>5.9688</v>
+        <v>5.4551</v>
       </c>
       <c r="I405" s="6" t="n">
-        <v>5.5643</v>
+        <v>5.6942</v>
       </c>
       <c r="J405" s="5" t="n">
-        <v>5.02</v>
+        <v>5.48</v>
       </c>
       <c r="K405" s="5" t="n">
-        <v>5.225</v>
+        <v>6.1</v>
       </c>
       <c r="L405" s="5" t="n">
-        <v>6.6957</v>
+        <v>6.28</v>
       </c>
       <c r="M405" s="5" t="n">
-        <v>5.3167</v>
+        <v>4.9167</v>
       </c>
       <c r="N405" s="6" t="n">
-        <v>5.2635</v>
+        <v>5.354</v>
       </c>
       <c r="O405" s="5" t="n">
-        <v>5.6</v>
+        <v>6.14</v>
       </c>
       <c r="P405" s="5" t="n">
-        <v>4.3125</v>
+        <v>5.3509</v>
       </c>
       <c r="Q405" s="5" t="n">
-        <v>5.625</v>
+        <v>5</v>
       </c>
       <c r="R405" s="5" t="n">
-        <v>5.5167</v>
+        <v>4.925</v>
       </c>
       <c r="S405" s="6" t="inlineStr"/>
       <c r="T405" s="5" t="inlineStr"/>
@@ -36133,644 +36099,644 @@
       <c r="V405" s="5" t="inlineStr"/>
       <c r="W405" s="5" t="inlineStr"/>
       <c r="X405" s="6" t="n">
-        <v>6.4996</v>
+        <v>6.6332</v>
       </c>
       <c r="Y405" s="5" t="n">
-        <v>5.3131</v>
+        <v>5.7</v>
       </c>
       <c r="Z405" s="5" t="n">
-        <v>5.9375</v>
+        <v>7.2333</v>
       </c>
       <c r="AA405" s="5" t="n">
-        <v>8.081099999999999</v>
+        <v>7.6579</v>
       </c>
       <c r="AB405" s="5" t="n">
-        <v>6.6667</v>
+        <v>5.9417</v>
       </c>
       <c r="AC405" s="6" t="n">
-        <v>6.6955</v>
+        <v>6.5701</v>
       </c>
       <c r="AD405" s="5" t="n">
-        <v>6.7071</v>
+        <v>6.58</v>
       </c>
       <c r="AE405" s="5" t="n">
-        <v>5.85</v>
+        <v>6.7333</v>
       </c>
       <c r="AF405" s="5" t="n">
-        <v>7.85</v>
+        <v>6.925</v>
       </c>
       <c r="AG405" s="5" t="n">
-        <v>6.375</v>
+        <v>6.042</v>
       </c>
       <c r="AH405" s="7" t="n">
-        <v>0.1765</v>
+        <v>0.1657</v>
       </c>
       <c r="AI405" s="7" t="n">
-        <v>0.9071</v>
+        <v>0.8959</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="4" t="inlineStr">
         <is>
+          <t>elyza/ELYZA-japanese-Llama-2-13b-instruct</t>
+        </is>
+      </c>
+      <c r="B406" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C406" s="6" t="n">
+        <v>6.1926</v>
+      </c>
+      <c r="D406" s="6" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E406" s="5" t="n">
+        <v>5.6583</v>
+      </c>
+      <c r="F406" s="5" t="n">
+        <v>5.3312</v>
+      </c>
+      <c r="G406" s="5" t="n">
+        <v>7.0857</v>
+      </c>
+      <c r="H406" s="5" t="n">
+        <v>5.9688</v>
+      </c>
+      <c r="I406" s="6" t="n">
+        <v>5.5643</v>
+      </c>
+      <c r="J406" s="5" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K406" s="5" t="n">
+        <v>5.225</v>
+      </c>
+      <c r="L406" s="5" t="n">
+        <v>6.6957</v>
+      </c>
+      <c r="M406" s="5" t="n">
+        <v>5.3167</v>
+      </c>
+      <c r="N406" s="6" t="n">
+        <v>5.2635</v>
+      </c>
+      <c r="O406" s="5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P406" s="5" t="n">
+        <v>4.3125</v>
+      </c>
+      <c r="Q406" s="5" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="R406" s="5" t="n">
+        <v>5.5167</v>
+      </c>
+      <c r="S406" s="6" t="inlineStr"/>
+      <c r="T406" s="5" t="inlineStr"/>
+      <c r="U406" s="5" t="inlineStr"/>
+      <c r="V406" s="5" t="inlineStr"/>
+      <c r="W406" s="5" t="inlineStr"/>
+      <c r="X406" s="6" t="n">
+        <v>6.4996</v>
+      </c>
+      <c r="Y406" s="5" t="n">
+        <v>5.3131</v>
+      </c>
+      <c r="Z406" s="5" t="n">
+        <v>5.9375</v>
+      </c>
+      <c r="AA406" s="5" t="n">
+        <v>8.081099999999999</v>
+      </c>
+      <c r="AB406" s="5" t="n">
+        <v>6.6667</v>
+      </c>
+      <c r="AC406" s="6" t="n">
+        <v>6.6955</v>
+      </c>
+      <c r="AD406" s="5" t="n">
+        <v>6.7071</v>
+      </c>
+      <c r="AE406" s="5" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AF406" s="5" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AG406" s="5" t="n">
+        <v>6.375</v>
+      </c>
+      <c r="AH406" s="7" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="AI406" s="7" t="n">
+        <v>0.9071</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="inlineStr">
+        <is>
           <t>012-smoothieqwen3-8b-v2-sft</t>
         </is>
       </c>
-      <c r="B406" s="5" t="n">
+      <c r="B407" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C406" s="6" t="inlineStr"/>
-      <c r="D406" s="6" t="n">
+      <c r="C407" s="6" t="inlineStr"/>
+      <c r="D407" s="6" t="n">
         <v>5.9596</v>
       </c>
-      <c r="E406" s="5" t="n">
+      <c r="E407" s="5" t="n">
         <v>6.64</v>
       </c>
-      <c r="F406" s="5" t="n">
+      <c r="F407" s="5" t="n">
         <v>6.1186</v>
       </c>
-      <c r="G406" s="5" t="n">
+      <c r="G407" s="5" t="n">
         <v>5.7632</v>
       </c>
-      <c r="H406" s="5" t="n">
+      <c r="H407" s="5" t="n">
         <v>5.3167</v>
       </c>
-      <c r="I406" s="6" t="inlineStr"/>
-      <c r="J406" s="5" t="inlineStr"/>
-      <c r="K406" s="5" t="inlineStr"/>
-      <c r="L406" s="5" t="inlineStr"/>
-      <c r="M406" s="5" t="inlineStr"/>
-      <c r="N406" s="6" t="inlineStr"/>
-      <c r="O406" s="5" t="inlineStr"/>
-      <c r="P406" s="5" t="inlineStr"/>
-      <c r="Q406" s="5" t="inlineStr"/>
-      <c r="R406" s="5" t="inlineStr"/>
-      <c r="S406" s="6" t="n">
+      <c r="I407" s="6" t="inlineStr"/>
+      <c r="J407" s="5" t="inlineStr"/>
+      <c r="K407" s="5" t="inlineStr"/>
+      <c r="L407" s="5" t="inlineStr"/>
+      <c r="M407" s="5" t="inlineStr"/>
+      <c r="N407" s="6" t="inlineStr"/>
+      <c r="O407" s="5" t="inlineStr"/>
+      <c r="P407" s="5" t="inlineStr"/>
+      <c r="Q407" s="5" t="inlineStr"/>
+      <c r="R407" s="5" t="inlineStr"/>
+      <c r="S407" s="6" t="n">
         <v>5.9596</v>
       </c>
-      <c r="T406" s="5" t="n">
+      <c r="T407" s="5" t="n">
         <v>6.64</v>
       </c>
-      <c r="U406" s="5" t="n">
+      <c r="U407" s="5" t="n">
         <v>6.1186</v>
       </c>
-      <c r="V406" s="5" t="n">
+      <c r="V407" s="5" t="n">
         <v>5.7632</v>
       </c>
-      <c r="W406" s="5" t="n">
+      <c r="W407" s="5" t="n">
         <v>5.3167</v>
       </c>
-      <c r="X406" s="6" t="inlineStr"/>
-      <c r="Y406" s="5" t="inlineStr"/>
-      <c r="Z406" s="5" t="inlineStr"/>
-      <c r="AA406" s="5" t="inlineStr"/>
-      <c r="AB406" s="5" t="inlineStr"/>
-      <c r="AC406" s="6" t="inlineStr"/>
-      <c r="AD406" s="5" t="inlineStr"/>
-      <c r="AE406" s="5" t="inlineStr"/>
-      <c r="AF406" s="5" t="inlineStr"/>
-      <c r="AG406" s="5" t="inlineStr"/>
-      <c r="AH406" s="7" t="inlineStr"/>
-      <c r="AI406" s="7" t="n">
+      <c r="X407" s="6" t="inlineStr"/>
+      <c r="Y407" s="5" t="inlineStr"/>
+      <c r="Z407" s="5" t="inlineStr"/>
+      <c r="AA407" s="5" t="inlineStr"/>
+      <c r="AB407" s="5" t="inlineStr"/>
+      <c r="AC407" s="6" t="inlineStr"/>
+      <c r="AD407" s="5" t="inlineStr"/>
+      <c r="AE407" s="5" t="inlineStr"/>
+      <c r="AF407" s="5" t="inlineStr"/>
+      <c r="AG407" s="5" t="inlineStr"/>
+      <c r="AH407" s="7" t="inlineStr"/>
+      <c r="AI407" s="7" t="n">
         <v>0.9179</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-v1-mistral0.3-7b</t>
-        </is>
-      </c>
-      <c r="B407" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C407" s="10" t="n">
-        <v>6.0514</v>
-      </c>
-      <c r="D407" s="10" t="n">
-        <v>5.8863</v>
-      </c>
-      <c r="E407" s="9" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F407" s="9" t="n">
-        <v>7.0591</v>
-      </c>
-      <c r="G407" s="9" t="n">
-        <v>5.0657</v>
-      </c>
-      <c r="H407" s="9" t="n">
-        <v>5.4604</v>
-      </c>
-      <c r="I407" s="10" t="n">
-        <v>5.2365</v>
-      </c>
-      <c r="J407" s="9" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="K407" s="9" t="n">
-        <v>6.7241</v>
-      </c>
-      <c r="L407" s="9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="M407" s="9" t="n">
-        <v>4.8917</v>
-      </c>
-      <c r="N407" s="10" t="n">
-        <v>5.1063</v>
-      </c>
-      <c r="O407" s="9" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P407" s="9" t="n">
-        <v>6.1017</v>
-      </c>
-      <c r="Q407" s="9" t="n">
-        <v>3.825</v>
-      </c>
-      <c r="R407" s="9" t="n">
-        <v>4.8583</v>
-      </c>
-      <c r="S407" s="10" t="inlineStr"/>
-      <c r="T407" s="9" t="inlineStr"/>
-      <c r="U407" s="9" t="inlineStr"/>
-      <c r="V407" s="9" t="inlineStr"/>
-      <c r="W407" s="9" t="inlineStr"/>
-      <c r="X407" s="10" t="n">
-        <v>6.5087</v>
-      </c>
-      <c r="Y407" s="9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="Z407" s="9" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="AA407" s="9" t="n">
-        <v>6.4865</v>
-      </c>
-      <c r="AB407" s="9" t="n">
-        <v>5.9583</v>
-      </c>
-      <c r="AC407" s="10" t="n">
-        <v>6.5742</v>
-      </c>
-      <c r="AD407" s="9" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="AE407" s="9" t="n">
-        <v>7.7333</v>
-      </c>
-      <c r="AF407" s="9" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AG407" s="9" t="n">
-        <v>6.1333</v>
-      </c>
-      <c r="AH407" s="11" t="n">
-        <v>0.1851</v>
-      </c>
-      <c r="AI407" s="11" t="n">
-        <v>0.9019</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="8" t="inlineStr">
         <is>
-          <t>ablation-41-cmrmixen.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
+          <t>shisa-ai/shisa-v1-mistral0.3-7b</t>
         </is>
       </c>
       <c r="B408" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C408" s="10" t="n">
-        <v>5.8185</v>
+        <v>6.0514</v>
       </c>
       <c r="D408" s="10" t="n">
-        <v>5.8358</v>
+        <v>5.8863</v>
       </c>
       <c r="E408" s="9" t="n">
-        <v>5.3133</v>
+        <v>5.96</v>
       </c>
       <c r="F408" s="9" t="n">
-        <v>6.2333</v>
+        <v>7.0591</v>
       </c>
       <c r="G408" s="9" t="n">
-        <v>6.7327</v>
+        <v>5.0657</v>
       </c>
       <c r="H408" s="9" t="n">
-        <v>5.0639</v>
+        <v>5.4604</v>
       </c>
       <c r="I408" s="10" t="n">
-        <v>5.1256</v>
+        <v>5.2365</v>
       </c>
       <c r="J408" s="9" t="n">
-        <v>4.86</v>
+        <v>5.38</v>
       </c>
       <c r="K408" s="9" t="n">
-        <v>5.6833</v>
+        <v>6.7241</v>
       </c>
       <c r="L408" s="9" t="n">
-        <v>5.5926</v>
+        <v>3.95</v>
       </c>
       <c r="M408" s="9" t="n">
-        <v>4.3667</v>
-      </c>
-      <c r="N408" s="10" t="inlineStr"/>
-      <c r="O408" s="9" t="inlineStr"/>
-      <c r="P408" s="9" t="inlineStr"/>
-      <c r="Q408" s="9" t="inlineStr"/>
-      <c r="R408" s="9" t="inlineStr"/>
+        <v>4.8917</v>
+      </c>
+      <c r="N408" s="10" t="n">
+        <v>5.1063</v>
+      </c>
+      <c r="O408" s="9" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P408" s="9" t="n">
+        <v>6.1017</v>
+      </c>
+      <c r="Q408" s="9" t="n">
+        <v>3.825</v>
+      </c>
+      <c r="R408" s="9" t="n">
+        <v>4.8583</v>
+      </c>
       <c r="S408" s="10" t="inlineStr"/>
       <c r="T408" s="9" t="inlineStr"/>
       <c r="U408" s="9" t="inlineStr"/>
       <c r="V408" s="9" t="inlineStr"/>
       <c r="W408" s="9" t="inlineStr"/>
       <c r="X408" s="10" t="n">
-        <v>6.0605</v>
+        <v>6.5087</v>
       </c>
       <c r="Y408" s="9" t="n">
-        <v>4.76</v>
+        <v>5.94</v>
       </c>
       <c r="Z408" s="9" t="n">
-        <v>6.7667</v>
+        <v>7.65</v>
       </c>
       <c r="AA408" s="9" t="n">
-        <v>7.4571</v>
+        <v>6.4865</v>
       </c>
       <c r="AB408" s="9" t="n">
-        <v>5.2583</v>
+        <v>5.9583</v>
       </c>
       <c r="AC408" s="10" t="n">
-        <v>6.2521</v>
+        <v>6.5742</v>
       </c>
       <c r="AD408" s="9" t="n">
-        <v>6.32</v>
+        <v>6.88</v>
       </c>
       <c r="AE408" s="9" t="n">
-        <v>6.25</v>
+        <v>7.7333</v>
       </c>
       <c r="AF408" s="9" t="n">
-        <v>6.8718</v>
+        <v>5.55</v>
       </c>
       <c r="AG408" s="9" t="n">
-        <v>5.5667</v>
-      </c>
-      <c r="AH408" s="11" t="inlineStr"/>
+        <v>6.1333</v>
+      </c>
+      <c r="AH408" s="11" t="n">
+        <v>0.1851</v>
+      </c>
       <c r="AI408" s="11" t="n">
-        <v>0.904</v>
+        <v>0.9019</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="8" t="inlineStr">
         <is>
+          <t>ablation-41-cmrmixen.masked-shisa-v2-llama-3.1-8b-lr8e6</t>
+        </is>
+      </c>
+      <c r="B409" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C409" s="10" t="n">
+        <v>5.8185</v>
+      </c>
+      <c r="D409" s="10" t="n">
+        <v>5.8358</v>
+      </c>
+      <c r="E409" s="9" t="n">
+        <v>5.3133</v>
+      </c>
+      <c r="F409" s="9" t="n">
+        <v>6.2333</v>
+      </c>
+      <c r="G409" s="9" t="n">
+        <v>6.7327</v>
+      </c>
+      <c r="H409" s="9" t="n">
+        <v>5.0639</v>
+      </c>
+      <c r="I409" s="10" t="n">
+        <v>5.1256</v>
+      </c>
+      <c r="J409" s="9" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="K409" s="9" t="n">
+        <v>5.6833</v>
+      </c>
+      <c r="L409" s="9" t="n">
+        <v>5.5926</v>
+      </c>
+      <c r="M409" s="9" t="n">
+        <v>4.3667</v>
+      </c>
+      <c r="N409" s="10" t="inlineStr"/>
+      <c r="O409" s="9" t="inlineStr"/>
+      <c r="P409" s="9" t="inlineStr"/>
+      <c r="Q409" s="9" t="inlineStr"/>
+      <c r="R409" s="9" t="inlineStr"/>
+      <c r="S409" s="10" t="inlineStr"/>
+      <c r="T409" s="9" t="inlineStr"/>
+      <c r="U409" s="9" t="inlineStr"/>
+      <c r="V409" s="9" t="inlineStr"/>
+      <c r="W409" s="9" t="inlineStr"/>
+      <c r="X409" s="10" t="n">
+        <v>6.0605</v>
+      </c>
+      <c r="Y409" s="9" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Z409" s="9" t="n">
+        <v>6.7667</v>
+      </c>
+      <c r="AA409" s="9" t="n">
+        <v>7.4571</v>
+      </c>
+      <c r="AB409" s="9" t="n">
+        <v>5.2583</v>
+      </c>
+      <c r="AC409" s="10" t="n">
+        <v>6.2521</v>
+      </c>
+      <c r="AD409" s="9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AE409" s="9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF409" s="9" t="n">
+        <v>6.8718</v>
+      </c>
+      <c r="AG409" s="9" t="n">
+        <v>5.5667</v>
+      </c>
+      <c r="AH409" s="11" t="inlineStr"/>
+      <c r="AI409" s="11" t="n">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="8" t="inlineStr">
+        <is>
           <t>augmxnt/shisa-gamma-7b-v1</t>
         </is>
       </c>
-      <c r="B409" s="9" t="n">
+      <c r="B410" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C409" s="10" t="n">
+      <c r="C410" s="10" t="n">
         <v>6.0911</v>
       </c>
-      <c r="D409" s="10" t="n">
+      <c r="D410" s="10" t="n">
         <v>5.8185</v>
       </c>
-      <c r="E409" s="9" t="n">
+      <c r="E410" s="9" t="n">
         <v>5.808</v>
       </c>
-      <c r="F409" s="9" t="n">
+      <c r="F410" s="9" t="n">
         <v>5.3767</v>
       </c>
-      <c r="G409" s="9" t="n">
+      <c r="G410" s="9" t="n">
         <v>6.5325</v>
       </c>
-      <c r="H409" s="9" t="n">
+      <c r="H410" s="9" t="n">
         <v>5.5567</v>
       </c>
-      <c r="I409" s="10" t="n">
+      <c r="I410" s="10" t="n">
         <v>5.6774</v>
       </c>
-      <c r="J409" s="9" t="n">
+      <c r="J410" s="9" t="n">
         <v>5.32</v>
       </c>
-      <c r="K409" s="9" t="n">
+      <c r="K410" s="9" t="n">
         <v>5.4167</v>
       </c>
-      <c r="L409" s="9" t="n">
+      <c r="L410" s="9" t="n">
         <v>6.7647</v>
       </c>
-      <c r="M409" s="9" t="n">
+      <c r="M410" s="9" t="n">
         <v>5.2083</v>
       </c>
-      <c r="N409" s="10" t="n">
+      <c r="N410" s="10" t="n">
         <v>5.8224</v>
       </c>
-      <c r="O409" s="9" t="n">
+      <c r="O410" s="9" t="n">
         <v>5.96</v>
       </c>
-      <c r="P409" s="9" t="n">
+      <c r="P410" s="9" t="n">
         <v>5.0167</v>
       </c>
-      <c r="Q409" s="9" t="n">
+      <c r="Q410" s="9" t="n">
         <v>6.8462</v>
       </c>
-      <c r="R409" s="9" t="n">
+      <c r="R410" s="9" t="n">
         <v>5.4667</v>
       </c>
-      <c r="S409" s="10" t="n">
+      <c r="S410" s="10" t="n">
         <v>4.7983</v>
       </c>
-      <c r="T409" s="9" t="n">
+      <c r="T410" s="9" t="n">
         <v>5.86</v>
       </c>
-      <c r="U409" s="9" t="n">
+      <c r="U410" s="9" t="n">
         <v>4.0667</v>
       </c>
-      <c r="V409" s="9" t="n">
+      <c r="V410" s="9" t="n">
         <v>4.55</v>
       </c>
-      <c r="W409" s="9" t="n">
+      <c r="W410" s="9" t="n">
         <v>4.7167</v>
       </c>
-      <c r="X409" s="10" t="n">
+      <c r="X410" s="10" t="n">
         <v>6.3448</v>
       </c>
-      <c r="Y409" s="9" t="n">
+      <c r="Y410" s="9" t="n">
         <v>5.48</v>
       </c>
-      <c r="Z409" s="9" t="n">
+      <c r="Z410" s="9" t="n">
         <v>6.3667</v>
       </c>
-      <c r="AA409" s="9" t="n">
+      <c r="AA410" s="9" t="n">
         <v>7.4242</v>
       </c>
-      <c r="AB409" s="9" t="n">
+      <c r="AB410" s="9" t="n">
         <v>6.1083</v>
       </c>
-      <c r="AC409" s="10" t="n">
+      <c r="AC410" s="10" t="n">
         <v>6.5237</v>
       </c>
-      <c r="AD409" s="9" t="n">
+      <c r="AD410" s="9" t="n">
         <v>6.42</v>
       </c>
-      <c r="AE409" s="9" t="n">
+      <c r="AE410" s="9" t="n">
         <v>6.0167</v>
       </c>
-      <c r="AF409" s="9" t="n">
+      <c r="AF410" s="9" t="n">
         <v>7.375</v>
       </c>
-      <c r="AG409" s="9" t="n">
+      <c r="AG410" s="9" t="n">
         <v>6.2833</v>
       </c>
-      <c r="AH409" s="11" t="n">
+      <c r="AH410" s="11" t="n">
         <v>0.0462</v>
       </c>
-      <c r="AI409" s="11" t="n">
+      <c r="AI410" s="11" t="n">
         <v>0.9031</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="4" t="inlineStr">
-        <is>
-          <t>Qwen/Qwen2.5-1.5B-Instruct</t>
-        </is>
-      </c>
-      <c r="B410" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C410" s="6" t="n">
-        <v>5.7304</v>
-      </c>
-      <c r="D410" s="6" t="n">
-        <v>5.7805</v>
-      </c>
-      <c r="E410" s="5" t="n">
-        <v>4.9766</v>
-      </c>
-      <c r="F410" s="5" t="n">
-        <v>6.0449</v>
-      </c>
-      <c r="G410" s="5" t="n">
-        <v>6.3505</v>
-      </c>
-      <c r="H410" s="5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I410" s="6" t="n">
-        <v>4.9955</v>
-      </c>
-      <c r="J410" s="5" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="K410" s="5" t="n">
-        <v>5.4068</v>
-      </c>
-      <c r="L410" s="5" t="n">
-        <v>4.7368</v>
-      </c>
-      <c r="M410" s="5" t="n">
-        <v>5.2583</v>
-      </c>
-      <c r="N410" s="6" t="inlineStr"/>
-      <c r="O410" s="5" t="inlineStr"/>
-      <c r="P410" s="5" t="inlineStr"/>
-      <c r="Q410" s="5" t="inlineStr"/>
-      <c r="R410" s="5" t="inlineStr"/>
-      <c r="S410" s="6" t="inlineStr"/>
-      <c r="T410" s="5" t="inlineStr"/>
-      <c r="U410" s="5" t="inlineStr"/>
-      <c r="V410" s="5" t="inlineStr"/>
-      <c r="W410" s="5" t="inlineStr"/>
-      <c r="X410" s="6" t="n">
-        <v>6.1205</v>
-      </c>
-      <c r="Y410" s="5" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Z410" s="5" t="n">
-        <v>6.3898</v>
-      </c>
-      <c r="AA410" s="5" t="n">
-        <v>7.2105</v>
-      </c>
-      <c r="AB410" s="5" t="n">
-        <v>6.2417</v>
-      </c>
-      <c r="AC410" s="6" t="n">
-        <v>6.0251</v>
-      </c>
-      <c r="AD410" s="5" t="n">
-        <v>5.7172</v>
-      </c>
-      <c r="AE410" s="5" t="n">
-        <v>6.3333</v>
-      </c>
-      <c r="AF410" s="5" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AG410" s="5" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AH410" s="7" t="inlineStr"/>
-      <c r="AI410" s="7" t="n">
-        <v>0.8965</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="4" t="inlineStr">
         <is>
-          <t>lightblue/qarasu-14B-chat-plus-unleashed</t>
+          <t>Qwen/Qwen2.5-1.5B-Instruct</t>
         </is>
       </c>
       <c r="B411" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C411" s="6" t="n">
-        <v>5.9054</v>
+        <v>5.7304</v>
       </c>
       <c r="D411" s="6" t="n">
-        <v>5.7742</v>
+        <v>5.7805</v>
       </c>
       <c r="E411" s="5" t="n">
-        <v>5.4586</v>
+        <v>4.9766</v>
       </c>
       <c r="F411" s="5" t="n">
-        <v>5.4828</v>
+        <v>6.0449</v>
       </c>
       <c r="G411" s="5" t="n">
-        <v>6.7429</v>
+        <v>6.3505</v>
       </c>
       <c r="H411" s="5" t="n">
-        <v>5.4125</v>
+        <v>5.75</v>
       </c>
       <c r="I411" s="6" t="n">
-        <v>5.3638</v>
+        <v>4.9955</v>
       </c>
       <c r="J411" s="5" t="n">
-        <v>5.14</v>
+        <v>4.58</v>
       </c>
       <c r="K411" s="5" t="n">
-        <v>5.1646</v>
+        <v>5.4068</v>
       </c>
       <c r="L411" s="5" t="n">
-        <v>6.2174</v>
+        <v>4.7368</v>
       </c>
       <c r="M411" s="5" t="n">
-        <v>4.9333</v>
-      </c>
-      <c r="N411" s="6" t="n">
-        <v>5.1958</v>
-      </c>
-      <c r="O411" s="5" t="n">
-        <v>5.5758</v>
-      </c>
-      <c r="P411" s="5" t="n">
-        <v>4.7375</v>
-      </c>
-      <c r="Q411" s="5" t="n">
-        <v>5.4615</v>
-      </c>
-      <c r="R411" s="5" t="n">
-        <v>5.0083</v>
-      </c>
+        <v>5.2583</v>
+      </c>
+      <c r="N411" s="6" t="inlineStr"/>
+      <c r="O411" s="5" t="inlineStr"/>
+      <c r="P411" s="5" t="inlineStr"/>
+      <c r="Q411" s="5" t="inlineStr"/>
+      <c r="R411" s="5" t="inlineStr"/>
       <c r="S411" s="6" t="inlineStr"/>
       <c r="T411" s="5" t="inlineStr"/>
       <c r="U411" s="5" t="inlineStr"/>
       <c r="V411" s="5" t="inlineStr"/>
       <c r="W411" s="5" t="inlineStr"/>
       <c r="X411" s="6" t="n">
-        <v>6.1341</v>
+        <v>6.1205</v>
       </c>
       <c r="Y411" s="5" t="n">
-        <v>5.08</v>
+        <v>4.64</v>
       </c>
       <c r="Z411" s="5" t="n">
-        <v>6</v>
+        <v>6.3898</v>
       </c>
       <c r="AA411" s="5" t="n">
-        <v>7.6316</v>
+        <v>7.2105</v>
       </c>
       <c r="AB411" s="5" t="n">
-        <v>5.825</v>
+        <v>6.2417</v>
       </c>
       <c r="AC411" s="6" t="n">
-        <v>6.3496</v>
+        <v>6.0251</v>
       </c>
       <c r="AD411" s="5" t="n">
-        <v>6.04</v>
+        <v>5.7172</v>
       </c>
       <c r="AE411" s="5" t="n">
-        <v>6.025</v>
+        <v>6.3333</v>
       </c>
       <c r="AF411" s="5" t="n">
-        <v>7.45</v>
+        <v>6.3</v>
       </c>
       <c r="AG411" s="5" t="n">
-        <v>5.8833</v>
-      </c>
-      <c r="AH411" s="7" t="n">
-        <v>0.1366</v>
-      </c>
+        <v>5.75</v>
+      </c>
+      <c r="AH411" s="7" t="inlineStr"/>
       <c r="AI411" s="7" t="n">
-        <v>0.8735000000000001</v>
+        <v>0.8965</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="4" t="inlineStr">
         <is>
-          <t>openchat/openchat-3.5-0106</t>
+          <t>lightblue/qarasu-14B-chat-plus-unleashed</t>
         </is>
       </c>
       <c r="B412" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C412" s="6" t="n">
-        <v>5.9534</v>
+        <v>5.9054</v>
       </c>
       <c r="D412" s="6" t="n">
-        <v>5.7716</v>
+        <v>5.7742</v>
       </c>
       <c r="E412" s="5" t="n">
-        <v>5.8697</v>
+        <v>5.4586</v>
       </c>
       <c r="F412" s="5" t="n">
-        <v>6.0503</v>
+        <v>5.4828</v>
       </c>
       <c r="G412" s="5" t="n">
-        <v>5.1206</v>
+        <v>6.7429</v>
       </c>
       <c r="H412" s="5" t="n">
-        <v>6.0459</v>
+        <v>5.4125</v>
       </c>
       <c r="I412" s="6" t="n">
-        <v>5.3156</v>
+        <v>5.3638</v>
       </c>
       <c r="J412" s="5" t="n">
-        <v>5.5</v>
+        <v>5.14</v>
       </c>
       <c r="K412" s="5" t="n">
-        <v>5.7342</v>
+        <v>5.1646</v>
       </c>
       <c r="L412" s="5" t="n">
-        <v>4.4615</v>
+        <v>6.2174</v>
       </c>
       <c r="M412" s="5" t="n">
-        <v>5.5667</v>
+        <v>4.9333</v>
       </c>
       <c r="N412" s="6" t="n">
-        <v>5.031</v>
+        <v>5.1958</v>
       </c>
       <c r="O412" s="5" t="n">
-        <v>5.82</v>
+        <v>5.5758</v>
       </c>
       <c r="P412" s="5" t="n">
-        <v>5.0375</v>
+        <v>4.7375</v>
       </c>
       <c r="Q412" s="5" t="n">
-        <v>3.775</v>
+        <v>5.4615</v>
       </c>
       <c r="R412" s="5" t="n">
-        <v>5.4917</v>
+        <v>5.0083</v>
       </c>
       <c r="S412" s="6" t="inlineStr"/>
       <c r="T412" s="5" t="inlineStr"/>
@@ -36778,448 +36744,448 @@
       <c r="V412" s="5" t="inlineStr"/>
       <c r="W412" s="5" t="inlineStr"/>
       <c r="X412" s="6" t="n">
+        <v>6.1341</v>
+      </c>
+      <c r="Y412" s="5" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="Z412" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA412" s="5" t="n">
+        <v>7.6316</v>
+      </c>
+      <c r="AB412" s="5" t="n">
+        <v>5.825</v>
+      </c>
+      <c r="AC412" s="6" t="n">
+        <v>6.3496</v>
+      </c>
+      <c r="AD412" s="5" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AE412" s="5" t="n">
+        <v>6.025</v>
+      </c>
+      <c r="AF412" s="5" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AG412" s="5" t="n">
+        <v>5.8833</v>
+      </c>
+      <c r="AH412" s="7" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="AI412" s="7" t="n">
+        <v>0.8735000000000001</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="4" t="inlineStr">
+        <is>
+          <t>openchat/openchat-3.5-0106</t>
+        </is>
+      </c>
+      <c r="B413" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C413" s="6" t="n">
+        <v>5.9534</v>
+      </c>
+      <c r="D413" s="6" t="n">
+        <v>5.7716</v>
+      </c>
+      <c r="E413" s="5" t="n">
+        <v>5.8697</v>
+      </c>
+      <c r="F413" s="5" t="n">
+        <v>6.0503</v>
+      </c>
+      <c r="G413" s="5" t="n">
+        <v>5.1206</v>
+      </c>
+      <c r="H413" s="5" t="n">
+        <v>6.0459</v>
+      </c>
+      <c r="I413" s="6" t="n">
+        <v>5.3156</v>
+      </c>
+      <c r="J413" s="5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K413" s="5" t="n">
+        <v>5.7342</v>
+      </c>
+      <c r="L413" s="5" t="n">
+        <v>4.4615</v>
+      </c>
+      <c r="M413" s="5" t="n">
+        <v>5.5667</v>
+      </c>
+      <c r="N413" s="6" t="n">
+        <v>5.031</v>
+      </c>
+      <c r="O413" s="5" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="P413" s="5" t="n">
+        <v>5.0375</v>
+      </c>
+      <c r="Q413" s="5" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="R413" s="5" t="n">
+        <v>5.4917</v>
+      </c>
+      <c r="S413" s="6" t="inlineStr"/>
+      <c r="T413" s="5" t="inlineStr"/>
+      <c r="U413" s="5" t="inlineStr"/>
+      <c r="V413" s="5" t="inlineStr"/>
+      <c r="W413" s="5" t="inlineStr"/>
+      <c r="X413" s="6" t="n">
         <v>6.3713</v>
       </c>
-      <c r="Y412" s="5" t="n">
+      <c r="Y413" s="5" t="n">
         <v>5.7172</v>
       </c>
-      <c r="Z412" s="5" t="n">
+      <c r="Z413" s="5" t="n">
         <v>6.8861</v>
       </c>
-      <c r="AA412" s="5" t="n">
+      <c r="AA413" s="5" t="n">
         <v>6.4571</v>
       </c>
-      <c r="AB412" s="5" t="n">
+      <c r="AB413" s="5" t="n">
         <v>6.425</v>
       </c>
-      <c r="AC412" s="6" t="n">
+      <c r="AC413" s="6" t="n">
         <v>6.3552</v>
       </c>
-      <c r="AD412" s="5" t="n">
+      <c r="AD413" s="5" t="n">
         <v>6.44</v>
       </c>
-      <c r="AE412" s="5" t="n">
+      <c r="AE413" s="5" t="n">
         <v>6.55</v>
       </c>
-      <c r="AF412" s="5" t="n">
+      <c r="AF413" s="5" t="n">
         <v>5.725</v>
       </c>
-      <c r="AG412" s="5" t="n">
+      <c r="AG413" s="5" t="n">
         <v>6.7059</v>
       </c>
-      <c r="AH412" s="7" t="n">
+      <c r="AH413" s="7" t="n">
         <v>0.1833</v>
       </c>
-      <c r="AI412" s="7" t="n">
+      <c r="AI413" s="7" t="n">
         <v>0.9248</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="8" t="inlineStr">
-        <is>
-          <t>/fsx/ubuntu/meti/train/outputs/shisa-v1-tulu3.1-8b</t>
-        </is>
-      </c>
-      <c r="B413" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C413" s="10" t="n">
-        <v>6.0578</v>
-      </c>
-      <c r="D413" s="10" t="n">
-        <v>5.6492</v>
-      </c>
-      <c r="E413" s="9" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="F413" s="9" t="n">
-        <v>5.3178</v>
-      </c>
-      <c r="G413" s="9" t="n">
-        <v>6.322</v>
-      </c>
-      <c r="H413" s="9" t="n">
-        <v>5.5368</v>
-      </c>
-      <c r="I413" s="10" t="n">
-        <v>4.8712</v>
-      </c>
-      <c r="J413" s="9" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K413" s="9" t="n">
-        <v>4.8983</v>
-      </c>
-      <c r="L413" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="M413" s="9" t="n">
-        <v>5.0667</v>
-      </c>
-      <c r="N413" s="10" t="n">
-        <v>3.7644</v>
-      </c>
-      <c r="O413" s="9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="P413" s="9" t="n">
-        <v>2.7719</v>
-      </c>
-      <c r="Q413" s="9" t="n">
-        <v>4.025</v>
-      </c>
-      <c r="R413" s="9" t="n">
-        <v>3.4609</v>
-      </c>
-      <c r="S413" s="10" t="inlineStr"/>
-      <c r="T413" s="9" t="inlineStr"/>
-      <c r="U413" s="9" t="inlineStr"/>
-      <c r="V413" s="9" t="inlineStr"/>
-      <c r="W413" s="9" t="inlineStr"/>
-      <c r="X413" s="10" t="n">
-        <v>7.1371</v>
-      </c>
-      <c r="Y413" s="9" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="Z413" s="9" t="n">
-        <v>7.5667</v>
-      </c>
-      <c r="AA413" s="9" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AB413" s="9" t="n">
-        <v>6.5917</v>
-      </c>
-      <c r="AC413" s="10" t="n">
-        <v>6.5737</v>
-      </c>
-      <c r="AD413" s="9" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="AE413" s="9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF413" s="9" t="n">
-        <v>7.4333</v>
-      </c>
-      <c r="AG413" s="9" t="n">
-        <v>6.9417</v>
-      </c>
-      <c r="AH413" s="11" t="n">
-        <v>0.6092</v>
-      </c>
-      <c r="AI413" s="11" t="n">
-        <v>0.6189</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="8" t="inlineStr">
         <is>
-          <t>029-shisa-gamma-7b-v1-v2new-dpo405b</t>
+          <t>/fsx/ubuntu/meti/train/outputs/shisa-v1-tulu3.1-8b</t>
         </is>
       </c>
       <c r="B414" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C414" s="10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C414" s="10" t="n">
+        <v>6.0578</v>
+      </c>
       <c r="D414" s="10" t="n">
-        <v>5.6446</v>
+        <v>5.6492</v>
       </c>
       <c r="E414" s="9" t="n">
-        <v>6.42</v>
+        <v>5.42</v>
       </c>
       <c r="F414" s="9" t="n">
-        <v>5.7</v>
+        <v>5.3178</v>
       </c>
       <c r="G414" s="9" t="n">
-        <v>4.475</v>
+        <v>6.322</v>
       </c>
       <c r="H414" s="9" t="n">
-        <v>5.9833</v>
-      </c>
-      <c r="I414" s="10" t="inlineStr"/>
-      <c r="J414" s="9" t="inlineStr"/>
-      <c r="K414" s="9" t="inlineStr"/>
-      <c r="L414" s="9" t="inlineStr"/>
-      <c r="M414" s="9" t="inlineStr"/>
-      <c r="N414" s="10" t="inlineStr"/>
-      <c r="O414" s="9" t="inlineStr"/>
-      <c r="P414" s="9" t="inlineStr"/>
-      <c r="Q414" s="9" t="inlineStr"/>
-      <c r="R414" s="9" t="inlineStr"/>
-      <c r="S414" s="10" t="n">
-        <v>5.6446</v>
-      </c>
-      <c r="T414" s="9" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="U414" s="9" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="V414" s="9" t="n">
-        <v>4.475</v>
-      </c>
-      <c r="W414" s="9" t="n">
-        <v>5.9833</v>
-      </c>
-      <c r="X414" s="10" t="inlineStr"/>
-      <c r="Y414" s="9" t="inlineStr"/>
-      <c r="Z414" s="9" t="inlineStr"/>
-      <c r="AA414" s="9" t="inlineStr"/>
-      <c r="AB414" s="9" t="inlineStr"/>
-      <c r="AC414" s="10" t="inlineStr"/>
-      <c r="AD414" s="9" t="inlineStr"/>
-      <c r="AE414" s="9" t="inlineStr"/>
-      <c r="AF414" s="9" t="inlineStr"/>
-      <c r="AG414" s="9" t="inlineStr"/>
-      <c r="AH414" s="11" t="inlineStr"/>
+        <v>5.5368</v>
+      </c>
+      <c r="I414" s="10" t="n">
+        <v>4.8712</v>
+      </c>
+      <c r="J414" s="9" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K414" s="9" t="n">
+        <v>4.8983</v>
+      </c>
+      <c r="L414" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M414" s="9" t="n">
+        <v>5.0667</v>
+      </c>
+      <c r="N414" s="10" t="n">
+        <v>3.7644</v>
+      </c>
+      <c r="O414" s="9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P414" s="9" t="n">
+        <v>2.7719</v>
+      </c>
+      <c r="Q414" s="9" t="n">
+        <v>4.025</v>
+      </c>
+      <c r="R414" s="9" t="n">
+        <v>3.4609</v>
+      </c>
+      <c r="S414" s="10" t="inlineStr"/>
+      <c r="T414" s="9" t="inlineStr"/>
+      <c r="U414" s="9" t="inlineStr"/>
+      <c r="V414" s="9" t="inlineStr"/>
+      <c r="W414" s="9" t="inlineStr"/>
+      <c r="X414" s="10" t="n">
+        <v>7.1371</v>
+      </c>
+      <c r="Y414" s="9" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="Z414" s="9" t="n">
+        <v>7.5667</v>
+      </c>
+      <c r="AA414" s="9" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AB414" s="9" t="n">
+        <v>6.5917</v>
+      </c>
+      <c r="AC414" s="10" t="n">
+        <v>6.5737</v>
+      </c>
+      <c r="AD414" s="9" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AE414" s="9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF414" s="9" t="n">
+        <v>7.4333</v>
+      </c>
+      <c r="AG414" s="9" t="n">
+        <v>6.9417</v>
+      </c>
+      <c r="AH414" s="11" t="n">
+        <v>0.6092</v>
+      </c>
       <c r="AI414" s="11" t="n">
-        <v>0.8293</v>
+        <v>0.6189</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="8" t="inlineStr">
         <is>
-          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1</t>
+          <t>029-shisa-gamma-7b-v1-v2new-dpo405b</t>
         </is>
       </c>
       <c r="B415" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C415" s="10" t="n">
-        <v>5.5589</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C415" s="10" t="inlineStr"/>
       <c r="D415" s="10" t="n">
-        <v>5.601</v>
+        <v>5.6446</v>
       </c>
       <c r="E415" s="9" t="n">
-        <v>6.1733</v>
+        <v>6.42</v>
       </c>
       <c r="F415" s="9" t="n">
-        <v>5.6556</v>
+        <v>5.7</v>
       </c>
       <c r="G415" s="9" t="n">
-        <v>4.1667</v>
+        <v>4.475</v>
       </c>
       <c r="H415" s="9" t="n">
-        <v>6.4083</v>
-      </c>
-      <c r="I415" s="10" t="n">
-        <v>4.415</v>
-      </c>
-      <c r="J415" s="9" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="K415" s="9" t="n">
-        <v>5.0667</v>
-      </c>
-      <c r="L415" s="9" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="M415" s="9" t="n">
-        <v>5.2083</v>
-      </c>
+        <v>5.9833</v>
+      </c>
+      <c r="I415" s="10" t="inlineStr"/>
+      <c r="J415" s="9" t="inlineStr"/>
+      <c r="K415" s="9" t="inlineStr"/>
+      <c r="L415" s="9" t="inlineStr"/>
+      <c r="M415" s="9" t="inlineStr"/>
       <c r="N415" s="10" t="inlineStr"/>
       <c r="O415" s="9" t="inlineStr"/>
       <c r="P415" s="9" t="inlineStr"/>
       <c r="Q415" s="9" t="inlineStr"/>
       <c r="R415" s="9" t="inlineStr"/>
-      <c r="S415" s="10" t="inlineStr"/>
-      <c r="T415" s="9" t="inlineStr"/>
-      <c r="U415" s="9" t="inlineStr"/>
-      <c r="V415" s="9" t="inlineStr"/>
-      <c r="W415" s="9" t="inlineStr"/>
-      <c r="X415" s="10" t="n">
-        <v>6.3092</v>
-      </c>
-      <c r="Y415" s="9" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="Z415" s="9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA415" s="9" t="n">
-        <v>5.125</v>
-      </c>
-      <c r="AB415" s="9" t="n">
-        <v>7.2917</v>
-      </c>
-      <c r="AC415" s="10" t="n">
-        <v>5.9105</v>
-      </c>
-      <c r="AD415" s="9" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="AE415" s="9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AF415" s="9" t="n">
-        <v>4.5769</v>
-      </c>
-      <c r="AG415" s="9" t="n">
-        <v>6.725</v>
-      </c>
+      <c r="S415" s="10" t="n">
+        <v>5.6446</v>
+      </c>
+      <c r="T415" s="9" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="U415" s="9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V415" s="9" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="W415" s="9" t="n">
+        <v>5.9833</v>
+      </c>
+      <c r="X415" s="10" t="inlineStr"/>
+      <c r="Y415" s="9" t="inlineStr"/>
+      <c r="Z415" s="9" t="inlineStr"/>
+      <c r="AA415" s="9" t="inlineStr"/>
+      <c r="AB415" s="9" t="inlineStr"/>
+      <c r="AC415" s="10" t="inlineStr"/>
+      <c r="AD415" s="9" t="inlineStr"/>
+      <c r="AE415" s="9" t="inlineStr"/>
+      <c r="AF415" s="9" t="inlineStr"/>
+      <c r="AG415" s="9" t="inlineStr"/>
       <c r="AH415" s="11" t="inlineStr"/>
       <c r="AI415" s="11" t="n">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="8" t="inlineStr">
+        <is>
+          <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1</t>
+        </is>
+      </c>
+      <c r="B416" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C416" s="10" t="n">
+        <v>5.5589</v>
+      </c>
+      <c r="D416" s="10" t="n">
+        <v>5.601</v>
+      </c>
+      <c r="E416" s="9" t="n">
+        <v>6.1733</v>
+      </c>
+      <c r="F416" s="9" t="n">
+        <v>5.6556</v>
+      </c>
+      <c r="G416" s="9" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="H416" s="9" t="n">
+        <v>6.4083</v>
+      </c>
+      <c r="I416" s="10" t="n">
+        <v>4.415</v>
+      </c>
+      <c r="J416" s="9" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="K416" s="9" t="n">
+        <v>5.0667</v>
+      </c>
+      <c r="L416" s="9" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="M416" s="9" t="n">
+        <v>5.2083</v>
+      </c>
+      <c r="N416" s="10" t="inlineStr"/>
+      <c r="O416" s="9" t="inlineStr"/>
+      <c r="P416" s="9" t="inlineStr"/>
+      <c r="Q416" s="9" t="inlineStr"/>
+      <c r="R416" s="9" t="inlineStr"/>
+      <c r="S416" s="10" t="inlineStr"/>
+      <c r="T416" s="9" t="inlineStr"/>
+      <c r="U416" s="9" t="inlineStr"/>
+      <c r="V416" s="9" t="inlineStr"/>
+      <c r="W416" s="9" t="inlineStr"/>
+      <c r="X416" s="10" t="n">
+        <v>6.3092</v>
+      </c>
+      <c r="Y416" s="9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="Z416" s="9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA416" s="9" t="n">
+        <v>5.125</v>
+      </c>
+      <c r="AB416" s="9" t="n">
+        <v>7.2917</v>
+      </c>
+      <c r="AC416" s="10" t="n">
+        <v>5.9105</v>
+      </c>
+      <c r="AD416" s="9" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AE416" s="9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF416" s="9" t="n">
+        <v>4.5769</v>
+      </c>
+      <c r="AG416" s="9" t="n">
+        <v>6.725</v>
+      </c>
+      <c r="AH416" s="11" t="inlineStr"/>
+      <c r="AI416" s="11" t="n">
         <v>0.7508</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="4" t="inlineStr">
-        <is>
-          <t>mistralai/Mistral-7B-Instruct-v0.2</t>
-        </is>
-      </c>
-      <c r="B416" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C416" s="6" t="n">
-        <v>5.8067</v>
-      </c>
-      <c r="D416" s="6" t="n">
-        <v>5.5894</v>
-      </c>
-      <c r="E416" s="5" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F416" s="5" t="n">
-        <v>5.9749</v>
-      </c>
-      <c r="G416" s="5" t="n">
-        <v>5.0882</v>
-      </c>
-      <c r="H416" s="5" t="n">
-        <v>5.4646</v>
-      </c>
-      <c r="I416" s="6" t="n">
-        <v>5.1521</v>
-      </c>
-      <c r="J416" s="5" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K416" s="5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L416" s="5" t="n">
-        <v>4.7368</v>
-      </c>
-      <c r="M416" s="5" t="n">
-        <v>4.8917</v>
-      </c>
-      <c r="N416" s="6" t="n">
-        <v>4.6908</v>
-      </c>
-      <c r="O416" s="5" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="P416" s="5" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q416" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="R416" s="5" t="n">
-        <v>4.5333</v>
-      </c>
-      <c r="S416" s="6" t="inlineStr"/>
-      <c r="T416" s="5" t="inlineStr"/>
-      <c r="U416" s="5" t="inlineStr"/>
-      <c r="V416" s="5" t="inlineStr"/>
-      <c r="W416" s="5" t="inlineStr"/>
-      <c r="X416" s="6" t="n">
-        <v>6.2102</v>
-      </c>
-      <c r="Y416" s="5" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="Z416" s="5" t="n">
-        <v>6.9367</v>
-      </c>
-      <c r="AA416" s="5" t="n">
-        <v>5.8108</v>
-      </c>
-      <c r="AB416" s="5" t="n">
-        <v>6.3333</v>
-      </c>
-      <c r="AC416" s="6" t="n">
-        <v>6.275</v>
-      </c>
-      <c r="AD416" s="5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE416" s="5" t="n">
-        <v>6.625</v>
-      </c>
-      <c r="AF416" s="5" t="n">
-        <v>5.875</v>
-      </c>
-      <c r="AG416" s="5" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AH416" s="7" t="n">
-        <v>0.2379</v>
-      </c>
-      <c r="AI416" s="7" t="n">
-        <v>0.571</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="4" t="inlineStr">
         <is>
-          <t>DeepSeek-V3-slice-jp64-gguf</t>
+          <t>mistralai/Mistral-7B-Instruct-v0.2</t>
         </is>
       </c>
       <c r="B417" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C417" s="6" t="n">
+        <v>5.8067</v>
+      </c>
+      <c r="D417" s="6" t="n">
+        <v>5.5894</v>
+      </c>
+      <c r="E417" s="5" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F417" s="5" t="n">
+        <v>5.9749</v>
+      </c>
+      <c r="G417" s="5" t="n">
+        <v>5.0882</v>
+      </c>
+      <c r="H417" s="5" t="n">
+        <v>5.4646</v>
+      </c>
+      <c r="I417" s="6" t="n">
+        <v>5.1521</v>
+      </c>
+      <c r="J417" s="5" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="K417" s="5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L417" s="5" t="n">
+        <v>4.7368</v>
+      </c>
+      <c r="M417" s="5" t="n">
+        <v>4.8917</v>
+      </c>
+      <c r="N417" s="6" t="n">
+        <v>4.6908</v>
+      </c>
+      <c r="O417" s="5" t="n">
         <v>5.78</v>
       </c>
-      <c r="D417" s="6" t="n">
-        <v>5.5828</v>
-      </c>
-      <c r="E417" s="5" t="n">
-        <v>4.945</v>
-      </c>
-      <c r="F417" s="5" t="n">
-        <v>5.8361</v>
-      </c>
-      <c r="G417" s="5" t="n">
-        <v>6.2153</v>
-      </c>
-      <c r="H417" s="5" t="n">
-        <v>5.3347</v>
-      </c>
-      <c r="I417" s="6" t="n">
-        <v>5.1633</v>
-      </c>
-      <c r="J417" s="5" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="K417" s="5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L417" s="5" t="n">
-        <v>5.5333</v>
-      </c>
-      <c r="M417" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N417" s="6" t="n">
-        <v>4.7612</v>
-      </c>
-      <c r="O417" s="5" t="n">
-        <v>4.78</v>
-      </c>
       <c r="P417" s="5" t="n">
-        <v>4.5517</v>
+        <v>4.65</v>
       </c>
       <c r="Q417" s="5" t="n">
-        <v>5.125</v>
+        <v>3.8</v>
       </c>
       <c r="R417" s="5" t="n">
-        <v>4.5882</v>
+        <v>4.5333</v>
       </c>
       <c r="S417" s="6" t="inlineStr"/>
       <c r="T417" s="5" t="inlineStr"/>
@@ -37227,98 +37193,98 @@
       <c r="V417" s="5" t="inlineStr"/>
       <c r="W417" s="5" t="inlineStr"/>
       <c r="X417" s="6" t="n">
-        <v>6.0872</v>
+        <v>6.2102</v>
       </c>
       <c r="Y417" s="5" t="n">
-        <v>4.42</v>
+        <v>5.76</v>
       </c>
       <c r="Z417" s="5" t="n">
-        <v>6.6667</v>
+        <v>6.9367</v>
       </c>
       <c r="AA417" s="5" t="n">
-        <v>7.4872</v>
+        <v>5.8108</v>
       </c>
       <c r="AB417" s="5" t="n">
-        <v>5.775</v>
+        <v>6.3333</v>
       </c>
       <c r="AC417" s="6" t="n">
-        <v>6.2867</v>
+        <v>6.275</v>
       </c>
       <c r="AD417" s="5" t="n">
-        <v>6.06</v>
+        <v>6.5</v>
       </c>
       <c r="AE417" s="5" t="n">
-        <v>6.4833</v>
+        <v>6.625</v>
       </c>
       <c r="AF417" s="5" t="n">
-        <v>6.6286</v>
+        <v>5.875</v>
       </c>
       <c r="AG417" s="5" t="n">
-        <v>5.9748</v>
+        <v>6.1</v>
       </c>
       <c r="AH417" s="7" t="n">
-        <v>0.214</v>
+        <v>0.2379</v>
       </c>
       <c r="AI417" s="7" t="n">
-        <v>0.9077</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="4" t="inlineStr">
         <is>
-          <t>allenai/OLMo-2-1124-13B-Instruct</t>
+          <t>DeepSeek-V3-slice-jp64-gguf</t>
         </is>
       </c>
       <c r="B418" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C418" s="6" t="n">
-        <v>5.7338</v>
+        <v>5.78</v>
       </c>
       <c r="D418" s="6" t="n">
-        <v>5.544</v>
+        <v>5.5828</v>
       </c>
       <c r="E418" s="5" t="n">
-        <v>5.2663</v>
+        <v>4.945</v>
       </c>
       <c r="F418" s="5" t="n">
-        <v>6.1625</v>
+        <v>5.8361</v>
       </c>
       <c r="G418" s="5" t="n">
-        <v>5.1119</v>
+        <v>6.2153</v>
       </c>
       <c r="H418" s="5" t="n">
-        <v>5.6354</v>
+        <v>5.3347</v>
       </c>
       <c r="I418" s="6" t="n">
-        <v>5.0505</v>
+        <v>5.1633</v>
       </c>
       <c r="J418" s="5" t="n">
-        <v>4.74</v>
+        <v>4.52</v>
       </c>
       <c r="K418" s="5" t="n">
-        <v>5.9333</v>
+        <v>5.6</v>
       </c>
       <c r="L418" s="5" t="n">
-        <v>4.4286</v>
+        <v>5.5333</v>
       </c>
       <c r="M418" s="5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N418" s="6" t="n">
-        <v>4.7471</v>
+        <v>4.7612</v>
       </c>
       <c r="O418" s="5" t="n">
-        <v>5.08</v>
+        <v>4.78</v>
       </c>
       <c r="P418" s="5" t="n">
-        <v>4.7</v>
+        <v>4.5517</v>
       </c>
       <c r="Q418" s="5" t="n">
-        <v>4</v>
+        <v>5.125</v>
       </c>
       <c r="R418" s="5" t="n">
-        <v>5.2083</v>
+        <v>4.5882</v>
       </c>
       <c r="S418" s="6" t="inlineStr"/>
       <c r="T418" s="5" t="inlineStr"/>
@@ -37326,461 +37292,495 @@
       <c r="V418" s="5" t="inlineStr"/>
       <c r="W418" s="5" t="inlineStr"/>
       <c r="X418" s="6" t="n">
-        <v>6.1715</v>
+        <v>6.0872</v>
       </c>
       <c r="Y418" s="5" t="n">
-        <v>5.0909</v>
+        <v>4.42</v>
       </c>
       <c r="Z418" s="5" t="n">
-        <v>7.2167</v>
+        <v>6.6667</v>
       </c>
       <c r="AA418" s="5" t="n">
-        <v>6.2286</v>
+        <v>7.4872</v>
       </c>
       <c r="AB418" s="5" t="n">
-        <v>6.15</v>
+        <v>5.775</v>
       </c>
       <c r="AC418" s="6" t="n">
-        <v>6.1691</v>
+        <v>6.2867</v>
       </c>
       <c r="AD418" s="5" t="n">
-        <v>6.1616</v>
+        <v>6.06</v>
       </c>
       <c r="AE418" s="5" t="n">
-        <v>6.8</v>
+        <v>6.4833</v>
       </c>
       <c r="AF418" s="5" t="n">
-        <v>5.6316</v>
+        <v>6.6286</v>
       </c>
       <c r="AG418" s="5" t="n">
-        <v>6.0833</v>
+        <v>5.9748</v>
       </c>
       <c r="AH418" s="7" t="n">
-        <v>0.2079</v>
+        <v>0.214</v>
       </c>
       <c r="AI418" s="7" t="n">
-        <v>0.9005</v>
+        <v>0.9077</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="4" t="inlineStr">
         <is>
-          <t>elyza/ELYZA-japanese-Llama-2-7b-instruct</t>
+          <t>allenai/OLMo-2-1124-13B-Instruct</t>
         </is>
       </c>
       <c r="B419" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C419" s="6" t="n">
-        <v>5.4815</v>
+        <v>5.7338</v>
       </c>
       <c r="D419" s="6" t="n">
-        <v>5.5004</v>
+        <v>5.544</v>
       </c>
       <c r="E419" s="5" t="n">
-        <v>5.3512</v>
+        <v>5.2663</v>
       </c>
       <c r="F419" s="5" t="n">
-        <v>4.8324</v>
+        <v>6.1625</v>
       </c>
       <c r="G419" s="5" t="n">
-        <v>6.7071</v>
+        <v>5.1119</v>
       </c>
       <c r="H419" s="5" t="n">
-        <v>5.1111</v>
+        <v>5.6354</v>
       </c>
       <c r="I419" s="6" t="n">
-        <v>4.8173</v>
+        <v>5.0505</v>
       </c>
       <c r="J419" s="5" t="n">
-        <v>4.9</v>
+        <v>4.74</v>
       </c>
       <c r="K419" s="5" t="n">
-        <v>4.2881</v>
+        <v>5.9333</v>
       </c>
       <c r="L419" s="5" t="n">
-        <v>6.0476</v>
+        <v>4.4286</v>
       </c>
       <c r="M419" s="5" t="n">
-        <v>4.0333</v>
-      </c>
-      <c r="N419" s="6" t="inlineStr"/>
-      <c r="O419" s="5" t="inlineStr"/>
-      <c r="P419" s="5" t="inlineStr"/>
-      <c r="Q419" s="5" t="inlineStr"/>
-      <c r="R419" s="5" t="inlineStr"/>
+        <v>5.1</v>
+      </c>
+      <c r="N419" s="6" t="n">
+        <v>4.7471</v>
+      </c>
+      <c r="O419" s="5" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="P419" s="5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q419" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R419" s="5" t="n">
+        <v>5.2083</v>
+      </c>
       <c r="S419" s="6" t="inlineStr"/>
       <c r="T419" s="5" t="inlineStr"/>
       <c r="U419" s="5" t="inlineStr"/>
       <c r="V419" s="5" t="inlineStr"/>
       <c r="W419" s="5" t="inlineStr"/>
       <c r="X419" s="6" t="n">
+        <v>6.1715</v>
+      </c>
+      <c r="Y419" s="5" t="n">
+        <v>5.0909</v>
+      </c>
+      <c r="Z419" s="5" t="n">
+        <v>7.2167</v>
+      </c>
+      <c r="AA419" s="5" t="n">
+        <v>6.2286</v>
+      </c>
+      <c r="AB419" s="5" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AC419" s="6" t="n">
+        <v>6.1691</v>
+      </c>
+      <c r="AD419" s="5" t="n">
+        <v>6.1616</v>
+      </c>
+      <c r="AE419" s="5" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF419" s="5" t="n">
+        <v>5.6316</v>
+      </c>
+      <c r="AG419" s="5" t="n">
+        <v>6.0833</v>
+      </c>
+      <c r="AH419" s="7" t="n">
+        <v>0.2079</v>
+      </c>
+      <c r="AI419" s="7" t="n">
+        <v>0.9005</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="4" t="inlineStr">
+        <is>
+          <t>elyza/ELYZA-japanese-Llama-2-7b-instruct</t>
+        </is>
+      </c>
+      <c r="B420" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C420" s="6" t="n">
+        <v>5.4815</v>
+      </c>
+      <c r="D420" s="6" t="n">
+        <v>5.5004</v>
+      </c>
+      <c r="E420" s="5" t="n">
+        <v>5.3512</v>
+      </c>
+      <c r="F420" s="5" t="n">
+        <v>4.8324</v>
+      </c>
+      <c r="G420" s="5" t="n">
+        <v>6.7071</v>
+      </c>
+      <c r="H420" s="5" t="n">
+        <v>5.1111</v>
+      </c>
+      <c r="I420" s="6" t="n">
+        <v>4.8173</v>
+      </c>
+      <c r="J420" s="5" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K420" s="5" t="n">
+        <v>4.2881</v>
+      </c>
+      <c r="L420" s="5" t="n">
+        <v>6.0476</v>
+      </c>
+      <c r="M420" s="5" t="n">
+        <v>4.0333</v>
+      </c>
+      <c r="N420" s="6" t="inlineStr"/>
+      <c r="O420" s="5" t="inlineStr"/>
+      <c r="P420" s="5" t="inlineStr"/>
+      <c r="Q420" s="5" t="inlineStr"/>
+      <c r="R420" s="5" t="inlineStr"/>
+      <c r="S420" s="6" t="inlineStr"/>
+      <c r="T420" s="5" t="inlineStr"/>
+      <c r="U420" s="5" t="inlineStr"/>
+      <c r="V420" s="5" t="inlineStr"/>
+      <c r="W420" s="5" t="inlineStr"/>
+      <c r="X420" s="6" t="n">
         <v>5.7837</v>
       </c>
-      <c r="Y419" s="5" t="n">
+      <c r="Y420" s="5" t="n">
         <v>4.9091</v>
       </c>
-      <c r="Z419" s="5" t="n">
+      <c r="Z420" s="5" t="n">
         <v>5.4333</v>
       </c>
-      <c r="AA419" s="5" t="n">
+      <c r="AA420" s="5" t="n">
         <v>7.1842</v>
       </c>
-      <c r="AB419" s="5" t="n">
+      <c r="AB420" s="5" t="n">
         <v>5.6083</v>
       </c>
-      <c r="AC419" s="6" t="n">
+      <c r="AC420" s="6" t="n">
         <v>5.8246</v>
       </c>
-      <c r="AD419" s="5" t="n">
+      <c r="AD420" s="5" t="n">
         <v>6.24</v>
       </c>
-      <c r="AE419" s="5" t="n">
+      <c r="AE420" s="5" t="n">
         <v>4.7667</v>
       </c>
-      <c r="AF419" s="5" t="n">
+      <c r="AF420" s="5" t="n">
         <v>6.6</v>
       </c>
-      <c r="AG419" s="5" t="n">
+      <c r="AG420" s="5" t="n">
         <v>5.6917</v>
       </c>
-      <c r="AH419" s="7" t="inlineStr"/>
-      <c r="AI419" s="7" t="n">
+      <c r="AH420" s="7" t="inlineStr"/>
+      <c r="AI420" s="7" t="n">
         <v>0.8953</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="8" t="inlineStr">
+    <row r="421">
+      <c r="A421" s="8" t="inlineStr">
         <is>
           <t>027-shisa-7b-v1-v2new-dpo405b</t>
         </is>
       </c>
-      <c r="B420" s="9" t="n">
+      <c r="B421" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C420" s="10" t="inlineStr"/>
-      <c r="D420" s="10" t="n">
+      <c r="C421" s="10" t="inlineStr"/>
+      <c r="D421" s="10" t="n">
         <v>5.4808</v>
       </c>
-      <c r="E420" s="9" t="n">
+      <c r="E421" s="9" t="n">
         <v>5.34</v>
       </c>
-      <c r="F420" s="9" t="n">
+      <c r="F421" s="9" t="n">
         <v>5.0667</v>
       </c>
-      <c r="G420" s="9" t="n">
+      <c r="G421" s="9" t="n">
         <v>6.425</v>
       </c>
-      <c r="H420" s="9" t="n">
+      <c r="H421" s="9" t="n">
         <v>5.0917</v>
       </c>
-      <c r="I420" s="10" t="inlineStr"/>
-      <c r="J420" s="9" t="inlineStr"/>
-      <c r="K420" s="9" t="inlineStr"/>
-      <c r="L420" s="9" t="inlineStr"/>
-      <c r="M420" s="9" t="inlineStr"/>
-      <c r="N420" s="10" t="inlineStr"/>
-      <c r="O420" s="9" t="inlineStr"/>
-      <c r="P420" s="9" t="inlineStr"/>
-      <c r="Q420" s="9" t="inlineStr"/>
-      <c r="R420" s="9" t="inlineStr"/>
-      <c r="S420" s="10" t="n">
+      <c r="I421" s="10" t="inlineStr"/>
+      <c r="J421" s="9" t="inlineStr"/>
+      <c r="K421" s="9" t="inlineStr"/>
+      <c r="L421" s="9" t="inlineStr"/>
+      <c r="M421" s="9" t="inlineStr"/>
+      <c r="N421" s="10" t="inlineStr"/>
+      <c r="O421" s="9" t="inlineStr"/>
+      <c r="P421" s="9" t="inlineStr"/>
+      <c r="Q421" s="9" t="inlineStr"/>
+      <c r="R421" s="9" t="inlineStr"/>
+      <c r="S421" s="10" t="n">
         <v>5.4808</v>
       </c>
-      <c r="T420" s="9" t="n">
+      <c r="T421" s="9" t="n">
         <v>5.34</v>
       </c>
-      <c r="U420" s="9" t="n">
+      <c r="U421" s="9" t="n">
         <v>5.0667</v>
       </c>
-      <c r="V420" s="9" t="n">
+      <c r="V421" s="9" t="n">
         <v>6.425</v>
       </c>
-      <c r="W420" s="9" t="n">
+      <c r="W421" s="9" t="n">
         <v>5.0917</v>
       </c>
-      <c r="X420" s="10" t="inlineStr"/>
-      <c r="Y420" s="9" t="inlineStr"/>
-      <c r="Z420" s="9" t="inlineStr"/>
-      <c r="AA420" s="9" t="inlineStr"/>
-      <c r="AB420" s="9" t="inlineStr"/>
-      <c r="AC420" s="10" t="inlineStr"/>
-      <c r="AD420" s="9" t="inlineStr"/>
-      <c r="AE420" s="9" t="inlineStr"/>
-      <c r="AF420" s="9" t="inlineStr"/>
-      <c r="AG420" s="9" t="inlineStr"/>
-      <c r="AH420" s="11" t="inlineStr"/>
-      <c r="AI420" s="11" t="n">
+      <c r="X421" s="10" t="inlineStr"/>
+      <c r="Y421" s="9" t="inlineStr"/>
+      <c r="Z421" s="9" t="inlineStr"/>
+      <c r="AA421" s="9" t="inlineStr"/>
+      <c r="AB421" s="9" t="inlineStr"/>
+      <c r="AC421" s="10" t="inlineStr"/>
+      <c r="AD421" s="9" t="inlineStr"/>
+      <c r="AE421" s="9" t="inlineStr"/>
+      <c r="AF421" s="9" t="inlineStr"/>
+      <c r="AG421" s="9" t="inlineStr"/>
+      <c r="AH421" s="11" t="inlineStr"/>
+      <c r="AI421" s="11" t="n">
         <v>0.8797</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="4" t="inlineStr">
+    <row r="422">
+      <c r="A422" s="4" t="inlineStr">
         <is>
           <t>cyberagent/calm2-7b-chat</t>
         </is>
       </c>
-      <c r="B421" s="5" t="n">
+      <c r="B422" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C421" s="6" t="n">
+      <c r="C422" s="6" t="n">
         <v>5.5351</v>
       </c>
-      <c r="D421" s="6" t="n">
+      <c r="D422" s="6" t="n">
         <v>5.382</v>
       </c>
-      <c r="E421" s="5" t="n">
+      <c r="E422" s="5" t="n">
         <v>4.945</v>
       </c>
-      <c r="F421" s="5" t="n">
+      <c r="F422" s="5" t="n">
         <v>4.3063</v>
       </c>
-      <c r="G421" s="5" t="n">
+      <c r="G422" s="5" t="n">
         <v>6.9184</v>
       </c>
-      <c r="H421" s="5" t="n">
+      <c r="H422" s="5" t="n">
         <v>5.3583</v>
       </c>
-      <c r="I421" s="6" t="n">
+      <c r="I422" s="6" t="n">
         <v>5.0004</v>
       </c>
-      <c r="J421" s="5" t="n">
+      <c r="J422" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="K421" s="5" t="n">
+      <c r="K422" s="5" t="n">
         <v>4.125</v>
       </c>
-      <c r="L421" s="5" t="n">
+      <c r="L422" s="5" t="n">
         <v>6.5517</v>
       </c>
-      <c r="M421" s="5" t="n">
+      <c r="M422" s="5" t="n">
         <v>4.825</v>
       </c>
-      <c r="N421" s="6" t="n">
+      <c r="N422" s="6" t="n">
         <v>4.7583</v>
       </c>
-      <c r="O421" s="5" t="n">
+      <c r="O422" s="5" t="n">
         <v>4.9</v>
       </c>
-      <c r="P421" s="5" t="n">
+      <c r="P422" s="5" t="n">
         <v>3.575</v>
       </c>
-      <c r="Q421" s="5" t="n">
+      <c r="Q422" s="5" t="n">
         <v>5.75</v>
       </c>
-      <c r="R421" s="5" t="n">
+      <c r="R422" s="5" t="n">
         <v>4.8083</v>
       </c>
-      <c r="S421" s="6" t="inlineStr"/>
-      <c r="T421" s="5" t="inlineStr"/>
-      <c r="U421" s="5" t="inlineStr"/>
-      <c r="V421" s="5" t="inlineStr"/>
-      <c r="W421" s="5" t="inlineStr"/>
-      <c r="X421" s="6" t="n">
+      <c r="S422" s="6" t="inlineStr"/>
+      <c r="T422" s="5" t="inlineStr"/>
+      <c r="U422" s="5" t="inlineStr"/>
+      <c r="V422" s="5" t="inlineStr"/>
+      <c r="W422" s="5" t="inlineStr"/>
+      <c r="X422" s="6" t="n">
         <v>5.59</v>
       </c>
-      <c r="Y421" s="5" t="n">
+      <c r="Y422" s="5" t="n">
         <v>4.46</v>
       </c>
-      <c r="Z421" s="5" t="n">
+      <c r="Z422" s="5" t="n">
         <v>4.7</v>
       </c>
-      <c r="AA421" s="5" t="n">
+      <c r="AA422" s="5" t="n">
         <v>7.3</v>
       </c>
-      <c r="AB421" s="5" t="n">
+      <c r="AB422" s="5" t="n">
         <v>5.9</v>
       </c>
-      <c r="AC421" s="6" t="n">
+      <c r="AC422" s="6" t="n">
         <v>6.1678</v>
       </c>
-      <c r="AD421" s="5" t="n">
+      <c r="AD422" s="5" t="n">
         <v>5.92</v>
       </c>
-      <c r="AE421" s="5" t="n">
+      <c r="AE422" s="5" t="n">
         <v>4.825</v>
       </c>
-      <c r="AF421" s="5" t="n">
+      <c r="AF422" s="5" t="n">
         <v>8.026300000000001</v>
       </c>
-      <c r="AG421" s="5" t="n">
+      <c r="AG422" s="5" t="n">
         <v>5.9</v>
       </c>
-      <c r="AH421" s="7" t="n">
+      <c r="AH422" s="7" t="n">
         <v>0.1632</v>
       </c>
-      <c r="AI421" s="7" t="n">
+      <c r="AI422" s="7" t="n">
         <v>0.9108000000000001</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="8" t="inlineStr">
-        <is>
-          <t>shisa-ai/shisa-yi1.5-9b-v1</t>
-        </is>
-      </c>
-      <c r="B422" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C422" s="10" t="n">
-        <v>5.4419</v>
-      </c>
-      <c r="D422" s="10" t="n">
-        <v>5.329</v>
-      </c>
-      <c r="E422" s="9" t="n">
-        <v>5.915</v>
-      </c>
-      <c r="F422" s="9" t="n">
-        <v>5.3292</v>
-      </c>
-      <c r="G422" s="9" t="n">
-        <v>4.626</v>
-      </c>
-      <c r="H422" s="9" t="n">
-        <v>5.4458</v>
-      </c>
-      <c r="I422" s="10" t="n">
-        <v>4.5654</v>
-      </c>
-      <c r="J422" s="9" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="K422" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L422" s="9" t="n">
-        <v>3.0714</v>
-      </c>
-      <c r="M422" s="9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="N422" s="10" t="n">
-        <v>4.6299</v>
-      </c>
-      <c r="O422" s="9" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="P422" s="9" t="n">
-        <v>4.2833</v>
-      </c>
-      <c r="Q422" s="9" t="n">
-        <v>3.2564</v>
-      </c>
-      <c r="R422" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S422" s="10" t="inlineStr"/>
-      <c r="T422" s="9" t="inlineStr"/>
-      <c r="U422" s="9" t="inlineStr"/>
-      <c r="V422" s="9" t="inlineStr"/>
-      <c r="W422" s="9" t="inlineStr"/>
-      <c r="X422" s="10" t="n">
-        <v>5.8117</v>
-      </c>
-      <c r="Y422" s="9" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="Z422" s="9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AA422" s="9" t="n">
-        <v>5.7368</v>
-      </c>
-      <c r="AB422" s="9" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AC422" s="10" t="n">
-        <v>6.0617</v>
-      </c>
-      <c r="AD422" s="9" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AE422" s="9" t="n">
-        <v>5.9333</v>
-      </c>
-      <c r="AF422" s="9" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="AG422" s="9" t="n">
-        <v>6.1833</v>
-      </c>
-      <c r="AH422" s="11" t="n">
-        <v>0.1754</v>
-      </c>
-      <c r="AI422" s="11" t="n">
-        <v>0.9099</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="8" t="inlineStr">
         <is>
-          <t>026-shisa-7b-v1-v2new-sft</t>
+          <t>shisa-ai/shisa-yi1.5-9b-v1</t>
         </is>
       </c>
       <c r="B423" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C423" s="10" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C423" s="10" t="n">
+        <v>5.4419</v>
+      </c>
       <c r="D423" s="10" t="n">
-        <v>5.2696</v>
+        <v>5.329</v>
       </c>
       <c r="E423" s="9" t="n">
-        <v>4.92</v>
+        <v>5.915</v>
       </c>
       <c r="F423" s="9" t="n">
-        <v>5.2833</v>
+        <v>5.3292</v>
       </c>
       <c r="G423" s="9" t="n">
-        <v>5.925</v>
+        <v>4.626</v>
       </c>
       <c r="H423" s="9" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="I423" s="10" t="inlineStr"/>
-      <c r="J423" s="9" t="inlineStr"/>
-      <c r="K423" s="9" t="inlineStr"/>
-      <c r="L423" s="9" t="inlineStr"/>
-      <c r="M423" s="9" t="inlineStr"/>
-      <c r="N423" s="10" t="inlineStr"/>
-      <c r="O423" s="9" t="inlineStr"/>
-      <c r="P423" s="9" t="inlineStr"/>
-      <c r="Q423" s="9" t="inlineStr"/>
-      <c r="R423" s="9" t="inlineStr"/>
-      <c r="S423" s="10" t="n">
-        <v>5.2696</v>
-      </c>
-      <c r="T423" s="9" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="U423" s="9" t="n">
-        <v>5.2833</v>
-      </c>
-      <c r="V423" s="9" t="n">
-        <v>5.925</v>
-      </c>
-      <c r="W423" s="9" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="X423" s="10" t="inlineStr"/>
-      <c r="Y423" s="9" t="inlineStr"/>
-      <c r="Z423" s="9" t="inlineStr"/>
-      <c r="AA423" s="9" t="inlineStr"/>
-      <c r="AB423" s="9" t="inlineStr"/>
-      <c r="AC423" s="10" t="inlineStr"/>
-      <c r="AD423" s="9" t="inlineStr"/>
-      <c r="AE423" s="9" t="inlineStr"/>
-      <c r="AF423" s="9" t="inlineStr"/>
-      <c r="AG423" s="9" t="inlineStr"/>
-      <c r="AH423" s="11" t="inlineStr"/>
+        <v>5.4458</v>
+      </c>
+      <c r="I423" s="10" t="n">
+        <v>4.5654</v>
+      </c>
+      <c r="J423" s="9" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K423" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L423" s="9" t="n">
+        <v>3.0714</v>
+      </c>
+      <c r="M423" s="9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N423" s="10" t="n">
+        <v>4.6299</v>
+      </c>
+      <c r="O423" s="9" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="P423" s="9" t="n">
+        <v>4.2833</v>
+      </c>
+      <c r="Q423" s="9" t="n">
+        <v>3.2564</v>
+      </c>
+      <c r="R423" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S423" s="10" t="inlineStr"/>
+      <c r="T423" s="9" t="inlineStr"/>
+      <c r="U423" s="9" t="inlineStr"/>
+      <c r="V423" s="9" t="inlineStr"/>
+      <c r="W423" s="9" t="inlineStr"/>
+      <c r="X423" s="10" t="n">
+        <v>5.8117</v>
+      </c>
+      <c r="Y423" s="9" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="Z423" s="9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA423" s="9" t="n">
+        <v>5.7368</v>
+      </c>
+      <c r="AB423" s="9" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AC423" s="10" t="n">
+        <v>6.0617</v>
+      </c>
+      <c r="AD423" s="9" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AE423" s="9" t="n">
+        <v>5.9333</v>
+      </c>
+      <c r="AF423" s="9" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AG423" s="9" t="n">
+        <v>6.1833</v>
+      </c>
+      <c r="AH423" s="11" t="n">
+        <v>0.1754</v>
+      </c>
       <c r="AI423" s="11" t="n">
-        <v>0.8823</v>
+        <v>0.9099</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="8" t="inlineStr">
         <is>
-          <t>028-shisa-gamma-7b-v1-v2new-sft</t>
+          <t>026-shisa-7b-v1-v2new-sft</t>
         </is>
       </c>
       <c r="B424" s="9" t="n">
@@ -37788,19 +37788,19 @@
       </c>
       <c r="C424" s="10" t="inlineStr"/>
       <c r="D424" s="10" t="n">
-        <v>5.1937</v>
+        <v>5.2696</v>
       </c>
       <c r="E424" s="9" t="n">
-        <v>6.24</v>
+        <v>4.92</v>
       </c>
       <c r="F424" s="9" t="n">
-        <v>4.5763</v>
+        <v>5.2833</v>
       </c>
       <c r="G424" s="9" t="n">
-        <v>4.375</v>
+        <v>5.925</v>
       </c>
       <c r="H424" s="9" t="n">
-        <v>5.5833</v>
+        <v>4.95</v>
       </c>
       <c r="I424" s="10" t="inlineStr"/>
       <c r="J424" s="9" t="inlineStr"/>
@@ -37813,19 +37813,19 @@
       <c r="Q424" s="9" t="inlineStr"/>
       <c r="R424" s="9" t="inlineStr"/>
       <c r="S424" s="10" t="n">
-        <v>5.1937</v>
+        <v>5.2696</v>
       </c>
       <c r="T424" s="9" t="n">
-        <v>6.24</v>
+        <v>4.92</v>
       </c>
       <c r="U424" s="9" t="n">
-        <v>4.5763</v>
+        <v>5.2833</v>
       </c>
       <c r="V424" s="9" t="n">
-        <v>4.375</v>
+        <v>5.925</v>
       </c>
       <c r="W424" s="9" t="n">
-        <v>5.5833</v>
+        <v>4.95</v>
       </c>
       <c r="X424" s="10" t="inlineStr"/>
       <c r="Y424" s="9" t="inlineStr"/>
@@ -37839,177 +37839,177 @@
       <c r="AG424" s="9" t="inlineStr"/>
       <c r="AH424" s="11" t="inlineStr"/>
       <c r="AI424" s="11" t="n">
+        <v>0.8823</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="8" t="inlineStr">
+        <is>
+          <t>028-shisa-gamma-7b-v1-v2new-sft</t>
+        </is>
+      </c>
+      <c r="B425" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C425" s="10" t="inlineStr"/>
+      <c r="D425" s="10" t="n">
+        <v>5.1937</v>
+      </c>
+      <c r="E425" s="9" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="F425" s="9" t="n">
+        <v>4.5763</v>
+      </c>
+      <c r="G425" s="9" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="H425" s="9" t="n">
+        <v>5.5833</v>
+      </c>
+      <c r="I425" s="10" t="inlineStr"/>
+      <c r="J425" s="9" t="inlineStr"/>
+      <c r="K425" s="9" t="inlineStr"/>
+      <c r="L425" s="9" t="inlineStr"/>
+      <c r="M425" s="9" t="inlineStr"/>
+      <c r="N425" s="10" t="inlineStr"/>
+      <c r="O425" s="9" t="inlineStr"/>
+      <c r="P425" s="9" t="inlineStr"/>
+      <c r="Q425" s="9" t="inlineStr"/>
+      <c r="R425" s="9" t="inlineStr"/>
+      <c r="S425" s="10" t="n">
+        <v>5.1937</v>
+      </c>
+      <c r="T425" s="9" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="U425" s="9" t="n">
+        <v>4.5763</v>
+      </c>
+      <c r="V425" s="9" t="n">
+        <v>4.375</v>
+      </c>
+      <c r="W425" s="9" t="n">
+        <v>5.5833</v>
+      </c>
+      <c r="X425" s="10" t="inlineStr"/>
+      <c r="Y425" s="9" t="inlineStr"/>
+      <c r="Z425" s="9" t="inlineStr"/>
+      <c r="AA425" s="9" t="inlineStr"/>
+      <c r="AB425" s="9" t="inlineStr"/>
+      <c r="AC425" s="10" t="inlineStr"/>
+      <c r="AD425" s="9" t="inlineStr"/>
+      <c r="AE425" s="9" t="inlineStr"/>
+      <c r="AF425" s="9" t="inlineStr"/>
+      <c r="AG425" s="9" t="inlineStr"/>
+      <c r="AH425" s="11" t="inlineStr"/>
+      <c r="AI425" s="11" t="n">
         <v>0.8474</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="4" t="inlineStr">
-        <is>
-          <t>dahara1/DeepSeek-R1-Distill-Qwen-14B-unsloth-jpn</t>
-        </is>
-      </c>
-      <c r="B425" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C425" s="6" t="n">
-        <v>5.3402</v>
-      </c>
-      <c r="D425" s="6" t="n">
-        <v>5.1661</v>
-      </c>
-      <c r="E425" s="5" t="n">
-        <v>5.4837</v>
-      </c>
-      <c r="F425" s="5" t="n">
-        <v>5.5774</v>
-      </c>
-      <c r="G425" s="5" t="n">
-        <v>4.8921</v>
-      </c>
-      <c r="H425" s="5" t="n">
-        <v>4.7113</v>
-      </c>
-      <c r="I425" s="6" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="J425" s="5" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K425" s="5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L425" s="5" t="n">
-        <v>4.2083</v>
-      </c>
-      <c r="M425" s="5" t="n">
-        <v>3.9917</v>
-      </c>
-      <c r="N425" s="6" t="n">
-        <v>4.4286</v>
-      </c>
-      <c r="O425" s="5" t="n">
-        <v>5.38</v>
-      </c>
-      <c r="P425" s="5" t="n">
-        <v>4.2667</v>
-      </c>
-      <c r="Q425" s="5" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R425" s="5" t="n">
-        <v>4.1176</v>
-      </c>
-      <c r="S425" s="6" t="inlineStr"/>
-      <c r="T425" s="5" t="inlineStr"/>
-      <c r="U425" s="5" t="inlineStr"/>
-      <c r="V425" s="5" t="inlineStr"/>
-      <c r="W425" s="5" t="inlineStr"/>
-      <c r="X425" s="6" t="n">
-        <v>5.7199</v>
-      </c>
-      <c r="Y425" s="5" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="Z425" s="5" t="n">
-        <v>6.7167</v>
-      </c>
-      <c r="AA425" s="5" t="n">
-        <v>5.6579</v>
-      </c>
-      <c r="AB425" s="5" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="AC425" s="6" t="n">
-        <v>5.8947</v>
-      </c>
-      <c r="AD425" s="5" t="n">
-        <v>6.5657</v>
-      </c>
-      <c r="AE425" s="5" t="n">
-        <v>6.0339</v>
-      </c>
-      <c r="AF425" s="5" t="n">
-        <v>5.5676</v>
-      </c>
-      <c r="AG425" s="5" t="n">
-        <v>5.4118</v>
-      </c>
-      <c r="AH425" s="7" t="n">
-        <v>0.2058</v>
-      </c>
-      <c r="AI425" s="7" t="n">
-        <v>0.806</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="4" t="inlineStr">
         <is>
-          <t>037-rakuten-2.0-mini-instruct-1.5b-v2new-dpo405b</t>
+          <t>dahara1/DeepSeek-R1-Distill-Qwen-14B-unsloth-jpn</t>
         </is>
       </c>
       <c r="B426" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C426" s="6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C426" s="6" t="n">
+        <v>5.3402</v>
+      </c>
       <c r="D426" s="6" t="n">
-        <v>5.0987</v>
+        <v>5.1661</v>
       </c>
       <c r="E426" s="5" t="n">
-        <v>5.42</v>
+        <v>5.4837</v>
       </c>
       <c r="F426" s="5" t="n">
-        <v>4.6</v>
+        <v>5.5774</v>
       </c>
       <c r="G426" s="5" t="n">
-        <v>5.675</v>
+        <v>4.8921</v>
       </c>
       <c r="H426" s="5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I426" s="6" t="inlineStr"/>
-      <c r="J426" s="5" t="inlineStr"/>
-      <c r="K426" s="5" t="inlineStr"/>
-      <c r="L426" s="5" t="inlineStr"/>
-      <c r="M426" s="5" t="inlineStr"/>
-      <c r="N426" s="6" t="inlineStr"/>
-      <c r="O426" s="5" t="inlineStr"/>
-      <c r="P426" s="5" t="inlineStr"/>
-      <c r="Q426" s="5" t="inlineStr"/>
-      <c r="R426" s="5" t="inlineStr"/>
-      <c r="S426" s="6" t="n">
-        <v>5.0987</v>
-      </c>
-      <c r="T426" s="5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="U426" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="V426" s="5" t="n">
-        <v>5.675</v>
-      </c>
-      <c r="W426" s="5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X426" s="6" t="inlineStr"/>
-      <c r="Y426" s="5" t="inlineStr"/>
-      <c r="Z426" s="5" t="inlineStr"/>
-      <c r="AA426" s="5" t="inlineStr"/>
-      <c r="AB426" s="5" t="inlineStr"/>
-      <c r="AC426" s="6" t="inlineStr"/>
-      <c r="AD426" s="5" t="inlineStr"/>
-      <c r="AE426" s="5" t="inlineStr"/>
-      <c r="AF426" s="5" t="inlineStr"/>
-      <c r="AG426" s="5" t="inlineStr"/>
-      <c r="AH426" s="7" t="inlineStr"/>
+        <v>4.7113</v>
+      </c>
+      <c r="I426" s="6" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="J426" s="5" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K426" s="5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L426" s="5" t="n">
+        <v>4.2083</v>
+      </c>
+      <c r="M426" s="5" t="n">
+        <v>3.9917</v>
+      </c>
+      <c r="N426" s="6" t="n">
+        <v>4.4286</v>
+      </c>
+      <c r="O426" s="5" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="P426" s="5" t="n">
+        <v>4.2667</v>
+      </c>
+      <c r="Q426" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R426" s="5" t="n">
+        <v>4.1176</v>
+      </c>
+      <c r="S426" s="6" t="inlineStr"/>
+      <c r="T426" s="5" t="inlineStr"/>
+      <c r="U426" s="5" t="inlineStr"/>
+      <c r="V426" s="5" t="inlineStr"/>
+      <c r="W426" s="5" t="inlineStr"/>
+      <c r="X426" s="6" t="n">
+        <v>5.7199</v>
+      </c>
+      <c r="Y426" s="5" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="Z426" s="5" t="n">
+        <v>6.7167</v>
+      </c>
+      <c r="AA426" s="5" t="n">
+        <v>5.6579</v>
+      </c>
+      <c r="AB426" s="5" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="AC426" s="6" t="n">
+        <v>5.8947</v>
+      </c>
+      <c r="AD426" s="5" t="n">
+        <v>6.5657</v>
+      </c>
+      <c r="AE426" s="5" t="n">
+        <v>6.0339</v>
+      </c>
+      <c r="AF426" s="5" t="n">
+        <v>5.5676</v>
+      </c>
+      <c r="AG426" s="5" t="n">
+        <v>5.4118</v>
+      </c>
+      <c r="AH426" s="7" t="n">
+        <v>0.2058</v>
+      </c>
       <c r="AI426" s="7" t="n">
-        <v>0.8757</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="4" t="inlineStr">
         <is>
-          <t>013-qwen3-8b-v2-dpo</t>
+          <t>037-rakuten-2.0-mini-instruct-1.5b-v2new-dpo405b</t>
         </is>
       </c>
       <c r="B427" s="5" t="n">
@@ -38017,19 +38017,19 @@
       </c>
       <c r="C427" s="6" t="inlineStr"/>
       <c r="D427" s="6" t="n">
-        <v>5.0971</v>
+        <v>5.0987</v>
       </c>
       <c r="E427" s="5" t="n">
-        <v>7.3673</v>
+        <v>5.42</v>
       </c>
       <c r="F427" s="5" t="n">
-        <v>5.0877</v>
+        <v>4.6</v>
       </c>
       <c r="G427" s="5" t="n">
-        <v>4.1667</v>
+        <v>5.675</v>
       </c>
       <c r="H427" s="5" t="n">
-        <v>3.7667</v>
+        <v>4.7</v>
       </c>
       <c r="I427" s="6" t="inlineStr"/>
       <c r="J427" s="5" t="inlineStr"/>
@@ -38042,19 +38042,19 @@
       <c r="Q427" s="5" t="inlineStr"/>
       <c r="R427" s="5" t="inlineStr"/>
       <c r="S427" s="6" t="n">
-        <v>5.0971</v>
+        <v>5.0987</v>
       </c>
       <c r="T427" s="5" t="n">
-        <v>7.3673</v>
+        <v>5.42</v>
       </c>
       <c r="U427" s="5" t="n">
-        <v>5.0877</v>
+        <v>4.6</v>
       </c>
       <c r="V427" s="5" t="n">
-        <v>4.1667</v>
+        <v>5.675</v>
       </c>
       <c r="W427" s="5" t="n">
-        <v>3.7667</v>
+        <v>4.7</v>
       </c>
       <c r="X427" s="6" t="inlineStr"/>
       <c r="Y427" s="5" t="inlineStr"/>
@@ -38068,614 +38068,614 @@
       <c r="AG427" s="5" t="inlineStr"/>
       <c r="AH427" s="7" t="inlineStr"/>
       <c r="AI427" s="7" t="n">
-        <v>0.3953</v>
+        <v>0.8757</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Llama-2-13b-chat-hf</t>
+          <t>013-qwen3-8b-v2-dpo</t>
         </is>
       </c>
       <c r="B428" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C428" s="6" t="n">
-        <v>5.1613</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C428" s="6" t="inlineStr"/>
       <c r="D428" s="6" t="n">
-        <v>5.05</v>
+        <v>5.0971</v>
       </c>
       <c r="E428" s="5" t="n">
-        <v>5.545</v>
+        <v>7.3673</v>
       </c>
       <c r="F428" s="5" t="n">
-        <v>6.1487</v>
+        <v>5.0877</v>
       </c>
       <c r="G428" s="5" t="n">
-        <v>3.3333</v>
+        <v>4.1667</v>
       </c>
       <c r="H428" s="5" t="n">
-        <v>5.1729</v>
-      </c>
-      <c r="I428" s="6" t="n">
-        <v>4.442</v>
-      </c>
-      <c r="J428" s="5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K428" s="5" t="n">
-        <v>5.3205</v>
-      </c>
-      <c r="L428" s="5" t="n">
-        <v>3.0476</v>
-      </c>
-      <c r="M428" s="5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N428" s="6" t="n">
-        <v>4.5756</v>
-      </c>
-      <c r="O428" s="5" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P428" s="5" t="n">
-        <v>5.7125</v>
-      </c>
-      <c r="Q428" s="5" t="n">
-        <v>2.275</v>
-      </c>
-      <c r="R428" s="5" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="S428" s="6" t="inlineStr"/>
-      <c r="T428" s="5" t="inlineStr"/>
-      <c r="U428" s="5" t="inlineStr"/>
-      <c r="V428" s="5" t="inlineStr"/>
-      <c r="W428" s="5" t="inlineStr"/>
-      <c r="X428" s="6" t="n">
-        <v>5.1012</v>
-      </c>
-      <c r="Y428" s="5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z428" s="5" t="n">
-        <v>6.5625</v>
-      </c>
-      <c r="AA428" s="5" t="n">
-        <v>2.8421</v>
-      </c>
-      <c r="AB428" s="5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC428" s="6" t="n">
-        <v>6.052</v>
-      </c>
-      <c r="AD428" s="5" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AE428" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF428" s="5" t="n">
-        <v>5.0513</v>
-      </c>
-      <c r="AG428" s="5" t="n">
-        <v>5.9167</v>
-      </c>
-      <c r="AH428" s="7" t="n">
-        <v>0.128</v>
-      </c>
+        <v>3.7667</v>
+      </c>
+      <c r="I428" s="6" t="inlineStr"/>
+      <c r="J428" s="5" t="inlineStr"/>
+      <c r="K428" s="5" t="inlineStr"/>
+      <c r="L428" s="5" t="inlineStr"/>
+      <c r="M428" s="5" t="inlineStr"/>
+      <c r="N428" s="6" t="inlineStr"/>
+      <c r="O428" s="5" t="inlineStr"/>
+      <c r="P428" s="5" t="inlineStr"/>
+      <c r="Q428" s="5" t="inlineStr"/>
+      <c r="R428" s="5" t="inlineStr"/>
+      <c r="S428" s="6" t="n">
+        <v>5.0971</v>
+      </c>
+      <c r="T428" s="5" t="n">
+        <v>7.3673</v>
+      </c>
+      <c r="U428" s="5" t="n">
+        <v>5.0877</v>
+      </c>
+      <c r="V428" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="W428" s="5" t="n">
+        <v>3.7667</v>
+      </c>
+      <c r="X428" s="6" t="inlineStr"/>
+      <c r="Y428" s="5" t="inlineStr"/>
+      <c r="Z428" s="5" t="inlineStr"/>
+      <c r="AA428" s="5" t="inlineStr"/>
+      <c r="AB428" s="5" t="inlineStr"/>
+      <c r="AC428" s="6" t="inlineStr"/>
+      <c r="AD428" s="5" t="inlineStr"/>
+      <c r="AE428" s="5" t="inlineStr"/>
+      <c r="AF428" s="5" t="inlineStr"/>
+      <c r="AG428" s="5" t="inlineStr"/>
+      <c r="AH428" s="7" t="inlineStr"/>
       <c r="AI428" s="7" t="n">
-        <v>0.1627</v>
+        <v>0.3953</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="4" t="inlineStr">
         <is>
-          <t>035-rakuten-2.0-mini-1.5b-v2new-dpo405b</t>
+          <t>meta-llama/Llama-2-13b-chat-hf</t>
         </is>
       </c>
       <c r="B429" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C429" s="6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C429" s="6" t="n">
+        <v>5.1613</v>
+      </c>
       <c r="D429" s="6" t="n">
-        <v>5.0388</v>
+        <v>5.05</v>
       </c>
       <c r="E429" s="5" t="n">
-        <v>4.88</v>
+        <v>5.545</v>
       </c>
       <c r="F429" s="5" t="n">
-        <v>4.6167</v>
+        <v>6.1487</v>
       </c>
       <c r="G429" s="5" t="n">
-        <v>5.375</v>
+        <v>3.3333</v>
       </c>
       <c r="H429" s="5" t="n">
-        <v>5.2833</v>
-      </c>
-      <c r="I429" s="6" t="inlineStr"/>
-      <c r="J429" s="5" t="inlineStr"/>
-      <c r="K429" s="5" t="inlineStr"/>
-      <c r="L429" s="5" t="inlineStr"/>
-      <c r="M429" s="5" t="inlineStr"/>
-      <c r="N429" s="6" t="inlineStr"/>
-      <c r="O429" s="5" t="inlineStr"/>
-      <c r="P429" s="5" t="inlineStr"/>
-      <c r="Q429" s="5" t="inlineStr"/>
-      <c r="R429" s="5" t="inlineStr"/>
-      <c r="S429" s="6" t="n">
-        <v>5.0388</v>
-      </c>
-      <c r="T429" s="5" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="U429" s="5" t="n">
-        <v>4.6167</v>
-      </c>
-      <c r="V429" s="5" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="W429" s="5" t="n">
-        <v>5.2833</v>
-      </c>
-      <c r="X429" s="6" t="inlineStr"/>
-      <c r="Y429" s="5" t="inlineStr"/>
-      <c r="Z429" s="5" t="inlineStr"/>
-      <c r="AA429" s="5" t="inlineStr"/>
-      <c r="AB429" s="5" t="inlineStr"/>
-      <c r="AC429" s="6" t="inlineStr"/>
-      <c r="AD429" s="5" t="inlineStr"/>
-      <c r="AE429" s="5" t="inlineStr"/>
-      <c r="AF429" s="5" t="inlineStr"/>
-      <c r="AG429" s="5" t="inlineStr"/>
-      <c r="AH429" s="7" t="inlineStr"/>
+        <v>5.1729</v>
+      </c>
+      <c r="I429" s="6" t="n">
+        <v>4.442</v>
+      </c>
+      <c r="J429" s="5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K429" s="5" t="n">
+        <v>5.3205</v>
+      </c>
+      <c r="L429" s="5" t="n">
+        <v>3.0476</v>
+      </c>
+      <c r="M429" s="5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N429" s="6" t="n">
+        <v>4.5756</v>
+      </c>
+      <c r="O429" s="5" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P429" s="5" t="n">
+        <v>5.7125</v>
+      </c>
+      <c r="Q429" s="5" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="R429" s="5" t="n">
+        <v>4.675</v>
+      </c>
+      <c r="S429" s="6" t="inlineStr"/>
+      <c r="T429" s="5" t="inlineStr"/>
+      <c r="U429" s="5" t="inlineStr"/>
+      <c r="V429" s="5" t="inlineStr"/>
+      <c r="W429" s="5" t="inlineStr"/>
+      <c r="X429" s="6" t="n">
+        <v>5.1012</v>
+      </c>
+      <c r="Y429" s="5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z429" s="5" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="AA429" s="5" t="n">
+        <v>2.8421</v>
+      </c>
+      <c r="AB429" s="5" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC429" s="6" t="n">
+        <v>6.052</v>
+      </c>
+      <c r="AD429" s="5" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="AE429" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF429" s="5" t="n">
+        <v>5.0513</v>
+      </c>
+      <c r="AG429" s="5" t="n">
+        <v>5.9167</v>
+      </c>
+      <c r="AH429" s="7" t="n">
+        <v>0.128</v>
+      </c>
       <c r="AI429" s="7" t="n">
-        <v>0.8771</v>
+        <v>0.1627</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="4" t="inlineStr">
         <is>
-          <t>HuggingFaceH4/zephyr-7b-beta</t>
+          <t>035-rakuten-2.0-mini-1.5b-v2new-dpo405b</t>
         </is>
       </c>
       <c r="B430" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C430" s="6" t="n">
-        <v>4.9535</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C430" s="6" t="inlineStr"/>
       <c r="D430" s="6" t="n">
-        <v>4.9783</v>
+        <v>5.0388</v>
       </c>
       <c r="E430" s="5" t="n">
-        <v>5.0867</v>
+        <v>4.88</v>
       </c>
       <c r="F430" s="5" t="n">
-        <v>5.6949</v>
+        <v>4.6167</v>
       </c>
       <c r="G430" s="5" t="n">
-        <v>4.2371</v>
+        <v>5.375</v>
       </c>
       <c r="H430" s="5" t="n">
-        <v>4.8944</v>
-      </c>
-      <c r="I430" s="6" t="n">
-        <v>4.0854</v>
-      </c>
-      <c r="J430" s="5" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="K430" s="5" t="n">
-        <v>4.8983</v>
-      </c>
-      <c r="L430" s="5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M430" s="5" t="n">
-        <v>3.7833</v>
-      </c>
+        <v>5.2833</v>
+      </c>
+      <c r="I430" s="6" t="inlineStr"/>
+      <c r="J430" s="5" t="inlineStr"/>
+      <c r="K430" s="5" t="inlineStr"/>
+      <c r="L430" s="5" t="inlineStr"/>
+      <c r="M430" s="5" t="inlineStr"/>
       <c r="N430" s="6" t="inlineStr"/>
       <c r="O430" s="5" t="inlineStr"/>
       <c r="P430" s="5" t="inlineStr"/>
       <c r="Q430" s="5" t="inlineStr"/>
       <c r="R430" s="5" t="inlineStr"/>
-      <c r="S430" s="6" t="inlineStr"/>
-      <c r="T430" s="5" t="inlineStr"/>
-      <c r="U430" s="5" t="inlineStr"/>
-      <c r="V430" s="5" t="inlineStr"/>
-      <c r="W430" s="5" t="inlineStr"/>
-      <c r="X430" s="6" t="n">
-        <v>5.3704</v>
-      </c>
-      <c r="Y430" s="5" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="Z430" s="5" t="n">
-        <v>6.322</v>
-      </c>
-      <c r="AA430" s="5" t="n">
-        <v>4.6579</v>
-      </c>
-      <c r="AB430" s="5" t="n">
-        <v>5.5417</v>
-      </c>
-      <c r="AC430" s="6" t="n">
-        <v>5.3798</v>
-      </c>
-      <c r="AD430" s="5" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AE430" s="5" t="n">
-        <v>5.8644</v>
-      </c>
-      <c r="AF430" s="5" t="n">
-        <v>4.2564</v>
-      </c>
-      <c r="AG430" s="5" t="n">
-        <v>5.3583</v>
-      </c>
+      <c r="S430" s="6" t="n">
+        <v>5.0388</v>
+      </c>
+      <c r="T430" s="5" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U430" s="5" t="n">
+        <v>4.6167</v>
+      </c>
+      <c r="V430" s="5" t="n">
+        <v>5.375</v>
+      </c>
+      <c r="W430" s="5" t="n">
+        <v>5.2833</v>
+      </c>
+      <c r="X430" s="6" t="inlineStr"/>
+      <c r="Y430" s="5" t="inlineStr"/>
+      <c r="Z430" s="5" t="inlineStr"/>
+      <c r="AA430" s="5" t="inlineStr"/>
+      <c r="AB430" s="5" t="inlineStr"/>
+      <c r="AC430" s="6" t="inlineStr"/>
+      <c r="AD430" s="5" t="inlineStr"/>
+      <c r="AE430" s="5" t="inlineStr"/>
+      <c r="AF430" s="5" t="inlineStr"/>
+      <c r="AG430" s="5" t="inlineStr"/>
       <c r="AH430" s="7" t="inlineStr"/>
       <c r="AI430" s="7" t="n">
+        <v>0.8771</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="inlineStr">
+        <is>
+          <t>HuggingFaceH4/zephyr-7b-beta</t>
+        </is>
+      </c>
+      <c r="B431" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C431" s="6" t="n">
+        <v>4.9535</v>
+      </c>
+      <c r="D431" s="6" t="n">
+        <v>4.9783</v>
+      </c>
+      <c r="E431" s="5" t="n">
+        <v>5.0867</v>
+      </c>
+      <c r="F431" s="5" t="n">
+        <v>5.6949</v>
+      </c>
+      <c r="G431" s="5" t="n">
+        <v>4.2371</v>
+      </c>
+      <c r="H431" s="5" t="n">
+        <v>4.8944</v>
+      </c>
+      <c r="I431" s="6" t="n">
+        <v>4.0854</v>
+      </c>
+      <c r="J431" s="5" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="K431" s="5" t="n">
+        <v>4.8983</v>
+      </c>
+      <c r="L431" s="5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M431" s="5" t="n">
+        <v>3.7833</v>
+      </c>
+      <c r="N431" s="6" t="inlineStr"/>
+      <c r="O431" s="5" t="inlineStr"/>
+      <c r="P431" s="5" t="inlineStr"/>
+      <c r="Q431" s="5" t="inlineStr"/>
+      <c r="R431" s="5" t="inlineStr"/>
+      <c r="S431" s="6" t="inlineStr"/>
+      <c r="T431" s="5" t="inlineStr"/>
+      <c r="U431" s="5" t="inlineStr"/>
+      <c r="V431" s="5" t="inlineStr"/>
+      <c r="W431" s="5" t="inlineStr"/>
+      <c r="X431" s="6" t="n">
+        <v>5.3704</v>
+      </c>
+      <c r="Y431" s="5" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="Z431" s="5" t="n">
+        <v>6.322</v>
+      </c>
+      <c r="AA431" s="5" t="n">
+        <v>4.6579</v>
+      </c>
+      <c r="AB431" s="5" t="n">
+        <v>5.5417</v>
+      </c>
+      <c r="AC431" s="6" t="n">
+        <v>5.3798</v>
+      </c>
+      <c r="AD431" s="5" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AE431" s="5" t="n">
+        <v>5.8644</v>
+      </c>
+      <c r="AF431" s="5" t="n">
+        <v>4.2564</v>
+      </c>
+      <c r="AG431" s="5" t="n">
+        <v>5.3583</v>
+      </c>
+      <c r="AH431" s="7" t="inlineStr"/>
+      <c r="AI431" s="7" t="n">
         <v>0.6828</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="8" t="inlineStr">
+    <row r="432">
+      <c r="A432" s="8" t="inlineStr">
         <is>
           <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter1-2x</t>
         </is>
       </c>
-      <c r="B431" s="9" t="n">
+      <c r="B432" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C431" s="10" t="n">
+      <c r="C432" s="10" t="n">
         <v>4.8126</v>
       </c>
-      <c r="D431" s="10" t="n">
+      <c r="D432" s="10" t="n">
         <v>4.8369</v>
       </c>
-      <c r="E431" s="9" t="n">
+      <c r="E432" s="9" t="n">
         <v>5.3533</v>
       </c>
-      <c r="F431" s="9" t="n">
+      <c r="F432" s="9" t="n">
         <v>4.7944</v>
       </c>
-      <c r="G431" s="9" t="n">
+      <c r="G432" s="9" t="n">
         <v>3.3913</v>
       </c>
-      <c r="H431" s="9" t="n">
+      <c r="H432" s="9" t="n">
         <v>5.8083</v>
       </c>
-      <c r="I431" s="10" t="n">
+      <c r="I432" s="10" t="n">
         <v>3.7326</v>
       </c>
-      <c r="J431" s="9" t="n">
+      <c r="J432" s="9" t="n">
         <v>4.4</v>
       </c>
-      <c r="K431" s="9" t="n">
+      <c r="K432" s="9" t="n">
         <v>4.2</v>
       </c>
-      <c r="L431" s="9" t="n">
+      <c r="L432" s="9" t="n">
         <v>1.8889</v>
       </c>
-      <c r="M431" s="9" t="n">
+      <c r="M432" s="9" t="n">
         <v>4.4417</v>
       </c>
-      <c r="N431" s="10" t="inlineStr"/>
-      <c r="O431" s="9" t="inlineStr"/>
-      <c r="P431" s="9" t="inlineStr"/>
-      <c r="Q431" s="9" t="inlineStr"/>
-      <c r="R431" s="9" t="inlineStr"/>
-      <c r="S431" s="10" t="inlineStr"/>
-      <c r="T431" s="9" t="inlineStr"/>
-      <c r="U431" s="9" t="inlineStr"/>
-      <c r="V431" s="9" t="inlineStr"/>
-      <c r="W431" s="9" t="inlineStr"/>
-      <c r="X431" s="10" t="n">
+      <c r="N432" s="10" t="inlineStr"/>
+      <c r="O432" s="9" t="inlineStr"/>
+      <c r="P432" s="9" t="inlineStr"/>
+      <c r="Q432" s="9" t="inlineStr"/>
+      <c r="R432" s="9" t="inlineStr"/>
+      <c r="S432" s="10" t="inlineStr"/>
+      <c r="T432" s="9" t="inlineStr"/>
+      <c r="U432" s="9" t="inlineStr"/>
+      <c r="V432" s="9" t="inlineStr"/>
+      <c r="W432" s="9" t="inlineStr"/>
+      <c r="X432" s="10" t="n">
         <v>5.6451</v>
       </c>
-      <c r="Y431" s="9" t="n">
+      <c r="Y432" s="9" t="n">
         <v>6.04</v>
       </c>
-      <c r="Z431" s="9" t="n">
+      <c r="Z432" s="9" t="n">
         <v>5.5833</v>
       </c>
-      <c r="AA431" s="9" t="n">
+      <c r="AA432" s="9" t="n">
         <v>4.2821</v>
       </c>
-      <c r="AB431" s="9" t="n">
+      <c r="AB432" s="9" t="n">
         <v>6.675</v>
       </c>
-      <c r="AC431" s="10" t="n">
+      <c r="AC432" s="10" t="n">
         <v>5.0359</v>
       </c>
-      <c r="AD431" s="9" t="n">
+      <c r="AD432" s="9" t="n">
         <v>5.62</v>
       </c>
-      <c r="AE431" s="9" t="n">
+      <c r="AE432" s="9" t="n">
         <v>4.6</v>
       </c>
-      <c r="AF431" s="9" t="n">
+      <c r="AF432" s="9" t="n">
         <v>3.6154</v>
       </c>
-      <c r="AG431" s="9" t="n">
+      <c r="AG432" s="9" t="n">
         <v>6.3083</v>
       </c>
-      <c r="AH431" s="11" t="inlineStr"/>
-      <c r="AI431" s="11" t="n">
+      <c r="AH432" s="11" t="inlineStr"/>
+      <c r="AI432" s="11" t="n">
         <v>0.7009</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="4" t="inlineStr">
+    <row r="433">
+      <c r="A433" s="4" t="inlineStr">
         <is>
           <t>allenai/OLMo-2-1124-7B-Instruct</t>
         </is>
       </c>
-      <c r="B432" s="5" t="n">
+      <c r="B433" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C432" s="6" t="n">
+      <c r="C433" s="6" t="n">
         <v>5.0893</v>
       </c>
-      <c r="D432" s="6" t="n">
+      <c r="D433" s="6" t="n">
         <v>4.8083</v>
       </c>
-      <c r="E432" s="5" t="n">
+      <c r="E433" s="5" t="n">
         <v>4.9023</v>
       </c>
-      <c r="F432" s="5" t="n">
+      <c r="F433" s="5" t="n">
         <v>5.3333</v>
       </c>
-      <c r="G432" s="5" t="n">
+      <c r="G433" s="5" t="n">
         <v>3.9851</v>
       </c>
-      <c r="H432" s="5" t="n">
+      <c r="H433" s="5" t="n">
         <v>5.0125</v>
       </c>
-      <c r="I432" s="6" t="n">
+      <c r="I433" s="6" t="n">
         <v>4.2815</v>
       </c>
-      <c r="J432" s="5" t="n">
+      <c r="J433" s="5" t="n">
         <v>4.46</v>
       </c>
-      <c r="K432" s="5" t="n">
+      <c r="K433" s="5" t="n">
         <v>5.1017</v>
       </c>
-      <c r="L432" s="5" t="n">
+      <c r="L433" s="5" t="n">
         <v>3.3478</v>
       </c>
-      <c r="M432" s="5" t="n">
+      <c r="M433" s="5" t="n">
         <v>4.2167</v>
       </c>
-      <c r="N432" s="6" t="n">
+      <c r="N433" s="6" t="n">
         <v>3.6277</v>
       </c>
-      <c r="O432" s="5" t="n">
+      <c r="O433" s="5" t="n">
         <v>4.48</v>
       </c>
-      <c r="P432" s="5" t="n">
+      <c r="P433" s="5" t="n">
         <v>3.8103</v>
       </c>
-      <c r="Q432" s="5" t="n">
+      <c r="Q433" s="5" t="n">
         <v>2.4872</v>
       </c>
-      <c r="R432" s="5" t="n">
+      <c r="R433" s="5" t="n">
         <v>3.7333</v>
       </c>
-      <c r="S432" s="6" t="inlineStr"/>
-      <c r="T432" s="5" t="inlineStr"/>
-      <c r="U432" s="5" t="inlineStr"/>
-      <c r="V432" s="5" t="inlineStr"/>
-      <c r="W432" s="5" t="inlineStr"/>
-      <c r="X432" s="6" t="n">
+      <c r="S433" s="6" t="inlineStr"/>
+      <c r="T433" s="5" t="inlineStr"/>
+      <c r="U433" s="5" t="inlineStr"/>
+      <c r="V433" s="5" t="inlineStr"/>
+      <c r="W433" s="5" t="inlineStr"/>
+      <c r="X433" s="6" t="n">
         <v>5.8435</v>
       </c>
-      <c r="Y432" s="5" t="n">
+      <c r="Y433" s="5" t="n">
         <v>4.7879</v>
       </c>
-      <c r="Z432" s="5" t="n">
+      <c r="Z433" s="5" t="n">
         <v>6.7</v>
       </c>
-      <c r="AA432" s="5" t="n">
+      <c r="AA433" s="5" t="n">
         <v>5.5526</v>
       </c>
-      <c r="AB432" s="5" t="n">
+      <c r="AB433" s="5" t="n">
         <v>6.3333</v>
       </c>
-      <c r="AC432" s="6" t="n">
+      <c r="AC433" s="6" t="n">
         <v>5.4239</v>
       </c>
-      <c r="AD432" s="5" t="n">
+      <c r="AD433" s="5" t="n">
         <v>5.88</v>
       </c>
-      <c r="AE432" s="5" t="n">
+      <c r="AE433" s="5" t="n">
         <v>5.6667</v>
       </c>
-      <c r="AF432" s="5" t="n">
+      <c r="AF433" s="5" t="n">
         <v>4.3824</v>
       </c>
-      <c r="AG432" s="5" t="n">
+      <c r="AG433" s="5" t="n">
         <v>5.7667</v>
       </c>
-      <c r="AH432" s="7" t="n">
+      <c r="AH433" s="7" t="n">
         <v>0.4029</v>
       </c>
-      <c r="AI432" s="7" t="n">
+      <c r="AI433" s="7" t="n">
         <v>0.8547</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="8" t="inlineStr">
+    <row r="434">
+      <c r="A434" s="8" t="inlineStr">
         <is>
           <t>shisa-ai/shisa-v1-llama3-8b.lr-2e4</t>
         </is>
       </c>
-      <c r="B433" s="9" t="n">
+      <c r="B434" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C433" s="10" t="n">
+      <c r="C434" s="10" t="n">
         <v>4.8435</v>
       </c>
-      <c r="D433" s="10" t="n">
+      <c r="D434" s="10" t="n">
         <v>4.7051</v>
       </c>
-      <c r="E433" s="9" t="n">
+      <c r="E434" s="9" t="n">
         <v>4.59</v>
       </c>
-      <c r="F433" s="9" t="n">
+      <c r="F434" s="9" t="n">
         <v>5.6318</v>
       </c>
-      <c r="G433" s="9" t="n">
+      <c r="G434" s="9" t="n">
         <v>4.6194</v>
       </c>
-      <c r="H433" s="9" t="n">
+      <c r="H434" s="9" t="n">
         <v>3.9792</v>
       </c>
-      <c r="I433" s="10" t="n">
+      <c r="I434" s="10" t="n">
         <v>3.926</v>
       </c>
-      <c r="J433" s="9" t="n">
+      <c r="J434" s="9" t="n">
         <v>4.04</v>
       </c>
-      <c r="K433" s="9" t="n">
+      <c r="K434" s="9" t="n">
         <v>5.3667</v>
       </c>
-      <c r="L433" s="9" t="n">
+      <c r="L434" s="9" t="n">
         <v>3.0556</v>
       </c>
-      <c r="M433" s="9" t="n">
+      <c r="M434" s="9" t="n">
         <v>3.2417</v>
       </c>
-      <c r="N433" s="10" t="n">
+      <c r="N434" s="10" t="n">
         <v>3.9238</v>
       </c>
-      <c r="O433" s="9" t="n">
+      <c r="O434" s="9" t="n">
         <v>4.7</v>
       </c>
-      <c r="P433" s="9" t="n">
+      <c r="P434" s="9" t="n">
         <v>4.4833</v>
       </c>
-      <c r="Q433" s="9" t="n">
+      <c r="Q434" s="9" t="n">
         <v>3.3784</v>
       </c>
-      <c r="R433" s="9" t="n">
+      <c r="R434" s="9" t="n">
         <v>3.1333</v>
       </c>
-      <c r="S433" s="10" t="inlineStr"/>
-      <c r="T433" s="9" t="inlineStr"/>
-      <c r="U433" s="9" t="inlineStr"/>
-      <c r="V433" s="9" t="inlineStr"/>
-      <c r="W433" s="9" t="inlineStr"/>
-      <c r="X433" s="10" t="n">
+      <c r="S434" s="10" t="inlineStr"/>
+      <c r="T434" s="9" t="inlineStr"/>
+      <c r="U434" s="9" t="inlineStr"/>
+      <c r="V434" s="9" t="inlineStr"/>
+      <c r="W434" s="9" t="inlineStr"/>
+      <c r="X434" s="10" t="n">
         <v>5.365</v>
       </c>
-      <c r="Y433" s="9" t="n">
+      <c r="Y434" s="9" t="n">
         <v>4.38</v>
       </c>
-      <c r="Z433" s="9" t="n">
+      <c r="Z434" s="9" t="n">
         <v>6.35</v>
       </c>
-      <c r="AA433" s="9" t="n">
+      <c r="AA434" s="9" t="n">
         <v>5.8718</v>
       </c>
-      <c r="AB433" s="9" t="n">
+      <c r="AB434" s="9" t="n">
         <v>4.8583</v>
       </c>
-      <c r="AC433" s="10" t="n">
+      <c r="AC434" s="10" t="n">
         <v>5.3781</v>
       </c>
-      <c r="AD433" s="9" t="n">
+      <c r="AD434" s="9" t="n">
         <v>5.24</v>
       </c>
-      <c r="AE433" s="9" t="n">
+      <c r="AE434" s="9" t="n">
         <v>6.339</v>
       </c>
-      <c r="AF433" s="9" t="n">
+      <c r="AF434" s="9" t="n">
         <v>5.25</v>
       </c>
-      <c r="AG433" s="9" t="n">
+      <c r="AG434" s="9" t="n">
         <v>4.6833</v>
       </c>
-      <c r="AH433" s="11" t="n">
+      <c r="AH434" s="11" t="n">
         <v>0.2344</v>
       </c>
-      <c r="AI433" s="11" t="n">
+      <c r="AI434" s="11" t="n">
         <v>0.8512999999999999</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="4" t="inlineStr">
-        <is>
-          <t>017-qwen3-8b-v2-dpo405b-clr</t>
-        </is>
-      </c>
-      <c r="B434" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C434" s="6" t="inlineStr"/>
-      <c r="D434" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="E434" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F434" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="G434" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="H434" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I434" s="6" t="inlineStr"/>
-      <c r="J434" s="5" t="inlineStr"/>
-      <c r="K434" s="5" t="inlineStr"/>
-      <c r="L434" s="5" t="inlineStr"/>
-      <c r="M434" s="5" t="inlineStr"/>
-      <c r="N434" s="6" t="inlineStr"/>
-      <c r="O434" s="5" t="inlineStr"/>
-      <c r="P434" s="5" t="inlineStr"/>
-      <c r="Q434" s="5" t="inlineStr"/>
-      <c r="R434" s="5" t="inlineStr"/>
-      <c r="S434" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="T434" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="U434" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="V434" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="W434" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X434" s="6" t="inlineStr"/>
-      <c r="Y434" s="5" t="inlineStr"/>
-      <c r="Z434" s="5" t="inlineStr"/>
-      <c r="AA434" s="5" t="inlineStr"/>
-      <c r="AB434" s="5" t="inlineStr"/>
-      <c r="AC434" s="6" t="inlineStr"/>
-      <c r="AD434" s="5" t="inlineStr"/>
-      <c r="AE434" s="5" t="inlineStr"/>
-      <c r="AF434" s="5" t="inlineStr"/>
-      <c r="AG434" s="5" t="inlineStr"/>
-      <c r="AH434" s="7" t="inlineStr"/>
-      <c r="AI434" s="7" t="n">
-        <v>0.4232</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="4" t="inlineStr">
         <is>
-          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
+          <t>017-qwen3-8b-v2-dpo405b-clr</t>
         </is>
       </c>
       <c r="B435" s="5" t="n">
@@ -38683,19 +38683,19 @@
       </c>
       <c r="C435" s="6" t="inlineStr"/>
       <c r="D435" s="6" t="n">
-        <v>4.6475</v>
+        <v>4.6651</v>
       </c>
       <c r="E435" s="5" t="n">
-        <v>4.64</v>
+        <v>6.72</v>
       </c>
       <c r="F435" s="5" t="n">
-        <v>4.0667</v>
+        <v>4.3929</v>
       </c>
       <c r="G435" s="5" t="n">
-        <v>5.1</v>
+        <v>3.4474</v>
       </c>
       <c r="H435" s="5" t="n">
-        <v>4.7833</v>
+        <v>4.1</v>
       </c>
       <c r="I435" s="6" t="inlineStr"/>
       <c r="J435" s="5" t="inlineStr"/>
@@ -38708,19 +38708,19 @@
       <c r="Q435" s="5" t="inlineStr"/>
       <c r="R435" s="5" t="inlineStr"/>
       <c r="S435" s="6" t="n">
-        <v>4.6475</v>
+        <v>4.6651</v>
       </c>
       <c r="T435" s="5" t="n">
-        <v>4.64</v>
+        <v>6.72</v>
       </c>
       <c r="U435" s="5" t="n">
-        <v>4.0667</v>
+        <v>4.3929</v>
       </c>
       <c r="V435" s="5" t="n">
-        <v>5.1</v>
+        <v>3.4474</v>
       </c>
       <c r="W435" s="5" t="n">
-        <v>4.7833</v>
+        <v>4.1</v>
       </c>
       <c r="X435" s="6" t="inlineStr"/>
       <c r="Y435" s="5" t="inlineStr"/>
@@ -38734,177 +38734,177 @@
       <c r="AG435" s="5" t="inlineStr"/>
       <c r="AH435" s="7" t="inlineStr"/>
       <c r="AI435" s="7" t="n">
-        <v>0.8884</v>
+        <v>0.4232</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="4" t="inlineStr">
         <is>
-          <t>meta-llama/Llama-2-7b-chat-hf</t>
+          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B436" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C436" s="6" t="n">
-        <v>4.7832</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C436" s="6" t="inlineStr"/>
       <c r="D436" s="6" t="n">
-        <v>4.6448</v>
+        <v>4.6475</v>
       </c>
       <c r="E436" s="5" t="n">
-        <v>4.7619</v>
+        <v>4.64</v>
       </c>
       <c r="F436" s="5" t="n">
-        <v>5.7981</v>
+        <v>4.0667</v>
       </c>
       <c r="G436" s="5" t="n">
-        <v>3.3401</v>
+        <v>5.1</v>
       </c>
       <c r="H436" s="5" t="n">
-        <v>4.6792</v>
-      </c>
-      <c r="I436" s="6" t="n">
-        <v>3.9594</v>
-      </c>
-      <c r="J436" s="5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K436" s="5" t="n">
-        <v>5.1139</v>
-      </c>
-      <c r="L436" s="5" t="n">
-        <v>2.8571</v>
-      </c>
-      <c r="M436" s="5" t="n">
-        <v>3.6667</v>
-      </c>
-      <c r="N436" s="6" t="n">
-        <v>4.0554</v>
-      </c>
-      <c r="O436" s="5" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="P436" s="5" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Q436" s="5" t="n">
-        <v>2.075</v>
-      </c>
-      <c r="R436" s="5" t="n">
-        <v>3.9167</v>
-      </c>
-      <c r="S436" s="6" t="inlineStr"/>
-      <c r="T436" s="5" t="inlineStr"/>
-      <c r="U436" s="5" t="inlineStr"/>
-      <c r="V436" s="5" t="inlineStr"/>
-      <c r="W436" s="5" t="inlineStr"/>
-      <c r="X436" s="6" t="n">
-        <v>4.7415</v>
-      </c>
-      <c r="Y436" s="5" t="n">
-        <v>4.6465</v>
-      </c>
-      <c r="Z436" s="5" t="n">
-        <v>6.0125</v>
-      </c>
-      <c r="AA436" s="5" t="n">
-        <v>2.9487</v>
-      </c>
-      <c r="AB436" s="5" t="n">
-        <v>5.3583</v>
-      </c>
-      <c r="AC436" s="6" t="n">
-        <v>5.7871</v>
-      </c>
-      <c r="AD436" s="5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AE436" s="5" t="n">
-        <v>6.6282</v>
-      </c>
-      <c r="AF436" s="5" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="AG436" s="5" t="n">
-        <v>5.775</v>
-      </c>
-      <c r="AH436" s="7" t="n">
-        <v>0.1795</v>
-      </c>
+        <v>4.7833</v>
+      </c>
+      <c r="I436" s="6" t="inlineStr"/>
+      <c r="J436" s="5" t="inlineStr"/>
+      <c r="K436" s="5" t="inlineStr"/>
+      <c r="L436" s="5" t="inlineStr"/>
+      <c r="M436" s="5" t="inlineStr"/>
+      <c r="N436" s="6" t="inlineStr"/>
+      <c r="O436" s="5" t="inlineStr"/>
+      <c r="P436" s="5" t="inlineStr"/>
+      <c r="Q436" s="5" t="inlineStr"/>
+      <c r="R436" s="5" t="inlineStr"/>
+      <c r="S436" s="6" t="n">
+        <v>4.6475</v>
+      </c>
+      <c r="T436" s="5" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U436" s="5" t="n">
+        <v>4.0667</v>
+      </c>
+      <c r="V436" s="5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W436" s="5" t="n">
+        <v>4.7833</v>
+      </c>
+      <c r="X436" s="6" t="inlineStr"/>
+      <c r="Y436" s="5" t="inlineStr"/>
+      <c r="Z436" s="5" t="inlineStr"/>
+      <c r="AA436" s="5" t="inlineStr"/>
+      <c r="AB436" s="5" t="inlineStr"/>
+      <c r="AC436" s="6" t="inlineStr"/>
+      <c r="AD436" s="5" t="inlineStr"/>
+      <c r="AE436" s="5" t="inlineStr"/>
+      <c r="AF436" s="5" t="inlineStr"/>
+      <c r="AG436" s="5" t="inlineStr"/>
+      <c r="AH436" s="7" t="inlineStr"/>
       <c r="AI436" s="7" t="n">
-        <v>0.1167</v>
+        <v>0.8884</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="4" t="inlineStr">
         <is>
-          <t>036-rakuten-2.0-mini-instruct-1.5b-v2new-sft</t>
+          <t>meta-llama/Llama-2-7b-chat-hf</t>
         </is>
       </c>
       <c r="B437" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C437" s="6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="C437" s="6" t="n">
+        <v>4.7832</v>
+      </c>
       <c r="D437" s="6" t="n">
-        <v>4.6267</v>
+        <v>4.6448</v>
       </c>
       <c r="E437" s="5" t="n">
-        <v>5.44</v>
+        <v>4.7619</v>
       </c>
       <c r="F437" s="5" t="n">
-        <v>3.7833</v>
+        <v>5.7981</v>
       </c>
       <c r="G437" s="5" t="n">
-        <v>4.7</v>
+        <v>3.3401</v>
       </c>
       <c r="H437" s="5" t="n">
-        <v>4.5833</v>
-      </c>
-      <c r="I437" s="6" t="inlineStr"/>
-      <c r="J437" s="5" t="inlineStr"/>
-      <c r="K437" s="5" t="inlineStr"/>
-      <c r="L437" s="5" t="inlineStr"/>
-      <c r="M437" s="5" t="inlineStr"/>
-      <c r="N437" s="6" t="inlineStr"/>
-      <c r="O437" s="5" t="inlineStr"/>
-      <c r="P437" s="5" t="inlineStr"/>
-      <c r="Q437" s="5" t="inlineStr"/>
-      <c r="R437" s="5" t="inlineStr"/>
-      <c r="S437" s="6" t="n">
-        <v>4.6267</v>
-      </c>
-      <c r="T437" s="5" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="U437" s="5" t="n">
-        <v>3.7833</v>
-      </c>
-      <c r="V437" s="5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W437" s="5" t="n">
-        <v>4.5833</v>
-      </c>
-      <c r="X437" s="6" t="inlineStr"/>
-      <c r="Y437" s="5" t="inlineStr"/>
-      <c r="Z437" s="5" t="inlineStr"/>
-      <c r="AA437" s="5" t="inlineStr"/>
-      <c r="AB437" s="5" t="inlineStr"/>
-      <c r="AC437" s="6" t="inlineStr"/>
-      <c r="AD437" s="5" t="inlineStr"/>
-      <c r="AE437" s="5" t="inlineStr"/>
-      <c r="AF437" s="5" t="inlineStr"/>
-      <c r="AG437" s="5" t="inlineStr"/>
-      <c r="AH437" s="7" t="inlineStr"/>
+        <v>4.6792</v>
+      </c>
+      <c r="I437" s="6" t="n">
+        <v>3.9594</v>
+      </c>
+      <c r="J437" s="5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K437" s="5" t="n">
+        <v>5.1139</v>
+      </c>
+      <c r="L437" s="5" t="n">
+        <v>2.8571</v>
+      </c>
+      <c r="M437" s="5" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="N437" s="6" t="n">
+        <v>4.0554</v>
+      </c>
+      <c r="O437" s="5" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="P437" s="5" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Q437" s="5" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="R437" s="5" t="n">
+        <v>3.9167</v>
+      </c>
+      <c r="S437" s="6" t="inlineStr"/>
+      <c r="T437" s="5" t="inlineStr"/>
+      <c r="U437" s="5" t="inlineStr"/>
+      <c r="V437" s="5" t="inlineStr"/>
+      <c r="W437" s="5" t="inlineStr"/>
+      <c r="X437" s="6" t="n">
+        <v>4.7415</v>
+      </c>
+      <c r="Y437" s="5" t="n">
+        <v>4.6465</v>
+      </c>
+      <c r="Z437" s="5" t="n">
+        <v>6.0125</v>
+      </c>
+      <c r="AA437" s="5" t="n">
+        <v>2.9487</v>
+      </c>
+      <c r="AB437" s="5" t="n">
+        <v>5.3583</v>
+      </c>
+      <c r="AC437" s="6" t="n">
+        <v>5.7871</v>
+      </c>
+      <c r="AD437" s="5" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AE437" s="5" t="n">
+        <v>6.6282</v>
+      </c>
+      <c r="AF437" s="5" t="n">
+        <v>5.325</v>
+      </c>
+      <c r="AG437" s="5" t="n">
+        <v>5.775</v>
+      </c>
+      <c r="AH437" s="7" t="n">
+        <v>0.1795</v>
+      </c>
       <c r="AI437" s="7" t="n">
-        <v>0.8955</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="4" t="inlineStr">
         <is>
-          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
+          <t>036-rakuten-2.0-mini-instruct-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B438" s="5" t="n">
@@ -38912,19 +38912,19 @@
       </c>
       <c r="C438" s="6" t="inlineStr"/>
       <c r="D438" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6267</v>
       </c>
       <c r="E438" s="5" t="n">
-        <v>5</v>
+        <v>5.44</v>
       </c>
       <c r="F438" s="5" t="n">
-        <v>4.1833</v>
+        <v>3.7833</v>
       </c>
       <c r="G438" s="5" t="n">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="H438" s="5" t="n">
-        <v>3.95</v>
+        <v>4.5833</v>
       </c>
       <c r="I438" s="6" t="inlineStr"/>
       <c r="J438" s="5" t="inlineStr"/>
@@ -38937,19 +38937,19 @@
       <c r="Q438" s="5" t="inlineStr"/>
       <c r="R438" s="5" t="inlineStr"/>
       <c r="S438" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6267</v>
       </c>
       <c r="T438" s="5" t="n">
-        <v>5</v>
+        <v>5.44</v>
       </c>
       <c r="U438" s="5" t="n">
-        <v>4.1833</v>
+        <v>3.7833</v>
       </c>
       <c r="V438" s="5" t="n">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="W438" s="5" t="n">
-        <v>3.95</v>
+        <v>4.5833</v>
       </c>
       <c r="X438" s="6" t="inlineStr"/>
       <c r="Y438" s="5" t="inlineStr"/>
@@ -38963,251 +38963,217 @@
       <c r="AG438" s="5" t="inlineStr"/>
       <c r="AH438" s="7" t="inlineStr"/>
       <c r="AI438" s="7" t="n">
+        <v>0.8955</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="inlineStr">
+        <is>
+          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B439" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C439" s="6" t="inlineStr"/>
+      <c r="D439" s="6" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="E439" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F439" s="5" t="n">
+        <v>4.1833</v>
+      </c>
+      <c r="G439" s="5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H439" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I439" s="6" t="inlineStr"/>
+      <c r="J439" s="5" t="inlineStr"/>
+      <c r="K439" s="5" t="inlineStr"/>
+      <c r="L439" s="5" t="inlineStr"/>
+      <c r="M439" s="5" t="inlineStr"/>
+      <c r="N439" s="6" t="inlineStr"/>
+      <c r="O439" s="5" t="inlineStr"/>
+      <c r="P439" s="5" t="inlineStr"/>
+      <c r="Q439" s="5" t="inlineStr"/>
+      <c r="R439" s="5" t="inlineStr"/>
+      <c r="S439" s="6" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="T439" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U439" s="5" t="n">
+        <v>4.1833</v>
+      </c>
+      <c r="V439" s="5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W439" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="X439" s="6" t="inlineStr"/>
+      <c r="Y439" s="5" t="inlineStr"/>
+      <c r="Z439" s="5" t="inlineStr"/>
+      <c r="AA439" s="5" t="inlineStr"/>
+      <c r="AB439" s="5" t="inlineStr"/>
+      <c r="AC439" s="6" t="inlineStr"/>
+      <c r="AD439" s="5" t="inlineStr"/>
+      <c r="AE439" s="5" t="inlineStr"/>
+      <c r="AF439" s="5" t="inlineStr"/>
+      <c r="AG439" s="5" t="inlineStr"/>
+      <c r="AH439" s="7" t="inlineStr"/>
+      <c r="AI439" s="7" t="n">
         <v>0.8954</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="8" t="inlineStr">
+    <row r="440">
+      <c r="A440" s="8" t="inlineStr">
         <is>
           <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter2</t>
         </is>
       </c>
-      <c r="B439" s="9" t="n">
+      <c r="B440" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C439" s="10" t="n">
+      <c r="C440" s="10" t="n">
         <v>4.1202</v>
       </c>
-      <c r="D439" s="10" t="n">
+      <c r="D440" s="10" t="n">
         <v>4.1226</v>
       </c>
-      <c r="E439" s="9" t="n">
+      <c r="E440" s="9" t="n">
         <v>4.9933</v>
       </c>
-      <c r="F439" s="9" t="n">
+      <c r="F440" s="9" t="n">
         <v>3.8547</v>
       </c>
-      <c r="G439" s="9" t="n">
+      <c r="G440" s="9" t="n">
         <v>1.9375</v>
       </c>
-      <c r="H439" s="9" t="n">
+      <c r="H440" s="9" t="n">
         <v>5.7047</v>
       </c>
-      <c r="I439" s="10" t="n">
+      <c r="I440" s="10" t="n">
         <v>3.3428</v>
       </c>
-      <c r="J439" s="9" t="n">
+      <c r="J440" s="9" t="n">
         <v>4.24</v>
       </c>
-      <c r="K439" s="9" t="n">
+      <c r="K440" s="9" t="n">
         <v>3.5333</v>
       </c>
-      <c r="L439" s="9" t="n">
+      <c r="L440" s="9" t="n">
         <v>1.4062</v>
       </c>
-      <c r="M439" s="9" t="n">
+      <c r="M440" s="9" t="n">
         <v>4.1917</v>
       </c>
-      <c r="N439" s="10" t="inlineStr"/>
-      <c r="O439" s="9" t="inlineStr"/>
-      <c r="P439" s="9" t="inlineStr"/>
-      <c r="Q439" s="9" t="inlineStr"/>
-      <c r="R439" s="9" t="inlineStr"/>
-      <c r="S439" s="10" t="inlineStr"/>
-      <c r="T439" s="9" t="inlineStr"/>
-      <c r="U439" s="9" t="inlineStr"/>
-      <c r="V439" s="9" t="inlineStr"/>
-      <c r="W439" s="9" t="inlineStr"/>
-      <c r="X439" s="10" t="n">
+      <c r="N440" s="10" t="inlineStr"/>
+      <c r="O440" s="9" t="inlineStr"/>
+      <c r="P440" s="9" t="inlineStr"/>
+      <c r="Q440" s="9" t="inlineStr"/>
+      <c r="R440" s="9" t="inlineStr"/>
+      <c r="S440" s="10" t="inlineStr"/>
+      <c r="T440" s="9" t="inlineStr"/>
+      <c r="U440" s="9" t="inlineStr"/>
+      <c r="V440" s="9" t="inlineStr"/>
+      <c r="W440" s="9" t="inlineStr"/>
+      <c r="X440" s="10" t="n">
         <v>4.6699</v>
       </c>
-      <c r="Y439" s="9" t="n">
+      <c r="Y440" s="9" t="n">
         <v>5.58</v>
       </c>
-      <c r="Z439" s="9" t="n">
+      <c r="Z440" s="9" t="n">
         <v>4.2712</v>
       </c>
-      <c r="AA439" s="9" t="n">
+      <c r="AA440" s="9" t="n">
         <v>2.3158</v>
       </c>
-      <c r="AB439" s="9" t="n">
+      <c r="AB440" s="9" t="n">
         <v>6.5126</v>
       </c>
-      <c r="AC439" s="10" t="n">
+      <c r="AC440" s="10" t="n">
         <v>4.3454</v>
       </c>
-      <c r="AD439" s="9" t="n">
+      <c r="AD440" s="9" t="n">
         <v>5.16</v>
       </c>
-      <c r="AE439" s="9" t="n">
+      <c r="AE440" s="9" t="n">
         <v>3.7667</v>
       </c>
-      <c r="AF439" s="9" t="n">
+      <c r="AF440" s="9" t="n">
         <v>2.0385</v>
       </c>
-      <c r="AG439" s="9" t="n">
+      <c r="AG440" s="9" t="n">
         <v>6.4167</v>
       </c>
-      <c r="AH439" s="11" t="inlineStr"/>
-      <c r="AI439" s="11" t="n">
+      <c r="AH440" s="11" t="inlineStr"/>
+      <c r="AI440" s="11" t="n">
         <v>0.2343</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="4" t="inlineStr">
-        <is>
-          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
-        </is>
-      </c>
-      <c r="B440" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C440" s="6" t="n">
-        <v>4.1816</v>
-      </c>
-      <c r="D440" s="6" t="n">
-        <v>4.0594</v>
-      </c>
-      <c r="E440" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F440" s="5" t="n">
-        <v>3.1938</v>
-      </c>
-      <c r="G440" s="5" t="n">
-        <v>4.0638</v>
-      </c>
-      <c r="H440" s="5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I440" s="6" t="n">
-        <v>3.7112</v>
-      </c>
-      <c r="J440" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K440" s="5" t="n">
-        <v>2.925</v>
-      </c>
-      <c r="L440" s="5" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="M440" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N440" s="6" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="O440" s="5" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="P440" s="5" t="n">
-        <v>2.6875</v>
-      </c>
-      <c r="Q440" s="5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R440" s="5" t="n">
-        <v>3.5546</v>
-      </c>
-      <c r="S440" s="6" t="inlineStr"/>
-      <c r="T440" s="5" t="inlineStr"/>
-      <c r="U440" s="5" t="inlineStr"/>
-      <c r="V440" s="5" t="inlineStr"/>
-      <c r="W440" s="5" t="inlineStr"/>
-      <c r="X440" s="6" t="n">
-        <v>4.2386</v>
-      </c>
-      <c r="Y440" s="5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Z440" s="5" t="n">
-        <v>3.525</v>
-      </c>
-      <c r="AA440" s="5" t="n">
-        <v>4.7027</v>
-      </c>
-      <c r="AB440" s="5" t="n">
-        <v>4.8667</v>
-      </c>
-      <c r="AC440" s="6" t="n">
-        <v>4.717</v>
-      </c>
-      <c r="AD440" s="5" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="AE440" s="5" t="n">
-        <v>3.6375</v>
-      </c>
-      <c r="AF440" s="5" t="n">
-        <v>4.359</v>
-      </c>
-      <c r="AG440" s="5" t="n">
-        <v>5.2917</v>
-      </c>
-      <c r="AH440" s="7" t="n">
-        <v>0.1654</v>
-      </c>
-      <c r="AI440" s="7" t="n">
-        <v>0.8824</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="4" t="inlineStr">
         <is>
-          <t>Deepreneur/blue-lizard</t>
+          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
         </is>
       </c>
       <c r="B441" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C441" s="6" t="n">
-        <v>4.214</v>
+        <v>4.1816</v>
       </c>
       <c r="D441" s="6" t="n">
-        <v>4.0436</v>
+        <v>4.0594</v>
       </c>
       <c r="E441" s="5" t="n">
-        <v>4.23</v>
+        <v>4.6</v>
       </c>
       <c r="F441" s="5" t="n">
-        <v>4.2301</v>
+        <v>3.1938</v>
       </c>
       <c r="G441" s="5" t="n">
-        <v>4.014</v>
+        <v>4.0638</v>
       </c>
       <c r="H441" s="5" t="n">
-        <v>3.7002</v>
+        <v>4.38</v>
       </c>
       <c r="I441" s="6" t="n">
-        <v>3.6647</v>
+        <v>3.7112</v>
       </c>
       <c r="J441" s="5" t="n">
-        <v>3.58</v>
+        <v>4</v>
       </c>
       <c r="K441" s="5" t="n">
-        <v>4.1667</v>
+        <v>2.925</v>
       </c>
       <c r="L441" s="5" t="n">
-        <v>3.8621</v>
+        <v>4.12</v>
       </c>
       <c r="M441" s="5" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="N441" s="6" t="n">
-        <v>3.392</v>
+        <v>3.588</v>
       </c>
       <c r="O441" s="5" t="n">
-        <v>4.38</v>
+        <v>4.96</v>
       </c>
       <c r="P441" s="5" t="n">
-        <v>3.1167</v>
+        <v>2.6875</v>
       </c>
       <c r="Q441" s="5" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="R441" s="5" t="n">
-        <v>3.2712</v>
+        <v>3.5546</v>
       </c>
       <c r="S441" s="6" t="inlineStr"/>
       <c r="T441" s="5" t="inlineStr"/>
@@ -39215,641 +39181,805 @@
       <c r="V441" s="5" t="inlineStr"/>
       <c r="W441" s="5" t="inlineStr"/>
       <c r="X441" s="6" t="n">
+        <v>4.2386</v>
+      </c>
+      <c r="Y441" s="5" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Z441" s="5" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="AA441" s="5" t="n">
+        <v>4.7027</v>
+      </c>
+      <c r="AB441" s="5" t="n">
+        <v>4.8667</v>
+      </c>
+      <c r="AC441" s="6" t="n">
+        <v>4.717</v>
+      </c>
+      <c r="AD441" s="5" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AE441" s="5" t="n">
+        <v>3.6375</v>
+      </c>
+      <c r="AF441" s="5" t="n">
+        <v>4.359</v>
+      </c>
+      <c r="AG441" s="5" t="n">
+        <v>5.2917</v>
+      </c>
+      <c r="AH441" s="7" t="n">
+        <v>0.1654</v>
+      </c>
+      <c r="AI441" s="7" t="n">
+        <v>0.8824</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="inlineStr">
+        <is>
+          <t>Deepreneur/blue-lizard</t>
+        </is>
+      </c>
+      <c r="B442" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C442" s="6" t="n">
+        <v>4.214</v>
+      </c>
+      <c r="D442" s="6" t="n">
+        <v>4.0436</v>
+      </c>
+      <c r="E442" s="5" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F442" s="5" t="n">
+        <v>4.2301</v>
+      </c>
+      <c r="G442" s="5" t="n">
+        <v>4.014</v>
+      </c>
+      <c r="H442" s="5" t="n">
+        <v>3.7002</v>
+      </c>
+      <c r="I442" s="6" t="n">
+        <v>3.6647</v>
+      </c>
+      <c r="J442" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K442" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="L442" s="5" t="n">
+        <v>3.8621</v>
+      </c>
+      <c r="M442" s="5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N442" s="6" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="O442" s="5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="P442" s="5" t="n">
+        <v>3.1167</v>
+      </c>
+      <c r="Q442" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R442" s="5" t="n">
+        <v>3.2712</v>
+      </c>
+      <c r="S442" s="6" t="inlineStr"/>
+      <c r="T442" s="5" t="inlineStr"/>
+      <c r="U442" s="5" t="inlineStr"/>
+      <c r="V442" s="5" t="inlineStr"/>
+      <c r="W442" s="5" t="inlineStr"/>
+      <c r="X442" s="6" t="n">
         <v>4.4079</v>
       </c>
-      <c r="Y441" s="5" t="n">
+      <c r="Y442" s="5" t="n">
         <v>3.58</v>
       </c>
-      <c r="Z441" s="5" t="n">
+      <c r="Z442" s="5" t="n">
         <v>5.0847</v>
       </c>
-      <c r="AA441" s="5" t="n">
+      <c r="AA442" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="AB441" s="5" t="n">
+      <c r="AB442" s="5" t="n">
         <v>3.9667</v>
       </c>
-      <c r="AC441" s="6" t="n">
+      <c r="AC442" s="6" t="n">
         <v>4.7398</v>
       </c>
-      <c r="AD441" s="5" t="n">
+      <c r="AD442" s="5" t="n">
         <v>5.38</v>
       </c>
-      <c r="AE441" s="5" t="n">
+      <c r="AE442" s="5" t="n">
         <v>4.5667</v>
       </c>
-      <c r="AF441" s="5" t="n">
+      <c r="AF442" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="AG441" s="5" t="n">
+      <c r="AG442" s="5" t="n">
         <v>4.5126</v>
       </c>
-      <c r="AH441" s="7" t="n">
+      <c r="AH442" s="7" t="n">
         <v>0.2423</v>
       </c>
-      <c r="AI441" s="7" t="n">
+      <c r="AI442" s="7" t="n">
         <v>0.8986</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="8" t="inlineStr">
+    <row r="443">
+      <c r="A443" s="8" t="inlineStr">
         <is>
           <t>augmxnt/shisa-7b-v1-run2</t>
         </is>
       </c>
-      <c r="B442" s="9" t="n">
+      <c r="B443" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C442" s="10" t="inlineStr"/>
-      <c r="D442" s="10" t="n">
+      <c r="C443" s="10" t="inlineStr"/>
+      <c r="D443" s="10" t="n">
         <v>3.9525</v>
       </c>
-      <c r="E442" s="9" t="n">
+      <c r="E443" s="9" t="n">
         <v>4.36</v>
       </c>
-      <c r="F442" s="9" t="n">
+      <c r="F443" s="9" t="n">
         <v>3.75</v>
       </c>
-      <c r="G442" s="9" t="n">
+      <c r="G443" s="9" t="n">
         <v>3.875</v>
       </c>
-      <c r="H442" s="9" t="n">
+      <c r="H443" s="9" t="n">
         <v>3.825</v>
       </c>
-      <c r="I442" s="10" t="inlineStr"/>
-      <c r="J442" s="9" t="inlineStr"/>
-      <c r="K442" s="9" t="inlineStr"/>
-      <c r="L442" s="9" t="inlineStr"/>
-      <c r="M442" s="9" t="inlineStr"/>
-      <c r="N442" s="10" t="inlineStr"/>
-      <c r="O442" s="9" t="inlineStr"/>
-      <c r="P442" s="9" t="inlineStr"/>
-      <c r="Q442" s="9" t="inlineStr"/>
-      <c r="R442" s="9" t="inlineStr"/>
-      <c r="S442" s="10" t="n">
+      <c r="I443" s="10" t="inlineStr"/>
+      <c r="J443" s="9" t="inlineStr"/>
+      <c r="K443" s="9" t="inlineStr"/>
+      <c r="L443" s="9" t="inlineStr"/>
+      <c r="M443" s="9" t="inlineStr"/>
+      <c r="N443" s="10" t="inlineStr"/>
+      <c r="O443" s="9" t="inlineStr"/>
+      <c r="P443" s="9" t="inlineStr"/>
+      <c r="Q443" s="9" t="inlineStr"/>
+      <c r="R443" s="9" t="inlineStr"/>
+      <c r="S443" s="10" t="n">
         <v>3.9525</v>
       </c>
-      <c r="T442" s="9" t="n">
+      <c r="T443" s="9" t="n">
         <v>4.36</v>
       </c>
-      <c r="U442" s="9" t="n">
+      <c r="U443" s="9" t="n">
         <v>3.75</v>
       </c>
-      <c r="V442" s="9" t="n">
+      <c r="V443" s="9" t="n">
         <v>3.875</v>
       </c>
-      <c r="W442" s="9" t="n">
+      <c r="W443" s="9" t="n">
         <v>3.825</v>
       </c>
-      <c r="X442" s="10" t="inlineStr"/>
-      <c r="Y442" s="9" t="inlineStr"/>
-      <c r="Z442" s="9" t="inlineStr"/>
-      <c r="AA442" s="9" t="inlineStr"/>
-      <c r="AB442" s="9" t="inlineStr"/>
-      <c r="AC442" s="10" t="inlineStr"/>
-      <c r="AD442" s="9" t="inlineStr"/>
-      <c r="AE442" s="9" t="inlineStr"/>
-      <c r="AF442" s="9" t="inlineStr"/>
-      <c r="AG442" s="9" t="inlineStr"/>
-      <c r="AH442" s="11" t="inlineStr"/>
-      <c r="AI442" s="11" t="n">
+      <c r="X443" s="10" t="inlineStr"/>
+      <c r="Y443" s="9" t="inlineStr"/>
+      <c r="Z443" s="9" t="inlineStr"/>
+      <c r="AA443" s="9" t="inlineStr"/>
+      <c r="AB443" s="9" t="inlineStr"/>
+      <c r="AC443" s="10" t="inlineStr"/>
+      <c r="AD443" s="9" t="inlineStr"/>
+      <c r="AE443" s="9" t="inlineStr"/>
+      <c r="AF443" s="9" t="inlineStr"/>
+      <c r="AG443" s="9" t="inlineStr"/>
+      <c r="AH443" s="11" t="inlineStr"/>
+      <c r="AI443" s="11" t="n">
         <v>0.9157</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="4" t="inlineStr">
+    <row r="444">
+      <c r="A444" s="4" t="inlineStr">
         <is>
           <t>tiiuae/Falcon3-10B-Instruct</t>
         </is>
       </c>
-      <c r="B443" s="5" t="n">
+      <c r="B444" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C443" s="6" t="n">
+      <c r="C444" s="6" t="n">
         <v>4.0754</v>
       </c>
-      <c r="D443" s="6" t="n">
+      <c r="D444" s="6" t="n">
         <v>3.9261</v>
       </c>
-      <c r="E443" s="5" t="n">
+      <c r="E444" s="5" t="n">
         <v>4.75</v>
       </c>
-      <c r="F443" s="5" t="n">
+      <c r="F444" s="5" t="n">
         <v>4.0375</v>
       </c>
-      <c r="G443" s="5" t="n">
+      <c r="G444" s="5" t="n">
         <v>2.3867</v>
       </c>
-      <c r="H443" s="5" t="n">
+      <c r="H444" s="5" t="n">
         <v>4.5303</v>
       </c>
-      <c r="I443" s="6" t="n">
+      <c r="I444" s="6" t="n">
         <v>3.3462</v>
       </c>
-      <c r="J443" s="5" t="n">
+      <c r="J444" s="5" t="n">
         <v>4.06</v>
       </c>
-      <c r="K443" s="5" t="n">
+      <c r="K444" s="5" t="n">
         <v>3.6667</v>
       </c>
-      <c r="L443" s="5" t="n">
+      <c r="L444" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M443" s="5" t="n">
+      <c r="M444" s="5" t="n">
         <v>3.6583</v>
       </c>
-      <c r="N443" s="6" t="n">
+      <c r="N444" s="6" t="n">
         <v>3.3153</v>
       </c>
-      <c r="O443" s="5" t="n">
+      <c r="O444" s="5" t="n">
         <v>4.72</v>
       </c>
-      <c r="P443" s="5" t="n">
+      <c r="P444" s="5" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q443" s="5" t="n">
+      <c r="Q444" s="5" t="n">
         <v>1.625</v>
       </c>
-      <c r="R443" s="5" t="n">
+      <c r="R444" s="5" t="n">
         <v>3.9664</v>
       </c>
-      <c r="S443" s="6" t="inlineStr"/>
-      <c r="T443" s="5" t="inlineStr"/>
-      <c r="U443" s="5" t="inlineStr"/>
-      <c r="V443" s="5" t="inlineStr"/>
-      <c r="W443" s="5" t="inlineStr"/>
-      <c r="X443" s="6" t="n">
+      <c r="S444" s="6" t="inlineStr"/>
+      <c r="T444" s="5" t="inlineStr"/>
+      <c r="U444" s="5" t="inlineStr"/>
+      <c r="V444" s="5" t="inlineStr"/>
+      <c r="W444" s="5" t="inlineStr"/>
+      <c r="X444" s="6" t="n">
         <v>4.4929</v>
       </c>
-      <c r="Y443" s="5" t="n">
+      <c r="Y444" s="5" t="n">
         <v>4.28</v>
       </c>
-      <c r="Z443" s="5" t="n">
+      <c r="Z444" s="5" t="n">
         <v>5.0833</v>
       </c>
-      <c r="AA443" s="5" t="n">
+      <c r="AA444" s="5" t="n">
         <v>3.3333</v>
       </c>
-      <c r="AB443" s="5" t="n">
+      <c r="AB444" s="5" t="n">
         <v>5.275</v>
       </c>
-      <c r="AC443" s="6" t="n">
+      <c r="AC444" s="6" t="n">
         <v>4.5363</v>
       </c>
-      <c r="AD443" s="5" t="n">
+      <c r="AD444" s="5" t="n">
         <v>5.94</v>
       </c>
-      <c r="AE443" s="5" t="n">
+      <c r="AE444" s="5" t="n">
         <v>4.45</v>
       </c>
-      <c r="AF443" s="5" t="n">
+      <c r="AF444" s="5" t="n">
         <v>2.5385</v>
       </c>
-      <c r="AG443" s="5" t="n">
+      <c r="AG444" s="5" t="n">
         <v>5.2167</v>
       </c>
-      <c r="AH443" s="7" t="n">
+      <c r="AH444" s="7" t="n">
         <v>0.2292</v>
       </c>
-      <c r="AI443" s="7" t="n">
+      <c r="AI444" s="7" t="n">
         <v>0.8902</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="8" t="inlineStr">
+    <row r="445">
+      <c r="A445" s="8" t="inlineStr">
         <is>
           <t>augmxnt/shisa-7b-v1</t>
         </is>
       </c>
-      <c r="B444" s="9" t="n">
+      <c r="B445" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="C444" s="10" t="n">
+      <c r="C445" s="10" t="n">
         <v>3.9635</v>
       </c>
-      <c r="D444" s="10" t="n">
+      <c r="D445" s="10" t="n">
         <v>3.9079</v>
       </c>
-      <c r="E444" s="9" t="n">
+      <c r="E445" s="9" t="n">
         <v>4.1526</v>
       </c>
-      <c r="F444" s="9" t="n">
+      <c r="F445" s="9" t="n">
         <v>3.5034</v>
       </c>
-      <c r="G444" s="9" t="n">
+      <c r="G445" s="9" t="n">
         <v>3.2961</v>
       </c>
-      <c r="H444" s="9" t="n">
+      <c r="H445" s="9" t="n">
         <v>4.6795</v>
       </c>
-      <c r="I444" s="10" t="n">
+      <c r="I445" s="10" t="n">
         <v>3.3679</v>
       </c>
-      <c r="J444" s="9" t="n">
+      <c r="J445" s="9" t="n">
         <v>3.78</v>
       </c>
-      <c r="K444" s="9" t="n">
+      <c r="K445" s="9" t="n">
         <v>3.0833</v>
       </c>
-      <c r="L444" s="9" t="n">
+      <c r="L445" s="9" t="n">
         <v>2.2917</v>
       </c>
-      <c r="M444" s="9" t="n">
+      <c r="M445" s="9" t="n">
         <v>4.3167</v>
       </c>
-      <c r="N444" s="10" t="n">
+      <c r="N445" s="10" t="n">
         <v>4.5004</v>
       </c>
-      <c r="O444" s="9" t="n">
+      <c r="O445" s="9" t="n">
         <v>4.6263</v>
       </c>
-      <c r="P444" s="9" t="n">
+      <c r="P445" s="9" t="n">
         <v>3.9474</v>
       </c>
-      <c r="Q444" s="9" t="n">
+      <c r="Q445" s="9" t="n">
         <v>4.8947</v>
       </c>
-      <c r="R444" s="9" t="n">
+      <c r="R445" s="9" t="n">
         <v>4.5333</v>
       </c>
-      <c r="S444" s="10" t="n">
+      <c r="S445" s="10" t="n">
         <v>3.0246</v>
       </c>
-      <c r="T444" s="9" t="n">
+      <c r="T445" s="9" t="n">
         <v>4.04</v>
       </c>
-      <c r="U444" s="9" t="n">
+      <c r="U445" s="9" t="n">
         <v>2.6167</v>
       </c>
-      <c r="V444" s="9" t="n">
+      <c r="V445" s="9" t="n">
         <v>1.9</v>
       </c>
-      <c r="W444" s="9" t="n">
+      <c r="W445" s="9" t="n">
         <v>3.5417</v>
       </c>
-      <c r="X444" s="10" t="n">
+      <c r="X445" s="10" t="n">
         <v>4.0873</v>
       </c>
-      <c r="Y444" s="9" t="n">
+      <c r="Y445" s="9" t="n">
         <v>3.5</v>
       </c>
-      <c r="Z444" s="9" t="n">
+      <c r="Z445" s="9" t="n">
         <v>3.7627</v>
       </c>
-      <c r="AA444" s="9" t="n">
+      <c r="AA445" s="9" t="n">
         <v>3.725</v>
       </c>
-      <c r="AB444" s="9" t="n">
+      <c r="AB445" s="9" t="n">
         <v>5.3613</v>
       </c>
-      <c r="AC444" s="10" t="n">
+      <c r="AC445" s="10" t="n">
         <v>4.4907</v>
       </c>
-      <c r="AD444" s="9" t="n">
+      <c r="AD445" s="9" t="n">
         <v>4.8283</v>
       </c>
-      <c r="AE444" s="9" t="n">
+      <c r="AE445" s="9" t="n">
         <v>4.1333</v>
       </c>
-      <c r="AF444" s="9" t="n">
+      <c r="AF445" s="9" t="n">
         <v>3.3514</v>
       </c>
-      <c r="AG444" s="9" t="n">
+      <c r="AG445" s="9" t="n">
         <v>5.65</v>
       </c>
-      <c r="AH444" s="11" t="n">
+      <c r="AH445" s="11" t="n">
         <v>-0.1193</v>
       </c>
-      <c r="AI444" s="11" t="n">
+      <c r="AI445" s="11" t="n">
         <v>0.917</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="4" t="inlineStr">
-        <is>
-          <t>011-qwen3-8b-v2-sft</t>
-        </is>
-      </c>
-      <c r="B445" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C445" s="6" t="inlineStr"/>
-      <c r="D445" s="6" t="n">
-        <v>3.6138</v>
-      </c>
-      <c r="E445" s="5" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="F445" s="5" t="n">
-        <v>3.5439</v>
-      </c>
-      <c r="G445" s="5" t="n">
-        <v>2.1622</v>
-      </c>
-      <c r="H445" s="5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="I445" s="6" t="inlineStr"/>
-      <c r="J445" s="5" t="inlineStr"/>
-      <c r="K445" s="5" t="inlineStr"/>
-      <c r="L445" s="5" t="inlineStr"/>
-      <c r="M445" s="5" t="inlineStr"/>
-      <c r="N445" s="6" t="inlineStr"/>
-      <c r="O445" s="5" t="inlineStr"/>
-      <c r="P445" s="5" t="inlineStr"/>
-      <c r="Q445" s="5" t="inlineStr"/>
-      <c r="R445" s="5" t="inlineStr"/>
-      <c r="S445" s="6" t="n">
-        <v>3.6138</v>
-      </c>
-      <c r="T445" s="5" t="n">
-        <v>5.899</v>
-      </c>
-      <c r="U445" s="5" t="n">
-        <v>3.5439</v>
-      </c>
-      <c r="V445" s="5" t="n">
-        <v>2.1622</v>
-      </c>
-      <c r="W445" s="5" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="X445" s="6" t="inlineStr"/>
-      <c r="Y445" s="5" t="inlineStr"/>
-      <c r="Z445" s="5" t="inlineStr"/>
-      <c r="AA445" s="5" t="inlineStr"/>
-      <c r="AB445" s="5" t="inlineStr"/>
-      <c r="AC445" s="6" t="inlineStr"/>
-      <c r="AD445" s="5" t="inlineStr"/>
-      <c r="AE445" s="5" t="inlineStr"/>
-      <c r="AF445" s="5" t="inlineStr"/>
-      <c r="AG445" s="5" t="inlineStr"/>
-      <c r="AH445" s="7" t="inlineStr"/>
-      <c r="AI445" s="7" t="n">
-        <v>0.2301</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="4" t="inlineStr">
         <is>
+          <t>011-qwen3-8b-v2-sft</t>
+        </is>
+      </c>
+      <c r="B446" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C446" s="6" t="inlineStr"/>
+      <c r="D446" s="6" t="n">
+        <v>3.6138</v>
+      </c>
+      <c r="E446" s="5" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="F446" s="5" t="n">
+        <v>3.5439</v>
+      </c>
+      <c r="G446" s="5" t="n">
+        <v>2.1622</v>
+      </c>
+      <c r="H446" s="5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I446" s="6" t="inlineStr"/>
+      <c r="J446" s="5" t="inlineStr"/>
+      <c r="K446" s="5" t="inlineStr"/>
+      <c r="L446" s="5" t="inlineStr"/>
+      <c r="M446" s="5" t="inlineStr"/>
+      <c r="N446" s="6" t="inlineStr"/>
+      <c r="O446" s="5" t="inlineStr"/>
+      <c r="P446" s="5" t="inlineStr"/>
+      <c r="Q446" s="5" t="inlineStr"/>
+      <c r="R446" s="5" t="inlineStr"/>
+      <c r="S446" s="6" t="n">
+        <v>3.6138</v>
+      </c>
+      <c r="T446" s="5" t="n">
+        <v>5.899</v>
+      </c>
+      <c r="U446" s="5" t="n">
+        <v>3.5439</v>
+      </c>
+      <c r="V446" s="5" t="n">
+        <v>2.1622</v>
+      </c>
+      <c r="W446" s="5" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="X446" s="6" t="inlineStr"/>
+      <c r="Y446" s="5" t="inlineStr"/>
+      <c r="Z446" s="5" t="inlineStr"/>
+      <c r="AA446" s="5" t="inlineStr"/>
+      <c r="AB446" s="5" t="inlineStr"/>
+      <c r="AC446" s="6" t="inlineStr"/>
+      <c r="AD446" s="5" t="inlineStr"/>
+      <c r="AE446" s="5" t="inlineStr"/>
+      <c r="AF446" s="5" t="inlineStr"/>
+      <c r="AG446" s="5" t="inlineStr"/>
+      <c r="AH446" s="7" t="inlineStr"/>
+      <c r="AI446" s="7" t="n">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="inlineStr">
+        <is>
           <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
         </is>
       </c>
-      <c r="B446" s="5" t="n">
+      <c r="B447" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C446" s="6" t="n">
+      <c r="C447" s="6" t="n">
         <v>1.4372</v>
       </c>
-      <c r="D446" s="6" t="n">
+      <c r="D447" s="6" t="n">
         <v>1.3659</v>
       </c>
-      <c r="E446" s="5" t="n">
+      <c r="E447" s="5" t="n">
         <v>2.035</v>
       </c>
-      <c r="F446" s="5" t="n">
+      <c r="F447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G446" s="5" t="n">
+      <c r="G447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H446" s="5" t="n">
+      <c r="H447" s="5" t="n">
         <v>1.4286</v>
       </c>
-      <c r="I446" s="6" t="n">
+      <c r="I447" s="6" t="n">
         <v>1.0958</v>
       </c>
-      <c r="J446" s="5" t="n">
+      <c r="J447" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K446" s="5" t="n">
+      <c r="K447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L446" s="5" t="n">
+      <c r="L447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="M446" s="5" t="n">
+      <c r="M447" s="5" t="n">
         <v>0.3833</v>
       </c>
-      <c r="N446" s="6" t="n">
+      <c r="N447" s="6" t="n">
         <v>1.0319</v>
       </c>
-      <c r="O446" s="5" t="n">
+      <c r="O447" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="P446" s="5" t="n">
+      <c r="P447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Q446" s="5" t="n">
+      <c r="Q447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="R446" s="5" t="n">
+      <c r="R447" s="5" t="n">
         <v>0.1275</v>
       </c>
-      <c r="S446" s="6" t="inlineStr"/>
-      <c r="T446" s="5" t="inlineStr"/>
-      <c r="U446" s="5" t="inlineStr"/>
-      <c r="V446" s="5" t="inlineStr"/>
-      <c r="W446" s="5" t="inlineStr"/>
-      <c r="X446" s="6" t="n">
+      <c r="S447" s="6" t="inlineStr"/>
+      <c r="T447" s="5" t="inlineStr"/>
+      <c r="U447" s="5" t="inlineStr"/>
+      <c r="V447" s="5" t="inlineStr"/>
+      <c r="W447" s="5" t="inlineStr"/>
+      <c r="X447" s="6" t="n">
         <v>1.7583</v>
       </c>
-      <c r="Y446" s="5" t="n">
+      <c r="Y447" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="Z446" s="5" t="n">
+      <c r="Z447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AA446" s="5" t="n">
+      <c r="AA447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AB446" s="5" t="n">
+      <c r="AB447" s="5" t="n">
         <v>3.0333</v>
       </c>
-      <c r="AC446" s="6" t="n">
+      <c r="AC447" s="6" t="n">
         <v>1.5288</v>
       </c>
-      <c r="AD446" s="5" t="n">
+      <c r="AD447" s="5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AE446" s="5" t="n">
+      <c r="AE447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AF446" s="5" t="n">
+      <c r="AF447" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="AG446" s="5" t="n">
+      <c r="AG447" s="5" t="n">
         <v>1.975</v>
       </c>
-      <c r="AH446" s="7" t="n">
+      <c r="AH447" s="7" t="n">
         <v>0.3928</v>
       </c>
-      <c r="AI446" s="7" t="n">
+      <c r="AI447" s="7" t="n">
         <v>0.4012</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" s="4" t="inlineStr">
+        <is>
+          <t>sbintuitions/sarashina2.2-3b</t>
+        </is>
+      </c>
+      <c r="B448" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C448" s="6" t="inlineStr"/>
+      <c r="D448" s="6" t="n">
+        <v>1.3437</v>
+      </c>
+      <c r="E448" s="5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F448" s="5" t="n">
+        <v>1.0833</v>
+      </c>
+      <c r="G448" s="5" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="H448" s="5" t="n">
+        <v>0.3667</v>
+      </c>
+      <c r="I448" s="6" t="inlineStr"/>
+      <c r="J448" s="5" t="inlineStr"/>
+      <c r="K448" s="5" t="inlineStr"/>
+      <c r="L448" s="5" t="inlineStr"/>
+      <c r="M448" s="5" t="inlineStr"/>
+      <c r="N448" s="6" t="inlineStr"/>
+      <c r="O448" s="5" t="inlineStr"/>
+      <c r="P448" s="5" t="inlineStr"/>
+      <c r="Q448" s="5" t="inlineStr"/>
+      <c r="R448" s="5" t="inlineStr"/>
+      <c r="S448" s="6" t="n">
+        <v>1.3437</v>
+      </c>
+      <c r="T448" s="5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U448" s="5" t="n">
+        <v>1.0833</v>
+      </c>
+      <c r="V448" s="5" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="W448" s="5" t="n">
+        <v>0.3667</v>
+      </c>
+      <c r="X448" s="6" t="inlineStr"/>
+      <c r="Y448" s="5" t="inlineStr"/>
+      <c r="Z448" s="5" t="inlineStr"/>
+      <c r="AA448" s="5" t="inlineStr"/>
+      <c r="AB448" s="5" t="inlineStr"/>
+      <c r="AC448" s="6" t="inlineStr"/>
+      <c r="AD448" s="5" t="inlineStr"/>
+      <c r="AE448" s="5" t="inlineStr"/>
+      <c r="AF448" s="5" t="inlineStr"/>
+      <c r="AG448" s="5" t="inlineStr"/>
+      <c r="AH448" s="7" t="inlineStr"/>
+      <c r="AI448" s="7" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C446">
+  <conditionalFormatting sqref="C2:C448">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($C$2:$C$446)</formula>
+      <formula>MAX($C$2:$C$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D446">
+  <conditionalFormatting sqref="D2:D448">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($D$2:$D$446)</formula>
+      <formula>MAX($D$2:$D$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E446">
+  <conditionalFormatting sqref="E2:E448">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($E$2:$E$446)</formula>
+      <formula>MAX($E$2:$E$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F446">
+  <conditionalFormatting sqref="F2:F448">
     <cfRule type="cellIs" priority="4" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($F$2:$F$446)</formula>
+      <formula>MAX($F$2:$F$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G446">
+  <conditionalFormatting sqref="G2:G448">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($G$2:$G$446)</formula>
+      <formula>MAX($G$2:$G$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H446">
+  <conditionalFormatting sqref="H2:H448">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($H$2:$H$446)</formula>
+      <formula>MAX($H$2:$H$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I446">
+  <conditionalFormatting sqref="I2:I448">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($I$2:$I$446)</formula>
+      <formula>MAX($I$2:$I$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J446">
+  <conditionalFormatting sqref="J2:J448">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($J$2:$J$446)</formula>
+      <formula>MAX($J$2:$J$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K446">
+  <conditionalFormatting sqref="K2:K448">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($K$2:$K$446)</formula>
+      <formula>MAX($K$2:$K$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L446">
+  <conditionalFormatting sqref="L2:L448">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($L$2:$L$446)</formula>
+      <formula>MAX($L$2:$L$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M446">
+  <conditionalFormatting sqref="M2:M448">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($M$2:$M$446)</formula>
+      <formula>MAX($M$2:$M$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N446">
+  <conditionalFormatting sqref="N2:N448">
     <cfRule type="cellIs" priority="12" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($N$2:$N$446)</formula>
+      <formula>MAX($N$2:$N$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O446">
+  <conditionalFormatting sqref="O2:O448">
     <cfRule type="cellIs" priority="13" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($O$2:$O$446)</formula>
+      <formula>MAX($O$2:$O$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P446">
+  <conditionalFormatting sqref="P2:P448">
     <cfRule type="cellIs" priority="14" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($P$2:$P$446)</formula>
+      <formula>MAX($P$2:$P$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q446">
+  <conditionalFormatting sqref="Q2:Q448">
     <cfRule type="cellIs" priority="15" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Q$2:$Q$446)</formula>
+      <formula>MAX($Q$2:$Q$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R446">
+  <conditionalFormatting sqref="R2:R448">
     <cfRule type="cellIs" priority="16" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($R$2:$R$446)</formula>
+      <formula>MAX($R$2:$R$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S446">
+  <conditionalFormatting sqref="S2:S448">
     <cfRule type="cellIs" priority="17" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($S$2:$S$446)</formula>
+      <formula>MAX($S$2:$S$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T446">
+  <conditionalFormatting sqref="T2:T448">
     <cfRule type="cellIs" priority="18" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($T$2:$T$446)</formula>
+      <formula>MAX($T$2:$T$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U446">
+  <conditionalFormatting sqref="U2:U448">
     <cfRule type="cellIs" priority="19" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($U$2:$U$446)</formula>
+      <formula>MAX($U$2:$U$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V446">
+  <conditionalFormatting sqref="V2:V448">
     <cfRule type="cellIs" priority="20" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($V$2:$V$446)</formula>
+      <formula>MAX($V$2:$V$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W446">
+  <conditionalFormatting sqref="W2:W448">
     <cfRule type="cellIs" priority="21" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($W$2:$W$446)</formula>
+      <formula>MAX($W$2:$W$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X446">
+  <conditionalFormatting sqref="X2:X448">
     <cfRule type="cellIs" priority="22" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($X$2:$X$446)</formula>
+      <formula>MAX($X$2:$X$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y446">
+  <conditionalFormatting sqref="Y2:Y448">
     <cfRule type="cellIs" priority="23" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Y$2:$Y$446)</formula>
+      <formula>MAX($Y$2:$Y$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z446">
+  <conditionalFormatting sqref="Z2:Z448">
     <cfRule type="cellIs" priority="24" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Z$2:$Z$446)</formula>
+      <formula>MAX($Z$2:$Z$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA446">
+  <conditionalFormatting sqref="AA2:AA448">
     <cfRule type="cellIs" priority="25" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AA$2:$AA$446)</formula>
+      <formula>MAX($AA$2:$AA$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB446">
+  <conditionalFormatting sqref="AB2:AB448">
     <cfRule type="cellIs" priority="26" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AB$2:$AB$446)</formula>
+      <formula>MAX($AB$2:$AB$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC446">
+  <conditionalFormatting sqref="AC2:AC448">
     <cfRule type="cellIs" priority="27" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AC$2:$AC$446)</formula>
+      <formula>MAX($AC$2:$AC$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD446">
+  <conditionalFormatting sqref="AD2:AD448">
     <cfRule type="cellIs" priority="28" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AD$2:$AD$446)</formula>
+      <formula>MAX($AD$2:$AD$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE446">
+  <conditionalFormatting sqref="AE2:AE448">
     <cfRule type="cellIs" priority="29" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AE$2:$AE$446)</formula>
+      <formula>MAX($AE$2:$AE$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF446">
+  <conditionalFormatting sqref="AF2:AF448">
     <cfRule type="cellIs" priority="30" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AF$2:$AF$446)</formula>
+      <formula>MAX($AF$2:$AF$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG446">
+  <conditionalFormatting sqref="AG2:AG448">
     <cfRule type="cellIs" priority="31" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AG$2:$AG$446)</formula>
+      <formula>MAX($AG$2:$AG$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH446">
+  <conditionalFormatting sqref="AH2:AH448">
     <cfRule type="cellIs" priority="32" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AH$2:$AH$446)</formula>
+      <formula>MAX($AH$2:$AH$448)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI446">
+  <conditionalFormatting sqref="AI2:AI448">
     <cfRule type="cellIs" priority="33" operator="lessThan" dxfId="1" stopIfTrue="1">
       <formula>0.5</formula>
     </cfRule>

--- a/output-multi.xlsx
+++ b/output-multi.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN546"/>
+  <dimension ref="A1:AN547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -38004,7 +38004,7 @@
     <row r="411">
       <c r="A411" s="4" t="inlineStr">
         <is>
-          <t>043-llama3.2-3b-v2new-dpo405b</t>
+          <t>ibm-granite/granite-4.0-h-small</t>
         </is>
       </c>
       <c r="B411" s="5" t="n">
@@ -38015,16 +38015,16 @@
         <v>6.8379</v>
       </c>
       <c r="E411" s="5" t="n">
-        <v>6.76</v>
+        <v>7.86</v>
       </c>
       <c r="F411" s="5" t="n">
-        <v>7.4667</v>
+        <v>7.0667</v>
       </c>
       <c r="G411" s="5" t="n">
-        <v>7.225</v>
+        <v>5.525</v>
       </c>
       <c r="H411" s="5" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="I411" s="6" t="inlineStr"/>
       <c r="J411" s="5" t="inlineStr"/>
@@ -38040,16 +38040,16 @@
         <v>6.8379</v>
       </c>
       <c r="T411" s="5" t="n">
-        <v>6.76</v>
+        <v>7.86</v>
       </c>
       <c r="U411" s="5" t="n">
-        <v>7.4667</v>
+        <v>7.0667</v>
       </c>
       <c r="V411" s="5" t="n">
-        <v>7.225</v>
+        <v>5.525</v>
       </c>
       <c r="W411" s="5" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="X411" s="6" t="inlineStr"/>
       <c r="Y411" s="5" t="inlineStr"/>
@@ -38068,13 +38068,13 @@
       <c r="AL411" s="5" t="inlineStr"/>
       <c r="AM411" s="7" t="inlineStr"/>
       <c r="AN411" s="7" t="n">
-        <v>0.8509</v>
+        <v>0.8792</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="4" t="inlineStr">
         <is>
-          <t>ibm-granite/granite-4.0-h-small</t>
+          <t>043-llama3.2-3b-v2new-dpo405b</t>
         </is>
       </c>
       <c r="B412" s="5" t="n">
@@ -38085,16 +38085,16 @@
         <v>6.8379</v>
       </c>
       <c r="E412" s="5" t="n">
-        <v>7.86</v>
+        <v>6.76</v>
       </c>
       <c r="F412" s="5" t="n">
-        <v>7.0667</v>
+        <v>7.4667</v>
       </c>
       <c r="G412" s="5" t="n">
-        <v>5.525</v>
+        <v>7.225</v>
       </c>
       <c r="H412" s="5" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="I412" s="6" t="inlineStr"/>
       <c r="J412" s="5" t="inlineStr"/>
@@ -38110,16 +38110,16 @@
         <v>6.8379</v>
       </c>
       <c r="T412" s="5" t="n">
-        <v>7.86</v>
+        <v>6.76</v>
       </c>
       <c r="U412" s="5" t="n">
-        <v>7.0667</v>
+        <v>7.4667</v>
       </c>
       <c r="V412" s="5" t="n">
-        <v>5.525</v>
+        <v>7.225</v>
       </c>
       <c r="W412" s="5" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="X412" s="6" t="inlineStr"/>
       <c r="Y412" s="5" t="inlineStr"/>
@@ -38138,7 +38138,7 @@
       <c r="AL412" s="5" t="inlineStr"/>
       <c r="AM412" s="7" t="inlineStr"/>
       <c r="AN412" s="7" t="n">
-        <v>0.8792</v>
+        <v>0.8509</v>
       </c>
     </row>
     <row r="413">
@@ -46448,255 +46448,257 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="4" t="inlineStr">
+      <c r="A508" s="8" t="inlineStr">
+        <is>
+          <t>shisa-ai/174-shisa-7b-v1-v2.1-dpo</t>
+        </is>
+      </c>
+      <c r="B508" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" s="10" t="n">
+        <v>4.7832</v>
+      </c>
+      <c r="D508" s="10" t="n">
+        <v>4.7832</v>
+      </c>
+      <c r="E508" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="F508" s="9" t="n">
+        <v>4.2712</v>
+      </c>
+      <c r="G508" s="9" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="H508" s="9" t="n">
+        <v>4.3167</v>
+      </c>
+      <c r="I508" s="10" t="inlineStr"/>
+      <c r="J508" s="9" t="inlineStr"/>
+      <c r="K508" s="9" t="inlineStr"/>
+      <c r="L508" s="9" t="inlineStr"/>
+      <c r="M508" s="9" t="inlineStr"/>
+      <c r="N508" s="10" t="inlineStr"/>
+      <c r="O508" s="9" t="inlineStr"/>
+      <c r="P508" s="9" t="inlineStr"/>
+      <c r="Q508" s="9" t="inlineStr"/>
+      <c r="R508" s="9" t="inlineStr"/>
+      <c r="S508" s="10" t="inlineStr"/>
+      <c r="T508" s="9" t="inlineStr"/>
+      <c r="U508" s="9" t="inlineStr"/>
+      <c r="V508" s="9" t="inlineStr"/>
+      <c r="W508" s="9" t="inlineStr"/>
+      <c r="X508" s="10" t="n">
+        <v>4.7832</v>
+      </c>
+      <c r="Y508" s="9" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="Z508" s="9" t="n">
+        <v>4.2712</v>
+      </c>
+      <c r="AA508" s="9" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="AB508" s="9" t="n">
+        <v>4.3167</v>
+      </c>
+      <c r="AC508" s="10" t="inlineStr"/>
+      <c r="AD508" s="9" t="inlineStr"/>
+      <c r="AE508" s="9" t="inlineStr"/>
+      <c r="AF508" s="9" t="inlineStr"/>
+      <c r="AG508" s="9" t="inlineStr"/>
+      <c r="AH508" s="10" t="inlineStr"/>
+      <c r="AI508" s="9" t="inlineStr"/>
+      <c r="AJ508" s="9" t="inlineStr"/>
+      <c r="AK508" s="9" t="inlineStr"/>
+      <c r="AL508" s="9" t="inlineStr"/>
+      <c r="AM508" s="11" t="inlineStr"/>
+      <c r="AN508" s="11" t="n">
+        <v>0.8446</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="4" t="inlineStr">
         <is>
           <t>microsoft/Phi-4-multimodal-instruct</t>
         </is>
       </c>
-      <c r="B508" s="5" t="n">
+      <c r="B509" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C508" s="6" t="n">
+      <c r="C509" s="6" t="n">
         <v>4.765</v>
       </c>
-      <c r="D508" s="6" t="n">
+      <c r="D509" s="6" t="n">
         <v>4.765</v>
       </c>
-      <c r="E508" s="5" t="n">
+      <c r="E509" s="5" t="n">
         <v>5.96</v>
       </c>
-      <c r="F508" s="5" t="n">
+      <c r="F509" s="5" t="n">
         <v>4.7</v>
       </c>
-      <c r="G508" s="5" t="n">
+      <c r="G509" s="5" t="n">
         <v>3.8</v>
       </c>
-      <c r="H508" s="5" t="n">
+      <c r="H509" s="5" t="n">
         <v>4.6</v>
       </c>
-      <c r="I508" s="6" t="inlineStr"/>
-      <c r="J508" s="5" t="inlineStr"/>
-      <c r="K508" s="5" t="inlineStr"/>
-      <c r="L508" s="5" t="inlineStr"/>
-      <c r="M508" s="5" t="inlineStr"/>
-      <c r="N508" s="6" t="inlineStr"/>
-      <c r="O508" s="5" t="inlineStr"/>
-      <c r="P508" s="5" t="inlineStr"/>
-      <c r="Q508" s="5" t="inlineStr"/>
-      <c r="R508" s="5" t="inlineStr"/>
-      <c r="S508" s="6" t="inlineStr"/>
-      <c r="T508" s="5" t="inlineStr"/>
-      <c r="U508" s="5" t="inlineStr"/>
-      <c r="V508" s="5" t="inlineStr"/>
-      <c r="W508" s="5" t="inlineStr"/>
-      <c r="X508" s="6" t="n">
+      <c r="I509" s="6" t="inlineStr"/>
+      <c r="J509" s="5" t="inlineStr"/>
+      <c r="K509" s="5" t="inlineStr"/>
+      <c r="L509" s="5" t="inlineStr"/>
+      <c r="M509" s="5" t="inlineStr"/>
+      <c r="N509" s="6" t="inlineStr"/>
+      <c r="O509" s="5" t="inlineStr"/>
+      <c r="P509" s="5" t="inlineStr"/>
+      <c r="Q509" s="5" t="inlineStr"/>
+      <c r="R509" s="5" t="inlineStr"/>
+      <c r="S509" s="6" t="inlineStr"/>
+      <c r="T509" s="5" t="inlineStr"/>
+      <c r="U509" s="5" t="inlineStr"/>
+      <c r="V509" s="5" t="inlineStr"/>
+      <c r="W509" s="5" t="inlineStr"/>
+      <c r="X509" s="6" t="n">
         <v>4.765</v>
       </c>
-      <c r="Y508" s="5" t="n">
+      <c r="Y509" s="5" t="n">
         <v>5.96</v>
       </c>
-      <c r="Z508" s="5" t="n">
+      <c r="Z509" s="5" t="n">
         <v>4.7</v>
       </c>
-      <c r="AA508" s="5" t="n">
+      <c r="AA509" s="5" t="n">
         <v>3.8</v>
       </c>
-      <c r="AB508" s="5" t="n">
+      <c r="AB509" s="5" t="n">
         <v>4.6</v>
       </c>
-      <c r="AC508" s="6" t="inlineStr"/>
-      <c r="AD508" s="5" t="inlineStr"/>
-      <c r="AE508" s="5" t="inlineStr"/>
-      <c r="AF508" s="5" t="inlineStr"/>
-      <c r="AG508" s="5" t="inlineStr"/>
-      <c r="AH508" s="6" t="inlineStr"/>
-      <c r="AI508" s="5" t="inlineStr"/>
-      <c r="AJ508" s="5" t="inlineStr"/>
-      <c r="AK508" s="5" t="inlineStr"/>
-      <c r="AL508" s="5" t="inlineStr"/>
-      <c r="AM508" s="7" t="inlineStr"/>
-      <c r="AN508" s="7" t="n">
+      <c r="AC509" s="6" t="inlineStr"/>
+      <c r="AD509" s="5" t="inlineStr"/>
+      <c r="AE509" s="5" t="inlineStr"/>
+      <c r="AF509" s="5" t="inlineStr"/>
+      <c r="AG509" s="5" t="inlineStr"/>
+      <c r="AH509" s="6" t="inlineStr"/>
+      <c r="AI509" s="5" t="inlineStr"/>
+      <c r="AJ509" s="5" t="inlineStr"/>
+      <c r="AK509" s="5" t="inlineStr"/>
+      <c r="AL509" s="5" t="inlineStr"/>
+      <c r="AM509" s="7" t="inlineStr"/>
+      <c r="AN509" s="7" t="n">
         <v>0.8689</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="8" t="inlineStr">
+    <row r="510">
+      <c r="A510" s="8" t="inlineStr">
         <is>
           <t>shisa-ai/shisa-v1-llama3-8b.lr-2e4</t>
         </is>
       </c>
-      <c r="B509" s="9" t="n">
+      <c r="B510" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C509" s="10" t="n">
+      <c r="C510" s="10" t="n">
         <v>4.8435</v>
       </c>
-      <c r="D509" s="10" t="n">
+      <c r="D510" s="10" t="n">
         <v>4.7051</v>
       </c>
-      <c r="E509" s="9" t="n">
+      <c r="E510" s="9" t="n">
         <v>4.59</v>
       </c>
-      <c r="F509" s="9" t="n">
+      <c r="F510" s="9" t="n">
         <v>5.6318</v>
       </c>
-      <c r="G509" s="9" t="n">
+      <c r="G510" s="9" t="n">
         <v>4.6194</v>
       </c>
-      <c r="H509" s="9" t="n">
+      <c r="H510" s="9" t="n">
         <v>3.9792</v>
       </c>
-      <c r="I509" s="10" t="n">
+      <c r="I510" s="10" t="n">
         <v>3.926</v>
       </c>
-      <c r="J509" s="9" t="n">
+      <c r="J510" s="9" t="n">
         <v>4.04</v>
       </c>
-      <c r="K509" s="9" t="n">
+      <c r="K510" s="9" t="n">
         <v>5.3667</v>
       </c>
-      <c r="L509" s="9" t="n">
+      <c r="L510" s="9" t="n">
         <v>3.0556</v>
       </c>
-      <c r="M509" s="9" t="n">
+      <c r="M510" s="9" t="n">
         <v>3.2417</v>
       </c>
-      <c r="N509" s="10" t="n">
+      <c r="N510" s="10" t="n">
         <v>3.9238</v>
       </c>
-      <c r="O509" s="9" t="n">
+      <c r="O510" s="9" t="n">
         <v>4.7</v>
       </c>
-      <c r="P509" s="9" t="n">
+      <c r="P510" s="9" t="n">
         <v>4.4833</v>
       </c>
-      <c r="Q509" s="9" t="n">
+      <c r="Q510" s="9" t="n">
         <v>3.3784</v>
       </c>
-      <c r="R509" s="9" t="n">
+      <c r="R510" s="9" t="n">
         <v>3.1333</v>
       </c>
-      <c r="S509" s="10" t="inlineStr"/>
-      <c r="T509" s="9" t="inlineStr"/>
-      <c r="U509" s="9" t="inlineStr"/>
-      <c r="V509" s="9" t="inlineStr"/>
-      <c r="W509" s="9" t="inlineStr"/>
-      <c r="X509" s="10" t="inlineStr"/>
-      <c r="Y509" s="9" t="inlineStr"/>
-      <c r="Z509" s="9" t="inlineStr"/>
-      <c r="AA509" s="9" t="inlineStr"/>
-      <c r="AB509" s="9" t="inlineStr"/>
-      <c r="AC509" s="10" t="n">
+      <c r="S510" s="10" t="inlineStr"/>
+      <c r="T510" s="9" t="inlineStr"/>
+      <c r="U510" s="9" t="inlineStr"/>
+      <c r="V510" s="9" t="inlineStr"/>
+      <c r="W510" s="9" t="inlineStr"/>
+      <c r="X510" s="10" t="inlineStr"/>
+      <c r="Y510" s="9" t="inlineStr"/>
+      <c r="Z510" s="9" t="inlineStr"/>
+      <c r="AA510" s="9" t="inlineStr"/>
+      <c r="AB510" s="9" t="inlineStr"/>
+      <c r="AC510" s="10" t="n">
         <v>5.365</v>
       </c>
-      <c r="AD509" s="9" t="n">
+      <c r="AD510" s="9" t="n">
         <v>4.38</v>
       </c>
-      <c r="AE509" s="9" t="n">
+      <c r="AE510" s="9" t="n">
         <v>6.35</v>
       </c>
-      <c r="AF509" s="9" t="n">
+      <c r="AF510" s="9" t="n">
         <v>5.8718</v>
       </c>
-      <c r="AG509" s="9" t="n">
+      <c r="AG510" s="9" t="n">
         <v>4.8583</v>
       </c>
-      <c r="AH509" s="10" t="n">
+      <c r="AH510" s="10" t="n">
         <v>5.3781</v>
       </c>
-      <c r="AI509" s="9" t="n">
+      <c r="AI510" s="9" t="n">
         <v>5.24</v>
       </c>
-      <c r="AJ509" s="9" t="n">
+      <c r="AJ510" s="9" t="n">
         <v>6.339</v>
       </c>
-      <c r="AK509" s="9" t="n">
+      <c r="AK510" s="9" t="n">
         <v>5.25</v>
       </c>
-      <c r="AL509" s="9" t="n">
+      <c r="AL510" s="9" t="n">
         <v>4.6833</v>
       </c>
-      <c r="AM509" s="11" t="n">
+      <c r="AM510" s="11" t="n">
         <v>0.2344</v>
       </c>
-      <c r="AN509" s="11" t="n">
+      <c r="AN510" s="11" t="n">
         <v>0.8754</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="4" t="inlineStr">
-        <is>
-          <t>017-qwen3-8b-v2-dpo405b-clr</t>
-        </is>
-      </c>
-      <c r="B510" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C510" s="6" t="inlineStr"/>
-      <c r="D510" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="E510" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="F510" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="G510" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="H510" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I510" s="6" t="inlineStr"/>
-      <c r="J510" s="5" t="inlineStr"/>
-      <c r="K510" s="5" t="inlineStr"/>
-      <c r="L510" s="5" t="inlineStr"/>
-      <c r="M510" s="5" t="inlineStr"/>
-      <c r="N510" s="6" t="inlineStr"/>
-      <c r="O510" s="5" t="inlineStr"/>
-      <c r="P510" s="5" t="inlineStr"/>
-      <c r="Q510" s="5" t="inlineStr"/>
-      <c r="R510" s="5" t="inlineStr"/>
-      <c r="S510" s="6" t="n">
-        <v>4.6651</v>
-      </c>
-      <c r="T510" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="U510" s="5" t="n">
-        <v>4.3929</v>
-      </c>
-      <c r="V510" s="5" t="n">
-        <v>3.4474</v>
-      </c>
-      <c r="W510" s="5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X510" s="6" t="inlineStr"/>
-      <c r="Y510" s="5" t="inlineStr"/>
-      <c r="Z510" s="5" t="inlineStr"/>
-      <c r="AA510" s="5" t="inlineStr"/>
-      <c r="AB510" s="5" t="inlineStr"/>
-      <c r="AC510" s="6" t="inlineStr"/>
-      <c r="AD510" s="5" t="inlineStr"/>
-      <c r="AE510" s="5" t="inlineStr"/>
-      <c r="AF510" s="5" t="inlineStr"/>
-      <c r="AG510" s="5" t="inlineStr"/>
-      <c r="AH510" s="6" t="inlineStr"/>
-      <c r="AI510" s="5" t="inlineStr"/>
-      <c r="AJ510" s="5" t="inlineStr"/>
-      <c r="AK510" s="5" t="inlineStr"/>
-      <c r="AL510" s="5" t="inlineStr"/>
-      <c r="AM510" s="7" t="inlineStr"/>
-      <c r="AN510" s="7" t="n">
-        <v>0.4573</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="4" t="inlineStr">
         <is>
-          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
+          <t>017-qwen3-8b-v2-dpo405b-clr</t>
         </is>
       </c>
       <c r="B511" s="5" t="n">
@@ -46704,19 +46706,19 @@
       </c>
       <c r="C511" s="6" t="inlineStr"/>
       <c r="D511" s="6" t="n">
-        <v>4.6475</v>
+        <v>4.6651</v>
       </c>
       <c r="E511" s="5" t="n">
-        <v>4.64</v>
+        <v>6.72</v>
       </c>
       <c r="F511" s="5" t="n">
-        <v>4.0667</v>
+        <v>4.3929</v>
       </c>
       <c r="G511" s="5" t="n">
-        <v>5.1</v>
+        <v>3.4474</v>
       </c>
       <c r="H511" s="5" t="n">
-        <v>4.7833</v>
+        <v>4.1</v>
       </c>
       <c r="I511" s="6" t="inlineStr"/>
       <c r="J511" s="5" t="inlineStr"/>
@@ -46729,19 +46731,19 @@
       <c r="Q511" s="5" t="inlineStr"/>
       <c r="R511" s="5" t="inlineStr"/>
       <c r="S511" s="6" t="n">
-        <v>4.6475</v>
+        <v>4.6651</v>
       </c>
       <c r="T511" s="5" t="n">
-        <v>4.64</v>
+        <v>6.72</v>
       </c>
       <c r="U511" s="5" t="n">
-        <v>4.0667</v>
+        <v>4.3929</v>
       </c>
       <c r="V511" s="5" t="n">
-        <v>5.1</v>
+        <v>3.4474</v>
       </c>
       <c r="W511" s="5" t="n">
-        <v>4.7833</v>
+        <v>4.1</v>
       </c>
       <c r="X511" s="6" t="inlineStr"/>
       <c r="Y511" s="5" t="inlineStr"/>
@@ -46760,13 +46762,13 @@
       <c r="AL511" s="5" t="inlineStr"/>
       <c r="AM511" s="7" t="inlineStr"/>
       <c r="AN511" s="7" t="n">
-        <v>0.8616</v>
+        <v>0.4573</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="4" t="inlineStr">
         <is>
-          <t>036-rakuten-2.0-mini-instruct-1.5b-v2new-sft</t>
+          <t>034-rakuten-2.0-mini-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B512" s="5" t="n">
@@ -46774,19 +46776,19 @@
       </c>
       <c r="C512" s="6" t="inlineStr"/>
       <c r="D512" s="6" t="n">
-        <v>4.6267</v>
+        <v>4.6475</v>
       </c>
       <c r="E512" s="5" t="n">
-        <v>5.44</v>
+        <v>4.64</v>
       </c>
       <c r="F512" s="5" t="n">
-        <v>3.7833</v>
+        <v>4.0667</v>
       </c>
       <c r="G512" s="5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H512" s="5" t="n">
-        <v>4.5833</v>
+        <v>4.7833</v>
       </c>
       <c r="I512" s="6" t="inlineStr"/>
       <c r="J512" s="5" t="inlineStr"/>
@@ -46799,19 +46801,19 @@
       <c r="Q512" s="5" t="inlineStr"/>
       <c r="R512" s="5" t="inlineStr"/>
       <c r="S512" s="6" t="n">
-        <v>4.6267</v>
+        <v>4.6475</v>
       </c>
       <c r="T512" s="5" t="n">
-        <v>5.44</v>
+        <v>4.64</v>
       </c>
       <c r="U512" s="5" t="n">
-        <v>3.7833</v>
+        <v>4.0667</v>
       </c>
       <c r="V512" s="5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="W512" s="5" t="n">
-        <v>4.5833</v>
+        <v>4.7833</v>
       </c>
       <c r="X512" s="6" t="inlineStr"/>
       <c r="Y512" s="5" t="inlineStr"/>
@@ -46830,13 +46832,13 @@
       <c r="AL512" s="5" t="inlineStr"/>
       <c r="AM512" s="7" t="inlineStr"/>
       <c r="AN512" s="7" t="n">
-        <v>0.8293</v>
+        <v>0.8616</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="4" t="inlineStr">
         <is>
-          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
+          <t>036-rakuten-2.0-mini-instruct-1.5b-v2new-sft</t>
         </is>
       </c>
       <c r="B513" s="5" t="n">
@@ -46844,19 +46846,19 @@
       </c>
       <c r="C513" s="6" t="inlineStr"/>
       <c r="D513" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6267</v>
       </c>
       <c r="E513" s="5" t="n">
-        <v>5</v>
+        <v>5.44</v>
       </c>
       <c r="F513" s="5" t="n">
-        <v>4.1833</v>
+        <v>3.7833</v>
       </c>
       <c r="G513" s="5" t="n">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="H513" s="5" t="n">
-        <v>3.95</v>
+        <v>4.5833</v>
       </c>
       <c r="I513" s="6" t="inlineStr"/>
       <c r="J513" s="5" t="inlineStr"/>
@@ -46869,19 +46871,19 @@
       <c r="Q513" s="5" t="inlineStr"/>
       <c r="R513" s="5" t="inlineStr"/>
       <c r="S513" s="6" t="n">
-        <v>4.5708</v>
+        <v>4.6267</v>
       </c>
       <c r="T513" s="5" t="n">
-        <v>5</v>
+        <v>5.44</v>
       </c>
       <c r="U513" s="5" t="n">
-        <v>4.1833</v>
+        <v>3.7833</v>
       </c>
       <c r="V513" s="5" t="n">
-        <v>5.15</v>
+        <v>4.7</v>
       </c>
       <c r="W513" s="5" t="n">
-        <v>3.95</v>
+        <v>4.5833</v>
       </c>
       <c r="X513" s="6" t="inlineStr"/>
       <c r="Y513" s="5" t="inlineStr"/>
@@ -46900,267 +46902,267 @@
       <c r="AL513" s="5" t="inlineStr"/>
       <c r="AM513" s="7" t="inlineStr"/>
       <c r="AN513" s="7" t="n">
+        <v>0.8293</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="4" t="inlineStr">
+        <is>
+          <t>Rakuten/RakutenAI-2.0-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B514" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C514" s="6" t="inlineStr"/>
+      <c r="D514" s="6" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="E514" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F514" s="5" t="n">
+        <v>4.1833</v>
+      </c>
+      <c r="G514" s="5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H514" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I514" s="6" t="inlineStr"/>
+      <c r="J514" s="5" t="inlineStr"/>
+      <c r="K514" s="5" t="inlineStr"/>
+      <c r="L514" s="5" t="inlineStr"/>
+      <c r="M514" s="5" t="inlineStr"/>
+      <c r="N514" s="6" t="inlineStr"/>
+      <c r="O514" s="5" t="inlineStr"/>
+      <c r="P514" s="5" t="inlineStr"/>
+      <c r="Q514" s="5" t="inlineStr"/>
+      <c r="R514" s="5" t="inlineStr"/>
+      <c r="S514" s="6" t="n">
+        <v>4.5708</v>
+      </c>
+      <c r="T514" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U514" s="5" t="n">
+        <v>4.1833</v>
+      </c>
+      <c r="V514" s="5" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W514" s="5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="X514" s="6" t="inlineStr"/>
+      <c r="Y514" s="5" t="inlineStr"/>
+      <c r="Z514" s="5" t="inlineStr"/>
+      <c r="AA514" s="5" t="inlineStr"/>
+      <c r="AB514" s="5" t="inlineStr"/>
+      <c r="AC514" s="6" t="inlineStr"/>
+      <c r="AD514" s="5" t="inlineStr"/>
+      <c r="AE514" s="5" t="inlineStr"/>
+      <c r="AF514" s="5" t="inlineStr"/>
+      <c r="AG514" s="5" t="inlineStr"/>
+      <c r="AH514" s="6" t="inlineStr"/>
+      <c r="AI514" s="5" t="inlineStr"/>
+      <c r="AJ514" s="5" t="inlineStr"/>
+      <c r="AK514" s="5" t="inlineStr"/>
+      <c r="AL514" s="5" t="inlineStr"/>
+      <c r="AM514" s="7" t="inlineStr"/>
+      <c r="AN514" s="7" t="n">
         <v>0.872</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="8" t="inlineStr">
+    <row r="515">
+      <c r="A515" s="8" t="inlineStr">
         <is>
           <t>shisa-chotto-lfm2-350m-dpo2</t>
         </is>
       </c>
-      <c r="B514" s="9" t="n">
+      <c r="B515" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C514" s="10" t="inlineStr"/>
-      <c r="D514" s="10" t="n">
+      <c r="C515" s="10" t="inlineStr"/>
+      <c r="D515" s="10" t="n">
         <v>4.5063</v>
       </c>
-      <c r="E514" s="9" t="n">
+      <c r="E515" s="9" t="n">
         <v>4.3</v>
       </c>
-      <c r="F514" s="9" t="n">
+      <c r="F515" s="9" t="n">
         <v>4.75</v>
       </c>
-      <c r="G514" s="9" t="n">
+      <c r="G515" s="9" t="n">
         <v>5.025</v>
       </c>
-      <c r="H514" s="9" t="n">
+      <c r="H515" s="9" t="n">
         <v>3.95</v>
       </c>
-      <c r="I514" s="10" t="inlineStr"/>
-      <c r="J514" s="9" t="inlineStr"/>
-      <c r="K514" s="9" t="inlineStr"/>
-      <c r="L514" s="9" t="inlineStr"/>
-      <c r="M514" s="9" t="inlineStr"/>
-      <c r="N514" s="10" t="inlineStr"/>
-      <c r="O514" s="9" t="inlineStr"/>
-      <c r="P514" s="9" t="inlineStr"/>
-      <c r="Q514" s="9" t="inlineStr"/>
-      <c r="R514" s="9" t="inlineStr"/>
-      <c r="S514" s="10" t="n">
+      <c r="I515" s="10" t="inlineStr"/>
+      <c r="J515" s="9" t="inlineStr"/>
+      <c r="K515" s="9" t="inlineStr"/>
+      <c r="L515" s="9" t="inlineStr"/>
+      <c r="M515" s="9" t="inlineStr"/>
+      <c r="N515" s="10" t="inlineStr"/>
+      <c r="O515" s="9" t="inlineStr"/>
+      <c r="P515" s="9" t="inlineStr"/>
+      <c r="Q515" s="9" t="inlineStr"/>
+      <c r="R515" s="9" t="inlineStr"/>
+      <c r="S515" s="10" t="n">
         <v>4.5063</v>
       </c>
-      <c r="T514" s="9" t="n">
+      <c r="T515" s="9" t="n">
         <v>4.3</v>
       </c>
-      <c r="U514" s="9" t="n">
+      <c r="U515" s="9" t="n">
         <v>4.75</v>
       </c>
-      <c r="V514" s="9" t="n">
+      <c r="V515" s="9" t="n">
         <v>5.025</v>
       </c>
-      <c r="W514" s="9" t="n">
+      <c r="W515" s="9" t="n">
         <v>3.95</v>
       </c>
-      <c r="X514" s="10" t="inlineStr"/>
-      <c r="Y514" s="9" t="inlineStr"/>
-      <c r="Z514" s="9" t="inlineStr"/>
-      <c r="AA514" s="9" t="inlineStr"/>
-      <c r="AB514" s="9" t="inlineStr"/>
-      <c r="AC514" s="10" t="inlineStr"/>
-      <c r="AD514" s="9" t="inlineStr"/>
-      <c r="AE514" s="9" t="inlineStr"/>
-      <c r="AF514" s="9" t="inlineStr"/>
-      <c r="AG514" s="9" t="inlineStr"/>
-      <c r="AH514" s="10" t="inlineStr"/>
-      <c r="AI514" s="9" t="inlineStr"/>
-      <c r="AJ514" s="9" t="inlineStr"/>
-      <c r="AK514" s="9" t="inlineStr"/>
-      <c r="AL514" s="9" t="inlineStr"/>
-      <c r="AM514" s="11" t="inlineStr"/>
-      <c r="AN514" s="11" t="n">
+      <c r="X515" s="10" t="inlineStr"/>
+      <c r="Y515" s="9" t="inlineStr"/>
+      <c r="Z515" s="9" t="inlineStr"/>
+      <c r="AA515" s="9" t="inlineStr"/>
+      <c r="AB515" s="9" t="inlineStr"/>
+      <c r="AC515" s="10" t="inlineStr"/>
+      <c r="AD515" s="9" t="inlineStr"/>
+      <c r="AE515" s="9" t="inlineStr"/>
+      <c r="AF515" s="9" t="inlineStr"/>
+      <c r="AG515" s="9" t="inlineStr"/>
+      <c r="AH515" s="10" t="inlineStr"/>
+      <c r="AI515" s="9" t="inlineStr"/>
+      <c r="AJ515" s="9" t="inlineStr"/>
+      <c r="AK515" s="9" t="inlineStr"/>
+      <c r="AL515" s="9" t="inlineStr"/>
+      <c r="AM515" s="11" t="inlineStr"/>
+      <c r="AN515" s="11" t="n">
         <v>0.8632</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="4" t="inlineStr">
+    <row r="516">
+      <c r="A516" s="4" t="inlineStr">
         <is>
           <t>meta-llama/Llama-2-7b-chat-hf</t>
         </is>
       </c>
-      <c r="B515" s="5" t="n">
+      <c r="B516" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C515" s="6" t="n">
+      <c r="C516" s="6" t="n">
         <v>4.7321</v>
       </c>
-      <c r="D515" s="6" t="n">
+      <c r="D516" s="6" t="n">
         <v>4.4402</v>
       </c>
-      <c r="E515" s="5" t="n">
+      <c r="E516" s="5" t="n">
         <v>4.7255</v>
       </c>
-      <c r="F515" s="5" t="n">
+      <c r="F516" s="5" t="n">
         <v>5.557</v>
       </c>
-      <c r="G515" s="5" t="n">
+      <c r="G516" s="5" t="n">
         <v>3.0535</v>
       </c>
-      <c r="H515" s="5" t="n">
+      <c r="H516" s="5" t="n">
         <v>4.425</v>
       </c>
-      <c r="I515" s="6" t="n">
+      <c r="I516" s="6" t="n">
         <v>3.9594</v>
       </c>
-      <c r="J515" s="5" t="n">
+      <c r="J516" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="K515" s="5" t="n">
+      <c r="K516" s="5" t="n">
         <v>5.1139</v>
       </c>
-      <c r="L515" s="5" t="n">
+      <c r="L516" s="5" t="n">
         <v>2.8571</v>
       </c>
-      <c r="M515" s="5" t="n">
+      <c r="M516" s="5" t="n">
         <v>3.6667</v>
       </c>
-      <c r="N515" s="6" t="n">
+      <c r="N516" s="6" t="n">
         <v>4.0554</v>
       </c>
-      <c r="O515" s="5" t="n">
+      <c r="O516" s="5" t="n">
         <v>4.78</v>
       </c>
-      <c r="P515" s="5" t="n">
+      <c r="P516" s="5" t="n">
         <v>5.45</v>
       </c>
-      <c r="Q515" s="5" t="n">
+      <c r="Q516" s="5" t="n">
         <v>2.075</v>
       </c>
-      <c r="R515" s="5" t="n">
+      <c r="R516" s="5" t="n">
         <v>3.9167</v>
       </c>
-      <c r="S515" s="6" t="n">
+      <c r="S516" s="6" t="n">
         <v>3.5679</v>
       </c>
-      <c r="T515" s="5" t="n">
+      <c r="T516" s="5" t="n">
         <v>4.58</v>
       </c>
-      <c r="U515" s="5" t="n">
+      <c r="U516" s="5" t="n">
         <v>4.2833</v>
       </c>
-      <c r="V515" s="5" t="n">
+      <c r="V516" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="W515" s="5" t="n">
+      <c r="W516" s="5" t="n">
         <v>3.4083</v>
       </c>
-      <c r="X515" s="6" t="inlineStr"/>
-      <c r="Y515" s="5" t="inlineStr"/>
-      <c r="Z515" s="5" t="inlineStr"/>
-      <c r="AA515" s="5" t="inlineStr"/>
-      <c r="AB515" s="5" t="inlineStr"/>
-      <c r="AC515" s="6" t="n">
+      <c r="X516" s="6" t="inlineStr"/>
+      <c r="Y516" s="5" t="inlineStr"/>
+      <c r="Z516" s="5" t="inlineStr"/>
+      <c r="AA516" s="5" t="inlineStr"/>
+      <c r="AB516" s="5" t="inlineStr"/>
+      <c r="AC516" s="6" t="n">
         <v>4.7415</v>
       </c>
-      <c r="AD515" s="5" t="n">
+      <c r="AD516" s="5" t="n">
         <v>4.6465</v>
       </c>
-      <c r="AE515" s="5" t="n">
+      <c r="AE516" s="5" t="n">
         <v>6.0125</v>
       </c>
-      <c r="AF515" s="5" t="n">
+      <c r="AF516" s="5" t="n">
         <v>2.9487</v>
       </c>
-      <c r="AG515" s="5" t="n">
+      <c r="AG516" s="5" t="n">
         <v>5.3583</v>
       </c>
-      <c r="AH515" s="6" t="n">
+      <c r="AH516" s="6" t="n">
         <v>5.7871</v>
       </c>
-      <c r="AI515" s="5" t="n">
+      <c r="AI516" s="5" t="n">
         <v>5.42</v>
       </c>
-      <c r="AJ515" s="5" t="n">
+      <c r="AJ516" s="5" t="n">
         <v>6.6282</v>
       </c>
-      <c r="AK515" s="5" t="n">
+      <c r="AK516" s="5" t="n">
         <v>5.325</v>
       </c>
-      <c r="AL515" s="5" t="n">
+      <c r="AL516" s="5" t="n">
         <v>5.775</v>
       </c>
-      <c r="AM515" s="7" t="n">
+      <c r="AM516" s="7" t="n">
         <v>0.1668</v>
       </c>
-      <c r="AN515" s="7" t="n">
+      <c r="AN516" s="7" t="n">
         <v>0.0982</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="8" t="inlineStr">
-        <is>
-          <t>shisa-chotto-lfm2-350m-dpo3</t>
-        </is>
-      </c>
-      <c r="B516" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C516" s="10" t="inlineStr"/>
-      <c r="D516" s="10" t="n">
-        <v>4.4296</v>
-      </c>
-      <c r="E516" s="9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F516" s="9" t="n">
-        <v>4.5667</v>
-      </c>
-      <c r="G516" s="9" t="n">
-        <v>4.825</v>
-      </c>
-      <c r="H516" s="9" t="n">
-        <v>4.1667</v>
-      </c>
-      <c r="I516" s="10" t="inlineStr"/>
-      <c r="J516" s="9" t="inlineStr"/>
-      <c r="K516" s="9" t="inlineStr"/>
-      <c r="L516" s="9" t="inlineStr"/>
-      <c r="M516" s="9" t="inlineStr"/>
-      <c r="N516" s="10" t="inlineStr"/>
-      <c r="O516" s="9" t="inlineStr"/>
-      <c r="P516" s="9" t="inlineStr"/>
-      <c r="Q516" s="9" t="inlineStr"/>
-      <c r="R516" s="9" t="inlineStr"/>
-      <c r="S516" s="10" t="n">
-        <v>4.4296</v>
-      </c>
-      <c r="T516" s="9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="U516" s="9" t="n">
-        <v>4.5667</v>
-      </c>
-      <c r="V516" s="9" t="n">
-        <v>4.825</v>
-      </c>
-      <c r="W516" s="9" t="n">
-        <v>4.1667</v>
-      </c>
-      <c r="X516" s="10" t="inlineStr"/>
-      <c r="Y516" s="9" t="inlineStr"/>
-      <c r="Z516" s="9" t="inlineStr"/>
-      <c r="AA516" s="9" t="inlineStr"/>
-      <c r="AB516" s="9" t="inlineStr"/>
-      <c r="AC516" s="10" t="inlineStr"/>
-      <c r="AD516" s="9" t="inlineStr"/>
-      <c r="AE516" s="9" t="inlineStr"/>
-      <c r="AF516" s="9" t="inlineStr"/>
-      <c r="AG516" s="9" t="inlineStr"/>
-      <c r="AH516" s="10" t="inlineStr"/>
-      <c r="AI516" s="9" t="inlineStr"/>
-      <c r="AJ516" s="9" t="inlineStr"/>
-      <c r="AK516" s="9" t="inlineStr"/>
-      <c r="AL516" s="9" t="inlineStr"/>
-      <c r="AM516" s="11" t="inlineStr"/>
-      <c r="AN516" s="11" t="n">
-        <v>0.8645</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="8" t="inlineStr">
         <is>
-          <t>shisa-chotto-lfm2-350m-sft</t>
+          <t>shisa-chotto-lfm2-350m-dpo3</t>
         </is>
       </c>
       <c r="B517" s="9" t="n">
@@ -47168,19 +47170,19 @@
       </c>
       <c r="C517" s="10" t="inlineStr"/>
       <c r="D517" s="10" t="n">
-        <v>4.3621</v>
+        <v>4.4296</v>
       </c>
       <c r="E517" s="9" t="n">
-        <v>4.44</v>
+        <v>4.16</v>
       </c>
       <c r="F517" s="9" t="n">
-        <v>4.45</v>
+        <v>4.5667</v>
       </c>
       <c r="G517" s="9" t="n">
-        <v>4.525</v>
+        <v>4.825</v>
       </c>
       <c r="H517" s="9" t="n">
-        <v>4.0333</v>
+        <v>4.1667</v>
       </c>
       <c r="I517" s="10" t="inlineStr"/>
       <c r="J517" s="9" t="inlineStr"/>
@@ -47193,19 +47195,19 @@
       <c r="Q517" s="9" t="inlineStr"/>
       <c r="R517" s="9" t="inlineStr"/>
       <c r="S517" s="10" t="n">
-        <v>4.3621</v>
+        <v>4.4296</v>
       </c>
       <c r="T517" s="9" t="n">
-        <v>4.44</v>
+        <v>4.16</v>
       </c>
       <c r="U517" s="9" t="n">
-        <v>4.45</v>
+        <v>4.5667</v>
       </c>
       <c r="V517" s="9" t="n">
-        <v>4.525</v>
+        <v>4.825</v>
       </c>
       <c r="W517" s="9" t="n">
-        <v>4.0333</v>
+        <v>4.1667</v>
       </c>
       <c r="X517" s="10" t="inlineStr"/>
       <c r="Y517" s="9" t="inlineStr"/>
@@ -47224,13 +47226,13 @@
       <c r="AL517" s="9" t="inlineStr"/>
       <c r="AM517" s="11" t="inlineStr"/>
       <c r="AN517" s="11" t="n">
-        <v>0.8611</v>
+        <v>0.8645</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="8" t="inlineStr">
         <is>
-          <t>shisa-v2.1c-lfm2-350m-sft0-tlonly</t>
+          <t>shisa-chotto-lfm2-350m-sft</t>
         </is>
       </c>
       <c r="B518" s="9" t="n">
@@ -47238,19 +47240,19 @@
       </c>
       <c r="C518" s="10" t="inlineStr"/>
       <c r="D518" s="10" t="n">
-        <v>4.2642</v>
+        <v>4.3621</v>
       </c>
       <c r="E518" s="9" t="n">
         <v>4.44</v>
       </c>
       <c r="F518" s="9" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="G518" s="9" t="n">
         <v>4.525</v>
       </c>
       <c r="H518" s="9" t="n">
-        <v>3.9917</v>
+        <v>4.0333</v>
       </c>
       <c r="I518" s="10" t="inlineStr"/>
       <c r="J518" s="9" t="inlineStr"/>
@@ -47263,19 +47265,19 @@
       <c r="Q518" s="9" t="inlineStr"/>
       <c r="R518" s="9" t="inlineStr"/>
       <c r="S518" s="10" t="n">
-        <v>4.2642</v>
+        <v>4.3621</v>
       </c>
       <c r="T518" s="9" t="n">
         <v>4.44</v>
       </c>
       <c r="U518" s="9" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="V518" s="9" t="n">
         <v>4.525</v>
       </c>
       <c r="W518" s="9" t="n">
-        <v>3.9917</v>
+        <v>4.0333</v>
       </c>
       <c r="X518" s="10" t="inlineStr"/>
       <c r="Y518" s="9" t="inlineStr"/>
@@ -47294,331 +47296,297 @@
       <c r="AL518" s="9" t="inlineStr"/>
       <c r="AM518" s="11" t="inlineStr"/>
       <c r="AN518" s="11" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="8" t="inlineStr">
+        <is>
+          <t>shisa-v2.1c-lfm2-350m-sft0-tlonly</t>
+        </is>
+      </c>
+      <c r="B519" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" s="10" t="inlineStr"/>
+      <c r="D519" s="10" t="n">
+        <v>4.2642</v>
+      </c>
+      <c r="E519" s="9" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="F519" s="9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G519" s="9" t="n">
+        <v>4.525</v>
+      </c>
+      <c r="H519" s="9" t="n">
+        <v>3.9917</v>
+      </c>
+      <c r="I519" s="10" t="inlineStr"/>
+      <c r="J519" s="9" t="inlineStr"/>
+      <c r="K519" s="9" t="inlineStr"/>
+      <c r="L519" s="9" t="inlineStr"/>
+      <c r="M519" s="9" t="inlineStr"/>
+      <c r="N519" s="10" t="inlineStr"/>
+      <c r="O519" s="9" t="inlineStr"/>
+      <c r="P519" s="9" t="inlineStr"/>
+      <c r="Q519" s="9" t="inlineStr"/>
+      <c r="R519" s="9" t="inlineStr"/>
+      <c r="S519" s="10" t="n">
+        <v>4.2642</v>
+      </c>
+      <c r="T519" s="9" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U519" s="9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V519" s="9" t="n">
+        <v>4.525</v>
+      </c>
+      <c r="W519" s="9" t="n">
+        <v>3.9917</v>
+      </c>
+      <c r="X519" s="10" t="inlineStr"/>
+      <c r="Y519" s="9" t="inlineStr"/>
+      <c r="Z519" s="9" t="inlineStr"/>
+      <c r="AA519" s="9" t="inlineStr"/>
+      <c r="AB519" s="9" t="inlineStr"/>
+      <c r="AC519" s="10" t="inlineStr"/>
+      <c r="AD519" s="9" t="inlineStr"/>
+      <c r="AE519" s="9" t="inlineStr"/>
+      <c r="AF519" s="9" t="inlineStr"/>
+      <c r="AG519" s="9" t="inlineStr"/>
+      <c r="AH519" s="10" t="inlineStr"/>
+      <c r="AI519" s="9" t="inlineStr"/>
+      <c r="AJ519" s="9" t="inlineStr"/>
+      <c r="AK519" s="9" t="inlineStr"/>
+      <c r="AL519" s="9" t="inlineStr"/>
+      <c r="AM519" s="11" t="inlineStr"/>
+      <c r="AN519" s="11" t="n">
         <v>0.8659</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="4" t="inlineStr">
+    <row r="520">
+      <c r="A520" s="4" t="inlineStr">
         <is>
           <t>Qwen/Qwen3-0.6B</t>
         </is>
       </c>
-      <c r="B519" s="5" t="n">
+      <c r="B520" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C519" s="6" t="inlineStr"/>
-      <c r="D519" s="6" t="n">
+      <c r="C520" s="6" t="inlineStr"/>
+      <c r="D520" s="6" t="n">
         <v>4.1421</v>
       </c>
-      <c r="E519" s="5" t="n">
+      <c r="E520" s="5" t="n">
         <v>5.16</v>
       </c>
-      <c r="F519" s="5" t="n">
+      <c r="F520" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G519" s="5" t="n">
+      <c r="G520" s="5" t="n">
         <v>3.175</v>
       </c>
-      <c r="H519" s="5" t="n">
+      <c r="H520" s="5" t="n">
         <v>4.2333</v>
       </c>
-      <c r="I519" s="6" t="inlineStr"/>
-      <c r="J519" s="5" t="inlineStr"/>
-      <c r="K519" s="5" t="inlineStr"/>
-      <c r="L519" s="5" t="inlineStr"/>
-      <c r="M519" s="5" t="inlineStr"/>
-      <c r="N519" s="6" t="inlineStr"/>
-      <c r="O519" s="5" t="inlineStr"/>
-      <c r="P519" s="5" t="inlineStr"/>
-      <c r="Q519" s="5" t="inlineStr"/>
-      <c r="R519" s="5" t="inlineStr"/>
-      <c r="S519" s="6" t="n">
+      <c r="I520" s="6" t="inlineStr"/>
+      <c r="J520" s="5" t="inlineStr"/>
+      <c r="K520" s="5" t="inlineStr"/>
+      <c r="L520" s="5" t="inlineStr"/>
+      <c r="M520" s="5" t="inlineStr"/>
+      <c r="N520" s="6" t="inlineStr"/>
+      <c r="O520" s="5" t="inlineStr"/>
+      <c r="P520" s="5" t="inlineStr"/>
+      <c r="Q520" s="5" t="inlineStr"/>
+      <c r="R520" s="5" t="inlineStr"/>
+      <c r="S520" s="6" t="n">
         <v>4.1421</v>
       </c>
-      <c r="T519" s="5" t="n">
+      <c r="T520" s="5" t="n">
         <v>5.16</v>
       </c>
-      <c r="U519" s="5" t="n">
+      <c r="U520" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="V519" s="5" t="n">
+      <c r="V520" s="5" t="n">
         <v>3.175</v>
       </c>
-      <c r="W519" s="5" t="n">
+      <c r="W520" s="5" t="n">
         <v>4.2333</v>
       </c>
-      <c r="X519" s="6" t="inlineStr"/>
-      <c r="Y519" s="5" t="inlineStr"/>
-      <c r="Z519" s="5" t="inlineStr"/>
-      <c r="AA519" s="5" t="inlineStr"/>
-      <c r="AB519" s="5" t="inlineStr"/>
-      <c r="AC519" s="6" t="inlineStr"/>
-      <c r="AD519" s="5" t="inlineStr"/>
-      <c r="AE519" s="5" t="inlineStr"/>
-      <c r="AF519" s="5" t="inlineStr"/>
-      <c r="AG519" s="5" t="inlineStr"/>
-      <c r="AH519" s="6" t="inlineStr"/>
-      <c r="AI519" s="5" t="inlineStr"/>
-      <c r="AJ519" s="5" t="inlineStr"/>
-      <c r="AK519" s="5" t="inlineStr"/>
-      <c r="AL519" s="5" t="inlineStr"/>
-      <c r="AM519" s="7" t="inlineStr"/>
-      <c r="AN519" s="7" t="n">
+      <c r="X520" s="6" t="inlineStr"/>
+      <c r="Y520" s="5" t="inlineStr"/>
+      <c r="Z520" s="5" t="inlineStr"/>
+      <c r="AA520" s="5" t="inlineStr"/>
+      <c r="AB520" s="5" t="inlineStr"/>
+      <c r="AC520" s="6" t="inlineStr"/>
+      <c r="AD520" s="5" t="inlineStr"/>
+      <c r="AE520" s="5" t="inlineStr"/>
+      <c r="AF520" s="5" t="inlineStr"/>
+      <c r="AG520" s="5" t="inlineStr"/>
+      <c r="AH520" s="6" t="inlineStr"/>
+      <c r="AI520" s="5" t="inlineStr"/>
+      <c r="AJ520" s="5" t="inlineStr"/>
+      <c r="AK520" s="5" t="inlineStr"/>
+      <c r="AL520" s="5" t="inlineStr"/>
+      <c r="AM520" s="7" t="inlineStr"/>
+      <c r="AN520" s="7" t="n">
         <v>0.8378</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="8" t="inlineStr">
+    <row r="521">
+      <c r="A521" s="8" t="inlineStr">
         <is>
           <t>spin-01-a55.test-shisa-v2-llama-3.1-8b-iter2</t>
         </is>
       </c>
-      <c r="B520" s="9" t="n">
+      <c r="B521" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="C520" s="10" t="n">
+      <c r="C521" s="10" t="n">
         <v>4.1202</v>
       </c>
-      <c r="D520" s="10" t="n">
+      <c r="D521" s="10" t="n">
         <v>4.1226</v>
       </c>
-      <c r="E520" s="9" t="n">
+      <c r="E521" s="9" t="n">
         <v>4.9933</v>
       </c>
-      <c r="F520" s="9" t="n">
+      <c r="F521" s="9" t="n">
         <v>3.8547</v>
       </c>
-      <c r="G520" s="9" t="n">
+      <c r="G521" s="9" t="n">
         <v>1.9375</v>
       </c>
-      <c r="H520" s="9" t="n">
+      <c r="H521" s="9" t="n">
         <v>5.7047</v>
       </c>
-      <c r="I520" s="10" t="n">
+      <c r="I521" s="10" t="n">
         <v>3.3428</v>
       </c>
-      <c r="J520" s="9" t="n">
+      <c r="J521" s="9" t="n">
         <v>4.24</v>
       </c>
-      <c r="K520" s="9" t="n">
+      <c r="K521" s="9" t="n">
         <v>3.5333</v>
       </c>
-      <c r="L520" s="9" t="n">
+      <c r="L521" s="9" t="n">
         <v>1.4062</v>
       </c>
-      <c r="M520" s="9" t="n">
+      <c r="M521" s="9" t="n">
         <v>4.1917</v>
       </c>
-      <c r="N520" s="10" t="inlineStr"/>
-      <c r="O520" s="9" t="inlineStr"/>
-      <c r="P520" s="9" t="inlineStr"/>
-      <c r="Q520" s="9" t="inlineStr"/>
-      <c r="R520" s="9" t="inlineStr"/>
-      <c r="S520" s="10" t="inlineStr"/>
-      <c r="T520" s="9" t="inlineStr"/>
-      <c r="U520" s="9" t="inlineStr"/>
-      <c r="V520" s="9" t="inlineStr"/>
-      <c r="W520" s="9" t="inlineStr"/>
-      <c r="X520" s="10" t="inlineStr"/>
-      <c r="Y520" s="9" t="inlineStr"/>
-      <c r="Z520" s="9" t="inlineStr"/>
-      <c r="AA520" s="9" t="inlineStr"/>
-      <c r="AB520" s="9" t="inlineStr"/>
-      <c r="AC520" s="10" t="n">
+      <c r="N521" s="10" t="inlineStr"/>
+      <c r="O521" s="9" t="inlineStr"/>
+      <c r="P521" s="9" t="inlineStr"/>
+      <c r="Q521" s="9" t="inlineStr"/>
+      <c r="R521" s="9" t="inlineStr"/>
+      <c r="S521" s="10" t="inlineStr"/>
+      <c r="T521" s="9" t="inlineStr"/>
+      <c r="U521" s="9" t="inlineStr"/>
+      <c r="V521" s="9" t="inlineStr"/>
+      <c r="W521" s="9" t="inlineStr"/>
+      <c r="X521" s="10" t="inlineStr"/>
+      <c r="Y521" s="9" t="inlineStr"/>
+      <c r="Z521" s="9" t="inlineStr"/>
+      <c r="AA521" s="9" t="inlineStr"/>
+      <c r="AB521" s="9" t="inlineStr"/>
+      <c r="AC521" s="10" t="n">
         <v>4.6699</v>
       </c>
-      <c r="AD520" s="9" t="n">
+      <c r="AD521" s="9" t="n">
         <v>5.58</v>
       </c>
-      <c r="AE520" s="9" t="n">
+      <c r="AE521" s="9" t="n">
         <v>4.2712</v>
       </c>
-      <c r="AF520" s="9" t="n">
+      <c r="AF521" s="9" t="n">
         <v>2.3158</v>
       </c>
-      <c r="AG520" s="9" t="n">
+      <c r="AG521" s="9" t="n">
         <v>6.5126</v>
       </c>
-      <c r="AH520" s="10" t="n">
+      <c r="AH521" s="10" t="n">
         <v>4.3454</v>
       </c>
-      <c r="AI520" s="9" t="n">
+      <c r="AI521" s="9" t="n">
         <v>5.16</v>
       </c>
-      <c r="AJ520" s="9" t="n">
+      <c r="AJ521" s="9" t="n">
         <v>3.7667</v>
       </c>
-      <c r="AK520" s="9" t="n">
+      <c r="AK521" s="9" t="n">
         <v>2.0385</v>
       </c>
-      <c r="AL520" s="9" t="n">
+      <c r="AL521" s="9" t="n">
         <v>6.4167</v>
       </c>
-      <c r="AM520" s="11" t="inlineStr"/>
-      <c r="AN520" s="11" t="n">
+      <c r="AM521" s="11" t="inlineStr"/>
+      <c r="AN521" s="11" t="n">
         <v>0.2059</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="4" t="inlineStr">
-        <is>
-          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
-        </is>
-      </c>
-      <c r="B521" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C521" s="6" t="n">
-        <v>4.1816</v>
-      </c>
-      <c r="D521" s="6" t="n">
-        <v>4.0594</v>
-      </c>
-      <c r="E521" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F521" s="5" t="n">
-        <v>3.1938</v>
-      </c>
-      <c r="G521" s="5" t="n">
-        <v>4.0638</v>
-      </c>
-      <c r="H521" s="5" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="I521" s="6" t="n">
-        <v>3.7112</v>
-      </c>
-      <c r="J521" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K521" s="5" t="n">
-        <v>2.925</v>
-      </c>
-      <c r="L521" s="5" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="M521" s="5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N521" s="6" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="O521" s="5" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="P521" s="5" t="n">
-        <v>2.6875</v>
-      </c>
-      <c r="Q521" s="5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R521" s="5" t="n">
-        <v>3.5546</v>
-      </c>
-      <c r="S521" s="6" t="inlineStr"/>
-      <c r="T521" s="5" t="inlineStr"/>
-      <c r="U521" s="5" t="inlineStr"/>
-      <c r="V521" s="5" t="inlineStr"/>
-      <c r="W521" s="5" t="inlineStr"/>
-      <c r="X521" s="6" t="inlineStr"/>
-      <c r="Y521" s="5" t="inlineStr"/>
-      <c r="Z521" s="5" t="inlineStr"/>
-      <c r="AA521" s="5" t="inlineStr"/>
-      <c r="AB521" s="5" t="inlineStr"/>
-      <c r="AC521" s="6" t="n">
-        <v>4.2386</v>
-      </c>
-      <c r="AD521" s="5" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="AE521" s="5" t="n">
-        <v>3.525</v>
-      </c>
-      <c r="AF521" s="5" t="n">
-        <v>4.7027</v>
-      </c>
-      <c r="AG521" s="5" t="n">
-        <v>4.8667</v>
-      </c>
-      <c r="AH521" s="6" t="n">
-        <v>4.717</v>
-      </c>
-      <c r="AI521" s="5" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="AJ521" s="5" t="n">
-        <v>3.6375</v>
-      </c>
-      <c r="AK521" s="5" t="n">
-        <v>4.359</v>
-      </c>
-      <c r="AL521" s="5" t="n">
-        <v>5.2917</v>
-      </c>
-      <c r="AM521" s="7" t="n">
-        <v>0.1654</v>
-      </c>
-      <c r="AN521" s="7" t="n">
-        <v>0.874</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="4" t="inlineStr">
         <is>
-          <t>Deepreneur/blue-lizard</t>
+          <t>lightblue/starlingbeta_cult_dsir_megagon_final</t>
         </is>
       </c>
       <c r="B522" s="5" t="n">
         <v>4</v>
       </c>
       <c r="C522" s="6" t="n">
-        <v>4.214</v>
+        <v>4.1816</v>
       </c>
       <c r="D522" s="6" t="n">
-        <v>4.0436</v>
+        <v>4.0594</v>
       </c>
       <c r="E522" s="5" t="n">
-        <v>4.23</v>
+        <v>4.6</v>
       </c>
       <c r="F522" s="5" t="n">
-        <v>4.2301</v>
+        <v>3.1938</v>
       </c>
       <c r="G522" s="5" t="n">
-        <v>4.014</v>
+        <v>4.0638</v>
       </c>
       <c r="H522" s="5" t="n">
-        <v>3.7002</v>
+        <v>4.38</v>
       </c>
       <c r="I522" s="6" t="n">
-        <v>3.6647</v>
+        <v>3.7112</v>
       </c>
       <c r="J522" s="5" t="n">
-        <v>3.58</v>
+        <v>4</v>
       </c>
       <c r="K522" s="5" t="n">
-        <v>4.1667</v>
+        <v>2.925</v>
       </c>
       <c r="L522" s="5" t="n">
-        <v>3.8621</v>
+        <v>4.12</v>
       </c>
       <c r="M522" s="5" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="N522" s="6" t="n">
-        <v>3.392</v>
+        <v>3.588</v>
       </c>
       <c r="O522" s="5" t="n">
-        <v>4.38</v>
+        <v>4.96</v>
       </c>
       <c r="P522" s="5" t="n">
-        <v>3.1167</v>
+        <v>2.6875</v>
       </c>
       <c r="Q522" s="5" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="R522" s="5" t="n">
-        <v>3.2712</v>
+        <v>3.5546</v>
       </c>
       <c r="S522" s="6" t="inlineStr"/>
       <c r="T522" s="5" t="inlineStr"/>
@@ -47631,198 +47599,232 @@
       <c r="AA522" s="5" t="inlineStr"/>
       <c r="AB522" s="5" t="inlineStr"/>
       <c r="AC522" s="6" t="n">
-        <v>4.4079</v>
+        <v>4.2386</v>
       </c>
       <c r="AD522" s="5" t="n">
-        <v>3.58</v>
+        <v>3.86</v>
       </c>
       <c r="AE522" s="5" t="n">
-        <v>5.0847</v>
+        <v>3.525</v>
       </c>
       <c r="AF522" s="5" t="n">
-        <v>5</v>
+        <v>4.7027</v>
       </c>
       <c r="AG522" s="5" t="n">
-        <v>3.9667</v>
+        <v>4.8667</v>
       </c>
       <c r="AH522" s="6" t="n">
-        <v>4.7398</v>
+        <v>4.717</v>
       </c>
       <c r="AI522" s="5" t="n">
-        <v>5.38</v>
+        <v>5.58</v>
       </c>
       <c r="AJ522" s="5" t="n">
-        <v>4.5667</v>
+        <v>3.6375</v>
       </c>
       <c r="AK522" s="5" t="n">
-        <v>4.5</v>
+        <v>4.359</v>
       </c>
       <c r="AL522" s="5" t="n">
-        <v>4.5126</v>
+        <v>5.2917</v>
       </c>
       <c r="AM522" s="7" t="n">
-        <v>0.2423</v>
+        <v>0.1654</v>
       </c>
       <c r="AN522" s="7" t="n">
-        <v>0.8928</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="4" t="inlineStr">
         <is>
+          <t>Deepreneur/blue-lizard</t>
+        </is>
+      </c>
+      <c r="B523" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C523" s="6" t="n">
+        <v>4.214</v>
+      </c>
+      <c r="D523" s="6" t="n">
+        <v>4.0436</v>
+      </c>
+      <c r="E523" s="5" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="F523" s="5" t="n">
+        <v>4.2301</v>
+      </c>
+      <c r="G523" s="5" t="n">
+        <v>4.014</v>
+      </c>
+      <c r="H523" s="5" t="n">
+        <v>3.7002</v>
+      </c>
+      <c r="I523" s="6" t="n">
+        <v>3.6647</v>
+      </c>
+      <c r="J523" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="K523" s="5" t="n">
+        <v>4.1667</v>
+      </c>
+      <c r="L523" s="5" t="n">
+        <v>3.8621</v>
+      </c>
+      <c r="M523" s="5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N523" s="6" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="O523" s="5" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="P523" s="5" t="n">
+        <v>3.1167</v>
+      </c>
+      <c r="Q523" s="5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R523" s="5" t="n">
+        <v>3.2712</v>
+      </c>
+      <c r="S523" s="6" t="inlineStr"/>
+      <c r="T523" s="5" t="inlineStr"/>
+      <c r="U523" s="5" t="inlineStr"/>
+      <c r="V523" s="5" t="inlineStr"/>
+      <c r="W523" s="5" t="inlineStr"/>
+      <c r="X523" s="6" t="inlineStr"/>
+      <c r="Y523" s="5" t="inlineStr"/>
+      <c r="Z523" s="5" t="inlineStr"/>
+      <c r="AA523" s="5" t="inlineStr"/>
+      <c r="AB523" s="5" t="inlineStr"/>
+      <c r="AC523" s="6" t="n">
+        <v>4.4079</v>
+      </c>
+      <c r="AD523" s="5" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AE523" s="5" t="n">
+        <v>5.0847</v>
+      </c>
+      <c r="AF523" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG523" s="5" t="n">
+        <v>3.9667</v>
+      </c>
+      <c r="AH523" s="6" t="n">
+        <v>4.7398</v>
+      </c>
+      <c r="AI523" s="5" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="AJ523" s="5" t="n">
+        <v>4.5667</v>
+      </c>
+      <c r="AK523" s="5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL523" s="5" t="n">
+        <v>4.5126</v>
+      </c>
+      <c r="AM523" s="7" t="n">
+        <v>0.2423</v>
+      </c>
+      <c r="AN523" s="7" t="n">
+        <v>0.8928</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="4" t="inlineStr">
+        <is>
           <t>meta-llama/Llama-3.2-3B-Instruct</t>
         </is>
       </c>
-      <c r="B523" s="5" t="n">
+      <c r="B524" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C523" s="6" t="n">
+      <c r="C524" s="6" t="n">
         <v>3.7886</v>
       </c>
-      <c r="D523" s="6" t="n">
+      <c r="D524" s="6" t="n">
         <v>4.0352</v>
       </c>
-      <c r="E523" s="5" t="n">
+      <c r="E524" s="5" t="n">
         <v>5.32</v>
       </c>
-      <c r="F523" s="5" t="n">
+      <c r="F524" s="5" t="n">
         <v>3.9167</v>
       </c>
-      <c r="G523" s="5" t="n">
+      <c r="G524" s="5" t="n">
         <v>2.975</v>
       </c>
-      <c r="H523" s="5" t="n">
+      <c r="H524" s="5" t="n">
         <v>3.9292</v>
       </c>
-      <c r="I523" s="6" t="inlineStr"/>
-      <c r="J523" s="5" t="inlineStr"/>
-      <c r="K523" s="5" t="inlineStr"/>
-      <c r="L523" s="5" t="inlineStr"/>
-      <c r="M523" s="5" t="inlineStr"/>
-      <c r="N523" s="6" t="inlineStr"/>
-      <c r="O523" s="5" t="inlineStr"/>
-      <c r="P523" s="5" t="inlineStr"/>
-      <c r="Q523" s="5" t="inlineStr"/>
-      <c r="R523" s="5" t="inlineStr"/>
-      <c r="S523" s="6" t="n">
+      <c r="I524" s="6" t="inlineStr"/>
+      <c r="J524" s="5" t="inlineStr"/>
+      <c r="K524" s="5" t="inlineStr"/>
+      <c r="L524" s="5" t="inlineStr"/>
+      <c r="M524" s="5" t="inlineStr"/>
+      <c r="N524" s="6" t="inlineStr"/>
+      <c r="O524" s="5" t="inlineStr"/>
+      <c r="P524" s="5" t="inlineStr"/>
+      <c r="Q524" s="5" t="inlineStr"/>
+      <c r="R524" s="5" t="inlineStr"/>
+      <c r="S524" s="6" t="n">
         <v>4.5283</v>
       </c>
-      <c r="T523" s="5" t="n">
+      <c r="T524" s="5" t="n">
         <v>5.58</v>
       </c>
-      <c r="U523" s="5" t="n">
+      <c r="U524" s="5" t="n">
         <v>4.55</v>
       </c>
-      <c r="V523" s="5" t="n">
+      <c r="V524" s="5" t="n">
         <v>3.45</v>
       </c>
-      <c r="W523" s="5" t="n">
+      <c r="W524" s="5" t="n">
         <v>4.5333</v>
       </c>
-      <c r="X523" s="6" t="n">
+      <c r="X524" s="6" t="n">
         <v>3.5421</v>
       </c>
-      <c r="Y523" s="5" t="n">
+      <c r="Y524" s="5" t="n">
         <v>5.06</v>
       </c>
-      <c r="Z523" s="5" t="n">
+      <c r="Z524" s="5" t="n">
         <v>3.2833</v>
       </c>
-      <c r="AA523" s="5" t="n">
+      <c r="AA524" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="AB523" s="5" t="n">
+      <c r="AB524" s="5" t="n">
         <v>3.325</v>
       </c>
-      <c r="AC523" s="6" t="inlineStr"/>
-      <c r="AD523" s="5" t="inlineStr"/>
-      <c r="AE523" s="5" t="inlineStr"/>
-      <c r="AF523" s="5" t="inlineStr"/>
-      <c r="AG523" s="5" t="inlineStr"/>
-      <c r="AH523" s="6" t="inlineStr"/>
-      <c r="AI523" s="5" t="inlineStr"/>
-      <c r="AJ523" s="5" t="inlineStr"/>
-      <c r="AK523" s="5" t="inlineStr"/>
-      <c r="AL523" s="5" t="inlineStr"/>
-      <c r="AM523" s="7" t="inlineStr"/>
-      <c r="AN523" s="7" t="n">
+      <c r="AC524" s="6" t="inlineStr"/>
+      <c r="AD524" s="5" t="inlineStr"/>
+      <c r="AE524" s="5" t="inlineStr"/>
+      <c r="AF524" s="5" t="inlineStr"/>
+      <c r="AG524" s="5" t="inlineStr"/>
+      <c r="AH524" s="6" t="inlineStr"/>
+      <c r="AI524" s="5" t="inlineStr"/>
+      <c r="AJ524" s="5" t="inlineStr"/>
+      <c r="AK524" s="5" t="inlineStr"/>
+      <c r="AL524" s="5" t="inlineStr"/>
+      <c r="AM524" s="7" t="inlineStr"/>
+      <c r="AN524" s="7" t="n">
         <v>0.8515</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="8" t="inlineStr">
-        <is>
-          <t>shisa-7b-v1-noprompt</t>
-        </is>
-      </c>
-      <c r="B524" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C524" s="10" t="inlineStr"/>
-      <c r="D524" s="10" t="n">
-        <v>4.0304</v>
-      </c>
-      <c r="E524" s="9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F524" s="9" t="n">
-        <v>3.6833</v>
-      </c>
-      <c r="G524" s="9" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="H524" s="9" t="n">
-        <v>4.1833</v>
-      </c>
-      <c r="I524" s="10" t="inlineStr"/>
-      <c r="J524" s="9" t="inlineStr"/>
-      <c r="K524" s="9" t="inlineStr"/>
-      <c r="L524" s="9" t="inlineStr"/>
-      <c r="M524" s="9" t="inlineStr"/>
-      <c r="N524" s="10" t="inlineStr"/>
-      <c r="O524" s="9" t="inlineStr"/>
-      <c r="P524" s="9" t="inlineStr"/>
-      <c r="Q524" s="9" t="inlineStr"/>
-      <c r="R524" s="9" t="inlineStr"/>
-      <c r="S524" s="10" t="n">
-        <v>4.0304</v>
-      </c>
-      <c r="T524" s="9" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="U524" s="9" t="n">
-        <v>3.6833</v>
-      </c>
-      <c r="V524" s="9" t="n">
-        <v>3.875</v>
-      </c>
-      <c r="W524" s="9" t="n">
-        <v>4.1833</v>
-      </c>
-      <c r="X524" s="10" t="inlineStr"/>
-      <c r="Y524" s="9" t="inlineStr"/>
-      <c r="Z524" s="9" t="inlineStr"/>
-      <c r="AA524" s="9" t="inlineStr"/>
-      <c r="AB524" s="9" t="inlineStr"/>
-      <c r="AC524" s="10" t="inlineStr"/>
-      <c r="AD524" s="9" t="inlineStr"/>
-      <c r="AE524" s="9" t="inlineStr"/>
-      <c r="AF524" s="9" t="inlineStr"/>
-      <c r="AG524" s="9" t="inlineStr"/>
-      <c r="AH524" s="10" t="inlineStr"/>
-      <c r="AI524" s="9" t="inlineStr"/>
-      <c r="AJ524" s="9" t="inlineStr"/>
-      <c r="AK524" s="9" t="inlineStr"/>
-      <c r="AL524" s="9" t="inlineStr"/>
-      <c r="AM524" s="11" t="inlineStr"/>
-      <c r="AN524" s="11" t="n">
-        <v>0.8667</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="8" t="inlineStr">
         <is>
-          <t>shisa-v2.1c-lfm2-350m-sft3</t>
+          <t>shisa-7b-v1-noprompt</t>
         </is>
       </c>
       <c r="B525" s="9" t="n">
@@ -47830,19 +47832,19 @@
       </c>
       <c r="C525" s="10" t="inlineStr"/>
       <c r="D525" s="10" t="n">
-        <v>4.0117</v>
+        <v>4.0304</v>
       </c>
       <c r="E525" s="9" t="n">
-        <v>4.18</v>
+        <v>4.38</v>
       </c>
       <c r="F525" s="9" t="n">
-        <v>3.8</v>
+        <v>3.6833</v>
       </c>
       <c r="G525" s="9" t="n">
-        <v>4.5</v>
+        <v>3.875</v>
       </c>
       <c r="H525" s="9" t="n">
-        <v>3.5667</v>
+        <v>4.1833</v>
       </c>
       <c r="I525" s="10" t="inlineStr"/>
       <c r="J525" s="9" t="inlineStr"/>
@@ -47855,19 +47857,19 @@
       <c r="Q525" s="9" t="inlineStr"/>
       <c r="R525" s="9" t="inlineStr"/>
       <c r="S525" s="10" t="n">
-        <v>4.0117</v>
+        <v>4.0304</v>
       </c>
       <c r="T525" s="9" t="n">
-        <v>4.18</v>
+        <v>4.38</v>
       </c>
       <c r="U525" s="9" t="n">
-        <v>3.8</v>
+        <v>3.6833</v>
       </c>
       <c r="V525" s="9" t="n">
-        <v>4.5</v>
+        <v>3.875</v>
       </c>
       <c r="W525" s="9" t="n">
-        <v>3.5667</v>
+        <v>4.1833</v>
       </c>
       <c r="X525" s="10" t="inlineStr"/>
       <c r="Y525" s="9" t="inlineStr"/>
@@ -47886,13 +47888,13 @@
       <c r="AL525" s="9" t="inlineStr"/>
       <c r="AM525" s="11" t="inlineStr"/>
       <c r="AN525" s="11" t="n">
-        <v>0.8602</v>
+        <v>0.8667</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="8" t="inlineStr">
         <is>
-          <t>shisa-7b-v1-default-prompt</t>
+          <t>shisa-v2.1c-lfm2-350m-sft3</t>
         </is>
       </c>
       <c r="B526" s="9" t="n">
@@ -47900,19 +47902,19 @@
       </c>
       <c r="C526" s="10" t="inlineStr"/>
       <c r="D526" s="10" t="n">
-        <v>3.9783</v>
+        <v>4.0117</v>
       </c>
       <c r="E526" s="9" t="n">
-        <v>4.48</v>
+        <v>4.18</v>
       </c>
       <c r="F526" s="9" t="n">
-        <v>3.5833</v>
+        <v>3.8</v>
       </c>
       <c r="G526" s="9" t="n">
-        <v>3.975</v>
+        <v>4.5</v>
       </c>
       <c r="H526" s="9" t="n">
-        <v>3.875</v>
+        <v>3.5667</v>
       </c>
       <c r="I526" s="10" t="inlineStr"/>
       <c r="J526" s="9" t="inlineStr"/>
@@ -47925,19 +47927,19 @@
       <c r="Q526" s="9" t="inlineStr"/>
       <c r="R526" s="9" t="inlineStr"/>
       <c r="S526" s="10" t="n">
-        <v>3.9783</v>
+        <v>4.0117</v>
       </c>
       <c r="T526" s="9" t="n">
-        <v>4.48</v>
+        <v>4.18</v>
       </c>
       <c r="U526" s="9" t="n">
-        <v>3.5833</v>
+        <v>3.8</v>
       </c>
       <c r="V526" s="9" t="n">
-        <v>3.975</v>
+        <v>4.5</v>
       </c>
       <c r="W526" s="9" t="n">
-        <v>3.875</v>
+        <v>3.5667</v>
       </c>
       <c r="X526" s="10" t="inlineStr"/>
       <c r="Y526" s="9" t="inlineStr"/>
@@ -47956,13 +47958,13 @@
       <c r="AL526" s="9" t="inlineStr"/>
       <c r="AM526" s="11" t="inlineStr"/>
       <c r="AN526" s="11" t="n">
-        <v>0.8707</v>
+        <v>0.8602</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="8" t="inlineStr">
         <is>
-          <t>augmxnt/shisa-7b-v1-run2</t>
+          <t>shisa-7b-v1-default-prompt</t>
         </is>
       </c>
       <c r="B527" s="9" t="n">
@@ -47970,19 +47972,19 @@
       </c>
       <c r="C527" s="10" t="inlineStr"/>
       <c r="D527" s="10" t="n">
-        <v>3.9525</v>
+        <v>3.9783</v>
       </c>
       <c r="E527" s="9" t="n">
-        <v>4.36</v>
+        <v>4.48</v>
       </c>
       <c r="F527" s="9" t="n">
-        <v>3.75</v>
+        <v>3.5833</v>
       </c>
       <c r="G527" s="9" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="H527" s="9" t="n">
         <v>3.875</v>
-      </c>
-      <c r="H527" s="9" t="n">
-        <v>3.825</v>
       </c>
       <c r="I527" s="10" t="inlineStr"/>
       <c r="J527" s="9" t="inlineStr"/>
@@ -47995,19 +47997,19 @@
       <c r="Q527" s="9" t="inlineStr"/>
       <c r="R527" s="9" t="inlineStr"/>
       <c r="S527" s="10" t="n">
-        <v>3.9525</v>
+        <v>3.9783</v>
       </c>
       <c r="T527" s="9" t="n">
-        <v>4.36</v>
+        <v>4.48</v>
       </c>
       <c r="U527" s="9" t="n">
-        <v>3.75</v>
+        <v>3.5833</v>
       </c>
       <c r="V527" s="9" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="W527" s="9" t="n">
         <v>3.875</v>
-      </c>
-      <c r="W527" s="9" t="n">
-        <v>3.825</v>
       </c>
       <c r="X527" s="10" t="inlineStr"/>
       <c r="Y527" s="9" t="inlineStr"/>
@@ -48026,13 +48028,13 @@
       <c r="AL527" s="9" t="inlineStr"/>
       <c r="AM527" s="11" t="inlineStr"/>
       <c r="AN527" s="11" t="n">
-        <v>0.8816000000000001</v>
+        <v>0.8707</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="8" t="inlineStr">
         <is>
-          <t>shisa-chotto-lfm2-enjp-mt-350m-sft</t>
+          <t>augmxnt/shisa-7b-v1-run2</t>
         </is>
       </c>
       <c r="B528" s="9" t="n">
@@ -48040,19 +48042,19 @@
       </c>
       <c r="C528" s="10" t="inlineStr"/>
       <c r="D528" s="10" t="n">
-        <v>3.9429</v>
+        <v>3.9525</v>
       </c>
       <c r="E528" s="9" t="n">
-        <v>3.78</v>
+        <v>4.36</v>
       </c>
       <c r="F528" s="9" t="n">
-        <v>3.8333</v>
+        <v>3.75</v>
       </c>
       <c r="G528" s="9" t="n">
-        <v>4.6</v>
+        <v>3.875</v>
       </c>
       <c r="H528" s="9" t="n">
-        <v>3.5583</v>
+        <v>3.825</v>
       </c>
       <c r="I528" s="10" t="inlineStr"/>
       <c r="J528" s="9" t="inlineStr"/>
@@ -48065,19 +48067,19 @@
       <c r="Q528" s="9" t="inlineStr"/>
       <c r="R528" s="9" t="inlineStr"/>
       <c r="S528" s="10" t="n">
-        <v>3.9429</v>
+        <v>3.9525</v>
       </c>
       <c r="T528" s="9" t="n">
-        <v>3.78</v>
+        <v>4.36</v>
       </c>
       <c r="U528" s="9" t="n">
-        <v>3.8333</v>
+        <v>3.75</v>
       </c>
       <c r="V528" s="9" t="n">
-        <v>4.6</v>
+        <v>3.875</v>
       </c>
       <c r="W528" s="9" t="n">
-        <v>3.5583</v>
+        <v>3.825</v>
       </c>
       <c r="X528" s="10" t="inlineStr"/>
       <c r="Y528" s="9" t="inlineStr"/>
@@ -48096,269 +48098,269 @@
       <c r="AL528" s="9" t="inlineStr"/>
       <c r="AM528" s="11" t="inlineStr"/>
       <c r="AN528" s="11" t="n">
+        <v>0.8816000000000001</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="8" t="inlineStr">
+        <is>
+          <t>shisa-chotto-lfm2-enjp-mt-350m-sft</t>
+        </is>
+      </c>
+      <c r="B529" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C529" s="10" t="inlineStr"/>
+      <c r="D529" s="10" t="n">
+        <v>3.9429</v>
+      </c>
+      <c r="E529" s="9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F529" s="9" t="n">
+        <v>3.8333</v>
+      </c>
+      <c r="G529" s="9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H529" s="9" t="n">
+        <v>3.5583</v>
+      </c>
+      <c r="I529" s="10" t="inlineStr"/>
+      <c r="J529" s="9" t="inlineStr"/>
+      <c r="K529" s="9" t="inlineStr"/>
+      <c r="L529" s="9" t="inlineStr"/>
+      <c r="M529" s="9" t="inlineStr"/>
+      <c r="N529" s="10" t="inlineStr"/>
+      <c r="O529" s="9" t="inlineStr"/>
+      <c r="P529" s="9" t="inlineStr"/>
+      <c r="Q529" s="9" t="inlineStr"/>
+      <c r="R529" s="9" t="inlineStr"/>
+      <c r="S529" s="10" t="n">
+        <v>3.9429</v>
+      </c>
+      <c r="T529" s="9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U529" s="9" t="n">
+        <v>3.8333</v>
+      </c>
+      <c r="V529" s="9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W529" s="9" t="n">
+        <v>3.5583</v>
+      </c>
+      <c r="X529" s="10" t="inlineStr"/>
+      <c r="Y529" s="9" t="inlineStr"/>
+      <c r="Z529" s="9" t="inlineStr"/>
+      <c r="AA529" s="9" t="inlineStr"/>
+      <c r="AB529" s="9" t="inlineStr"/>
+      <c r="AC529" s="10" t="inlineStr"/>
+      <c r="AD529" s="9" t="inlineStr"/>
+      <c r="AE529" s="9" t="inlineStr"/>
+      <c r="AF529" s="9" t="inlineStr"/>
+      <c r="AG529" s="9" t="inlineStr"/>
+      <c r="AH529" s="10" t="inlineStr"/>
+      <c r="AI529" s="9" t="inlineStr"/>
+      <c r="AJ529" s="9" t="inlineStr"/>
+      <c r="AK529" s="9" t="inlineStr"/>
+      <c r="AL529" s="9" t="inlineStr"/>
+      <c r="AM529" s="11" t="inlineStr"/>
+      <c r="AN529" s="11" t="n">
         <v>0.855</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="4" t="inlineStr">
-        <is>
-          <t>tiiuae/Falcon3-10B-Instruct</t>
-        </is>
-      </c>
-      <c r="B529" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C529" s="6" t="n">
-        <v>4.0754</v>
-      </c>
-      <c r="D529" s="6" t="n">
-        <v>3.9261</v>
-      </c>
-      <c r="E529" s="5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F529" s="5" t="n">
-        <v>4.0375</v>
-      </c>
-      <c r="G529" s="5" t="n">
-        <v>2.3867</v>
-      </c>
-      <c r="H529" s="5" t="n">
-        <v>4.5303</v>
-      </c>
-      <c r="I529" s="6" t="n">
-        <v>3.3462</v>
-      </c>
-      <c r="J529" s="5" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K529" s="5" t="n">
-        <v>3.6667</v>
-      </c>
-      <c r="L529" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M529" s="5" t="n">
-        <v>3.6583</v>
-      </c>
-      <c r="N529" s="6" t="n">
-        <v>3.3153</v>
-      </c>
-      <c r="O529" s="5" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="P529" s="5" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q529" s="5" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="R529" s="5" t="n">
-        <v>3.9664</v>
-      </c>
-      <c r="S529" s="6" t="inlineStr"/>
-      <c r="T529" s="5" t="inlineStr"/>
-      <c r="U529" s="5" t="inlineStr"/>
-      <c r="V529" s="5" t="inlineStr"/>
-      <c r="W529" s="5" t="inlineStr"/>
-      <c r="X529" s="6" t="inlineStr"/>
-      <c r="Y529" s="5" t="inlineStr"/>
-      <c r="Z529" s="5" t="inlineStr"/>
-      <c r="AA529" s="5" t="inlineStr"/>
-      <c r="AB529" s="5" t="inlineStr"/>
-      <c r="AC529" s="6" t="n">
-        <v>4.4929</v>
-      </c>
-      <c r="AD529" s="5" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AE529" s="5" t="n">
-        <v>5.0833</v>
-      </c>
-      <c r="AF529" s="5" t="n">
-        <v>3.3333</v>
-      </c>
-      <c r="AG529" s="5" t="n">
-        <v>5.275</v>
-      </c>
-      <c r="AH529" s="6" t="n">
-        <v>4.5363</v>
-      </c>
-      <c r="AI529" s="5" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="AJ529" s="5" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AK529" s="5" t="n">
-        <v>2.5385</v>
-      </c>
-      <c r="AL529" s="5" t="n">
-        <v>5.2167</v>
-      </c>
-      <c r="AM529" s="7" t="n">
-        <v>0.2292</v>
-      </c>
-      <c r="AN529" s="7" t="n">
-        <v>0.8413</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="4" t="inlineStr">
         <is>
+          <t>tiiuae/Falcon3-10B-Instruct</t>
+        </is>
+      </c>
+      <c r="B530" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C530" s="6" t="n">
+        <v>4.0754</v>
+      </c>
+      <c r="D530" s="6" t="n">
+        <v>3.9261</v>
+      </c>
+      <c r="E530" s="5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F530" s="5" t="n">
+        <v>4.0375</v>
+      </c>
+      <c r="G530" s="5" t="n">
+        <v>2.3867</v>
+      </c>
+      <c r="H530" s="5" t="n">
+        <v>4.5303</v>
+      </c>
+      <c r="I530" s="6" t="n">
+        <v>3.3462</v>
+      </c>
+      <c r="J530" s="5" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K530" s="5" t="n">
+        <v>3.6667</v>
+      </c>
+      <c r="L530" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M530" s="5" t="n">
+        <v>3.6583</v>
+      </c>
+      <c r="N530" s="6" t="n">
+        <v>3.3153</v>
+      </c>
+      <c r="O530" s="5" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="P530" s="5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q530" s="5" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="R530" s="5" t="n">
+        <v>3.9664</v>
+      </c>
+      <c r="S530" s="6" t="inlineStr"/>
+      <c r="T530" s="5" t="inlineStr"/>
+      <c r="U530" s="5" t="inlineStr"/>
+      <c r="V530" s="5" t="inlineStr"/>
+      <c r="W530" s="5" t="inlineStr"/>
+      <c r="X530" s="6" t="inlineStr"/>
+      <c r="Y530" s="5" t="inlineStr"/>
+      <c r="Z530" s="5" t="inlineStr"/>
+      <c r="AA530" s="5" t="inlineStr"/>
+      <c r="AB530" s="5" t="inlineStr"/>
+      <c r="AC530" s="6" t="n">
+        <v>4.4929</v>
+      </c>
+      <c r="AD530" s="5" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AE530" s="5" t="n">
+        <v>5.0833</v>
+      </c>
+      <c r="AF530" s="5" t="n">
+        <v>3.3333</v>
+      </c>
+      <c r="AG530" s="5" t="n">
+        <v>5.275</v>
+      </c>
+      <c r="AH530" s="6" t="n">
+        <v>4.5363</v>
+      </c>
+      <c r="AI530" s="5" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="AJ530" s="5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AK530" s="5" t="n">
+        <v>2.5385</v>
+      </c>
+      <c r="AL530" s="5" t="n">
+        <v>5.2167</v>
+      </c>
+      <c r="AM530" s="7" t="n">
+        <v>0.2292</v>
+      </c>
+      <c r="AN530" s="7" t="n">
+        <v>0.8413</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="4" t="inlineStr">
+        <is>
           <t>allenai/Olmo-3-7B-Instruct</t>
         </is>
       </c>
-      <c r="B530" s="5" t="n">
+      <c r="B531" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C530" s="6" t="n">
+      <c r="C531" s="6" t="n">
         <v>3.5004</v>
       </c>
-      <c r="D530" s="6" t="n">
+      <c r="D531" s="6" t="n">
         <v>3.8788</v>
       </c>
-      <c r="E530" s="5" t="n">
+      <c r="E531" s="5" t="n">
         <v>5.12</v>
       </c>
-      <c r="F530" s="5" t="n">
+      <c r="F531" s="5" t="n">
         <v>3.9076</v>
       </c>
-      <c r="G530" s="5" t="n">
+      <c r="G531" s="5" t="n">
         <v>2.4625</v>
       </c>
-      <c r="H530" s="5" t="n">
+      <c r="H531" s="5" t="n">
         <v>4.025</v>
       </c>
-      <c r="I530" s="6" t="inlineStr"/>
-      <c r="J530" s="5" t="inlineStr"/>
-      <c r="K530" s="5" t="inlineStr"/>
-      <c r="L530" s="5" t="inlineStr"/>
-      <c r="M530" s="5" t="inlineStr"/>
-      <c r="N530" s="6" t="inlineStr"/>
-      <c r="O530" s="5" t="inlineStr"/>
-      <c r="P530" s="5" t="inlineStr"/>
-      <c r="Q530" s="5" t="inlineStr"/>
-      <c r="R530" s="5" t="inlineStr"/>
-      <c r="S530" s="6" t="n">
+      <c r="I531" s="6" t="inlineStr"/>
+      <c r="J531" s="5" t="inlineStr"/>
+      <c r="K531" s="5" t="inlineStr"/>
+      <c r="L531" s="5" t="inlineStr"/>
+      <c r="M531" s="5" t="inlineStr"/>
+      <c r="N531" s="6" t="inlineStr"/>
+      <c r="O531" s="5" t="inlineStr"/>
+      <c r="P531" s="5" t="inlineStr"/>
+      <c r="Q531" s="5" t="inlineStr"/>
+      <c r="R531" s="5" t="inlineStr"/>
+      <c r="S531" s="6" t="n">
         <v>4.6313</v>
       </c>
-      <c r="T530" s="5" t="n">
+      <c r="T531" s="5" t="n">
         <v>5.7</v>
       </c>
-      <c r="U530" s="5" t="n">
+      <c r="U531" s="5" t="n">
         <v>4.9167</v>
       </c>
-      <c r="V530" s="5" t="n">
+      <c r="V531" s="5" t="n">
         <v>3.05</v>
       </c>
-      <c r="W530" s="5" t="n">
+      <c r="W531" s="5" t="n">
         <v>4.8583</v>
       </c>
-      <c r="X530" s="6" t="n">
+      <c r="X531" s="6" t="n">
         <v>3.122</v>
       </c>
-      <c r="Y530" s="5" t="n">
+      <c r="Y531" s="5" t="n">
         <v>4.54</v>
       </c>
-      <c r="Z530" s="5" t="n">
+      <c r="Z531" s="5" t="n">
         <v>2.8814</v>
       </c>
-      <c r="AA530" s="5" t="n">
+      <c r="AA531" s="5" t="n">
         <v>1.875</v>
       </c>
-      <c r="AB530" s="5" t="n">
+      <c r="AB531" s="5" t="n">
         <v>3.1917</v>
       </c>
-      <c r="AC530" s="6" t="inlineStr"/>
-      <c r="AD530" s="5" t="inlineStr"/>
-      <c r="AE530" s="5" t="inlineStr"/>
-      <c r="AF530" s="5" t="inlineStr"/>
-      <c r="AG530" s="5" t="inlineStr"/>
-      <c r="AH530" s="6" t="inlineStr"/>
-      <c r="AI530" s="5" t="inlineStr"/>
-      <c r="AJ530" s="5" t="inlineStr"/>
-      <c r="AK530" s="5" t="inlineStr"/>
-      <c r="AL530" s="5" t="inlineStr"/>
-      <c r="AM530" s="7" t="inlineStr"/>
-      <c r="AN530" s="7" t="n">
+      <c r="AC531" s="6" t="inlineStr"/>
+      <c r="AD531" s="5" t="inlineStr"/>
+      <c r="AE531" s="5" t="inlineStr"/>
+      <c r="AF531" s="5" t="inlineStr"/>
+      <c r="AG531" s="5" t="inlineStr"/>
+      <c r="AH531" s="6" t="inlineStr"/>
+      <c r="AI531" s="5" t="inlineStr"/>
+      <c r="AJ531" s="5" t="inlineStr"/>
+      <c r="AK531" s="5" t="inlineStr"/>
+      <c r="AL531" s="5" t="inlineStr"/>
+      <c r="AM531" s="7" t="inlineStr"/>
+      <c r="AN531" s="7" t="n">
         <v>0.7764</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="8" t="inlineStr">
-        <is>
-          <t>shisa-v2.1c-lfm2-350m-sft3-tlonly</t>
-        </is>
-      </c>
-      <c r="B531" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C531" s="10" t="inlineStr"/>
-      <c r="D531" s="10" t="n">
-        <v>3.8721</v>
-      </c>
-      <c r="E531" s="9" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F531" s="9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G531" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H531" s="9" t="n">
-        <v>3.5083</v>
-      </c>
-      <c r="I531" s="10" t="inlineStr"/>
-      <c r="J531" s="9" t="inlineStr"/>
-      <c r="K531" s="9" t="inlineStr"/>
-      <c r="L531" s="9" t="inlineStr"/>
-      <c r="M531" s="9" t="inlineStr"/>
-      <c r="N531" s="10" t="inlineStr"/>
-      <c r="O531" s="9" t="inlineStr"/>
-      <c r="P531" s="9" t="inlineStr"/>
-      <c r="Q531" s="9" t="inlineStr"/>
-      <c r="R531" s="9" t="inlineStr"/>
-      <c r="S531" s="10" t="n">
-        <v>3.8721</v>
-      </c>
-      <c r="T531" s="9" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="U531" s="9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V531" s="9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W531" s="9" t="n">
-        <v>3.5083</v>
-      </c>
-      <c r="X531" s="10" t="inlineStr"/>
-      <c r="Y531" s="9" t="inlineStr"/>
-      <c r="Z531" s="9" t="inlineStr"/>
-      <c r="AA531" s="9" t="inlineStr"/>
-      <c r="AB531" s="9" t="inlineStr"/>
-      <c r="AC531" s="10" t="inlineStr"/>
-      <c r="AD531" s="9" t="inlineStr"/>
-      <c r="AE531" s="9" t="inlineStr"/>
-      <c r="AF531" s="9" t="inlineStr"/>
-      <c r="AG531" s="9" t="inlineStr"/>
-      <c r="AH531" s="10" t="inlineStr"/>
-      <c r="AI531" s="9" t="inlineStr"/>
-      <c r="AJ531" s="9" t="inlineStr"/>
-      <c r="AK531" s="9" t="inlineStr"/>
-      <c r="AL531" s="9" t="inlineStr"/>
-      <c r="AM531" s="11" t="inlineStr"/>
-      <c r="AN531" s="11" t="n">
-        <v>0.8611</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="8" t="inlineStr">
         <is>
-          <t>shisa-v2.1c-lfm2-350m-dpo</t>
+          <t>shisa-v2.1c-lfm2-350m-sft3-tlonly</t>
         </is>
       </c>
       <c r="B532" s="9" t="n">
@@ -48366,19 +48368,19 @@
       </c>
       <c r="C532" s="10" t="inlineStr"/>
       <c r="D532" s="10" t="n">
-        <v>3.8429</v>
+        <v>3.8721</v>
       </c>
       <c r="E532" s="9" t="n">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="F532" s="9" t="n">
         <v>3.7</v>
       </c>
       <c r="G532" s="9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H532" s="9" t="n">
-        <v>3.3417</v>
+        <v>3.5083</v>
       </c>
       <c r="I532" s="10" t="inlineStr"/>
       <c r="J532" s="9" t="inlineStr"/>
@@ -48391,19 +48393,19 @@
       <c r="Q532" s="9" t="inlineStr"/>
       <c r="R532" s="9" t="inlineStr"/>
       <c r="S532" s="10" t="n">
-        <v>3.8429</v>
+        <v>3.8721</v>
       </c>
       <c r="T532" s="9" t="n">
-        <v>3.58</v>
+        <v>3.78</v>
       </c>
       <c r="U532" s="9" t="n">
         <v>3.7</v>
       </c>
       <c r="V532" s="9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W532" s="9" t="n">
-        <v>3.3417</v>
+        <v>3.5083</v>
       </c>
       <c r="X532" s="10" t="inlineStr"/>
       <c r="Y532" s="9" t="inlineStr"/>
@@ -48422,417 +48424,417 @@
       <c r="AL532" s="9" t="inlineStr"/>
       <c r="AM532" s="11" t="inlineStr"/>
       <c r="AN532" s="11" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="8" t="inlineStr">
+        <is>
+          <t>shisa-v2.1c-lfm2-350m-dpo</t>
+        </is>
+      </c>
+      <c r="B533" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C533" s="10" t="inlineStr"/>
+      <c r="D533" s="10" t="n">
+        <v>3.8429</v>
+      </c>
+      <c r="E533" s="9" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F533" s="9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G533" s="9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H533" s="9" t="n">
+        <v>3.3417</v>
+      </c>
+      <c r="I533" s="10" t="inlineStr"/>
+      <c r="J533" s="9" t="inlineStr"/>
+      <c r="K533" s="9" t="inlineStr"/>
+      <c r="L533" s="9" t="inlineStr"/>
+      <c r="M533" s="9" t="inlineStr"/>
+      <c r="N533" s="10" t="inlineStr"/>
+      <c r="O533" s="9" t="inlineStr"/>
+      <c r="P533" s="9" t="inlineStr"/>
+      <c r="Q533" s="9" t="inlineStr"/>
+      <c r="R533" s="9" t="inlineStr"/>
+      <c r="S533" s="10" t="n">
+        <v>3.8429</v>
+      </c>
+      <c r="T533" s="9" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U533" s="9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V533" s="9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W533" s="9" t="n">
+        <v>3.3417</v>
+      </c>
+      <c r="X533" s="10" t="inlineStr"/>
+      <c r="Y533" s="9" t="inlineStr"/>
+      <c r="Z533" s="9" t="inlineStr"/>
+      <c r="AA533" s="9" t="inlineStr"/>
+      <c r="AB533" s="9" t="inlineStr"/>
+      <c r="AC533" s="10" t="inlineStr"/>
+      <c r="AD533" s="9" t="inlineStr"/>
+      <c r="AE533" s="9" t="inlineStr"/>
+      <c r="AF533" s="9" t="inlineStr"/>
+      <c r="AG533" s="9" t="inlineStr"/>
+      <c r="AH533" s="10" t="inlineStr"/>
+      <c r="AI533" s="9" t="inlineStr"/>
+      <c r="AJ533" s="9" t="inlineStr"/>
+      <c r="AK533" s="9" t="inlineStr"/>
+      <c r="AL533" s="9" t="inlineStr"/>
+      <c r="AM533" s="11" t="inlineStr"/>
+      <c r="AN533" s="11" t="n">
         <v>0.8808</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="4" t="inlineStr">
+    <row r="534">
+      <c r="A534" s="4" t="inlineStr">
         <is>
           <t>LiquidAI/LFM2-350M</t>
         </is>
       </c>
-      <c r="B533" s="5" t="n">
+      <c r="B534" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C533" s="6" t="inlineStr"/>
-      <c r="D533" s="6" t="n">
+      <c r="C534" s="6" t="inlineStr"/>
+      <c r="D534" s="6" t="n">
         <v>3.7612</v>
       </c>
-      <c r="E533" s="5" t="n">
+      <c r="E534" s="5" t="n">
         <v>3.92</v>
       </c>
-      <c r="F533" s="5" t="n">
+      <c r="F534" s="5" t="n">
         <v>4.0667</v>
       </c>
-      <c r="G533" s="5" t="n">
+      <c r="G534" s="5" t="n">
         <v>3.55</v>
       </c>
-      <c r="H533" s="5" t="n">
+      <c r="H534" s="5" t="n">
         <v>3.5083</v>
       </c>
-      <c r="I533" s="6" t="inlineStr"/>
-      <c r="J533" s="5" t="inlineStr"/>
-      <c r="K533" s="5" t="inlineStr"/>
-      <c r="L533" s="5" t="inlineStr"/>
-      <c r="M533" s="5" t="inlineStr"/>
-      <c r="N533" s="6" t="inlineStr"/>
-      <c r="O533" s="5" t="inlineStr"/>
-      <c r="P533" s="5" t="inlineStr"/>
-      <c r="Q533" s="5" t="inlineStr"/>
-      <c r="R533" s="5" t="inlineStr"/>
-      <c r="S533" s="6" t="n">
+      <c r="I534" s="6" t="inlineStr"/>
+      <c r="J534" s="5" t="inlineStr"/>
+      <c r="K534" s="5" t="inlineStr"/>
+      <c r="L534" s="5" t="inlineStr"/>
+      <c r="M534" s="5" t="inlineStr"/>
+      <c r="N534" s="6" t="inlineStr"/>
+      <c r="O534" s="5" t="inlineStr"/>
+      <c r="P534" s="5" t="inlineStr"/>
+      <c r="Q534" s="5" t="inlineStr"/>
+      <c r="R534" s="5" t="inlineStr"/>
+      <c r="S534" s="6" t="n">
         <v>3.7612</v>
       </c>
-      <c r="T533" s="5" t="n">
+      <c r="T534" s="5" t="n">
         <v>3.92</v>
       </c>
-      <c r="U533" s="5" t="n">
+      <c r="U534" s="5" t="n">
         <v>4.0667</v>
       </c>
-      <c r="V533" s="5" t="n">
+      <c r="V534" s="5" t="n">
         <v>3.55</v>
       </c>
-      <c r="W533" s="5" t="n">
+      <c r="W534" s="5" t="n">
         <v>3.5083</v>
       </c>
-      <c r="X533" s="6" t="inlineStr"/>
-      <c r="Y533" s="5" t="inlineStr"/>
-      <c r="Z533" s="5" t="inlineStr"/>
-      <c r="AA533" s="5" t="inlineStr"/>
-      <c r="AB533" s="5" t="inlineStr"/>
-      <c r="AC533" s="6" t="inlineStr"/>
-      <c r="AD533" s="5" t="inlineStr"/>
-      <c r="AE533" s="5" t="inlineStr"/>
-      <c r="AF533" s="5" t="inlineStr"/>
-      <c r="AG533" s="5" t="inlineStr"/>
-      <c r="AH533" s="6" t="inlineStr"/>
-      <c r="AI533" s="5" t="inlineStr"/>
-      <c r="AJ533" s="5" t="inlineStr"/>
-      <c r="AK533" s="5" t="inlineStr"/>
-      <c r="AL533" s="5" t="inlineStr"/>
-      <c r="AM533" s="7" t="inlineStr"/>
-      <c r="AN533" s="7" t="n">
+      <c r="X534" s="6" t="inlineStr"/>
+      <c r="Y534" s="5" t="inlineStr"/>
+      <c r="Z534" s="5" t="inlineStr"/>
+      <c r="AA534" s="5" t="inlineStr"/>
+      <c r="AB534" s="5" t="inlineStr"/>
+      <c r="AC534" s="6" t="inlineStr"/>
+      <c r="AD534" s="5" t="inlineStr"/>
+      <c r="AE534" s="5" t="inlineStr"/>
+      <c r="AF534" s="5" t="inlineStr"/>
+      <c r="AG534" s="5" t="inlineStr"/>
+      <c r="AH534" s="6" t="inlineStr"/>
+      <c r="AI534" s="5" t="inlineStr"/>
+      <c r="AJ534" s="5" t="inlineStr"/>
+      <c r="AK534" s="5" t="inlineStr"/>
+      <c r="AL534" s="5" t="inlineStr"/>
+      <c r="AM534" s="7" t="inlineStr"/>
+      <c r="AN534" s="7" t="n">
         <v>0.8836000000000001</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="8" t="inlineStr">
-        <is>
-          <t>augmxnt/shisa-7b-v1</t>
-        </is>
-      </c>
-      <c r="B534" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C534" s="10" t="n">
-        <v>3.7079</v>
-      </c>
-      <c r="D534" s="10" t="n">
-        <v>3.7295</v>
-      </c>
-      <c r="E534" s="9" t="n">
-        <v>4.0502</v>
-      </c>
-      <c r="F534" s="9" t="n">
-        <v>3.3258</v>
-      </c>
-      <c r="G534" s="9" t="n">
-        <v>3.1233</v>
-      </c>
-      <c r="H534" s="9" t="n">
-        <v>4.4186</v>
-      </c>
-      <c r="I534" s="10" t="n">
-        <v>3.3679</v>
-      </c>
-      <c r="J534" s="9" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="K534" s="9" t="n">
-        <v>3.0833</v>
-      </c>
-      <c r="L534" s="9" t="n">
-        <v>2.2917</v>
-      </c>
-      <c r="M534" s="9" t="n">
-        <v>4.3167</v>
-      </c>
-      <c r="N534" s="10" t="n">
-        <v>4.5004</v>
-      </c>
-      <c r="O534" s="9" t="n">
-        <v>4.6263</v>
-      </c>
-      <c r="P534" s="9" t="n">
-        <v>3.9474</v>
-      </c>
-      <c r="Q534" s="9" t="n">
-        <v>4.8947</v>
-      </c>
-      <c r="R534" s="9" t="n">
-        <v>4.5333</v>
-      </c>
-      <c r="S534" s="10" t="n">
-        <v>3.0246</v>
-      </c>
-      <c r="T534" s="9" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="U534" s="9" t="n">
-        <v>2.6167</v>
-      </c>
-      <c r="V534" s="9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W534" s="9" t="n">
-        <v>3.5417</v>
-      </c>
-      <c r="X534" s="10" t="n">
-        <v>2.8642</v>
-      </c>
-      <c r="Y534" s="9" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="Z534" s="9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA534" s="9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AB534" s="9" t="n">
-        <v>3.1167</v>
-      </c>
-      <c r="AC534" s="10" t="n">
-        <v>4.0873</v>
-      </c>
-      <c r="AD534" s="9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE534" s="9" t="n">
-        <v>3.7627</v>
-      </c>
-      <c r="AF534" s="9" t="n">
-        <v>3.725</v>
-      </c>
-      <c r="AG534" s="9" t="n">
-        <v>5.3613</v>
-      </c>
-      <c r="AH534" s="10" t="n">
-        <v>4.4907</v>
-      </c>
-      <c r="AI534" s="9" t="n">
-        <v>4.8283</v>
-      </c>
-      <c r="AJ534" s="9" t="n">
-        <v>4.1333</v>
-      </c>
-      <c r="AK534" s="9" t="n">
-        <v>3.3514</v>
-      </c>
-      <c r="AL534" s="9" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AM534" s="11" t="n">
-        <v>-0.1761</v>
-      </c>
-      <c r="AN534" s="11" t="n">
-        <v>0.8649</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="8" t="inlineStr">
         <is>
+          <t>augmxnt/shisa-7b-v1</t>
+        </is>
+      </c>
+      <c r="B535" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C535" s="10" t="n">
+        <v>3.7079</v>
+      </c>
+      <c r="D535" s="10" t="n">
+        <v>3.7295</v>
+      </c>
+      <c r="E535" s="9" t="n">
+        <v>4.0502</v>
+      </c>
+      <c r="F535" s="9" t="n">
+        <v>3.3258</v>
+      </c>
+      <c r="G535" s="9" t="n">
+        <v>3.1233</v>
+      </c>
+      <c r="H535" s="9" t="n">
+        <v>4.4186</v>
+      </c>
+      <c r="I535" s="10" t="n">
+        <v>3.3679</v>
+      </c>
+      <c r="J535" s="9" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K535" s="9" t="n">
+        <v>3.0833</v>
+      </c>
+      <c r="L535" s="9" t="n">
+        <v>2.2917</v>
+      </c>
+      <c r="M535" s="9" t="n">
+        <v>4.3167</v>
+      </c>
+      <c r="N535" s="10" t="n">
+        <v>4.5004</v>
+      </c>
+      <c r="O535" s="9" t="n">
+        <v>4.6263</v>
+      </c>
+      <c r="P535" s="9" t="n">
+        <v>3.9474</v>
+      </c>
+      <c r="Q535" s="9" t="n">
+        <v>4.8947</v>
+      </c>
+      <c r="R535" s="9" t="n">
+        <v>4.5333</v>
+      </c>
+      <c r="S535" s="10" t="n">
+        <v>3.0246</v>
+      </c>
+      <c r="T535" s="9" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U535" s="9" t="n">
+        <v>2.6167</v>
+      </c>
+      <c r="V535" s="9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W535" s="9" t="n">
+        <v>3.5417</v>
+      </c>
+      <c r="X535" s="10" t="n">
+        <v>2.8642</v>
+      </c>
+      <c r="Y535" s="9" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Z535" s="9" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA535" s="9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AB535" s="9" t="n">
+        <v>3.1167</v>
+      </c>
+      <c r="AC535" s="10" t="n">
+        <v>4.0873</v>
+      </c>
+      <c r="AD535" s="9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE535" s="9" t="n">
+        <v>3.7627</v>
+      </c>
+      <c r="AF535" s="9" t="n">
+        <v>3.725</v>
+      </c>
+      <c r="AG535" s="9" t="n">
+        <v>5.3613</v>
+      </c>
+      <c r="AH535" s="10" t="n">
+        <v>4.4907</v>
+      </c>
+      <c r="AI535" s="9" t="n">
+        <v>4.8283</v>
+      </c>
+      <c r="AJ535" s="9" t="n">
+        <v>4.1333</v>
+      </c>
+      <c r="AK535" s="9" t="n">
+        <v>3.3514</v>
+      </c>
+      <c r="AL535" s="9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AM535" s="11" t="n">
+        <v>-0.1761</v>
+      </c>
+      <c r="AN535" s="11" t="n">
+        <v>0.8649</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="8" t="inlineStr">
+        <is>
           <t>shisa-v2.1c-lfm2-350m-sft2</t>
         </is>
       </c>
-      <c r="B535" s="9" t="n">
+      <c r="B536" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="C535" s="10" t="inlineStr"/>
-      <c r="D535" s="10" t="n">
+      <c r="C536" s="10" t="inlineStr"/>
+      <c r="D536" s="10" t="n">
         <v>3.7192</v>
       </c>
-      <c r="E535" s="9" t="n">
+      <c r="E536" s="9" t="n">
         <v>3.76</v>
       </c>
-      <c r="F535" s="9" t="n">
+      <c r="F536" s="9" t="n">
         <v>3.4667</v>
       </c>
-      <c r="G535" s="9" t="n">
+      <c r="G536" s="9" t="n">
         <v>4.175</v>
       </c>
-      <c r="H535" s="9" t="n">
+      <c r="H536" s="9" t="n">
         <v>3.475</v>
       </c>
-      <c r="I535" s="10" t="inlineStr"/>
-      <c r="J535" s="9" t="inlineStr"/>
-      <c r="K535" s="9" t="inlineStr"/>
-      <c r="L535" s="9" t="inlineStr"/>
-      <c r="M535" s="9" t="inlineStr"/>
-      <c r="N535" s="10" t="inlineStr"/>
-      <c r="O535" s="9" t="inlineStr"/>
-      <c r="P535" s="9" t="inlineStr"/>
-      <c r="Q535" s="9" t="inlineStr"/>
-      <c r="R535" s="9" t="inlineStr"/>
-      <c r="S535" s="10" t="n">
+      <c r="I536" s="10" t="inlineStr"/>
+      <c r="J536" s="9" t="inlineStr"/>
+      <c r="K536" s="9" t="inlineStr"/>
+      <c r="L536" s="9" t="inlineStr"/>
+      <c r="M536" s="9" t="inlineStr"/>
+      <c r="N536" s="10" t="inlineStr"/>
+      <c r="O536" s="9" t="inlineStr"/>
+      <c r="P536" s="9" t="inlineStr"/>
+      <c r="Q536" s="9" t="inlineStr"/>
+      <c r="R536" s="9" t="inlineStr"/>
+      <c r="S536" s="10" t="n">
         <v>3.7192</v>
       </c>
-      <c r="T535" s="9" t="n">
+      <c r="T536" s="9" t="n">
         <v>3.76</v>
       </c>
-      <c r="U535" s="9" t="n">
+      <c r="U536" s="9" t="n">
         <v>3.4667</v>
       </c>
-      <c r="V535" s="9" t="n">
+      <c r="V536" s="9" t="n">
         <v>4.175</v>
       </c>
-      <c r="W535" s="9" t="n">
+      <c r="W536" s="9" t="n">
         <v>3.475</v>
       </c>
-      <c r="X535" s="10" t="inlineStr"/>
-      <c r="Y535" s="9" t="inlineStr"/>
-      <c r="Z535" s="9" t="inlineStr"/>
-      <c r="AA535" s="9" t="inlineStr"/>
-      <c r="AB535" s="9" t="inlineStr"/>
-      <c r="AC535" s="10" t="inlineStr"/>
-      <c r="AD535" s="9" t="inlineStr"/>
-      <c r="AE535" s="9" t="inlineStr"/>
-      <c r="AF535" s="9" t="inlineStr"/>
-      <c r="AG535" s="9" t="inlineStr"/>
-      <c r="AH535" s="10" t="inlineStr"/>
-      <c r="AI535" s="9" t="inlineStr"/>
-      <c r="AJ535" s="9" t="inlineStr"/>
-      <c r="AK535" s="9" t="inlineStr"/>
-      <c r="AL535" s="9" t="inlineStr"/>
-      <c r="AM535" s="11" t="inlineStr"/>
-      <c r="AN535" s="11" t="n">
+      <c r="X536" s="10" t="inlineStr"/>
+      <c r="Y536" s="9" t="inlineStr"/>
+      <c r="Z536" s="9" t="inlineStr"/>
+      <c r="AA536" s="9" t="inlineStr"/>
+      <c r="AB536" s="9" t="inlineStr"/>
+      <c r="AC536" s="10" t="inlineStr"/>
+      <c r="AD536" s="9" t="inlineStr"/>
+      <c r="AE536" s="9" t="inlineStr"/>
+      <c r="AF536" s="9" t="inlineStr"/>
+      <c r="AG536" s="9" t="inlineStr"/>
+      <c r="AH536" s="10" t="inlineStr"/>
+      <c r="AI536" s="9" t="inlineStr"/>
+      <c r="AJ536" s="9" t="inlineStr"/>
+      <c r="AK536" s="9" t="inlineStr"/>
+      <c r="AL536" s="9" t="inlineStr"/>
+      <c r="AM536" s="11" t="inlineStr"/>
+      <c r="AN536" s="11" t="n">
         <v>0.8696</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="4" t="inlineStr">
+    <row r="537">
+      <c r="A537" s="4" t="inlineStr">
         <is>
           <t>011-qwen3-8b-v2-sft</t>
         </is>
       </c>
-      <c r="B536" s="5" t="n">
+      <c r="B537" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C536" s="6" t="inlineStr"/>
-      <c r="D536" s="6" t="n">
+      <c r="C537" s="6" t="inlineStr"/>
+      <c r="D537" s="6" t="n">
         <v>3.6138</v>
       </c>
-      <c r="E536" s="5" t="n">
+      <c r="E537" s="5" t="n">
         <v>5.899</v>
       </c>
-      <c r="F536" s="5" t="n">
+      <c r="F537" s="5" t="n">
         <v>3.5439</v>
       </c>
-      <c r="G536" s="5" t="n">
+      <c r="G537" s="5" t="n">
         <v>2.1622</v>
       </c>
-      <c r="H536" s="5" t="n">
+      <c r="H537" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="I536" s="6" t="inlineStr"/>
-      <c r="J536" s="5" t="inlineStr"/>
-      <c r="K536" s="5" t="inlineStr"/>
-      <c r="L536" s="5" t="inlineStr"/>
-      <c r="M536" s="5" t="inlineStr"/>
-      <c r="N536" s="6" t="inlineStr"/>
-      <c r="O536" s="5" t="inlineStr"/>
-      <c r="P536" s="5" t="inlineStr"/>
-      <c r="Q536" s="5" t="inlineStr"/>
-      <c r="R536" s="5" t="inlineStr"/>
-      <c r="S536" s="6" t="n">
+      <c r="I537" s="6" t="inlineStr"/>
+      <c r="J537" s="5" t="inlineStr"/>
+      <c r="K537" s="5" t="inlineStr"/>
+      <c r="L537" s="5" t="inlineStr"/>
+      <c r="M537" s="5" t="inlineStr"/>
+      <c r="N537" s="6" t="inlineStr"/>
+      <c r="O537" s="5" t="inlineStr"/>
+      <c r="P537" s="5" t="inlineStr"/>
+      <c r="Q537" s="5" t="inlineStr"/>
+      <c r="R537" s="5" t="inlineStr"/>
+      <c r="S537" s="6" t="n">
         <v>3.6138</v>
       </c>
-      <c r="T536" s="5" t="n">
+      <c r="T537" s="5" t="n">
         <v>5.899</v>
       </c>
-      <c r="U536" s="5" t="n">
+      <c r="U537" s="5" t="n">
         <v>3.5439</v>
       </c>
-      <c r="V536" s="5" t="n">
+      <c r="V537" s="5" t="n">
         <v>2.1622</v>
       </c>
-      <c r="W536" s="5" t="n">
+      <c r="W537" s="5" t="n">
         <v>2.85</v>
       </c>
-      <c r="X536" s="6" t="inlineStr"/>
-      <c r="Y536" s="5" t="inlineStr"/>
-      <c r="Z536" s="5" t="inlineStr"/>
-      <c r="AA536" s="5" t="inlineStr"/>
-      <c r="AB536" s="5" t="inlineStr"/>
-      <c r="AC536" s="6" t="inlineStr"/>
-      <c r="AD536" s="5" t="inlineStr"/>
-      <c r="AE536" s="5" t="inlineStr"/>
-      <c r="AF536" s="5" t="inlineStr"/>
-      <c r="AG536" s="5" t="inlineStr"/>
-      <c r="AH536" s="6" t="inlineStr"/>
-      <c r="AI536" s="5" t="inlineStr"/>
-      <c r="AJ536" s="5" t="inlineStr"/>
-      <c r="AK536" s="5" t="inlineStr"/>
-      <c r="AL536" s="5" t="inlineStr"/>
-      <c r="AM536" s="7" t="inlineStr"/>
-      <c r="AN536" s="7" t="n">
+      <c r="X537" s="6" t="inlineStr"/>
+      <c r="Y537" s="5" t="inlineStr"/>
+      <c r="Z537" s="5" t="inlineStr"/>
+      <c r="AA537" s="5" t="inlineStr"/>
+      <c r="AB537" s="5" t="inlineStr"/>
+      <c r="AC537" s="6" t="inlineStr"/>
+      <c r="AD537" s="5" t="inlineStr"/>
+      <c r="AE537" s="5" t="inlineStr"/>
+      <c r="AF537" s="5" t="inlineStr"/>
+      <c r="AG537" s="5" t="inlineStr"/>
+      <c r="AH537" s="6" t="inlineStr"/>
+      <c r="AI537" s="5" t="inlineStr"/>
+      <c r="AJ537" s="5" t="inlineStr"/>
+      <c r="AK537" s="5" t="inlineStr"/>
+      <c r="AL537" s="5" t="inlineStr"/>
+      <c r="AM537" s="7" t="inlineStr"/>
+      <c r="AN537" s="7" t="n">
         <v>0.3285</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="8" t="inlineStr">
-        <is>
-          <t>shisa-v2.1c-lfm2-350m-dpo2</t>
-        </is>
-      </c>
-      <c r="B537" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C537" s="10" t="inlineStr"/>
-      <c r="D537" s="10" t="n">
-        <v>3.5913</v>
-      </c>
-      <c r="E537" s="9" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F537" s="9" t="n">
-        <v>3.4167</v>
-      </c>
-      <c r="G537" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H537" s="9" t="n">
-        <v>3.3083</v>
-      </c>
-      <c r="I537" s="10" t="inlineStr"/>
-      <c r="J537" s="9" t="inlineStr"/>
-      <c r="K537" s="9" t="inlineStr"/>
-      <c r="L537" s="9" t="inlineStr"/>
-      <c r="M537" s="9" t="inlineStr"/>
-      <c r="N537" s="10" t="inlineStr"/>
-      <c r="O537" s="9" t="inlineStr"/>
-      <c r="P537" s="9" t="inlineStr"/>
-      <c r="Q537" s="9" t="inlineStr"/>
-      <c r="R537" s="9" t="inlineStr"/>
-      <c r="S537" s="10" t="n">
-        <v>3.5913</v>
-      </c>
-      <c r="T537" s="9" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="U537" s="9" t="n">
-        <v>3.4167</v>
-      </c>
-      <c r="V537" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W537" s="9" t="n">
-        <v>3.3083</v>
-      </c>
-      <c r="X537" s="10" t="inlineStr"/>
-      <c r="Y537" s="9" t="inlineStr"/>
-      <c r="Z537" s="9" t="inlineStr"/>
-      <c r="AA537" s="9" t="inlineStr"/>
-      <c r="AB537" s="9" t="inlineStr"/>
-      <c r="AC537" s="10" t="inlineStr"/>
-      <c r="AD537" s="9" t="inlineStr"/>
-      <c r="AE537" s="9" t="inlineStr"/>
-      <c r="AF537" s="9" t="inlineStr"/>
-      <c r="AG537" s="9" t="inlineStr"/>
-      <c r="AH537" s="10" t="inlineStr"/>
-      <c r="AI537" s="9" t="inlineStr"/>
-      <c r="AJ537" s="9" t="inlineStr"/>
-      <c r="AK537" s="9" t="inlineStr"/>
-      <c r="AL537" s="9" t="inlineStr"/>
-      <c r="AM537" s="11" t="inlineStr"/>
-      <c r="AN537" s="11" t="n">
-        <v>0.8599</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="8" t="inlineStr">
         <is>
-          <t>shisa-v2.1c-lfm2-350m-sft</t>
+          <t>shisa-v2.1c-lfm2-350m-dpo2</t>
         </is>
       </c>
       <c r="B538" s="9" t="n">
@@ -48840,19 +48842,19 @@
       </c>
       <c r="C538" s="10" t="inlineStr"/>
       <c r="D538" s="10" t="n">
-        <v>3.4325</v>
+        <v>3.5913</v>
       </c>
       <c r="E538" s="9" t="n">
-        <v>3.38</v>
+        <v>3.64</v>
       </c>
       <c r="F538" s="9" t="n">
         <v>3.4167</v>
       </c>
       <c r="G538" s="9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="H538" s="9" t="n">
-        <v>3.0833</v>
+        <v>3.3083</v>
       </c>
       <c r="I538" s="10" t="inlineStr"/>
       <c r="J538" s="9" t="inlineStr"/>
@@ -48865,19 +48867,19 @@
       <c r="Q538" s="9" t="inlineStr"/>
       <c r="R538" s="9" t="inlineStr"/>
       <c r="S538" s="10" t="n">
-        <v>3.4325</v>
+        <v>3.5913</v>
       </c>
       <c r="T538" s="9" t="n">
-        <v>3.38</v>
+        <v>3.64</v>
       </c>
       <c r="U538" s="9" t="n">
         <v>3.4167</v>
       </c>
       <c r="V538" s="9" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="W538" s="9" t="n">
-        <v>3.0833</v>
+        <v>3.3083</v>
       </c>
       <c r="X538" s="10" t="inlineStr"/>
       <c r="Y538" s="9" t="inlineStr"/>
@@ -48896,115 +48898,105 @@
       <c r="AL538" s="9" t="inlineStr"/>
       <c r="AM538" s="11" t="inlineStr"/>
       <c r="AN538" s="11" t="n">
+        <v>0.8599</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="8" t="inlineStr">
+        <is>
+          <t>shisa-v2.1c-lfm2-350m-sft</t>
+        </is>
+      </c>
+      <c r="B539" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C539" s="10" t="inlineStr"/>
+      <c r="D539" s="10" t="n">
+        <v>3.4325</v>
+      </c>
+      <c r="E539" s="9" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F539" s="9" t="n">
+        <v>3.4167</v>
+      </c>
+      <c r="G539" s="9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H539" s="9" t="n">
+        <v>3.0833</v>
+      </c>
+      <c r="I539" s="10" t="inlineStr"/>
+      <c r="J539" s="9" t="inlineStr"/>
+      <c r="K539" s="9" t="inlineStr"/>
+      <c r="L539" s="9" t="inlineStr"/>
+      <c r="M539" s="9" t="inlineStr"/>
+      <c r="N539" s="10" t="inlineStr"/>
+      <c r="O539" s="9" t="inlineStr"/>
+      <c r="P539" s="9" t="inlineStr"/>
+      <c r="Q539" s="9" t="inlineStr"/>
+      <c r="R539" s="9" t="inlineStr"/>
+      <c r="S539" s="10" t="n">
+        <v>3.4325</v>
+      </c>
+      <c r="T539" s="9" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U539" s="9" t="n">
+        <v>3.4167</v>
+      </c>
+      <c r="V539" s="9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W539" s="9" t="n">
+        <v>3.0833</v>
+      </c>
+      <c r="X539" s="10" t="inlineStr"/>
+      <c r="Y539" s="9" t="inlineStr"/>
+      <c r="Z539" s="9" t="inlineStr"/>
+      <c r="AA539" s="9" t="inlineStr"/>
+      <c r="AB539" s="9" t="inlineStr"/>
+      <c r="AC539" s="10" t="inlineStr"/>
+      <c r="AD539" s="9" t="inlineStr"/>
+      <c r="AE539" s="9" t="inlineStr"/>
+      <c r="AF539" s="9" t="inlineStr"/>
+      <c r="AG539" s="9" t="inlineStr"/>
+      <c r="AH539" s="10" t="inlineStr"/>
+      <c r="AI539" s="9" t="inlineStr"/>
+      <c r="AJ539" s="9" t="inlineStr"/>
+      <c r="AK539" s="9" t="inlineStr"/>
+      <c r="AL539" s="9" t="inlineStr"/>
+      <c r="AM539" s="11" t="inlineStr"/>
+      <c r="AN539" s="11" t="n">
         <v>0.8688</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="4" t="inlineStr">
-        <is>
-          <t>meta-llama/Llama-3.2-1B-Instruct</t>
-        </is>
-      </c>
-      <c r="B539" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C539" s="6" t="n">
-        <v>2.5089</v>
-      </c>
-      <c r="D539" s="6" t="n">
-        <v>2.6715</v>
-      </c>
-      <c r="E539" s="5" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="F539" s="5" t="n">
-        <v>2.475</v>
-      </c>
-      <c r="G539" s="5" t="n">
-        <v>2.175</v>
-      </c>
-      <c r="H539" s="5" t="n">
-        <v>2.3958</v>
-      </c>
-      <c r="I539" s="6" t="inlineStr"/>
-      <c r="J539" s="5" t="inlineStr"/>
-      <c r="K539" s="5" t="inlineStr"/>
-      <c r="L539" s="5" t="inlineStr"/>
-      <c r="M539" s="5" t="inlineStr"/>
-      <c r="N539" s="6" t="inlineStr"/>
-      <c r="O539" s="5" t="inlineStr"/>
-      <c r="P539" s="5" t="inlineStr"/>
-      <c r="Q539" s="5" t="inlineStr"/>
-      <c r="R539" s="5" t="inlineStr"/>
-      <c r="S539" s="6" t="n">
-        <v>2.9967</v>
-      </c>
-      <c r="T539" s="5" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="U539" s="5" t="n">
-        <v>2.9167</v>
-      </c>
-      <c r="V539" s="5" t="n">
-        <v>2.425</v>
-      </c>
-      <c r="W539" s="5" t="n">
-        <v>2.725</v>
-      </c>
-      <c r="X539" s="6" t="n">
-        <v>2.3462</v>
-      </c>
-      <c r="Y539" s="5" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Z539" s="5" t="n">
-        <v>2.0333</v>
-      </c>
-      <c r="AA539" s="5" t="n">
-        <v>1.925</v>
-      </c>
-      <c r="AB539" s="5" t="n">
-        <v>2.0667</v>
-      </c>
-      <c r="AC539" s="6" t="inlineStr"/>
-      <c r="AD539" s="5" t="inlineStr"/>
-      <c r="AE539" s="5" t="inlineStr"/>
-      <c r="AF539" s="5" t="inlineStr"/>
-      <c r="AG539" s="5" t="inlineStr"/>
-      <c r="AH539" s="6" t="inlineStr"/>
-      <c r="AI539" s="5" t="inlineStr"/>
-      <c r="AJ539" s="5" t="inlineStr"/>
-      <c r="AK539" s="5" t="inlineStr"/>
-      <c r="AL539" s="5" t="inlineStr"/>
-      <c r="AM539" s="7" t="inlineStr"/>
-      <c r="AN539" s="7" t="n">
-        <v>0.8572</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="4" t="inlineStr">
         <is>
-          <t>114-granite4-350m-v2.1-sft</t>
+          <t>meta-llama/Llama-3.2-1B-Instruct</t>
         </is>
       </c>
       <c r="B540" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C540" s="6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C540" s="6" t="n">
+        <v>2.5089</v>
+      </c>
       <c r="D540" s="6" t="n">
-        <v>2.6208</v>
+        <v>2.6715</v>
       </c>
       <c r="E540" s="5" t="n">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="F540" s="5" t="n">
-        <v>2.7167</v>
+        <v>2.475</v>
       </c>
       <c r="G540" s="5" t="n">
-        <v>2</v>
+        <v>2.175</v>
       </c>
       <c r="H540" s="5" t="n">
-        <v>2.3667</v>
+        <v>2.3958</v>
       </c>
       <c r="I540" s="6" t="inlineStr"/>
       <c r="J540" s="5" t="inlineStr"/>
@@ -49017,25 +49009,35 @@
       <c r="Q540" s="5" t="inlineStr"/>
       <c r="R540" s="5" t="inlineStr"/>
       <c r="S540" s="6" t="n">
-        <v>2.6208</v>
+        <v>2.9967</v>
       </c>
       <c r="T540" s="5" t="n">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
       <c r="U540" s="5" t="n">
-        <v>2.7167</v>
+        <v>2.9167</v>
       </c>
       <c r="V540" s="5" t="n">
-        <v>2</v>
+        <v>2.425</v>
       </c>
       <c r="W540" s="5" t="n">
-        <v>2.3667</v>
-      </c>
-      <c r="X540" s="6" t="inlineStr"/>
-      <c r="Y540" s="5" t="inlineStr"/>
-      <c r="Z540" s="5" t="inlineStr"/>
-      <c r="AA540" s="5" t="inlineStr"/>
-      <c r="AB540" s="5" t="inlineStr"/>
+        <v>2.725</v>
+      </c>
+      <c r="X540" s="6" t="n">
+        <v>2.3462</v>
+      </c>
+      <c r="Y540" s="5" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Z540" s="5" t="n">
+        <v>2.0333</v>
+      </c>
+      <c r="AA540" s="5" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="AB540" s="5" t="n">
+        <v>2.0667</v>
+      </c>
       <c r="AC540" s="6" t="inlineStr"/>
       <c r="AD540" s="5" t="inlineStr"/>
       <c r="AE540" s="5" t="inlineStr"/>
@@ -49048,13 +49050,13 @@
       <c r="AL540" s="5" t="inlineStr"/>
       <c r="AM540" s="7" t="inlineStr"/>
       <c r="AN540" s="7" t="n">
-        <v>0.8375</v>
+        <v>0.8572</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="4" t="inlineStr">
         <is>
-          <t>google/gemma-3-270m-it</t>
+          <t>114-granite4-350m-v2.1-sft</t>
         </is>
       </c>
       <c r="B541" s="5" t="n">
@@ -49062,19 +49064,19 @@
       </c>
       <c r="C541" s="6" t="inlineStr"/>
       <c r="D541" s="6" t="n">
-        <v>2.5321</v>
+        <v>2.6208</v>
       </c>
       <c r="E541" s="5" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="F541" s="5" t="n">
-        <v>2.3333</v>
+        <v>2.7167</v>
       </c>
       <c r="G541" s="5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H541" s="5" t="n">
-        <v>2.275</v>
+        <v>2.3667</v>
       </c>
       <c r="I541" s="6" t="inlineStr"/>
       <c r="J541" s="5" t="inlineStr"/>
@@ -49087,19 +49089,19 @@
       <c r="Q541" s="5" t="inlineStr"/>
       <c r="R541" s="5" t="inlineStr"/>
       <c r="S541" s="6" t="n">
-        <v>2.5321</v>
+        <v>2.6208</v>
       </c>
       <c r="T541" s="5" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U541" s="5" t="n">
-        <v>2.3333</v>
+        <v>2.7167</v>
       </c>
       <c r="V541" s="5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W541" s="5" t="n">
-        <v>2.275</v>
+        <v>2.3667</v>
       </c>
       <c r="X541" s="6" t="inlineStr"/>
       <c r="Y541" s="5" t="inlineStr"/>
@@ -49118,35 +49120,33 @@
       <c r="AL541" s="5" t="inlineStr"/>
       <c r="AM541" s="7" t="inlineStr"/>
       <c r="AN541" s="7" t="n">
-        <v>0.8802</v>
+        <v>0.8375</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="4" t="inlineStr">
         <is>
-          <t>mistralai/Mistral-7B-Instruct-v0.1</t>
+          <t>google/gemma-3-270m-it</t>
         </is>
       </c>
       <c r="B542" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C542" s="6" t="n">
-        <v>2.3755</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C542" s="6" t="inlineStr"/>
       <c r="D542" s="6" t="n">
-        <v>2.4823</v>
+        <v>2.5321</v>
       </c>
       <c r="E542" s="5" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="F542" s="5" t="n">
-        <v>2.5</v>
+        <v>2.3333</v>
       </c>
       <c r="G542" s="5" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="H542" s="5" t="n">
-        <v>2.2792</v>
+        <v>2.275</v>
       </c>
       <c r="I542" s="6" t="inlineStr"/>
       <c r="J542" s="5" t="inlineStr"/>
@@ -49159,35 +49159,25 @@
       <c r="Q542" s="5" t="inlineStr"/>
       <c r="R542" s="5" t="inlineStr"/>
       <c r="S542" s="6" t="n">
-        <v>2.6958</v>
+        <v>2.5321</v>
       </c>
       <c r="T542" s="5" t="n">
-        <v>3.7</v>
+        <v>3.42</v>
       </c>
       <c r="U542" s="5" t="n">
-        <v>2.8333</v>
+        <v>2.3333</v>
       </c>
       <c r="V542" s="5" t="n">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="W542" s="5" t="n">
-        <v>2.525</v>
-      </c>
-      <c r="X542" s="6" t="n">
-        <v>2.2687</v>
-      </c>
-      <c r="Y542" s="5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Z542" s="5" t="n">
-        <v>2.1667</v>
-      </c>
-      <c r="AA542" s="5" t="n">
-        <v>1.575</v>
-      </c>
-      <c r="AB542" s="5" t="n">
-        <v>2.0333</v>
-      </c>
+        <v>2.275</v>
+      </c>
+      <c r="X542" s="6" t="inlineStr"/>
+      <c r="Y542" s="5" t="inlineStr"/>
+      <c r="Z542" s="5" t="inlineStr"/>
+      <c r="AA542" s="5" t="inlineStr"/>
+      <c r="AB542" s="5" t="inlineStr"/>
       <c r="AC542" s="6" t="inlineStr"/>
       <c r="AD542" s="5" t="inlineStr"/>
       <c r="AE542" s="5" t="inlineStr"/>
@@ -49200,33 +49190,35 @@
       <c r="AL542" s="5" t="inlineStr"/>
       <c r="AM542" s="7" t="inlineStr"/>
       <c r="AN542" s="7" t="n">
-        <v>0.8614000000000001</v>
+        <v>0.8802</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="4" t="inlineStr">
         <is>
-          <t>LiquidAI/LFM2-350M-ENJP-MT</t>
+          <t>mistralai/Mistral-7B-Instruct-v0.1</t>
         </is>
       </c>
       <c r="B543" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C543" s="6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C543" s="6" t="n">
+        <v>2.3755</v>
+      </c>
       <c r="D543" s="6" t="n">
-        <v>1.6908</v>
+        <v>2.4823</v>
       </c>
       <c r="E543" s="5" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="F543" s="5" t="n">
-        <v>1.3667</v>
+        <v>2.5</v>
       </c>
       <c r="G543" s="5" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="H543" s="5" t="n">
-        <v>1.4167</v>
+        <v>2.2792</v>
       </c>
       <c r="I543" s="6" t="inlineStr"/>
       <c r="J543" s="5" t="inlineStr"/>
@@ -49239,25 +49231,35 @@
       <c r="Q543" s="5" t="inlineStr"/>
       <c r="R543" s="5" t="inlineStr"/>
       <c r="S543" s="6" t="n">
-        <v>1.6908</v>
+        <v>2.6958</v>
       </c>
       <c r="T543" s="5" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="U543" s="5" t="n">
-        <v>1.3667</v>
+        <v>2.8333</v>
       </c>
       <c r="V543" s="5" t="n">
-        <v>1</v>
+        <v>1.725</v>
       </c>
       <c r="W543" s="5" t="n">
-        <v>1.4167</v>
-      </c>
-      <c r="X543" s="6" t="inlineStr"/>
-      <c r="Y543" s="5" t="inlineStr"/>
-      <c r="Z543" s="5" t="inlineStr"/>
-      <c r="AA543" s="5" t="inlineStr"/>
-      <c r="AB543" s="5" t="inlineStr"/>
+        <v>2.525</v>
+      </c>
+      <c r="X543" s="6" t="n">
+        <v>2.2687</v>
+      </c>
+      <c r="Y543" s="5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z543" s="5" t="n">
+        <v>2.1667</v>
+      </c>
+      <c r="AA543" s="5" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="AB543" s="5" t="n">
+        <v>2.0333</v>
+      </c>
       <c r="AC543" s="6" t="inlineStr"/>
       <c r="AD543" s="5" t="inlineStr"/>
       <c r="AE543" s="5" t="inlineStr"/>
@@ -49270,187 +49272,187 @@
       <c r="AL543" s="5" t="inlineStr"/>
       <c r="AM543" s="7" t="inlineStr"/>
       <c r="AN543" s="7" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.8614000000000001</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="4" t="inlineStr">
         <is>
-          <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
+          <t>LiquidAI/LFM2-350M-ENJP-MT</t>
         </is>
       </c>
       <c r="B544" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C544" s="6" t="n">
-        <v>1.4372</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C544" s="6" t="inlineStr"/>
       <c r="D544" s="6" t="n">
-        <v>1.3659</v>
+        <v>1.6908</v>
       </c>
       <c r="E544" s="5" t="n">
-        <v>2.035</v>
+        <v>2.98</v>
       </c>
       <c r="F544" s="5" t="n">
-        <v>1</v>
+        <v>1.3667</v>
       </c>
       <c r="G544" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H544" s="5" t="n">
-        <v>1.4286</v>
-      </c>
-      <c r="I544" s="6" t="n">
-        <v>1.0958</v>
-      </c>
-      <c r="J544" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K544" s="5" t="n">
+        <v>1.4167</v>
+      </c>
+      <c r="I544" s="6" t="inlineStr"/>
+      <c r="J544" s="5" t="inlineStr"/>
+      <c r="K544" s="5" t="inlineStr"/>
+      <c r="L544" s="5" t="inlineStr"/>
+      <c r="M544" s="5" t="inlineStr"/>
+      <c r="N544" s="6" t="inlineStr"/>
+      <c r="O544" s="5" t="inlineStr"/>
+      <c r="P544" s="5" t="inlineStr"/>
+      <c r="Q544" s="5" t="inlineStr"/>
+      <c r="R544" s="5" t="inlineStr"/>
+      <c r="S544" s="6" t="n">
+        <v>1.6908</v>
+      </c>
+      <c r="T544" s="5" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U544" s="5" t="n">
+        <v>1.3667</v>
+      </c>
+      <c r="V544" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" s="5" t="n">
-        <v>0.3833</v>
-      </c>
-      <c r="N544" s="6" t="n">
-        <v>1.0319</v>
-      </c>
-      <c r="O544" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R544" s="5" t="n">
-        <v>0.1275</v>
-      </c>
-      <c r="S544" s="6" t="inlineStr"/>
-      <c r="T544" s="5" t="inlineStr"/>
-      <c r="U544" s="5" t="inlineStr"/>
-      <c r="V544" s="5" t="inlineStr"/>
-      <c r="W544" s="5" t="inlineStr"/>
+      <c r="W544" s="5" t="n">
+        <v>1.4167</v>
+      </c>
       <c r="X544" s="6" t="inlineStr"/>
       <c r="Y544" s="5" t="inlineStr"/>
       <c r="Z544" s="5" t="inlineStr"/>
       <c r="AA544" s="5" t="inlineStr"/>
       <c r="AB544" s="5" t="inlineStr"/>
-      <c r="AC544" s="6" t="n">
-        <v>1.7583</v>
-      </c>
-      <c r="AD544" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG544" s="5" t="n">
-        <v>3.0333</v>
-      </c>
-      <c r="AH544" s="6" t="n">
-        <v>1.5288</v>
-      </c>
-      <c r="AI544" s="5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AJ544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK544" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL544" s="5" t="n">
-        <v>1.975</v>
-      </c>
-      <c r="AM544" s="7" t="n">
-        <v>0.3928</v>
-      </c>
+      <c r="AC544" s="6" t="inlineStr"/>
+      <c r="AD544" s="5" t="inlineStr"/>
+      <c r="AE544" s="5" t="inlineStr"/>
+      <c r="AF544" s="5" t="inlineStr"/>
+      <c r="AG544" s="5" t="inlineStr"/>
+      <c r="AH544" s="6" t="inlineStr"/>
+      <c r="AI544" s="5" t="inlineStr"/>
+      <c r="AJ544" s="5" t="inlineStr"/>
+      <c r="AK544" s="5" t="inlineStr"/>
+      <c r="AL544" s="5" t="inlineStr"/>
+      <c r="AM544" s="7" t="inlineStr"/>
       <c r="AN544" s="7" t="n">
-        <v>0.4017</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="4" t="inlineStr">
         <is>
-          <t>sbintuitions/sarashina2.2-3b</t>
+          <t>weblab-GENIAC/Tanuki-8x8B-dpo-v1.0</t>
         </is>
       </c>
       <c r="B545" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C545" s="6" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D545" s="6" t="n">
+        <v>1.3659</v>
+      </c>
+      <c r="E545" s="5" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="F545" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C545" s="6" t="inlineStr"/>
-      <c r="D545" s="6" t="n">
-        <v>1.3437</v>
-      </c>
-      <c r="E545" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F545" s="5" t="n">
-        <v>1.0833</v>
-      </c>
       <c r="G545" s="5" t="n">
-        <v>1.625</v>
+        <v>1</v>
       </c>
       <c r="H545" s="5" t="n">
-        <v>0.3667</v>
-      </c>
-      <c r="I545" s="6" t="inlineStr"/>
-      <c r="J545" s="5" t="inlineStr"/>
-      <c r="K545" s="5" t="inlineStr"/>
-      <c r="L545" s="5" t="inlineStr"/>
-      <c r="M545" s="5" t="inlineStr"/>
-      <c r="N545" s="6" t="inlineStr"/>
-      <c r="O545" s="5" t="inlineStr"/>
-      <c r="P545" s="5" t="inlineStr"/>
-      <c r="Q545" s="5" t="inlineStr"/>
-      <c r="R545" s="5" t="inlineStr"/>
-      <c r="S545" s="6" t="n">
-        <v>1.3437</v>
-      </c>
-      <c r="T545" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U545" s="5" t="n">
-        <v>1.0833</v>
-      </c>
-      <c r="V545" s="5" t="n">
-        <v>1.625</v>
-      </c>
-      <c r="W545" s="5" t="n">
-        <v>0.3667</v>
-      </c>
+        <v>1.4286</v>
+      </c>
+      <c r="I545" s="6" t="n">
+        <v>1.0958</v>
+      </c>
+      <c r="J545" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" s="5" t="n">
+        <v>0.3833</v>
+      </c>
+      <c r="N545" s="6" t="n">
+        <v>1.0319</v>
+      </c>
+      <c r="O545" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R545" s="5" t="n">
+        <v>0.1275</v>
+      </c>
+      <c r="S545" s="6" t="inlineStr"/>
+      <c r="T545" s="5" t="inlineStr"/>
+      <c r="U545" s="5" t="inlineStr"/>
+      <c r="V545" s="5" t="inlineStr"/>
+      <c r="W545" s="5" t="inlineStr"/>
       <c r="X545" s="6" t="inlineStr"/>
       <c r="Y545" s="5" t="inlineStr"/>
       <c r="Z545" s="5" t="inlineStr"/>
       <c r="AA545" s="5" t="inlineStr"/>
       <c r="AB545" s="5" t="inlineStr"/>
-      <c r="AC545" s="6" t="inlineStr"/>
-      <c r="AD545" s="5" t="inlineStr"/>
-      <c r="AE545" s="5" t="inlineStr"/>
-      <c r="AF545" s="5" t="inlineStr"/>
-      <c r="AG545" s="5" t="inlineStr"/>
-      <c r="AH545" s="6" t="inlineStr"/>
-      <c r="AI545" s="5" t="inlineStr"/>
-      <c r="AJ545" s="5" t="inlineStr"/>
-      <c r="AK545" s="5" t="inlineStr"/>
-      <c r="AL545" s="5" t="inlineStr"/>
-      <c r="AM545" s="7" t="inlineStr"/>
+      <c r="AC545" s="6" t="n">
+        <v>1.7583</v>
+      </c>
+      <c r="AD545" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG545" s="5" t="n">
+        <v>3.0333</v>
+      </c>
+      <c r="AH545" s="6" t="n">
+        <v>1.5288</v>
+      </c>
+      <c r="AI545" s="5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK545" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL545" s="5" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="AM545" s="7" t="n">
+        <v>0.3928</v>
+      </c>
       <c r="AN545" s="7" t="n">
-        <v>0.192</v>
+        <v>0.4017</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="4" t="inlineStr">
         <is>
-          <t>tiiuae/Falcon-H1-0.5B-Instruct</t>
+          <t>sbintuitions/sarashina2.2-3b</t>
         </is>
       </c>
       <c r="B546" s="5" t="n">
@@ -49458,19 +49460,19 @@
       </c>
       <c r="C546" s="6" t="inlineStr"/>
       <c r="D546" s="6" t="n">
-        <v>1.2987</v>
+        <v>1.3437</v>
       </c>
       <c r="E546" s="5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="F546" s="5" t="n">
-        <v>1.4667</v>
+        <v>1.0833</v>
       </c>
       <c r="G546" s="5" t="n">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="H546" s="5" t="n">
-        <v>0.4083</v>
+        <v>0.3667</v>
       </c>
       <c r="I546" s="6" t="inlineStr"/>
       <c r="J546" s="5" t="inlineStr"/>
@@ -49483,19 +49485,19 @@
       <c r="Q546" s="5" t="inlineStr"/>
       <c r="R546" s="5" t="inlineStr"/>
       <c r="S546" s="6" t="n">
-        <v>1.2987</v>
+        <v>1.3437</v>
       </c>
       <c r="T546" s="5" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U546" s="5" t="n">
-        <v>1.4667</v>
+        <v>1.0833</v>
       </c>
       <c r="V546" s="5" t="n">
-        <v>1</v>
+        <v>1.625</v>
       </c>
       <c r="W546" s="5" t="n">
-        <v>0.4083</v>
+        <v>0.3667</v>
       </c>
       <c r="X546" s="6" t="inlineStr"/>
       <c r="Y546" s="5" t="inlineStr"/>
@@ -49514,196 +49516,266 @@
       <c r="AL546" s="5" t="inlineStr"/>
       <c r="AM546" s="7" t="inlineStr"/>
       <c r="AN546" s="7" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="4" t="inlineStr">
+        <is>
+          <t>tiiuae/Falcon-H1-0.5B-Instruct</t>
+        </is>
+      </c>
+      <c r="B547" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" s="6" t="inlineStr"/>
+      <c r="D547" s="6" t="n">
+        <v>1.2987</v>
+      </c>
+      <c r="E547" s="5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F547" s="5" t="n">
+        <v>1.4667</v>
+      </c>
+      <c r="G547" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H547" s="5" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="I547" s="6" t="inlineStr"/>
+      <c r="J547" s="5" t="inlineStr"/>
+      <c r="K547" s="5" t="inlineStr"/>
+      <c r="L547" s="5" t="inlineStr"/>
+      <c r="M547" s="5" t="inlineStr"/>
+      <c r="N547" s="6" t="inlineStr"/>
+      <c r="O547" s="5" t="inlineStr"/>
+      <c r="P547" s="5" t="inlineStr"/>
+      <c r="Q547" s="5" t="inlineStr"/>
+      <c r="R547" s="5" t="inlineStr"/>
+      <c r="S547" s="6" t="n">
+        <v>1.2987</v>
+      </c>
+      <c r="T547" s="5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U547" s="5" t="n">
+        <v>1.4667</v>
+      </c>
+      <c r="V547" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W547" s="5" t="n">
+        <v>0.4083</v>
+      </c>
+      <c r="X547" s="6" t="inlineStr"/>
+      <c r="Y547" s="5" t="inlineStr"/>
+      <c r="Z547" s="5" t="inlineStr"/>
+      <c r="AA547" s="5" t="inlineStr"/>
+      <c r="AB547" s="5" t="inlineStr"/>
+      <c r="AC547" s="6" t="inlineStr"/>
+      <c r="AD547" s="5" t="inlineStr"/>
+      <c r="AE547" s="5" t="inlineStr"/>
+      <c r="AF547" s="5" t="inlineStr"/>
+      <c r="AG547" s="5" t="inlineStr"/>
+      <c r="AH547" s="6" t="inlineStr"/>
+      <c r="AI547" s="5" t="inlineStr"/>
+      <c r="AJ547" s="5" t="inlineStr"/>
+      <c r="AK547" s="5" t="inlineStr"/>
+      <c r="AL547" s="5" t="inlineStr"/>
+      <c r="AM547" s="7" t="inlineStr"/>
+      <c r="AN547" s="7" t="n">
         <v>0.6682</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C546">
+  <conditionalFormatting sqref="C2:C547">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($C$2:$C$546)</formula>
+      <formula>MAX($C$2:$C$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D546">
+  <conditionalFormatting sqref="D2:D547">
     <cfRule type="cellIs" priority="2" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($D$2:$D$546)</formula>
+      <formula>MAX($D$2:$D$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E546">
+  <conditionalFormatting sqref="E2:E547">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($E$2:$E$546)</formula>
+      <formula>MAX($E$2:$E$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F546">
+  <conditionalFormatting sqref="F2:F547">
     <cfRule type="cellIs" priority="4" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($F$2:$F$546)</formula>
+      <formula>MAX($F$2:$F$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G546">
+  <conditionalFormatting sqref="G2:G547">
     <cfRule type="cellIs" priority="5" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($G$2:$G$546)</formula>
+      <formula>MAX($G$2:$G$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H546">
+  <conditionalFormatting sqref="H2:H547">
     <cfRule type="cellIs" priority="6" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($H$2:$H$546)</formula>
+      <formula>MAX($H$2:$H$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I546">
+  <conditionalFormatting sqref="I2:I547">
     <cfRule type="cellIs" priority="7" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($I$2:$I$546)</formula>
+      <formula>MAX($I$2:$I$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J546">
+  <conditionalFormatting sqref="J2:J547">
     <cfRule type="cellIs" priority="8" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($J$2:$J$546)</formula>
+      <formula>MAX($J$2:$J$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K546">
+  <conditionalFormatting sqref="K2:K547">
     <cfRule type="cellIs" priority="9" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($K$2:$K$546)</formula>
+      <formula>MAX($K$2:$K$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L546">
+  <conditionalFormatting sqref="L2:L547">
     <cfRule type="cellIs" priority="10" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($L$2:$L$546)</formula>
+      <formula>MAX($L$2:$L$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M546">
+  <conditionalFormatting sqref="M2:M547">
     <cfRule type="cellIs" priority="11" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($M$2:$M$546)</formula>
+      <formula>MAX($M$2:$M$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N546">
+  <conditionalFormatting sqref="N2:N547">
     <cfRule type="cellIs" priority="12" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($N$2:$N$546)</formula>
+      <formula>MAX($N$2:$N$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O546">
+  <conditionalFormatting sqref="O2:O547">
     <cfRule type="cellIs" priority="13" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($O$2:$O$546)</formula>
+      <formula>MAX($O$2:$O$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P546">
+  <conditionalFormatting sqref="P2:P547">
     <cfRule type="cellIs" priority="14" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($P$2:$P$546)</formula>
+      <formula>MAX($P$2:$P$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q546">
+  <conditionalFormatting sqref="Q2:Q547">
     <cfRule type="cellIs" priority="15" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Q$2:$Q$546)</formula>
+      <formula>MAX($Q$2:$Q$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R546">
+  <conditionalFormatting sqref="R2:R547">
     <cfRule type="cellIs" priority="16" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($R$2:$R$546)</formula>
+      <formula>MAX($R$2:$R$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S546">
+  <conditionalFormatting sqref="S2:S547">
     <cfRule type="cellIs" priority="17" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($S$2:$S$546)</formula>
+      <formula>MAX($S$2:$S$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T546">
+  <conditionalFormatting sqref="T2:T547">
     <cfRule type="cellIs" priority="18" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($T$2:$T$546)</formula>
+      <formula>MAX($T$2:$T$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U546">
+  <conditionalFormatting sqref="U2:U547">
     <cfRule type="cellIs" priority="19" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($U$2:$U$546)</formula>
+      <formula>MAX($U$2:$U$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V546">
+  <conditionalFormatting sqref="V2:V547">
     <cfRule type="cellIs" priority="20" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($V$2:$V$546)</formula>
+      <formula>MAX($V$2:$V$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W546">
+  <conditionalFormatting sqref="W2:W547">
     <cfRule type="cellIs" priority="21" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($W$2:$W$546)</formula>
+      <formula>MAX($W$2:$W$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:X546">
+  <conditionalFormatting sqref="X2:X547">
     <cfRule type="cellIs" priority="22" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($X$2:$X$546)</formula>
+      <formula>MAX($X$2:$X$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:Y546">
+  <conditionalFormatting sqref="Y2:Y547">
     <cfRule type="cellIs" priority="23" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Y$2:$Y$546)</formula>
+      <formula>MAX($Y$2:$Y$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2:Z546">
+  <conditionalFormatting sqref="Z2:Z547">
     <cfRule type="cellIs" priority="24" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($Z$2:$Z$546)</formula>
+      <formula>MAX($Z$2:$Z$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2:AA546">
+  <conditionalFormatting sqref="AA2:AA547">
     <cfRule type="cellIs" priority="25" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AA$2:$AA$546)</formula>
+      <formula>MAX($AA$2:$AA$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AB546">
+  <conditionalFormatting sqref="AB2:AB547">
     <cfRule type="cellIs" priority="26" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AB$2:$AB$546)</formula>
+      <formula>MAX($AB$2:$AB$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC546">
+  <conditionalFormatting sqref="AC2:AC547">
     <cfRule type="cellIs" priority="27" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AC$2:$AC$546)</formula>
+      <formula>MAX($AC$2:$AC$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD546">
+  <conditionalFormatting sqref="AD2:AD547">
     <cfRule type="cellIs" priority="28" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AD$2:$AD$546)</formula>
+      <formula>MAX($AD$2:$AD$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE546">
+  <conditionalFormatting sqref="AE2:AE547">
     <cfRule type="cellIs" priority="29" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AE$2:$AE$546)</formula>
+      <formula>MAX($AE$2:$AE$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2:AF546">
+  <conditionalFormatting sqref="AF2:AF547">
     <cfRule type="cellIs" priority="30" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AF$2:$AF$546)</formula>
+      <formula>MAX($AF$2:$AF$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG546">
+  <conditionalFormatting sqref="AG2:AG547">
     <cfRule type="cellIs" priority="31" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AG$2:$AG$546)</formula>
+      <formula>MAX($AG$2:$AG$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH2:AH546">
+  <conditionalFormatting sqref="AH2:AH547">
     <cfRule type="cellIs" priority="32" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AH$2:$AH$546)</formula>
+      <formula>MAX($AH$2:$AH$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI546">
+  <conditionalFormatting sqref="AI2:AI547">
     <cfRule type="cellIs" priority="33" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AI$2:$AI$546)</formula>
+      <formula>MAX($AI$2:$AI$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ546">
+  <conditionalFormatting sqref="AJ2:AJ547">
     <cfRule type="cellIs" priority="34" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AJ$2:$AJ$546)</formula>
+      <formula>MAX($AJ$2:$AJ$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK546">
+  <conditionalFormatting sqref="AK2:AK547">
     <cfRule type="cellIs" priority="35" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AK$2:$AK$546)</formula>
+      <formula>MAX($AK$2:$AK$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL546">
+  <conditionalFormatting sqref="AL2:AL547">
     <cfRule type="cellIs" priority="36" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AL$2:$AL$546)</formula>
+      <formula>MAX($AL$2:$AL$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM546">
+  <conditionalFormatting sqref="AM2:AM547">
     <cfRule type="cellIs" priority="37" operator="equal" dxfId="0" stopIfTrue="1">
-      <formula>MAX($AM$2:$AM$546)</formula>
+      <formula>MAX($AM$2:$AM$547)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN2:AN546">
+  <conditionalFormatting sqref="AN2:AN547">
     <cfRule type="cellIs" priority="38" operator="lessThan" dxfId="1" stopIfTrue="1">
       <formula>0.5</formula>
     </cfRule>
